--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0536994934082</t>
+    <t xml:space="preserve">6.05369997024536</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696407318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065582275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97739267349243</t>
+    <t xml:space="preserve">6.14696359634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065677642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97739219665527</t>
   </si>
   <si>
     <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17239999771118</t>
+    <t xml:space="preserve">6.17239952087402</t>
   </si>
   <si>
     <t xml:space="preserve">6.35892820358276</t>
@@ -86,10 +86,10 @@
     <t xml:space="preserve">6.3504490852356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055269241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16816091537476</t>
+    <t xml:space="preserve">6.21055316925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
     <t xml:space="preserve">6.12152814865112</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445308685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85021352767944</t>
+    <t xml:space="preserve">5.85445356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
     <t xml:space="preserve">5.65096712112427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68064212799072</t>
+    <t xml:space="preserve">5.68064260482788</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5958571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91804218292236</t>
+    <t xml:space="preserve">5.59585666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91804265975952</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499994277954</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01978492736816</t>
+    <t xml:space="preserve">5.89260578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01978540420532</t>
   </si>
   <si>
     <t xml:space="preserve">6.01554584503174</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">6.0028281211853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12576723098755</t>
+    <t xml:space="preserve">6.12576770782471</t>
   </si>
   <si>
     <t xml:space="preserve">5.85869216918945</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90108633041382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228174209595</t>
+    <t xml:space="preserve">5.9010853767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228221893311</t>
   </si>
   <si>
     <t xml:space="preserve">5.82477807998657</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674221038818</t>
+    <t xml:space="preserve">5.79086351394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674173355103</t>
   </si>
   <si>
     <t xml:space="preserve">6.24446725845337</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">6.11304998397827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00706815719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88836717605591</t>
+    <t xml:space="preserve">6.00706768035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88836765289307</t>
   </si>
   <si>
     <t xml:space="preserve">5.98587083816528</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">6.20631408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08337497711182</t>
+    <t xml:space="preserve">6.08337450027466</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173536300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390670776367</t>
+    <t xml:space="preserve">5.95619678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390623092651</t>
   </si>
   <si>
     <t xml:space="preserve">5.76118898391724</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">6.18511724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04522180557251</t>
+    <t xml:space="preserve">6.04522085189819</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761358261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99011039733887</t>
+    <t xml:space="preserve">6.08761310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99010992050171</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
@@ -281,22 +281,22 @@
     <t xml:space="preserve">5.73999261856079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76542806625366</t>
+    <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
     <t xml:space="preserve">5.75694942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79510307312012</t>
+    <t xml:space="preserve">5.79510259628296</t>
   </si>
   <si>
     <t xml:space="preserve">5.66792488098145</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63824939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944623947144</t>
+    <t xml:space="preserve">5.63824987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944576263428</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
@@ -311,34 +311,34 @@
     <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57465982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683164596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40932846069336</t>
+    <t xml:space="preserve">5.49835348129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737897872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4093279838562</t>
   </si>
   <si>
     <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24823522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32454299926758</t>
+    <t xml:space="preserve">5.24823617935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
     <t xml:space="preserve">5.3796534538269</t>
@@ -347,25 +347,25 @@
     <t xml:space="preserve">5.51107120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06594610214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18888473510742</t>
+    <t xml:space="preserve">5.06594562530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18888568878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093877792358</t>
+    <t xml:space="preserve">4.87093830108643</t>
   </si>
   <si>
     <t xml:space="preserve">4.9006142616272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80734968185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278512954712</t>
+    <t xml:space="preserve">4.80735015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278465270996</t>
   </si>
   <si>
     <t xml:space="preserve">4.66321420669556</t>
@@ -374,37 +374,37 @@
     <t xml:space="preserve">4.53603553771973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52331733703613</t>
+    <t xml:space="preserve">4.52331781387329</t>
   </si>
   <si>
     <t xml:space="preserve">4.46396732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47244644165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36646366119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62506103515625</t>
+    <t xml:space="preserve">4.47244596481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36646413803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62506055831909</t>
   </si>
   <si>
     <t xml:space="preserve">4.73952102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7480001449585</t>
+    <t xml:space="preserve">4.74799919128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474925994873</t>
+    <t xml:space="preserve">5.04475021362305</t>
   </si>
   <si>
     <t xml:space="preserve">5.08714199066162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19312429428101</t>
+    <t xml:space="preserve">5.19312477111816</t>
   </si>
   <si>
     <t xml:space="preserve">5.31182432174683</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">5.36693525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46867799758911</t>
+    <t xml:space="preserve">5.46867847442627</t>
   </si>
   <si>
     <t xml:space="preserve">5.43476390838623</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2058424949646</t>
+    <t xml:space="preserve">5.20584201812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.28215026855469</t>
@@ -455,46 +455,46 @@
     <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21008157730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17192840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2567138671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3415002822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084981918335</t>
+    <t xml:space="preserve">5.21008205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1719274520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25671339035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34149980545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334568023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084934234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618165969849</t>
+    <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770349502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67216444015503</t>
+    <t xml:space="preserve">5.59161710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770254135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67216396331787</t>
   </si>
   <si>
     <t xml:space="preserve">5.5237889289856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44748258590698</t>
+    <t xml:space="preserve">5.44748163223267</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -503,25 +503,25 @@
     <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51954984664917</t>
+    <t xml:space="preserve">5.51955032348633</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488121032715</t>
+    <t xml:space="preserve">5.68488216400146</t>
   </si>
   <si>
     <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92652034759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60056781768799</t>
+    <t xml:space="preserve">5.92652082443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48610687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60056686401367</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">7.21526432037354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6391921043396</t>
+    <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
     <t xml:space="preserve">7.11352109909058</t>
@@ -542,34 +542,34 @@
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678567886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777387619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874933242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.617995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58832168579102</t>
+    <t xml:space="preserve">7.20678472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5077748298645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353574752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61799621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58832025527954</t>
   </si>
   <si>
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4272289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59256076812744</t>
+    <t xml:space="preserve">7.64767122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722845077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59255981445312</t>
   </si>
   <si>
     <t xml:space="preserve">7.46114253997803</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">7.52049255371094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45266389846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440616607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669528961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898632049561</t>
+    <t xml:space="preserve">7.45266437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440664291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669576644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898488998413</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
@@ -599,19 +599,19 @@
     <t xml:space="preserve">8.03768539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931035995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594121932983</t>
+    <t xml:space="preserve">7.96561717987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050672531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931131362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594217300415</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">8.30052185058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3683500289917</t>
+    <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
     <t xml:space="preserve">8.41074275970459</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">8.2835636138916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7329273223877</t>
+    <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
     <t xml:space="preserve">8.91945648193359</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90249919891357</t>
+    <t xml:space="preserve">8.90250015258789</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
@@ -650,16 +650,16 @@
     <t xml:space="preserve">9.32642841339111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79274940490723</t>
+    <t xml:space="preserve">9.79275035858154</t>
   </si>
   <si>
     <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6146993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49600028991699</t>
+    <t xml:space="preserve">9.61470031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599838256836</t>
   </si>
   <si>
     <t xml:space="preserve">9.41121387481689</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">9.368821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316478729248</t>
+    <t xml:space="preserve">9.23316383361816</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207107543945</t>
@@ -686,34 +686,34 @@
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12294292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53839302062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45360660552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338474273682</t>
+    <t xml:space="preserve">9.1229419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53839206695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45360565185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338569641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1653356552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837741851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05511283874512</t>
+    <t xml:space="preserve">9.16533470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837837219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
     <t xml:space="preserve">8.96184921264648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89402103424072</t>
+    <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">8.86010646820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17381286621094</t>
+    <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
     <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41969203948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38577747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58078670501709</t>
+    <t xml:space="preserve">9.41969299316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38577842712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58078575134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
@@ -746,22 +746,22 @@
     <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62317752838135</t>
+    <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91992855072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014631271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184213638306</t>
+    <t xml:space="preserve">9.9199275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.403205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184204101562</t>
   </si>
   <si>
     <t xml:space="preserve">10.4286422729492</t>
@@ -770,22 +770,22 @@
     <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0725431442261</t>
+    <t xml:space="preserve">10.0725412368774</t>
   </si>
   <si>
     <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2336349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625558853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3692903518677</t>
+    <t xml:space="preserve">9.92840671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2336339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369291305542</t>
   </si>
   <si>
     <t xml:space="preserve">10.479513168335</t>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">10.1742839813232</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4371213912964</t>
+    <t xml:space="preserve">10.4371204376221</t>
   </si>
   <si>
     <t xml:space="preserve">10.3268995285034</t>
@@ -803,19 +803,19 @@
     <t xml:space="preserve">10.4710359573364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6575622558594</t>
+    <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
     <t xml:space="preserve">10.9288778305054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0051851272583</t>
+    <t xml:space="preserve">11.005184173584</t>
   </si>
   <si>
     <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6830005645752</t>
+    <t xml:space="preserve">10.6829996109009</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166776657104</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">10.2081995010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.547342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7084341049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169141769409</t>
+    <t xml:space="preserve">10.5473413467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7084350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169132232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797496795654</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917142868042</t>
+    <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
     <t xml:space="preserve">10.9712705612183</t>
@@ -857,37 +857,37 @@
     <t xml:space="preserve">10.4879922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5982122421265</t>
+    <t xml:space="preserve">10.5982141494751</t>
   </si>
   <si>
     <t xml:space="preserve">11.0221424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3188924789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136632919312</t>
+    <t xml:space="preserve">11.3188915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136623382568</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9373559951782</t>
+    <t xml:space="preserve">10.9373569488525</t>
   </si>
   <si>
     <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9543123245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238851547241</t>
+    <t xml:space="preserve">10.9543142318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238842010498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6919498443604</t>
+    <t xml:space="preserve">11.6919479370117</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
@@ -896,31 +896,31 @@
     <t xml:space="preserve">11.5732488632202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5308561325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1747570037842</t>
+    <t xml:space="preserve">11.5308570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1747579574585</t>
   </si>
   <si>
     <t xml:space="preserve">11.2595415115356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3951988220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3612842559814</t>
+    <t xml:space="preserve">11.3951978683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3612852096558</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.641077041626</t>
+    <t xml:space="preserve">11.6410779953003</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615198135376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.785213470459</t>
+    <t xml:space="preserve">11.7852115631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969425201416</t>
+    <t xml:space="preserve">11.4969415664673</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156415939331</t>
@@ -938,25 +938,25 @@
     <t xml:space="preserve">10.9203987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1154069900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677850723267</t>
+    <t xml:space="preserve">11.1154050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5134267807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.767786026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388641357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.496470451355</t>
+    <t xml:space="preserve">10.5388631820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964723587036</t>
   </si>
   <si>
     <t xml:space="preserve">10.5643005371094</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">10.9458341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8440914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.640606880188</t>
+    <t xml:space="preserve">10.8440923690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6406059265137</t>
   </si>
   <si>
     <t xml:space="preserve">10.0979776382446</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">10.8356132507324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1069288253784</t>
+    <t xml:space="preserve">11.1069278717041</t>
   </si>
   <si>
     <t xml:space="preserve">11.4291133880615</t>
@@ -992,13 +992,13 @@
     <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2764987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834707260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004270553589</t>
+    <t xml:space="preserve">11.27649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834688186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782415390015</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5647706985474</t>
+    <t xml:space="preserve">11.5647716522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.8699998855591</t>
@@ -1025,22 +1025,22 @@
     <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186569213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7847423553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016996383667</t>
+    <t xml:space="preserve">10.8186559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.784743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016986846924</t>
   </si>
   <si>
     <t xml:space="preserve">10.9034423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2421140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777694702148</t>
+    <t xml:space="preserve">10.2421131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777713775635</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151704788208</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">10.1912431716919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2251577377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1064567565918</t>
+    <t xml:space="preserve">10.2251567840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1064577102661</t>
   </si>
   <si>
     <t xml:space="preserve">9.88601303100586</t>
@@ -1064,55 +1064,55 @@
     <t xml:space="preserve">9.69948577880859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51295566558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63165664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731395721436</t>
+    <t xml:space="preserve">9.51295757293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6316556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731300354004</t>
   </si>
   <si>
     <t xml:space="preserve">9.7333984375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7164421081543</t>
+    <t xml:space="preserve">9.71644306182861</t>
   </si>
   <si>
     <t xml:space="preserve">9.37729930877686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27555656433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.224684715271</t>
+    <t xml:space="preserve">9.27555561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22468566894531</t>
   </si>
   <si>
     <t xml:space="preserve">9.47904205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56382846832275</t>
+    <t xml:space="preserve">9.56382751464844</t>
   </si>
   <si>
     <t xml:space="preserve">9.68252754211426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81818389892578</t>
+    <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2929849624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2760276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75035572052002</t>
+    <t xml:space="preserve">10.2929859161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2760286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75035667419434</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216703414917</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">9.39425563812256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29251480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02120018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66557025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08902835845947</t>
+    <t xml:space="preserve">9.29251384735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02119922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66556930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08902740478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.74988460540771</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">8.51248550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552822113037</t>
+    <t xml:space="preserve">8.49552917480469</t>
   </si>
   <si>
     <t xml:space="preserve">8.42769908905029</t>
@@ -1151,40 +1151,40 @@
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92746353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15638446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37682819366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56335735321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59727001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0381555557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85162734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597099304199</t>
+    <t xml:space="preserve">8.05464172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15638542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37682914733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56335639953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59727096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03815650939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8516263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597003936768</t>
   </si>
   <si>
     <t xml:space="preserve">8.78379917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64814281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76684188842773</t>
+    <t xml:space="preserve">8.64814186096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76684284210205</t>
   </si>
   <si>
     <t xml:space="preserve">8.63118553161621</t>
@@ -1205,16 +1205,16 @@
     <t xml:space="preserve">8.39378452301025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34291458129883</t>
+    <t xml:space="preserve">8.34291362762451</t>
   </si>
   <si>
     <t xml:space="preserve">8.24117183685303</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245620727539</t>
+    <t xml:space="preserve">7.95289993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245716094971</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854259490967</t>
@@ -1223,28 +1223,28 @@
     <t xml:space="preserve">7.51201343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30852746963501</t>
+    <t xml:space="preserve">7.30852794647217</t>
   </si>
   <si>
     <t xml:space="preserve">7.18134927749634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12199926376343</t>
+    <t xml:space="preserve">7.12199974060059</t>
   </si>
   <si>
     <t xml:space="preserve">6.96938562393188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87612009048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33396339416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30004930496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06264972686768</t>
+    <t xml:space="preserve">6.87612056732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3339638710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.300048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06264925003052</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177835464478</t>
@@ -1253,25 +1253,25 @@
     <t xml:space="preserve">6.99482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09656429290771</t>
+    <t xml:space="preserve">7.0965633392334</t>
   </si>
   <si>
     <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39331340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787843704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028486251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69006395339966</t>
+    <t xml:space="preserve">7.39331388473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635564804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028581619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6900634765625</t>
   </si>
   <si>
     <t xml:space="preserve">8.13942909240723</t>
@@ -1286,58 +1286,58 @@
     <t xml:space="preserve">7.85115718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78332901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092067718506</t>
+    <t xml:space="preserve">7.78332757949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092115402222</t>
   </si>
   <si>
     <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2491774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244298934937</t>
+    <t xml:space="preserve">7.24917840957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244251251221</t>
   </si>
   <si>
     <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82525014877319</t>
+    <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
     <t xml:space="preserve">6.57089233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4945855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30805635452271</t>
+    <t xml:space="preserve">6.49458503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
     <t xml:space="preserve">6.27414274215698</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24022769927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69807052612305</t>
+    <t xml:space="preserve">6.24022817611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
     <t xml:space="preserve">6.935471534729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63024187088013</t>
+    <t xml:space="preserve">6.63024234771729</t>
   </si>
   <si>
     <t xml:space="preserve">6.52002096176147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33349275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51154279708862</t>
+    <t xml:space="preserve">6.33349227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51154232025146</t>
   </si>
   <si>
     <t xml:space="preserve">6.41827821731567</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">7.24069929122925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85916376113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72350692749023</t>
+    <t xml:space="preserve">6.85916423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68111371994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67263555526733</t>
+    <t xml:space="preserve">6.68111419677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67263507843018</t>
   </si>
   <si>
     <t xml:space="preserve">6.62176370620728</t>
@@ -1382,22 +1382,22 @@
     <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52849912643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38436365127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34197092056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5963282585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57937145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74894285202026</t>
+    <t xml:space="preserve">6.52849960327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38436412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3419713973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59632873535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57937097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74894237518311</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459968566895</t>
@@ -1409,16 +1409,16 @@
     <t xml:space="preserve">7.29157066345215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15591287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13047790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0372142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417108535767</t>
+    <t xml:space="preserve">7.15591335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1304783821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03721380233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417156219482</t>
   </si>
   <si>
     <t xml:space="preserve">6.96090650558472</t>
@@ -1433,16 +1433,16 @@
     <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.291100025177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45219230651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40979909896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23174953460693</t>
+    <t xml:space="preserve">6.29109954833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45219278335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40979957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23174858093262</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">5.96891403198242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.155442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087816238403</t>
+    <t xml:space="preserve">6.15544271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087768554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132093429565</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">6.40640115737915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39766073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42388105392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24908113479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08302211761475</t>
+    <t xml:space="preserve">6.39766120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4238805770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24908208847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0830225944519</t>
   </si>
   <si>
     <t xml:space="preserve">6.12672185897827</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">6.16168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38018178939819</t>
+    <t xml:space="preserve">6.38018131256104</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396146774292</t>
@@ -1496,16 +1496,16 @@
     <t xml:space="preserve">6.34522199630737</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33648109436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28404188156128</t>
+    <t xml:space="preserve">6.33648157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28404140472412</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20538187026978</t>
+    <t xml:space="preserve">6.20538139343262</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
@@ -1526,34 +1526,34 @@
     <t xml:space="preserve">6.3190016746521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41514110565186</t>
+    <t xml:space="preserve">6.41514158248901</t>
   </si>
   <si>
     <t xml:space="preserve">6.32774114608765</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27530097961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11798238754272</t>
+    <t xml:space="preserve">6.27530145645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11798191070557</t>
   </si>
   <si>
     <t xml:space="preserve">6.10924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19664239883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23160219192505</t>
+    <t xml:space="preserve">6.19664192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23160171508789</t>
   </si>
   <si>
     <t xml:space="preserve">6.03058195114136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97814273834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688173294067</t>
+    <t xml:space="preserve">5.97814226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688268661499</t>
   </si>
   <si>
     <t xml:space="preserve">5.9956226348877</t>
@@ -1562,31 +1562,31 @@
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02184247970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96940279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01310253143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1791615486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03932237625122</t>
+    <t xml:space="preserve">6.10050249099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02184200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96940183639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01310300827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17916202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03932189941406</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428216934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15294170379639</t>
+    <t xml:space="preserve">6.07428169250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15294218063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
@@ -1595,25 +1595,25 @@
     <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17042207717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85578298568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91696262359619</t>
+    <t xml:space="preserve">6.1704216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8557825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91696310043335</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94318294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9344425201416</t>
+    <t xml:space="preserve">5.96066284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94318246841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93444299697876</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624080657959</t>
+    <t xml:space="preserve">6.54624032974243</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6423807144165</t>
+    <t xml:space="preserve">6.64238023757935</t>
   </si>
   <si>
     <t xml:space="preserve">6.70356035232544</t>
@@ -1649,13 +1649,13 @@
     <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86087942123413</t>
+    <t xml:space="preserve">6.86087989807129</t>
   </si>
   <si>
     <t xml:space="preserve">6.84340000152588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77347993850708</t>
+    <t xml:space="preserve">6.77348041534424</t>
   </si>
   <si>
     <t xml:space="preserve">6.89583969116211</t>
@@ -1664,73 +1664,73 @@
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27165842056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897844314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58629751205444</t>
+    <t xml:space="preserve">7.2716588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897796630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5862979888916</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56007719039917</t>
+    <t xml:space="preserve">7.56007766723633</t>
   </si>
   <si>
     <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60377788543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49015808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385734558105</t>
+    <t xml:space="preserve">7.60377740859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49015760421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385829925537</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999773025513</t>
+    <t xml:space="preserve">7.62999677658081</t>
   </si>
   <si>
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51637887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57755756378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56881809234619</t>
+    <t xml:space="preserve">7.51637840270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5775580406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
     <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70865726470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76983737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731775283813</t>
+    <t xml:space="preserve">7.70865678787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76983785629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723733901978</t>
+    <t xml:space="preserve">7.85723686218262</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73487758636475</t>
+    <t xml:space="preserve">7.7348780632019</t>
   </si>
   <si>
     <t xml:space="preserve">7.52511739730835</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779880523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18425893783569</t>
+    <t xml:space="preserve">7.36779928207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18425941467285</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795915603638</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">7.1230788230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98323965072632</t>
+    <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1760,16 +1760,16 @@
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49380111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136095046997</t>
+    <t xml:space="preserve">6.4938006401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136142730713</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490034103394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59868049621582</t>
+    <t xml:space="preserve">6.59868097305298</t>
   </si>
   <si>
     <t xml:space="preserve">6.81718015670776</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">6.79970026016235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72104072570801</t>
+    <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
     <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83830213546753</t>
+    <t xml:space="preserve">5.83830308914185</t>
   </si>
   <si>
     <t xml:space="preserve">5.84704303741455</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">5.78586292266846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45374345779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028448104858</t>
+    <t xml:space="preserve">5.45374393463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028495788574</t>
   </si>
   <si>
     <t xml:space="preserve">4.63218641281128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64092683792114</t>
+    <t xml:space="preserve">4.64092636108398</t>
   </si>
   <si>
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561727523804</t>
+    <t xml:space="preserve">4.36561679840088</t>
   </si>
   <si>
     <t xml:space="preserve">4.45738697052002</t>
@@ -1820,52 +1820,52 @@
     <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89365887641907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8499584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78877878189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85432863235474</t>
+    <t xml:space="preserve">3.89365863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995913505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78877902030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85432839393616</t>
   </si>
   <si>
     <t xml:space="preserve">3.90239834785461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89802885055542</t>
+    <t xml:space="preserve">3.89802861213684</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885919570923</t>
+    <t xml:space="preserve">3.71885943412781</t>
   </si>
   <si>
     <t xml:space="preserve">3.77566909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72322916984558</t>
+    <t xml:space="preserve">3.72322964668274</t>
   </si>
   <si>
     <t xml:space="preserve">3.66204929351807</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70574903488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818943977356</t>
+    <t xml:space="preserve">3.70574879646301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16896772384644</t>
+    <t xml:space="preserve">4.01164770126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16896820068359</t>
   </si>
   <si>
     <t xml:space="preserve">4.30006742477417</t>
@@ -1880,19 +1880,19 @@
     <t xml:space="preserve">4.89438533782959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15658473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422546386719</t>
+    <t xml:space="preserve">5.15658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422498703003</t>
   </si>
   <si>
     <t xml:space="preserve">4.96430492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77202606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84194564819336</t>
+    <t xml:space="preserve">4.77202558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84194612503052</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446575164795</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6405668258667</t>
+    <t xml:space="preserve">4.71335983276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64056730270386</t>
   </si>
   <si>
     <t xml:space="preserve">4.60417032241821</t>
@@ -1913,16 +1913,16 @@
     <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80435180664062</t>
+    <t xml:space="preserve">4.80435228347778</t>
   </si>
   <si>
     <t xml:space="preserve">4.73155832290649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78615379333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76795482635498</t>
+    <t xml:space="preserve">4.7861533164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76795530319214</t>
   </si>
   <si>
     <t xml:space="preserve">4.87714529037476</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">5.89625024795532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80525875091553</t>
+    <t xml:space="preserve">5.80525827407837</t>
   </si>
   <si>
     <t xml:space="preserve">5.95084428787231</t>
@@ -1946,22 +1946,22 @@
     <t xml:space="preserve">5.85985326766968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93264675140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91444826126099</t>
+    <t xml:space="preserve">5.93264627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91444873809814</t>
   </si>
   <si>
     <t xml:space="preserve">5.82345628738403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06003475189209</t>
+    <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
     <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62327527999878</t>
+    <t xml:space="preserve">5.62327480316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.55048227310181</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">5.53228378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56867980957031</t>
+    <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
@@ -1997,22 +1997,22 @@
     <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1683177947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09552431106567</t>
+    <t xml:space="preserve">5.16831731796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09552478790283</t>
   </si>
   <si>
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651580810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36849927902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31390380859375</t>
+    <t xml:space="preserve">5.18651628494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36849880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31390428543091</t>
   </si>
   <si>
     <t xml:space="preserve">5.33210277557373</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">5.58687877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29570627212524</t>
+    <t xml:space="preserve">5.29570579528809</t>
   </si>
   <si>
     <t xml:space="preserve">5.15011930465698</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00453329086304</t>
+    <t xml:space="preserve">5.00453281402588</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05912780761719</t>
+    <t xml:space="preserve">5.05912828445435</t>
   </si>
   <si>
     <t xml:space="preserve">4.98633480072021</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4958872795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22291231155396</t>
+    <t xml:space="preserve">5.04092931747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49588680267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22291278839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.27750778198242</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">4.322096824646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35849285125732</t>
+    <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
     <t xml:space="preserve">4.26750230789185</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">4.31299734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33119630813599</t>
+    <t xml:space="preserve">4.33119583129883</t>
   </si>
   <si>
     <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24111127853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44129180908203</t>
+    <t xml:space="preserve">5.24111080169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">6.00543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18742322921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33300876617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36940574645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4603967666626</t>
+    <t xml:space="preserve">6.18742275238037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33300924301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36940622329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
     <t xml:space="preserve">6.60598421096802</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">6.55138874053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58778476715088</t>
+    <t xml:space="preserve">6.58778524398804</t>
   </si>
   <si>
     <t xml:space="preserve">6.82436370849609</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">6.80616521835327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71517324447632</t>
+    <t xml:space="preserve">6.76976823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71517372131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7333722114563</t>
+    <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
     <t xml:space="preserve">6.67877721786499</t>
@@ -2174,25 +2174,25 @@
     <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89715671539307</t>
+    <t xml:space="preserve">6.89715623855591</t>
   </si>
   <si>
     <t xml:space="preserve">6.8425612449646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86076021194458</t>
+    <t xml:space="preserve">6.86075973510742</t>
   </si>
   <si>
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18832969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02454471588135</t>
+    <t xml:space="preserve">7.17013120651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18832921981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02454423904419</t>
   </si>
   <si>
     <t xml:space="preserve">7.00634622573853</t>
@@ -2201,25 +2201,25 @@
     <t xml:space="preserve">7.09733772277832</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07914018630981</t>
+    <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
     <t xml:space="preserve">7.06094169616699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91535425186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27932071685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29751920700073</t>
+    <t xml:space="preserve">6.91535472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27932119369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29751968383789</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15193271636963</t>
+    <t xml:space="preserve">7.15193319320679</t>
   </si>
   <si>
     <t xml:space="preserve">7.13373470306396</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">7.91626119613647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02545166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13464069366455</t>
+    <t xml:space="preserve">8.02545070648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13464164733887</t>
   </si>
   <si>
     <t xml:space="preserve">8.09824371337891</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82527017593384</t>
+    <t xml:space="preserve">7.825270652771</t>
   </si>
   <si>
     <t xml:space="preserve">7.87986469268799</t>
@@ -2267,13 +2267,13 @@
     <t xml:space="preserve">8.26202869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18923664093018</t>
+    <t xml:space="preserve">8.18923568725586</t>
   </si>
   <si>
     <t xml:space="preserve">7.75247716903687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86166667938232</t>
+    <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
     <t xml:space="preserve">7.78887319564819</t>
@@ -59240,13 +59240,13 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6493981481</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>100680</v>
       </c>
       <c r="C2143" t="n">
-        <v>16.3999996185303</v>
+        <v>16.4500007629395</v>
       </c>
       <c r="D2143" t="n">
         <v>16.3999996185303</v>
@@ -59261,6 +59261,32 @@
         <v>1064</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6496296296</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05369997024536</t>
+    <t xml:space="preserve">6.0536994934082</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">6.19359588623047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1893572807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06217813491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22327136993408</t>
+    <t xml:space="preserve">6.18935680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06217861175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22327089309692</t>
   </si>
   <si>
     <t xml:space="preserve">6.1172890663147</t>
@@ -71,13 +71,13 @@
     <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97739219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05793905258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17239952087402</t>
+    <t xml:space="preserve">5.97739267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05793857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17239999771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.35892820358276</t>
@@ -86,10 +86,10 @@
     <t xml:space="preserve">6.3504490852356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055316925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1681604385376</t>
+    <t xml:space="preserve">6.21055269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16815996170044</t>
   </si>
   <si>
     <t xml:space="preserve">6.12152814865112</t>
@@ -101,16 +101,16 @@
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445356369019</t>
+    <t xml:space="preserve">5.85445261001587</t>
   </si>
   <si>
     <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65096712112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064260482788</t>
+    <t xml:space="preserve">5.65096759796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064212799072</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
@@ -122,16 +122,16 @@
     <t xml:space="preserve">5.91804265975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93499994277954</t>
+    <t xml:space="preserve">5.93499946594238</t>
   </si>
   <si>
     <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91380310058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89260578155518</t>
+    <t xml:space="preserve">5.91380262374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89260673522949</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
@@ -140,25 +140,25 @@
     <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0028281211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12576770782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85869216918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62977075576782</t>
+    <t xml:space="preserve">6.00282859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12576675415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85869264602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62977123260498</t>
   </si>
   <si>
     <t xml:space="preserve">5.9010853767395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92228221893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477807998657</t>
+    <t xml:space="preserve">5.92228174209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477855682373</t>
   </si>
   <si>
     <t xml:space="preserve">5.89684581756592</t>
@@ -167,28 +167,28 @@
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086351394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446725845337</t>
+    <t xml:space="preserve">5.79086399078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446678161621</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22751045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11304998397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706768035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88836765289307</t>
+    <t xml:space="preserve">6.22750997543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11304950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706720352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88836669921875</t>
   </si>
   <si>
     <t xml:space="preserve">5.98587083816528</t>
@@ -218,34 +218,34 @@
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173440933228</t>
+    <t xml:space="preserve">5.95619583129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173488616943</t>
   </si>
   <si>
     <t xml:space="preserve">5.77390623092651</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118898391724</t>
+    <t xml:space="preserve">5.76118850708008</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782079696655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82901763916016</t>
+    <t xml:space="preserve">5.829017162323</t>
   </si>
   <si>
     <t xml:space="preserve">5.9307599067688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09609222412109</t>
+    <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
     <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28262090682983</t>
+    <t xml:space="preserve">6.28262042999268</t>
   </si>
   <si>
     <t xml:space="preserve">6.13000679016113</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761310577393</t>
+    <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
     <t xml:space="preserve">5.99010992050171</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999261856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76542854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75694942474365</t>
+    <t xml:space="preserve">5.73999214172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76542901992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75694990158081</t>
   </si>
   <si>
     <t xml:space="preserve">5.79510259628296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66792488098145</t>
+    <t xml:space="preserve">5.66792440414429</t>
   </si>
   <si>
     <t xml:space="preserve">5.63824987411499</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">5.65944576263428</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60433530807495</t>
+    <t xml:space="preserve">5.60433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">5.72303533554077</t>
@@ -314,34 +314,34 @@
     <t xml:space="preserve">5.49835348129272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57889986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737897872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683116912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4093279838562</t>
+    <t xml:space="preserve">5.57889938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313846588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57465982437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683164596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40932846069336</t>
   </si>
   <si>
     <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24823617935181</t>
+    <t xml:space="preserve">5.24823570251465</t>
   </si>
   <si>
     <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3796534538269</t>
+    <t xml:space="preserve">5.37965297698975</t>
   </si>
   <si>
     <t xml:space="preserve">5.51107120513916</t>
@@ -353,10 +353,10 @@
     <t xml:space="preserve">5.18888568878174</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1040997505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87093830108643</t>
+    <t xml:space="preserve">5.10409927368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87093877792358</t>
   </si>
   <si>
     <t xml:space="preserve">4.9006142616272</t>
@@ -365,58 +365,58 @@
     <t xml:space="preserve">4.80735015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83278465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66321420669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53603553771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52331781387329</t>
+    <t xml:space="preserve">4.83278512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6632137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53603506088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52331733703613</t>
   </si>
   <si>
     <t xml:space="preserve">4.46396732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47244596481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36646413803101</t>
+    <t xml:space="preserve">4.47244644165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36646461486816</t>
   </si>
   <si>
     <t xml:space="preserve">4.62506055831909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73952102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74799919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.002357006073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04475021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714199066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312477111816</t>
+    <t xml:space="preserve">4.73952150344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7480001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00235748291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04474973678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312429428101</t>
   </si>
   <si>
     <t xml:space="preserve">5.31182432174683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33726024627686</t>
+    <t xml:space="preserve">5.33726072311401</t>
   </si>
   <si>
     <t xml:space="preserve">5.36693525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46867847442627</t>
+    <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
     <t xml:space="preserve">5.43476390838623</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">5.20584201812744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28215026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22279930114746</t>
+    <t xml:space="preserve">5.28214979171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22279977798462</t>
   </si>
   <si>
     <t xml:space="preserve">4.92604970932007</t>
@@ -452,46 +452,46 @@
     <t xml:space="preserve">5.16344976425171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21432113647461</t>
+    <t xml:space="preserve">5.21432161331177</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1719274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25671339035034</t>
+    <t xml:space="preserve">5.17192792892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25671434402466</t>
   </si>
   <si>
     <t xml:space="preserve">5.34149980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30334568023682</t>
+    <t xml:space="preserve">5.30334615707397</t>
   </si>
   <si>
     <t xml:space="preserve">5.40084934234619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54922485351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56618213653564</t>
+    <t xml:space="preserve">5.54922437667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56618165969849</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770254135132</t>
+    <t xml:space="preserve">5.59161758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770301818848</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5237889289856</t>
+    <t xml:space="preserve">5.52378845214844</t>
   </si>
   <si>
     <t xml:space="preserve">5.44748163223267</t>
@@ -500,22 +500,22 @@
     <t xml:space="preserve">5.44324254989624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48987483978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51955032348633</t>
+    <t xml:space="preserve">5.48987436294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488216400146</t>
+    <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
     <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92652082443237</t>
+    <t xml:space="preserve">5.92652130126953</t>
   </si>
   <si>
     <t xml:space="preserve">6.48610687255859</t>
@@ -536,34 +536,34 @@
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352109909058</t>
+    <t xml:space="preserve">7.11352062225342</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5077748298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353574752808</t>
+    <t xml:space="preserve">7.20678520202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353527069092</t>
   </si>
   <si>
     <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61799621582031</t>
+    <t xml:space="preserve">7.61799573898315</t>
   </si>
   <si>
     <t xml:space="preserve">7.58832025527954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54592800140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767122268677</t>
+    <t xml:space="preserve">7.54592752456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767217636108</t>
   </si>
   <si>
     <t xml:space="preserve">7.42722845077515</t>
@@ -572,52 +572,52 @@
     <t xml:space="preserve">7.59255981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46114253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049255371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266437530518</t>
+    <t xml:space="preserve">7.46114349365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049160003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266389846802</t>
   </si>
   <si>
     <t xml:space="preserve">7.55440664291382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73669576644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898488998413</t>
+    <t xml:space="preserve">7.73669672012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898536682129</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96985626220703</t>
+    <t xml:space="preserve">7.96985721588135</t>
   </si>
   <si>
     <t xml:space="preserve">8.03768539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561717987061</t>
+    <t xml:space="preserve">7.96561670303345</t>
   </si>
   <si>
     <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88931131362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148170471191</t>
+    <t xml:space="preserve">7.88931083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148218154907</t>
   </si>
   <si>
     <t xml:space="preserve">7.93594217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02496719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30052185058594</t>
+    <t xml:space="preserve">8.02496814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30052089691162</t>
   </si>
   <si>
     <t xml:space="preserve">8.36834907531738</t>
@@ -626,64 +626,64 @@
     <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2835636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73292827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91945648193359</t>
+    <t xml:space="preserve">8.28356456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73292922973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.83467102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44041728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90250015258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15685653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32642841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79275035858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83514213562012</t>
+    <t xml:space="preserve">8.44041633605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90249919891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15685749053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3264274597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79274940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83514308929443</t>
   </si>
   <si>
     <t xml:space="preserve">9.61470031738281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49599838256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41121387481689</t>
+    <t xml:space="preserve">9.49600028991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41121482849121</t>
   </si>
   <si>
     <t xml:space="preserve">9.368821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316383361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07207107543945</t>
+    <t xml:space="preserve">9.23316287994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07207012176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.30099201202393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446380615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19924926757812</t>
+    <t xml:space="preserve">9.28403377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446285247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19925022125244</t>
   </si>
   <si>
     <t xml:space="preserve">9.1229419708252</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360565185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338569641113</t>
+    <t xml:space="preserve">9.45360660552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338665008545</t>
   </si>
   <si>
     <t xml:space="preserve">9.24164199829102</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">9.14837837219238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05511379241943</t>
+    <t xml:space="preserve">9.05511474609375</t>
   </si>
   <si>
     <t xml:space="preserve">8.96184921264648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89402008056641</t>
+    <t xml:space="preserve">8.89402103424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
@@ -728,70 +728,70 @@
     <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969299316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38577842712402</t>
+    <t xml:space="preserve">9.40273571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38577747344971</t>
   </si>
   <si>
     <t xml:space="preserve">9.58078575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44512844085693</t>
+    <t xml:space="preserve">9.44512748718262</t>
   </si>
   <si>
     <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62317848205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59774112701416</t>
+    <t xml:space="preserve">9.62317752838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59774208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.403205871582</t>
+    <t xml:space="preserve">10.3014621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4032068252563</t>
   </si>
   <si>
     <t xml:space="preserve">10.3184204101562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4286422729492</t>
+    <t xml:space="preserve">10.4286432266235</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0725412368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.004714012146</t>
+    <t xml:space="preserve">10.0725431442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">9.92840671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2336339950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.369291305542</t>
+    <t xml:space="preserve">10.2336349487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625558853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3692903518677</t>
   </si>
   <si>
     <t xml:space="preserve">10.479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742839813232</t>
+    <t xml:space="preserve">10.1742849349976</t>
   </si>
   <si>
     <t xml:space="preserve">10.4371204376221</t>
@@ -818,19 +818,19 @@
     <t xml:space="preserve">10.6829996109009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2166776657104</t>
+    <t xml:space="preserve">10.2166786193848</t>
   </si>
   <si>
     <t xml:space="preserve">10.4540777206421</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999559402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2081995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5473413467407</t>
+    <t xml:space="preserve">10.6999568939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2081985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.547342300415</t>
   </si>
   <si>
     <t xml:space="preserve">10.7084350585938</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">10.7169132232666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9797496795654</t>
+    <t xml:space="preserve">10.9797487258911</t>
   </si>
   <si>
     <t xml:space="preserve">11.0645351409912</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6745204925537</t>
+    <t xml:space="preserve">10.674521446228</t>
   </si>
   <si>
     <t xml:space="preserve">10.4879922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5982141494751</t>
+    <t xml:space="preserve">10.5982131958008</t>
   </si>
   <si>
     <t xml:space="preserve">11.0221424102783</t>
@@ -866,109 +866,109 @@
     <t xml:space="preserve">11.3188915252686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0136623382568</t>
+    <t xml:space="preserve">11.0136632919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9373569488525</t>
+    <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
     <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9543142318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238842010498</t>
+    <t xml:space="preserve">10.9543132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238851547241</t>
   </si>
   <si>
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6919479370117</t>
+    <t xml:space="preserve">11.6919498443604</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732488632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5308570861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1747579574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2595415115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3951978683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3612852096558</t>
+    <t xml:space="preserve">11.5732479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.530858039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1747570037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25954246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3951997756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3612842559814</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6410779953003</t>
+    <t xml:space="preserve">11.6410760879517</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615198135376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7852115631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8276062011719</t>
+    <t xml:space="preserve">11.785213470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8276052474976</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969415664673</t>
+    <t xml:space="preserve">11.4969425201416</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9203987121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1154050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5134267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767786026001</t>
+    <t xml:space="preserve">10.9203996658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.115406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5134286880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3353776931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677850723267</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388631820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964723587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5643005371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7423486709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9458341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8440923690796</t>
+    <t xml:space="preserve">10.5388641357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964714050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5642995834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7423496246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9458351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8440914154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.6406059265137</t>
@@ -977,46 +977,46 @@
     <t xml:space="preserve">10.0979776382446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.530385017395</t>
+    <t xml:space="preserve">10.5303840637207</t>
   </si>
   <si>
     <t xml:space="preserve">10.8356132507324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1069278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4291133880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086706161499</t>
+    <t xml:space="preserve">11.1069288253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4291124343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086715698242</t>
   </si>
   <si>
     <t xml:space="preserve">11.27649974823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6834688186646</t>
+    <t xml:space="preserve">11.6834697723389</t>
   </si>
   <si>
     <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782415390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5138988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5647716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699998855591</t>
+    <t xml:space="preserve">11.3782424926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5138998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5647706985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699989318848</t>
   </si>
   <si>
     <t xml:space="preserve">11.6665134429932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0899696350098</t>
+    <t xml:space="preserve">11.0899715423584</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
@@ -1025,25 +1025,25 @@
     <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.784743309021</t>
+    <t xml:space="preserve">10.8186569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7847423553467</t>
   </si>
   <si>
     <t xml:space="preserve">10.8016986846924</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9034423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2421131134033</t>
+    <t xml:space="preserve">10.9034414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2421140670776</t>
   </si>
   <si>
     <t xml:space="preserve">10.3777713775635</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151704788208</t>
+    <t xml:space="preserve">10.6151714324951</t>
   </si>
   <si>
     <t xml:space="preserve">10.1912431716919</t>
@@ -1052,64 +1052,64 @@
     <t xml:space="preserve">10.2251567840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3438549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1064577102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948577880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034202575684</t>
+    <t xml:space="preserve">10.3438558578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1064567565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948482513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51295566558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.6316556930542</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76731300354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71644306182861</t>
+    <t xml:space="preserve">9.76731491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73339939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7164421081543</t>
   </si>
   <si>
     <t xml:space="preserve">9.37729930877686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27555561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22468566894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56382751464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68252754211426</t>
+    <t xml:space="preserve">9.27555656433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22468662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56382846832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
     <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1234130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2760286331177</t>
+    <t xml:space="preserve">10.1234140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929849624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2760276794434</t>
   </si>
   <si>
     <t xml:space="preserve">9.75035667419434</t>
@@ -1118,64 +1118,64 @@
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251384735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02119922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66556930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08902740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74988460540771</t>
+    <t xml:space="preserve">9.39425659179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251480102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02120018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66557025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08902835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74988555908203</t>
   </si>
   <si>
     <t xml:space="preserve">8.51248550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552917480469</t>
+    <t xml:space="preserve">8.49552822113037</t>
   </si>
   <si>
     <t xml:space="preserve">8.42769908905029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32595634460449</t>
+    <t xml:space="preserve">8.32595729827881</t>
   </si>
   <si>
     <t xml:space="preserve">8.05464172363281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92746448516846</t>
+    <t xml:space="preserve">7.9274640083313</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37682914733887</t>
+    <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
     <t xml:space="preserve">8.56335639953613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59727096557617</t>
+    <t xml:space="preserve">8.59727191925049</t>
   </si>
   <si>
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8516263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597003936768</t>
+    <t xml:space="preserve">8.85162830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
     <t xml:space="preserve">8.78379917144775</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">8.64814186096191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76684284210205</t>
+    <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
     <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47857093811035</t>
+    <t xml:space="preserve">8.47857189178467</t>
   </si>
   <si>
     <t xml:space="preserve">8.52944278717041</t>
@@ -1199,31 +1199,31 @@
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39378452301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34291362762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24117183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95289993286133</t>
+    <t xml:space="preserve">8.33443355560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39378547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34291458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24117088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95289945602417</t>
   </si>
   <si>
     <t xml:space="preserve">7.73245716094971</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69854259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852794647217</t>
+    <t xml:space="preserve">7.69854307174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852842330933</t>
   </si>
   <si>
     <t xml:space="preserve">7.18134927749634</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">7.12199974060059</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96938562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3339638710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.300048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06264925003052</t>
+    <t xml:space="preserve">6.96938610076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612104415894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33396339416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30004930496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06264972686768</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177835464478</t>
@@ -1253,40 +1253,40 @@
     <t xml:space="preserve">6.99482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0965633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13895702362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331388473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635564804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028581619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6900634765625</t>
+    <t xml:space="preserve">7.09656429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13895654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331483840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69006443023682</t>
   </si>
   <si>
     <t xml:space="preserve">8.13942909240723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19029903411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11399173736572</t>
+    <t xml:space="preserve">8.19029998779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11399269104004</t>
   </si>
   <si>
     <t xml:space="preserve">7.85115718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78332757949829</t>
+    <t xml:space="preserve">7.78332901000977</t>
   </si>
   <si>
     <t xml:space="preserve">7.35092115402222</t>
@@ -1295,37 +1295,37 @@
     <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24917840957642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244251251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92699241638184</t>
+    <t xml:space="preserve">7.24917793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244203567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92699193954468</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57089233398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49458503723145</t>
+    <t xml:space="preserve">6.57089281082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4945855140686</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24022817611694</t>
+    <t xml:space="preserve">6.27414321899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2402286529541</t>
   </si>
   <si>
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.935471534729</t>
+    <t xml:space="preserve">6.93547201156616</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
@@ -1334,28 +1334,28 @@
     <t xml:space="preserve">6.52002096176147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33349227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51154232025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41827821731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86764287948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24069929122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85916423797607</t>
+    <t xml:space="preserve">6.33349275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51154279708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41827774047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86764240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069976806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85916376113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6471996307373</t>
+    <t xml:space="preserve">6.64720010757446</t>
   </si>
   <si>
     <t xml:space="preserve">6.68111419677734</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">6.56241369247437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37588500976562</t>
+    <t xml:space="preserve">6.37588548660278</t>
   </si>
   <si>
     <t xml:space="preserve">6.26566362380981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32501411437988</t>
+    <t xml:space="preserve">6.32501363754272</t>
   </si>
   <si>
     <t xml:space="preserve">6.44371366500854</t>
@@ -1385,19 +1385,19 @@
     <t xml:space="preserve">6.52849960327148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38436412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3419713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59632873535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57937097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74894237518311</t>
+    <t xml:space="preserve">6.38436365127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34197092056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59632778167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57937145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74894285202026</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459968566895</t>
@@ -1406,25 +1406,25 @@
     <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591335296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1304783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03721380233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417156219482</t>
+    <t xml:space="preserve">7.29157161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591382980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13047790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03721475601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
     <t xml:space="preserve">6.96090650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79133558273315</t>
+    <t xml:space="preserve">6.791335105896</t>
   </si>
   <si>
     <t xml:space="preserve">6.7404637336731</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174858093262</t>
+    <t xml:space="preserve">6.23174953460693</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">6.15544271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18087768554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40132093429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58120107650757</t>
+    <t xml:space="preserve">6.18087863922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40132141113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58120059967041</t>
   </si>
   <si>
     <t xml:space="preserve">6.40640115737915</t>
@@ -1472,40 +1472,40 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4238805770874</t>
+    <t xml:space="preserve">6.42388153076172</t>
   </si>
   <si>
     <t xml:space="preserve">6.24908208847046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0830225944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12672185897827</t>
+    <t xml:space="preserve">6.08302211761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12672233581543</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38018131256104</t>
+    <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522199630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33648157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28404140472412</t>
+    <t xml:space="preserve">6.34522151947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33648109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20538139343262</t>
+    <t xml:space="preserve">6.20538187026978</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">6.25782155990601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37144088745117</t>
+    <t xml:space="preserve">6.37144136428833</t>
   </si>
   <si>
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3190016746521</t>
+    <t xml:space="preserve">6.31900215148926</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514158248901</t>
@@ -1547,13 +1547,13 @@
     <t xml:space="preserve">6.23160171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03058195114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97814226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688268661499</t>
+    <t xml:space="preserve">6.03058242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97814273834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688220977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.9956226348877</t>
@@ -1562,70 +1562,70 @@
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050249099731</t>
+    <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
     <t xml:space="preserve">6.02184200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96940183639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01310300827026</t>
+    <t xml:space="preserve">5.96940231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01310253143311</t>
   </si>
   <si>
     <t xml:space="preserve">6.17916202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03932189941406</t>
+    <t xml:space="preserve">6.03932237625122</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428169250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15294218063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06554222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31026124954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1704216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8557825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91696310043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95192241668701</t>
+    <t xml:space="preserve">6.07428216934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15294170379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06554269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31026172637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17042207717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85578298568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91696262359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95192289352417</t>
   </si>
   <si>
     <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94318246841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93444299697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89948272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30152130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55498075485229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54624032974243</t>
+    <t xml:space="preserve">5.94318294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9344425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89948225021362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30152177810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55498123168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54624080657959</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">6.53750085830688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46758127212524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66860055923462</t>
+    <t xml:space="preserve">6.46758079528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66860103607178</t>
   </si>
   <si>
     <t xml:space="preserve">6.64238023757935</t>
@@ -1661,22 +1661,22 @@
     <t xml:space="preserve">6.89583969116211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99197959899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2716588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897796630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5862979888916</t>
+    <t xml:space="preserve">6.99197912216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27165842056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897844314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58629846572876</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56007766723633</t>
+    <t xml:space="preserve">7.56007671356201</t>
   </si>
   <si>
     <t xml:space="preserve">7.55133819580078</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">7.49015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385829925537</t>
+    <t xml:space="preserve">7.53385877609253</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
@@ -1700,25 +1700,25 @@
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51637840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5775580406189</t>
+    <t xml:space="preserve">7.51637887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57755756378174</t>
   </si>
   <si>
     <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39401817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70865678787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76983785629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731727600098</t>
+    <t xml:space="preserve">7.39401865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70865774154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76983737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731632232666</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
@@ -1727,31 +1727,31 @@
     <t xml:space="preserve">7.85723686218262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76109743118286</t>
+    <t xml:space="preserve">7.76109790802002</t>
   </si>
   <si>
     <t xml:space="preserve">7.7348780632019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52511739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5076379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36779928207397</t>
+    <t xml:space="preserve">7.52511787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50763845443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36779880523682</t>
   </si>
   <si>
     <t xml:space="preserve">7.18425941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22795915603638</t>
+    <t xml:space="preserve">7.22795963287354</t>
   </si>
   <si>
     <t xml:space="preserve">7.1230788230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98323917388916</t>
+    <t xml:space="preserve">6.98323965072632</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4938006401062</t>
+    <t xml:space="preserve">6.49380111694336</t>
   </si>
   <si>
     <t xml:space="preserve">6.44136142730713</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62490034103394</t>
+    <t xml:space="preserve">6.62490081787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.59868097305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81718015670776</t>
+    <t xml:space="preserve">6.81717967987061</t>
   </si>
   <si>
     <t xml:space="preserve">6.79970026016235</t>
@@ -1781,10 +1781,10 @@
     <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65986013412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83830308914185</t>
+    <t xml:space="preserve">6.65986061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
     <t xml:space="preserve">5.84704303741455</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">5.45374393463135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20028495788574</t>
+    <t xml:space="preserve">5.20028448104858</t>
   </si>
   <si>
     <t xml:space="preserve">4.63218641281128</t>
@@ -1808,28 +1808,28 @@
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561679840088</t>
+    <t xml:space="preserve">4.36561727523804</t>
   </si>
   <si>
     <t xml:space="preserve">4.45738697052002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16459798812866</t>
+    <t xml:space="preserve">4.1645975112915</t>
   </si>
   <si>
     <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89365863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995913505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78877902030945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85432839393616</t>
+    <t xml:space="preserve">3.89365816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995889663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78877878189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85432887077332</t>
   </si>
   <si>
     <t xml:space="preserve">3.90239834785461</t>
@@ -1841,58 +1841,58 @@
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885943412781</t>
+    <t xml:space="preserve">3.71885919570923</t>
   </si>
   <si>
     <t xml:space="preserve">3.77566909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72322964668274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574879646301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818920135498</t>
+    <t xml:space="preserve">3.72322940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204953193665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574927330017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818943977356</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164770126343</t>
+    <t xml:space="preserve">4.01164817810059</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30006742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3525071144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89438533782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658521652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422498703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96430492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77202558517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84194612503052</t>
+    <t xml:space="preserve">4.30006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35250759124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478693008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89438581466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658569335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422594070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96430540084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77202606201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446575164795</t>
@@ -1901,25 +1901,25 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71335983276367</t>
+    <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60417032241821</t>
+    <t xml:space="preserve">4.60417079925537</t>
   </si>
   <si>
     <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80435228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73155832290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7861533164978</t>
+    <t xml:space="preserve">4.80435180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73155879974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615379333496</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1928,40 +1928,40 @@
     <t xml:space="preserve">4.87714529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1137228012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7324652671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89625024795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80525827407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95084428787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85985326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93264627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91444873809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82345628738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06003427505493</t>
+    <t xml:space="preserve">5.11372327804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73246574401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89624977111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95084476470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85985374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93264675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91444826126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82345676422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06003475189209</t>
   </si>
   <si>
     <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62327480316162</t>
+    <t xml:space="preserve">5.62327575683594</t>
   </si>
   <si>
     <t xml:space="preserve">5.55048227310181</t>
@@ -1973,19 +1973,19 @@
     <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38669776916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35030078887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47768878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51408576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6414737701416</t>
+    <t xml:space="preserve">5.38669729232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35030126571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47768926620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51408529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64147329330444</t>
   </si>
   <si>
     <t xml:space="preserve">5.45949077606201</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16831731796265</t>
+    <t xml:space="preserve">5.1683177947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.09552478790283</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651628494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36849880218506</t>
+    <t xml:space="preserve">5.18651580810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36849975585938</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2018,37 +2018,37 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25930976867676</t>
+    <t xml:space="preserve">5.2593092918396</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29570579528809</t>
+    <t xml:space="preserve">5.29570627212524</t>
   </si>
   <si>
     <t xml:space="preserve">5.15011930465698</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00453281402588</t>
+    <t xml:space="preserve">5.00453329086304</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05912828445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633480072021</t>
+    <t xml:space="preserve">5.05912780761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633527755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092931747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49588680267334</t>
+    <t xml:space="preserve">5.04092979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49588775634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.22291278839111</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">4.31299734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33119583129883</t>
+    <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
     <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24111080169678</t>
+    <t xml:space="preserve">5.24111175537109</t>
   </si>
   <si>
     <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60507678985596</t>
+    <t xml:space="preserve">5.60507726669312</t>
   </si>
   <si>
     <t xml:space="preserve">5.8780517578125</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">5.78706026077271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0236382484436</t>
+    <t xml:space="preserve">6.02363777160645</t>
   </si>
   <si>
     <t xml:space="preserve">6.09643125534058</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841377258301</t>
+    <t xml:space="preserve">6.27841424942017</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18742275238037</t>
+    <t xml:space="preserve">6.18742322921753</t>
   </si>
   <si>
     <t xml:space="preserve">6.33300924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36940622329712</t>
+    <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
     <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60598421096802</t>
+    <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
     <t xml:space="preserve">6.42400074005127</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">6.80616521835327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71517372131348</t>
+    <t xml:space="preserve">6.76976871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71517324447632</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89715623855591</t>
+    <t xml:space="preserve">6.89715671539307</t>
   </si>
   <si>
     <t xml:space="preserve">6.8425612449646</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18832921981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02454423904419</t>
+    <t xml:space="preserve">7.18832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02454471588135</t>
   </si>
   <si>
     <t xml:space="preserve">7.00634622573853</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27932119369507</t>
+    <t xml:space="preserve">7.27932071685791</t>
   </si>
   <si>
     <t xml:space="preserve">7.29751968383789</t>
@@ -2219,25 +2219,25 @@
     <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15193319320679</t>
+    <t xml:space="preserve">7.15193271636963</t>
   </si>
   <si>
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851070404053</t>
+    <t xml:space="preserve">7.38851118087769</t>
   </si>
   <si>
     <t xml:space="preserve">7.91626119613647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02545070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13464164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09824371337891</t>
+    <t xml:space="preserve">8.02545166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13464069366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
@@ -2249,40 +2249,40 @@
     <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.825270652771</t>
+    <t xml:space="preserve">7.82527112960815</t>
   </si>
   <si>
     <t xml:space="preserve">7.87986469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04364967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725269317627</t>
+    <t xml:space="preserve">8.04365062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725364685059</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18923568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75247716903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86166715621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78887319564819</t>
+    <t xml:space="preserve">8.26202964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18923664093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75247764587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86166667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78887414932251</t>
   </si>
   <si>
     <t xml:space="preserve">7.93446016311646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9526572227478</t>
+    <t xml:space="preserve">7.95265817642212</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59266,7 +59266,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6496296296</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>2854</v>
@@ -59287,6 +59287,32 @@
         <v>1064</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6494791667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>2139</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">OJM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19359588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18935680389404</t>
+    <t xml:space="preserve">6.19359540939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
     <t xml:space="preserve">6.06217861175537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22327089309692</t>
+    <t xml:space="preserve">6.22327136993408</t>
   </si>
   <si>
     <t xml:space="preserve">6.1172890663147</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">6.05793857574463</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17239999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35892820358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3504490852356</t>
+    <t xml:space="preserve">6.17239952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35892868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35044956207275</t>
   </si>
   <si>
     <t xml:space="preserve">6.21055269241333</t>
@@ -92,16 +92,16 @@
     <t xml:space="preserve">6.16815996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152814865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90956354141235</t>
+    <t xml:space="preserve">6.12152862548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90956401824951</t>
   </si>
   <si>
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445261001587</t>
+    <t xml:space="preserve">5.85445308685303</t>
   </si>
   <si>
     <t xml:space="preserve">5.8502140045166</t>
@@ -110,25 +110,25 @@
     <t xml:space="preserve">5.65096759796143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68064212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53226757049561</t>
+    <t xml:space="preserve">5.68064260482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53226804733276</t>
   </si>
   <si>
     <t xml:space="preserve">5.59585666656494</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91804265975952</t>
+    <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04946041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91380262374878</t>
+    <t xml:space="preserve">6.04945993423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
     <t xml:space="preserve">5.89260673522949</t>
@@ -137,28 +137,28 @@
     <t xml:space="preserve">6.01978540420532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01554584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00282859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12576675415039</t>
+    <t xml:space="preserve">6.01554536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0028281211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12576723098755</t>
   </si>
   <si>
     <t xml:space="preserve">5.85869264602661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62977123260498</t>
+    <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
     <t xml:space="preserve">5.9010853767395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92228174209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477855682373</t>
+    <t xml:space="preserve">5.92228126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477807998657</t>
   </si>
   <si>
     <t xml:space="preserve">5.89684581756592</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674268722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446678161621</t>
+    <t xml:space="preserve">5.79086351394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446773529053</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">6.22750997543335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11304950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706720352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88836669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98587083816528</t>
+    <t xml:space="preserve">6.11304998397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706768035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88836765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98587131500244</t>
   </si>
   <si>
     <t xml:space="preserve">5.88412857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87988901138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98163175582886</t>
+    <t xml:space="preserve">5.8798885345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9816312789917</t>
   </si>
   <si>
     <t xml:space="preserve">5.87141036987305</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">6.07913541793823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20631408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337450027466</t>
+    <t xml:space="preserve">6.2063136100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0833740234375</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
@@ -224,16 +224,16 @@
     <t xml:space="preserve">5.84173488616943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77390623092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76118850708008</t>
+    <t xml:space="preserve">5.77390718460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76118898391724</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782079696655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.829017162323</t>
+    <t xml:space="preserve">5.82901763916016</t>
   </si>
   <si>
     <t xml:space="preserve">5.9307599067688</t>
@@ -245,10 +245,10 @@
     <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28262042999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13000679016113</t>
+    <t xml:space="preserve">6.28262090682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13000726699829</t>
   </si>
   <si>
     <t xml:space="preserve">6.18511724472046</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">6.04522085189819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16392087936401</t>
+    <t xml:space="preserve">6.16392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">6.07489585876465</t>
@@ -266,28 +266,28 @@
     <t xml:space="preserve">6.10033178329468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99434947967529</t>
+    <t xml:space="preserve">5.99434995651245</t>
   </si>
   <si>
     <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99010992050171</t>
+    <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999214172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76542901992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75694990158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510259628296</t>
+    <t xml:space="preserve">5.73999261856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76542854309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75694942474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510307312012</t>
   </si>
   <si>
     <t xml:space="preserve">5.66792440414429</t>
@@ -296,52 +296,52 @@
     <t xml:space="preserve">5.63824987411499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65944576263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60433578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72303533554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71031761169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66368532180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49835348129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737850189209</t>
+    <t xml:space="preserve">5.65944623947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60433530807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72303485870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71031713485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6636848449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49835300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737802505493</t>
   </si>
   <si>
     <t xml:space="preserve">5.58313846588135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57465982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683164596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40932846069336</t>
+    <t xml:space="preserve">5.5746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40932893753052</t>
   </si>
   <si>
     <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24823570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32454252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37965297698975</t>
+    <t xml:space="preserve">5.24823474884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32454299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37965250015259</t>
   </si>
   <si>
     <t xml:space="preserve">5.51107120513916</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">5.06594562530518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18888568878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10409927368164</t>
+    <t xml:space="preserve">5.18888521194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10410022735596</t>
   </si>
   <si>
     <t xml:space="preserve">4.87093877792358</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">4.9006142616272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80735015869141</t>
+    <t xml:space="preserve">4.80734968185425</t>
   </si>
   <si>
     <t xml:space="preserve">4.83278512954712</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">4.53603506088257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52331733703613</t>
+    <t xml:space="preserve">4.52331781387329</t>
   </si>
   <si>
     <t xml:space="preserve">4.46396732330322</t>
@@ -383,22 +383,22 @@
     <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36646461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62506055831909</t>
+    <t xml:space="preserve">4.36646413803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62506008148193</t>
   </si>
   <si>
     <t xml:space="preserve">4.73952150344849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7480001449585</t>
+    <t xml:space="preserve">4.74799966812134</t>
   </si>
   <si>
     <t xml:space="preserve">5.00235748291016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474973678589</t>
+    <t xml:space="preserve">5.04474925994873</t>
   </si>
   <si>
     <t xml:space="preserve">5.08714246749878</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">5.31182432174683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33726072311401</t>
+    <t xml:space="preserve">5.33726024627686</t>
   </si>
   <si>
     <t xml:space="preserve">5.36693525314331</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20584201812744</t>
+    <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
     <t xml:space="preserve">5.28214979171753</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92181015014648</t>
+    <t xml:space="preserve">4.92180967330933</t>
   </si>
   <si>
     <t xml:space="preserve">4.97692108154297</t>
@@ -452,37 +452,37 @@
     <t xml:space="preserve">5.16344976425171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21432161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21008205413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17192792892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25671434402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34149980545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084934234619</t>
+    <t xml:space="preserve">5.21432113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21008157730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17192840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25671339035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3415002822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334568023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084981918335</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922437667847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618165969849</t>
+    <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161758422852</t>
+    <t xml:space="preserve">5.59161710739136</t>
   </si>
   <si>
     <t xml:space="preserve">5.55770301818848</t>
@@ -491,13 +491,13 @@
     <t xml:space="preserve">5.67216396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52378845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44748163223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44324254989624</t>
+    <t xml:space="preserve">5.5237889289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44748210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4432430267334</t>
   </si>
   <si>
     <t xml:space="preserve">5.48987436294556</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77814626693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92652130126953</t>
+    <t xml:space="preserve">5.7781457901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92652082443237</t>
   </si>
   <si>
     <t xml:space="preserve">6.48610687255859</t>
@@ -524,97 +524,97 @@
     <t xml:space="preserve">6.60056686401367</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61328554153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78285694122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21526432037354</t>
+    <t xml:space="preserve">6.61328506469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21526384353638</t>
   </si>
   <si>
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352062225342</t>
+    <t xml:space="preserve">7.11352157592773</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874980926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61799573898315</t>
+    <t xml:space="preserve">7.20678567886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777387619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353574752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874933242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61799621582031</t>
   </si>
   <si>
     <t xml:space="preserve">7.58832025527954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54592752456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767217636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722845077515</t>
+    <t xml:space="preserve">7.54592800140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4272289276123</t>
   </si>
   <si>
     <t xml:space="preserve">7.59255981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46114349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049160003662</t>
+    <t xml:space="preserve">7.46114301681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5204930305481</t>
   </si>
   <si>
     <t xml:space="preserve">7.45266389846802</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55440664291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669672012329</t>
+    <t xml:space="preserve">7.5544056892395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669624328613</t>
   </si>
   <si>
     <t xml:space="preserve">7.91898536682129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00377082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96985721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561670303345</t>
+    <t xml:space="preserve">8.00376987457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96985673904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03768444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561765670776</t>
   </si>
   <si>
     <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88931083679199</t>
+    <t xml:space="preserve">7.88930940628052</t>
   </si>
   <si>
     <t xml:space="preserve">7.82148218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93594217300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02496814727783</t>
+    <t xml:space="preserve">7.93594264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
     <t xml:space="preserve">8.30052089691162</t>
@@ -626,25 +626,25 @@
     <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28356456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73292922973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91945743560791</t>
+    <t xml:space="preserve">8.2835636138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73292827606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91945648193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.83467102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44041633605957</t>
+    <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
     <t xml:space="preserve">8.90249919891357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15685749053955</t>
+    <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
     <t xml:space="preserve">9.3264274597168</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">9.79274940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83514308929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61470031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49600028991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41121482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.368821144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23316287994385</t>
+    <t xml:space="preserve">9.83514213562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6146993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599933624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41121387481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36882019042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23316383361816</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207012176514</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">9.30099201202393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446285247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19925022125244</t>
+    <t xml:space="preserve">9.28403568267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446380615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
     <t xml:space="preserve">9.1229419708252</t>
@@ -692,10 +692,10 @@
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360660552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338665008545</t>
+    <t xml:space="preserve">9.45360565185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338569641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.24164199829102</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">9.05511474609375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96184921264648</t>
+    <t xml:space="preserve">8.96184825897217</t>
   </si>
   <si>
     <t xml:space="preserve">8.89402103424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91097831726074</t>
+    <t xml:space="preserve">8.91097736358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.7753210067749</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">9.40273571014404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41969108581543</t>
+    <t xml:space="preserve">9.41969203948975</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577747344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512748718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64861392974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62317752838135</t>
+    <t xml:space="preserve">9.58078479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512844085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64861488342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774208068848</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014621734619</t>
+    <t xml:space="preserve">10.3014631271362</t>
   </si>
   <si>
     <t xml:space="preserve">10.4032068252563</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">10.3184204101562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4286432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0725431442261</t>
+    <t xml:space="preserve">10.4286422729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0725421905518</t>
   </si>
   <si>
     <t xml:space="preserve">10.0047149658203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840671539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2336349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625558853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3692903518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479513168335</t>
+    <t xml:space="preserve">9.92840576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2336359024048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625577926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3692922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795150756836</t>
   </si>
   <si>
     <t xml:space="preserve">10.1742849349976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4371204376221</t>
+    <t xml:space="preserve">10.4371213912964</t>
   </si>
   <si>
     <t xml:space="preserve">10.3268995285034</t>
@@ -806,16 +806,16 @@
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288778305054</t>
+    <t xml:space="preserve">10.9288787841797</t>
   </si>
   <si>
     <t xml:space="preserve">11.005184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8525714874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6829996109009</t>
+    <t xml:space="preserve">10.8525705337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6830005645752</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166786193848</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2081985473633</t>
+    <t xml:space="preserve">10.2082004547119</t>
   </si>
   <si>
     <t xml:space="preserve">10.547342300415</t>
@@ -836,37 +836,37 @@
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169132232666</t>
+    <t xml:space="preserve">10.7169141769409</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797487258911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0645351409912</t>
+    <t xml:space="preserve">11.0645360946655</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9712705612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.674521446228</t>
+    <t xml:space="preserve">10.9712696075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6745204925537</t>
   </si>
   <si>
     <t xml:space="preserve">10.4879922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5982131958008</t>
+    <t xml:space="preserve">10.5982141494751</t>
   </si>
   <si>
     <t xml:space="preserve">11.0221424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3188915252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136632919312</t>
+    <t xml:space="preserve">11.3188924789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136623382568</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
@@ -875,46 +875,46 @@
     <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9543132781982</t>
+    <t xml:space="preserve">10.7253923416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9543142318726</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238851547241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1408424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6919498443604</t>
+    <t xml:space="preserve">11.1408433914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6919479370117</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.530858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1747570037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25954246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3951997756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3612842559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4460706710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6410760879517</t>
+    <t xml:space="preserve">11.5732488632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5308570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1747560501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2595415115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3951988220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3612852096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4460697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.641077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615198135376</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">11.785213470459</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8276052474976</t>
+    <t xml:space="preserve">11.8276062011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121561050415</t>
@@ -941,55 +941,55 @@
     <t xml:space="preserve">11.115406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5134286880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353776931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677850723267</t>
+    <t xml:space="preserve">10.5134267807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677841186523</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388641357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964714050293</t>
+    <t xml:space="preserve">10.5388631820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964694976807</t>
   </si>
   <si>
     <t xml:space="preserve">10.5642995834351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7423496246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9458351135254</t>
+    <t xml:space="preserve">10.7423486709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9458341598511</t>
   </si>
   <si>
     <t xml:space="preserve">10.8440914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6406059265137</t>
+    <t xml:space="preserve">10.640606880188</t>
   </si>
   <si>
     <t xml:space="preserve">10.0979776382446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5303840637207</t>
+    <t xml:space="preserve">10.530385017395</t>
   </si>
   <si>
     <t xml:space="preserve">10.8356132507324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1069288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4291124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086715698242</t>
+    <t xml:space="preserve">11.1069278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4291133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
     <t xml:space="preserve">11.27649974823</t>
@@ -1004,10 +1004,10 @@
     <t xml:space="preserve">11.3782424926758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5138998031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5647706985474</t>
+    <t xml:space="preserve">11.5138988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5647716522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.8699989318848</t>
@@ -1016,31 +1016,31 @@
     <t xml:space="preserve">11.6665134429932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0899715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864850997925</t>
+    <t xml:space="preserve">11.0899705886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864860534668</t>
   </si>
   <si>
     <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186569213867</t>
+    <t xml:space="preserve">10.818657875061</t>
   </si>
   <si>
     <t xml:space="preserve">10.7847423553467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8016986846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9034414291382</t>
+    <t xml:space="preserve">10.8016996383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9034423828125</t>
   </si>
   <si>
     <t xml:space="preserve">10.2421140670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3777713775635</t>
+    <t xml:space="preserve">10.3777704238892</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151714324951</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">10.1912431716919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2251567840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438558578491</t>
+    <t xml:space="preserve">10.2251577377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438568115234</t>
   </si>
   <si>
     <t xml:space="preserve">10.1064567565918</t>
@@ -1064,31 +1064,31 @@
     <t xml:space="preserve">9.69948482513428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51295566558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6316556930542</t>
+    <t xml:space="preserve">9.51295757293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63165664672852</t>
   </si>
   <si>
     <t xml:space="preserve">9.76731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73339939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7164421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37729930877686</t>
+    <t xml:space="preserve">9.73340034484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71644306182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37730026245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22468662261963</t>
+    <t xml:space="preserve">9.22468566894531</t>
   </si>
   <si>
     <t xml:space="preserve">9.47904300689697</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">9.56382846832275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68252849578857</t>
+    <t xml:space="preserve">9.68252754211426</t>
   </si>
   <si>
     <t xml:space="preserve">9.8181848526001</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">9.08902835845947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74988555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51248550415039</t>
+    <t xml:space="preserve">8.74988460540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51248455047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.49552822113037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42769908905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32595729827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05464172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9274640083313</t>
+    <t xml:space="preserve">8.42770004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32595634460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05464267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746353149414</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
@@ -1163,34 +1163,34 @@
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59727191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03815650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85162830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597099304199</t>
+    <t xml:space="preserve">8.56335830688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59727096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03815746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85162734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597003936768</t>
   </si>
   <si>
     <t xml:space="preserve">8.78379917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64814186096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76684188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63118553161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47857189178467</t>
+    <t xml:space="preserve">8.64814281463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76684284210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63118648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47857093811035</t>
   </si>
   <si>
     <t xml:space="preserve">8.52944278717041</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443355560303</t>
+    <t xml:space="preserve">8.33443546295166</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378547668457</t>
@@ -1208,13 +1208,13 @@
     <t xml:space="preserve">8.34291458129883</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24117088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95289945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245716094971</t>
+    <t xml:space="preserve">8.24116992950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95290088653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245763778687</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854307174683</t>
@@ -1223,55 +1223,55 @@
     <t xml:space="preserve">7.51201438903809</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30852842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18134927749634</t>
+    <t xml:space="preserve">7.30852890014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1813497543335</t>
   </si>
   <si>
     <t xml:space="preserve">7.12199974060059</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96938610076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612104415894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33396339416504</t>
+    <t xml:space="preserve">6.96938562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612056732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33396291732788</t>
   </si>
   <si>
     <t xml:space="preserve">7.30004930496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06264972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01177835464478</t>
+    <t xml:space="preserve">7.06264925003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01177883148193</t>
   </si>
   <si>
     <t xml:space="preserve">6.99482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09656429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331483840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787796020508</t>
+    <t xml:space="preserve">7.0965633392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13895702362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787748336792</t>
   </si>
   <si>
     <t xml:space="preserve">7.37635660171509</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80028533935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69006443023682</t>
+    <t xml:space="preserve">7.80028486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6900634765625</t>
   </si>
   <si>
     <t xml:space="preserve">8.13942909240723</t>
@@ -1286,22 +1286,22 @@
     <t xml:space="preserve">7.85115718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78332901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092115402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43570709228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24917793273926</t>
+    <t xml:space="preserve">7.78332805633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.435706615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24917888641357</t>
   </si>
   <si>
     <t xml:space="preserve">7.34244203567505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92699193954468</t>
+    <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">6.57089281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4945855140686</t>
+    <t xml:space="preserve">6.49458503723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414321899414</t>
+    <t xml:space="preserve">6.27414226531982</t>
   </si>
   <si>
     <t xml:space="preserve">6.2402286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69807100296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93547201156616</t>
+    <t xml:space="preserve">6.69807147979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.935471534729</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">6.52002096176147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33349275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51154279708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41827774047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86764240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24069976806641</t>
+    <t xml:space="preserve">6.33349227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51154184341431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41827821731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86764287948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24070024490356</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916376113892</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64720010757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68111419677734</t>
+    <t xml:space="preserve">6.6471996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68111371994019</t>
   </si>
   <si>
     <t xml:space="preserve">6.67263507843018</t>
@@ -1370,13 +1370,13 @@
     <t xml:space="preserve">6.56241369247437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37588548660278</t>
+    <t xml:space="preserve">6.37588453292847</t>
   </si>
   <si>
     <t xml:space="preserve">6.26566362380981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32501363754272</t>
+    <t xml:space="preserve">6.32501411437988</t>
   </si>
   <si>
     <t xml:space="preserve">6.44371366500854</t>
@@ -1391,13 +1391,13 @@
     <t xml:space="preserve">6.34197092056274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59632778167725</t>
+    <t xml:space="preserve">6.5963282585144</t>
   </si>
   <si>
     <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74894285202026</t>
+    <t xml:space="preserve">6.74894237518311</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459968566895</t>
@@ -1415,13 +1415,13 @@
     <t xml:space="preserve">7.13047790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03721475601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417108535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090650558472</t>
+    <t xml:space="preserve">7.0372142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417060852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090602874756</t>
   </si>
   <si>
     <t xml:space="preserve">6.791335105896</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">6.7404637336731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46914958953857</t>
+    <t xml:space="preserve">6.46915006637573</t>
   </si>
   <si>
     <t xml:space="preserve">6.29109954833984</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174953460693</t>
+    <t xml:space="preserve">6.23175001144409</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1451,13 +1451,13 @@
     <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96891403198242</t>
+    <t xml:space="preserve">5.96891355514526</t>
   </si>
   <si>
     <t xml:space="preserve">6.15544271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18087863922119</t>
+    <t xml:space="preserve">6.18087816238403</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132141113281</t>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -47,19 +47,19 @@
     <t xml:space="preserve">6.19359540939331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1893572807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06217861175537</t>
+    <t xml:space="preserve">6.18935680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06217765808105</t>
   </si>
   <si>
     <t xml:space="preserve">6.22327136993408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1172890663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1045708656311</t>
+    <t xml:space="preserve">6.11728858947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10457134246826</t>
   </si>
   <si>
     <t xml:space="preserve">6.14696359634399</t>
@@ -68,34 +68,34 @@
     <t xml:space="preserve">6.19783544540405</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07065677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97739267349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05793857574463</t>
+    <t xml:space="preserve">6.07065629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97739219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
     <t xml:space="preserve">6.17239952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35892868041992</t>
+    <t xml:space="preserve">6.35892820358276</t>
   </si>
   <si>
     <t xml:space="preserve">6.35044956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055269241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16815996170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12152862548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90956401824951</t>
+    <t xml:space="preserve">6.21055364608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1681604385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12152767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90956354141235</t>
   </si>
   <si>
     <t xml:space="preserve">5.86293172836304</t>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">5.85445308685303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8502140045166</t>
+    <t xml:space="preserve">5.85021448135376</t>
   </si>
   <si>
     <t xml:space="preserve">5.65096759796143</t>
@@ -113,40 +113,40 @@
     <t xml:space="preserve">5.68064260482788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53226804733276</t>
+    <t xml:space="preserve">5.53226709365845</t>
   </si>
   <si>
     <t xml:space="preserve">5.59585666656494</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91804218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93499946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04945993423462</t>
+    <t xml:space="preserve">5.91804170608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93499994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260673522949</t>
+    <t xml:space="preserve">5.89260625839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01554536819458</t>
+    <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">6.0028281211853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12576723098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85869264602661</t>
+    <t xml:space="preserve">6.12576770782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
     <t xml:space="preserve">5.62977075576782</t>
@@ -155,28 +155,28 @@
     <t xml:space="preserve">5.9010853767395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92228126525879</t>
+    <t xml:space="preserve">5.92228221893311</t>
   </si>
   <si>
     <t xml:space="preserve">5.82477807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89684581756592</t>
+    <t xml:space="preserve">5.89684629440308</t>
   </si>
   <si>
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086351394653</t>
+    <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
     <t xml:space="preserve">6.03674221038818</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24446773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31653499603271</t>
+    <t xml:space="preserve">6.24446678161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31653451919556</t>
   </si>
   <si>
     <t xml:space="preserve">6.22750997543335</t>
@@ -188,19 +188,19 @@
     <t xml:space="preserve">6.00706768035889</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88836765289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98587131500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88412857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8798885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9816312789917</t>
+    <t xml:space="preserve">5.88836812973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98587083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88412809371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87988901138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98163175582886</t>
   </si>
   <si>
     <t xml:space="preserve">5.87141036987305</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">6.2063136100769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0833740234375</t>
+    <t xml:space="preserve">6.08337450027466</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
@@ -221,16 +221,16 @@
     <t xml:space="preserve">5.95619583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84173488616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390718460083</t>
+    <t xml:space="preserve">5.84173536300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
     <t xml:space="preserve">5.76118898391724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80782079696655</t>
+    <t xml:space="preserve">5.80782127380371</t>
   </si>
   <si>
     <t xml:space="preserve">5.82901763916016</t>
@@ -245,16 +245,16 @@
     <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28262090682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13000726699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18511724472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522085189819</t>
+    <t xml:space="preserve">6.28262138366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13000679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18511772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522132873535</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392135620117</t>
@@ -263,22 +263,22 @@
     <t xml:space="preserve">6.07489585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10033178329468</t>
+    <t xml:space="preserve">6.10033130645752</t>
   </si>
   <si>
     <t xml:space="preserve">5.99434995651245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761358261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99011039733887</t>
+    <t xml:space="preserve">6.08761405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99010992050171</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999261856079</t>
+    <t xml:space="preserve">5.73999214172363</t>
   </si>
   <si>
     <t xml:space="preserve">5.76542854309082</t>
@@ -290,94 +290,94 @@
     <t xml:space="preserve">5.79510307312012</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66792440414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63824987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944623947144</t>
+    <t xml:space="preserve">5.66792488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63824939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944671630859</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72303485870361</t>
+    <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
     <t xml:space="preserve">5.71031713485718</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6636848449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49835300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313846588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683116912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40932893753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25247430801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24823474884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32454299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37965250015259</t>
+    <t xml:space="preserve">5.66368532180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49835348129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57465982437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683164596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4093279838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25247478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24823570251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32454252243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3796534538269</t>
   </si>
   <si>
     <t xml:space="preserve">5.51107120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06594562530518</t>
+    <t xml:space="preserve">5.06594610214233</t>
   </si>
   <si>
     <t xml:space="preserve">5.18888521194458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.10410022735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87093877792358</t>
+    <t xml:space="preserve">5.1040997505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87093830108643</t>
   </si>
   <si>
     <t xml:space="preserve">4.9006142616272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80734968185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278512954712</t>
+    <t xml:space="preserve">4.80734920501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278560638428</t>
   </si>
   <si>
     <t xml:space="preserve">4.6632137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53603506088257</t>
+    <t xml:space="preserve">4.53603553771973</t>
   </si>
   <si>
     <t xml:space="preserve">4.52331781387329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46396732330322</t>
+    <t xml:space="preserve">4.46396780014038</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244644165039</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506008148193</t>
+    <t xml:space="preserve">4.62506103515625</t>
   </si>
   <si>
     <t xml:space="preserve">4.73952150344849</t>
@@ -395,19 +395,19 @@
     <t xml:space="preserve">4.74799966812134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00235748291016</t>
+    <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
     <t xml:space="preserve">5.04474925994873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08714246749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31182432174683</t>
+    <t xml:space="preserve">5.08714199066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31182479858398</t>
   </si>
   <si>
     <t xml:space="preserve">5.33726024627686</t>
@@ -419,55 +419,55 @@
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095294952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18040704727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2058424949646</t>
+    <t xml:space="preserve">5.43476343154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095342636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18040657043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20584201812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22279977798462</t>
+    <t xml:space="preserve">5.22279930114746</t>
   </si>
   <si>
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9514856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92180967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97692108154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16344976425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21008157730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17192840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25671339035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3415002822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334568023682</t>
+    <t xml:space="preserve">4.95148515701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92181015014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97692155838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16345024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432161331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21008205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1719274520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2567138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34149932861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334615707397</t>
   </si>
   <si>
     <t xml:space="preserve">5.40084981918335</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">5.54922437667847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618213653564</t>
+    <t xml:space="preserve">5.56618165969849</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770301818848</t>
+    <t xml:space="preserve">5.59161758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770254135132</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216396331787</t>
@@ -497,22 +497,22 @@
     <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4432430267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48987436294556</t>
+    <t xml:space="preserve">5.44324254989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
     <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76966762542725</t>
+    <t xml:space="preserve">5.76966714859009</t>
   </si>
   <si>
     <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7781457901001</t>
+    <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
     <t xml:space="preserve">5.92652082443237</t>
@@ -521,142 +521,142 @@
     <t xml:space="preserve">6.48610687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60056686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61328506469727</t>
+    <t xml:space="preserve">6.60056734085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61328554153442</t>
   </si>
   <si>
     <t xml:space="preserve">6.78285646438599</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526384353638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63919258117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11352157592773</t>
+    <t xml:space="preserve">7.21526432037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63919353485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11352109909058</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678567886353</t>
+    <t xml:space="preserve">7.20678520202637</t>
   </si>
   <si>
     <t xml:space="preserve">7.50777387619019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50353574752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874933242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61799621582031</t>
+    <t xml:space="preserve">7.50353479385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874885559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.617995262146</t>
   </si>
   <si>
     <t xml:space="preserve">7.58832025527954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54592800140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4272289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59255981445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114301681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5204930305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266389846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5544056892395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669624328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898536682129</t>
+    <t xml:space="preserve">7.54592752456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722845077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59256029129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114158630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049207687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440616607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669672012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898488998413</t>
   </si>
   <si>
     <t xml:space="preserve">8.00376987457275</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96985673904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03768444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561765670776</t>
+    <t xml:space="preserve">7.96985721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03768539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561813354492</t>
   </si>
   <si>
     <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88930940628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594264984131</t>
+    <t xml:space="preserve">7.88931035995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594121932983</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30052089691162</t>
+    <t xml:space="preserve">8.30052185058594</t>
   </si>
   <si>
     <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41074275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2835636138916</t>
+    <t xml:space="preserve">8.41074180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28356456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83467102050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44041728973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90249919891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15685653686523</t>
+    <t xml:space="preserve">8.91945743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83467197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4404182434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90250015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15685749053955</t>
   </si>
   <si>
     <t xml:space="preserve">9.3264274597168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79274940490723</t>
+    <t xml:space="preserve">9.79275035858154</t>
   </si>
   <si>
     <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6146993637085</t>
+    <t xml:space="preserve">9.61469841003418</t>
   </si>
   <si>
     <t xml:space="preserve">9.49599933624268</t>
@@ -668,19 +668,19 @@
     <t xml:space="preserve">9.36882019042969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316383361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07207012176514</t>
+    <t xml:space="preserve">9.23316478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07207107543945</t>
   </si>
   <si>
     <t xml:space="preserve">9.30099201202393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446380615234</t>
+    <t xml:space="preserve">9.28403472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446285247803</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360565185547</t>
+    <t xml:space="preserve">9.45360469818115</t>
   </si>
   <si>
     <t xml:space="preserve">9.34338569641113</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">9.14837837219238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05511474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96184825897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402103424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097736358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7753210067749</t>
+    <t xml:space="preserve">9.05511379241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9618501663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89401912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097831726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77532196044922</t>
   </si>
   <si>
     <t xml:space="preserve">8.86010646820068</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273571014404</t>
+    <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.41969203948975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38577747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58078479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512844085693</t>
+    <t xml:space="preserve">9.38577842712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58078575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512748718262</t>
   </si>
   <si>
     <t xml:space="preserve">9.64861488342285</t>
@@ -749,61 +749,61 @@
     <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59774208068848</t>
+    <t xml:space="preserve">9.59774017333984</t>
   </si>
   <si>
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014631271362</t>
+    <t xml:space="preserve">10.3014621734619</t>
   </si>
   <si>
     <t xml:space="preserve">10.4032068252563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3184204101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286422729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590703964233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0725421905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0047149658203</t>
+    <t xml:space="preserve">10.3184194564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0725412368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
     <t xml:space="preserve">9.92840576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2336359024048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625577926636</t>
+    <t xml:space="preserve">10.2336349487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625558853149</t>
   </si>
   <si>
     <t xml:space="preserve">10.3692922592163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795150756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1742849349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4371213912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268995285034</t>
+    <t xml:space="preserve">10.4795141220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1742839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4371204376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269004821777</t>
   </si>
   <si>
     <t xml:space="preserve">10.4710359573364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6575632095337</t>
+    <t xml:space="preserve">10.657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.9288787841797</t>
@@ -812,37 +812,37 @@
     <t xml:space="preserve">11.005184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8525705337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6830005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2166786193848</t>
+    <t xml:space="preserve">10.8525714874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6829986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
     <t xml:space="preserve">10.4540777206421</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999568939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2082004547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.547342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7084350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169141769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9797487258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0645360946655</t>
+    <t xml:space="preserve">10.6999559402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2081995010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5473413467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7084360122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9797496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0645341873169</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917133331299</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">10.6745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4879922866821</t>
+    <t xml:space="preserve">10.4879913330078</t>
   </si>
   <si>
     <t xml:space="preserve">10.5982141494751</t>
@@ -863,10 +863,10 @@
     <t xml:space="preserve">11.0221424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3188924789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136623382568</t>
+    <t xml:space="preserve">11.3188934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136632919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253923416138</t>
+    <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
     <t xml:space="preserve">10.9543142318726</t>
@@ -884,22 +884,22 @@
     <t xml:space="preserve">11.1238851547241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1408433914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6919479370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5732488632202</t>
+    <t xml:space="preserve">11.1408424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.691948890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393342971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5732479095459</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747560501099</t>
+    <t xml:space="preserve">11.1747570037842</t>
   </si>
   <si>
     <t xml:space="preserve">11.2595415115356</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">11.3612852096558</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4460697174072</t>
+    <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
     <t xml:space="preserve">11.641077041626</t>
@@ -920,34 +920,34 @@
     <t xml:space="preserve">11.8615198135376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.785213470459</t>
+    <t xml:space="preserve">11.7852125167847</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121561050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4969425201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6156415939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203996658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.115406036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5134267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677841186523</t>
+    <t xml:space="preserve">11.4121570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4969415664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6156425476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203987121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1154050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677850723267</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
@@ -956,25 +956,25 @@
     <t xml:space="preserve">10.5388631820679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4964694976807</t>
+    <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.5642995834351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7423486709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9458341598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8440914154053</t>
+    <t xml:space="preserve">10.7423496246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9458351135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8440923690796</t>
   </si>
   <si>
     <t xml:space="preserve">10.640606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0979776382446</t>
+    <t xml:space="preserve">10.0979785919189</t>
   </si>
   <si>
     <t xml:space="preserve">10.530385017395</t>
@@ -992,13 +992,13 @@
     <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.27649974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834697723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004280090332</t>
+    <t xml:space="preserve">11.2764987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834707260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004289627075</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782424926758</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5647716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699989318848</t>
+    <t xml:space="preserve">11.5647706985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699998855591</t>
   </si>
   <si>
     <t xml:space="preserve">11.6665134429932</t>
@@ -1019,16 +1019,16 @@
     <t xml:space="preserve">11.0899705886841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8864860534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695278167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.818657875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7847423553467</t>
+    <t xml:space="preserve">10.8864850997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695268630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8186559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.784743309021</t>
   </si>
   <si>
     <t xml:space="preserve">10.8016996383667</t>
@@ -1043,73 +1043,73 @@
     <t xml:space="preserve">10.3777704238892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151714324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1912431716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2251577377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438568115234</t>
+    <t xml:space="preserve">10.6151723861694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1912422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2251567840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438549041748</t>
   </si>
   <si>
     <t xml:space="preserve">10.1064567565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88601398468018</t>
+    <t xml:space="preserve">9.88601207733154</t>
   </si>
   <si>
     <t xml:space="preserve">9.69948482513428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034202575684</t>
+    <t xml:space="preserve">9.5129566192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.63165664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76731491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73340034484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71644306182861</t>
+    <t xml:space="preserve">9.76731395721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7164421081543</t>
   </si>
   <si>
     <t xml:space="preserve">9.37730026245117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27555656433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22468566894531</t>
+    <t xml:space="preserve">9.27555561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.224684715271</t>
   </si>
   <si>
     <t xml:space="preserve">9.47904300689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56382846832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68252754211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8181848526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1234140396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929849624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2760276794434</t>
+    <t xml:space="preserve">9.56382751464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68252849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81818580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1234130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929859161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2760286331177</t>
   </si>
   <si>
     <t xml:space="preserve">9.75035667419434</t>
@@ -1118,34 +1118,34 @@
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425659179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02120018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66557025909424</t>
+    <t xml:space="preserve">9.39425754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251384735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02119922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66557121276855</t>
   </si>
   <si>
     <t xml:space="preserve">9.08902835845947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74988460540771</t>
+    <t xml:space="preserve">8.7498836517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.51248455047607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552822113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42770004272461</t>
+    <t xml:space="preserve">8.49552726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42769908905029</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
@@ -1163,34 +1163,34 @@
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335830688477</t>
+    <t xml:space="preserve">8.56335639953613</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03815746307373</t>
+    <t xml:space="preserve">9.0381555557251</t>
   </si>
   <si>
     <t xml:space="preserve">8.85162734985352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71597003936768</t>
+    <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
     <t xml:space="preserve">8.78379917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64814281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76684284210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63118648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47857093811035</t>
+    <t xml:space="preserve">8.64814186096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76684188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63118553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47856998443604</t>
   </si>
   <si>
     <t xml:space="preserve">8.52944278717041</t>
@@ -1199,37 +1199,37 @@
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39378547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34291458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24116992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95290088653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245763778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854307174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852890014648</t>
+    <t xml:space="preserve">8.33443450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39378452301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34291362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24117088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95289897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245668411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854164123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852842330933</t>
   </si>
   <si>
     <t xml:space="preserve">7.1813497543335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12199974060059</t>
+    <t xml:space="preserve">7.12199926376343</t>
   </si>
   <si>
     <t xml:space="preserve">6.96938562393188</t>
@@ -1238,13 +1238,13 @@
     <t xml:space="preserve">6.87612056732178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33396291732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30004930496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06264925003052</t>
+    <t xml:space="preserve">7.33396339416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.300048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06264972686768</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177883148193</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">6.99482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0965633392334</t>
+    <t xml:space="preserve">7.09656381607056</t>
   </si>
   <si>
     <t xml:space="preserve">7.13895702362061</t>
@@ -1262,67 +1262,67 @@
     <t xml:space="preserve">7.39331436157227</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36787748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635660171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028486251831</t>
+    <t xml:space="preserve">7.36787796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635612487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028533935547</t>
   </si>
   <si>
     <t xml:space="preserve">7.6900634765625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13942909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19029998779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11399269104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85115718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78332805633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092067718506</t>
+    <t xml:space="preserve">8.13942813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19029903411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11399364471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85115623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092115402222</t>
   </si>
   <si>
     <t xml:space="preserve">7.435706615448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24917888641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244203567505</t>
+    <t xml:space="preserve">7.24917840957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244298934937</t>
   </si>
   <si>
     <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82524967193604</t>
+    <t xml:space="preserve">6.82525014877319</t>
   </si>
   <si>
     <t xml:space="preserve">6.57089281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49458503723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30805683135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27414226531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2402286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69807147979736</t>
+    <t xml:space="preserve">6.4945855140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30805635452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27414274215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24022817611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
     <t xml:space="preserve">6.935471534729</t>
@@ -1337,40 +1337,40 @@
     <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51154184341431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41827821731567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86764287948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24070024490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85916376113892</t>
+    <t xml:space="preserve">6.51154279708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41827869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86764240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069976806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85916328430176</t>
   </si>
   <si>
     <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6471996307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68111371994019</t>
+    <t xml:space="preserve">6.64720010757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68111419677734</t>
   </si>
   <si>
     <t xml:space="preserve">6.67263507843018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62176370620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56241369247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588453292847</t>
+    <t xml:space="preserve">6.62176322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56241416931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588548660278</t>
   </si>
   <si>
     <t xml:space="preserve">6.26566362380981</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52849960327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38436365127563</t>
+    <t xml:space="preserve">6.52849912643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
     <t xml:space="preserve">6.34197092056274</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">6.5963282585144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57937145233154</t>
+    <t xml:space="preserve">6.57937097549438</t>
   </si>
   <si>
     <t xml:space="preserve">6.74894237518311</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830656051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29157161712646</t>
+    <t xml:space="preserve">7.19830751419067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29157114028931</t>
   </si>
   <si>
     <t xml:space="preserve">7.15591382980347</t>
@@ -1415,34 +1415,34 @@
     <t xml:space="preserve">7.13047790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0372142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417060852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090602874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.791335105896</t>
+    <t xml:space="preserve">7.03721380233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417156219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79133558273315</t>
   </si>
   <si>
     <t xml:space="preserve">6.7404637336731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46915006637573</t>
+    <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
     <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45219278335571</t>
+    <t xml:space="preserve">6.45219230651855</t>
   </si>
   <si>
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23175001144409</t>
+    <t xml:space="preserve">6.23174953460693</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96891355514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15544271469116</t>
+    <t xml:space="preserve">5.96891403198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.155442237854</t>
   </si>
   <si>
     <t xml:space="preserve">6.18087816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40132141113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58120059967041</t>
+    <t xml:space="preserve">6.40132093429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58120155334473</t>
   </si>
   <si>
     <t xml:space="preserve">6.40640115737915</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388153076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24908208847046</t>
+    <t xml:space="preserve">6.42388105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2490816116333</t>
   </si>
   <si>
     <t xml:space="preserve">6.08302211761475</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">6.12672233581543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16168212890625</t>
+    <t xml:space="preserve">6.16168165206909</t>
   </si>
   <si>
     <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35396146774292</t>
+    <t xml:space="preserve">6.35396099090576</t>
   </si>
   <si>
     <t xml:space="preserve">6.34522151947021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33648109436035</t>
+    <t xml:space="preserve">6.33648157119751</t>
   </si>
   <si>
     <t xml:space="preserve">6.28404188156128</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20538187026978</t>
+    <t xml:space="preserve">6.20538139343262</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782155990601</t>
+    <t xml:space="preserve">6.25782108306885</t>
   </si>
   <si>
     <t xml:space="preserve">6.37144136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29278135299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900215148926</t>
+    <t xml:space="preserve">6.29278182983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3190016746521</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514158248901</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">6.03058242797852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97814273834229</t>
+    <t xml:space="preserve">5.97814226150513</t>
   </si>
   <si>
     <t xml:space="preserve">5.98688220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9956226348877</t>
+    <t xml:space="preserve">5.99562215805054</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">6.02184200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96940231323242</t>
+    <t xml:space="preserve">5.96940183639526</t>
   </si>
   <si>
     <t xml:space="preserve">6.01310253143311</t>
@@ -1577,25 +1577,25 @@
     <t xml:space="preserve">6.17916202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03932237625122</t>
+    <t xml:space="preserve">6.03932189941406</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428216934204</t>
+    <t xml:space="preserve">6.07428169250488</t>
   </si>
   <si>
     <t xml:space="preserve">6.15294170379639</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06554269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31026172637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17042207717896</t>
+    <t xml:space="preserve">6.06554174423218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31026124954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1704216003418</t>
   </si>
   <si>
     <t xml:space="preserve">5.85578298568726</t>
@@ -1604,28 +1604,28 @@
     <t xml:space="preserve">5.91696262359619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95192289352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96066284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94318294525146</t>
+    <t xml:space="preserve">5.95192241668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96066236495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94318246841431</t>
   </si>
   <si>
     <t xml:space="preserve">5.9344425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89948225021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30152177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55498123168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54624080657959</t>
+    <t xml:space="preserve">5.89948272705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30152130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55498075485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54624032974243</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">6.53750085830688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46758079528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66860103607178</t>
+    <t xml:space="preserve">6.46758127212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
     <t xml:space="preserve">6.64238023757935</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">6.86087989807129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84340000152588</t>
+    <t xml:space="preserve">6.84339952468872</t>
   </si>
   <si>
     <t xml:space="preserve">6.77348041534424</t>
@@ -1661,82 +1661,82 @@
     <t xml:space="preserve">6.89583969116211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99197912216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27165842056274</t>
+    <t xml:space="preserve">6.99197959899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2716588973999</t>
   </si>
   <si>
     <t xml:space="preserve">7.42897844314575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58629846572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38527774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56007671356201</t>
+    <t xml:space="preserve">7.58629751205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38527822494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56007766723633</t>
   </si>
   <si>
     <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60377740859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49015760421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385877609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64747762680054</t>
+    <t xml:space="preserve">7.6037769317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49015808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385782241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64747714996338</t>
   </si>
   <si>
     <t xml:space="preserve">7.62999677658081</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54259824752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51637887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57755756378174</t>
+    <t xml:space="preserve">7.54259729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51637840270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5775580406189</t>
   </si>
   <si>
     <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39401865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70865774154663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76983737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84849691390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85723686218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76109790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7348780632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52511787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50763845443726</t>
+    <t xml:space="preserve">7.39401817321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70865726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76983785629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84849739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85723638534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76109743118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73487710952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52511692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
     <t xml:space="preserve">7.36779880523682</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">7.22795963287354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1230788230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98323965072632</t>
+    <t xml:space="preserve">7.12307834625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49380111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136142730713</t>
+    <t xml:space="preserve">6.4938006401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136095046997</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490081787109</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">6.59868097305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81717967987061</t>
+    <t xml:space="preserve">6.81718015670776</t>
   </si>
   <si>
     <t xml:space="preserve">6.79970026016235</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">6.65986061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83830261230469</t>
+    <t xml:space="preserve">5.83830308914185</t>
   </si>
   <si>
     <t xml:space="preserve">5.84704303741455</t>
@@ -1805,37 +1805,37 @@
     <t xml:space="preserve">4.64092636108398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36998701095581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36561727523804</t>
+    <t xml:space="preserve">4.36998653411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36561679840088</t>
   </si>
   <si>
     <t xml:space="preserve">4.45738697052002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1645975112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96357822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365816116333</t>
+    <t xml:space="preserve">4.16459798812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96357798576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365863800049</t>
   </si>
   <si>
     <t xml:space="preserve">3.84995889663696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78877878189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85432887077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90239834785461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89802861213684</t>
+    <t xml:space="preserve">3.78877902030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85432863235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90239906311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89802837371826</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
@@ -1853,13 +1853,13 @@
     <t xml:space="preserve">3.66204953193665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70574927330017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818943977356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02038812637329</t>
+    <t xml:space="preserve">3.70574903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02038860321045</t>
   </si>
   <si>
     <t xml:space="preserve">4.01164817810059</t>
@@ -1871,19 +1871,19 @@
     <t xml:space="preserve">4.30006790161133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35250759124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478693008423</t>
+    <t xml:space="preserve">4.3525071144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
     <t xml:space="preserve">4.89438581466675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15658569335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422594070435</t>
+    <t xml:space="preserve">5.15658473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422546386719</t>
   </si>
   <si>
     <t xml:space="preserve">4.96430540084839</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">4.77202606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84194564819336</t>
+    <t xml:space="preserve">4.84194612503052</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446575164795</t>
@@ -1901,13 +1901,13 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336030960083</t>
+    <t xml:space="preserve">4.71335983276367</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60417079925537</t>
+    <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
     <t xml:space="preserve">4.5495753288269</t>
@@ -1928,25 +1928,25 @@
     <t xml:space="preserve">4.87714529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11372327804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73246574401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89624977111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95084476470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85985374450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93264675140381</t>
+    <t xml:space="preserve">5.1137228012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7324652671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89625024795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80525827407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95084428787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85985326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93264627456665</t>
   </si>
   <si>
     <t xml:space="preserve">5.91444826126099</t>
@@ -1955,37 +1955,37 @@
     <t xml:space="preserve">5.82345676422119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06003475189209</t>
+    <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
     <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62327575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55048227310181</t>
+    <t xml:space="preserve">5.62327527999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55048179626465</t>
   </si>
   <si>
     <t xml:space="preserve">5.53228378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56868028640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38669729232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35030126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47768926620483</t>
+    <t xml:space="preserve">5.56868076324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38669776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35030031204224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47768878936768</t>
   </si>
   <si>
     <t xml:space="preserve">5.51408529281616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64147329330444</t>
+    <t xml:space="preserve">5.6414737701416</t>
   </si>
   <si>
     <t xml:space="preserve">5.45949077606201</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651580810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36849975585938</t>
+    <t xml:space="preserve">5.18651628494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36849927902222</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2030,10 +2030,10 @@
     <t xml:space="preserve">5.15011930465698</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00453329086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13192129135132</t>
+    <t xml:space="preserve">5.00453281402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13192081451416</t>
   </si>
   <si>
     <t xml:space="preserve">5.05912780761719</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">5.04092979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49588775634766</t>
+    <t xml:space="preserve">5.4958872795105</t>
   </si>
   <si>
     <t xml:space="preserve">5.22291278839111</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26750230789185</t>
+    <t xml:space="preserve">4.26750183105469</t>
   </si>
   <si>
     <t xml:space="preserve">4.31299734115601</t>
@@ -2072,25 +2072,25 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534330368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24111175537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44129228591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60507726669312</t>
+    <t xml:space="preserve">4.89534282684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24111127853394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44129276275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60507678985596</t>
   </si>
   <si>
     <t xml:space="preserve">5.8780517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78706026077271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02363777160645</t>
+    <t xml:space="preserve">5.78706073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0236382484436</t>
   </si>
   <si>
     <t xml:space="preserve">6.09643125534058</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">6.11462926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24201774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16922473907471</t>
+    <t xml:space="preserve">6.24201822280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16922426223755</t>
   </si>
   <si>
     <t xml:space="preserve">6.27841424942017</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">6.00543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18742322921753</t>
+    <t xml:space="preserve">6.18742275238037</t>
   </si>
   <si>
     <t xml:space="preserve">6.33300924301147</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">6.58778524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82436370849609</t>
+    <t xml:space="preserve">6.82436323165894</t>
   </si>
   <si>
     <t xml:space="preserve">6.96994924545288</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">6.93355321884155</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80616521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76976871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71517324447632</t>
+    <t xml:space="preserve">6.80616474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76976823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71517372131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">6.89715671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8425612449646</t>
+    <t xml:space="preserve">6.84256172180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.86075973510742</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18832969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02454471588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00634622573853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09733772277832</t>
+    <t xml:space="preserve">7.18832921981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02454423904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00634574890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09733819961548</t>
   </si>
   <si>
     <t xml:space="preserve">7.07913970947266</t>
@@ -2210,34 +2210,34 @@
     <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27932071685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29751968383789</t>
+    <t xml:space="preserve">7.27932119369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29752016067505</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15193271636963</t>
+    <t xml:space="preserve">7.15193319320679</t>
   </si>
   <si>
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851118087769</t>
+    <t xml:space="preserve">7.38851070404053</t>
   </si>
   <si>
     <t xml:space="preserve">7.91626119613647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02545166015625</t>
+    <t xml:space="preserve">8.02545070648193</t>
   </si>
   <si>
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824466705322</t>
+    <t xml:space="preserve">8.09824371337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
@@ -2246,19 +2246,19 @@
     <t xml:space="preserve">7.9708571434021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98905467987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82527112960815</t>
+    <t xml:space="preserve">7.98905420303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82527017593384</t>
   </si>
   <si>
     <t xml:space="preserve">7.87986469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725364685059</t>
+    <t xml:space="preserve">8.04364967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725269317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
@@ -2267,16 +2267,16 @@
     <t xml:space="preserve">8.26202964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18923664093018</t>
+    <t xml:space="preserve">8.18923568725586</t>
   </si>
   <si>
     <t xml:space="preserve">7.75247764587402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86166667938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78887414932251</t>
+    <t xml:space="preserve">7.86166715621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78887319564819</t>
   </si>
   <si>
     <t xml:space="preserve">7.93446016311646</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">8.14737796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05521202087402</t>
+    <t xml:space="preserve">8.05521297454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.25797557830811</t>
@@ -2300,19 +2300,19 @@
     <t xml:space="preserve">8.44230556488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014057159424</t>
+    <t xml:space="preserve">8.35014152526855</t>
   </si>
   <si>
     <t xml:space="preserve">8.40543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46073818206787</t>
+    <t xml:space="preserve">8.46073913574219</t>
   </si>
   <si>
     <t xml:space="preserve">8.42387294769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38700675964355</t>
+    <t xml:space="preserve">8.38700771331787</t>
   </si>
   <si>
     <t xml:space="preserve">8.68193435668945</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">8.66350078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88469696044922</t>
+    <t xml:space="preserve">8.88469791412354</t>
   </si>
   <si>
     <t xml:space="preserve">8.84783172607422</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">8.99529552459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19805717468262</t>
+    <t xml:space="preserve">9.19805812835693</t>
   </si>
   <si>
     <t xml:space="preserve">9.30865573883057</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">9.4008207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35473728179932</t>
+    <t xml:space="preserve">9.35473823547363</t>
   </si>
   <si>
     <t xml:space="preserve">9.16119194030762</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">9.5390682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58514976501465</t>
+    <t xml:space="preserve">9.58515071868896</t>
   </si>
   <si>
     <t xml:space="preserve">9.21649074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72339725494385</t>
+    <t xml:space="preserve">9.72339820861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.86164474487305</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">10.1381397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2763872146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5528812408447</t>
+    <t xml:space="preserve">10.2763862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.552882194519</t>
   </si>
   <si>
     <t xml:space="preserve">10.7832937240601</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519546508789</t>
+    <t xml:space="preserve">11.1519536972046</t>
   </si>
   <si>
     <t xml:space="preserve">11.0597887039185</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.0137062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2441186904907</t>
+    <t xml:space="preserve">11.2441177368164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5206136703491</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">11.428448677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3362836837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8754587173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1980361938477</t>
+    <t xml:space="preserve">11.3362846374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8754596710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1980352401733</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902011871338</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">10.5989646911621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3823661804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8293771743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607172012329</t>
+    <t xml:space="preserve">11.3823671340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8293762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607181549072</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842222213745</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">10.9215421676636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4745302200317</t>
+    <t xml:space="preserve">11.4745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">11.7049427032471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9814386367798</t>
+    <t xml:space="preserve">11.9814376831055</t>
   </si>
   <si>
     <t xml:space="preserve">11.8431911468506</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">9.6773157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94461441040039</t>
+    <t xml:space="preserve">7.94461488723755</t>
   </si>
   <si>
     <t xml:space="preserve">8.60820198059082</t>
@@ -2513,22 +2513,22 @@
     <t xml:space="preserve">10.4330673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.930757522583</t>
+    <t xml:space="preserve">10.9307584762573</t>
   </si>
   <si>
     <t xml:space="preserve">10.4515008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118711471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80634593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93537712097168</t>
+    <t xml:space="preserve">10.396201133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80634689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93537616729736</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644083023071</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">9.84321212768555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73261547088623</t>
+    <t xml:space="preserve">9.73261451721191</t>
   </si>
   <si>
     <t xml:space="preserve">9.4376859664917</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">9.54828357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6957483291626</t>
+    <t xml:space="preserve">9.69574928283691</t>
   </si>
   <si>
     <t xml:space="preserve">9.00835800170898</t>
@@ -59292,7 +59292,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6494791667</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>2139</v>
@@ -59313,6 +59313,32 @@
         <v>1062</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6493402778</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>1056578</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -47,28 +47,28 @@
     <t xml:space="preserve">6.19359540939331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18935680389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06217765808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22327136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11728858947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10457134246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14696359634399</t>
+    <t xml:space="preserve">6.1893572807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06217813491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22327089309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1172890663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1045708656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14696407318115</t>
   </si>
   <si>
     <t xml:space="preserve">6.19783544540405</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07065629959106</t>
+    <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.97739219665527</t>
@@ -77,22 +77,22 @@
     <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17239952087402</t>
+    <t xml:space="preserve">6.17239999771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.35892820358276</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35044956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21055364608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1681604385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12152767181396</t>
+    <t xml:space="preserve">6.3504490852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21055269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16815996170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12152814865112</t>
   </si>
   <si>
     <t xml:space="preserve">5.90956354141235</t>
@@ -104,34 +104,34 @@
     <t xml:space="preserve">5.85445308685303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85021448135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65096759796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064260482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53226709365845</t>
+    <t xml:space="preserve">5.8502140045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65096712112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
     <t xml:space="preserve">5.59585666656494</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91804170608521</t>
+    <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499994277954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04946041107178</t>
+    <t xml:space="preserve">6.04945993423462</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260625839233</t>
+    <t xml:space="preserve">5.89260673522949</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
@@ -140,64 +140,64 @@
     <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0028281211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12576770782471</t>
+    <t xml:space="preserve">6.00282859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12576723098755</t>
   </si>
   <si>
     <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62977075576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9010853767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228221893311</t>
+    <t xml:space="preserve">5.62977123260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90108585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228126525879</t>
   </si>
   <si>
     <t xml:space="preserve">5.82477807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89684629440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83325672149658</t>
+    <t xml:space="preserve">5.89684581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83325719833374</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31653451919556</t>
+    <t xml:space="preserve">6.03674268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446725845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
     <t xml:space="preserve">6.22750997543335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11304998397827</t>
+    <t xml:space="preserve">6.11304950714111</t>
   </si>
   <si>
     <t xml:space="preserve">6.00706768035889</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88836812973022</t>
+    <t xml:space="preserve">5.88836717605591</t>
   </si>
   <si>
     <t xml:space="preserve">5.98587083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88412809371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87988901138306</t>
+    <t xml:space="preserve">5.88412857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8798885345459</t>
   </si>
   <si>
     <t xml:space="preserve">5.98163175582886</t>
@@ -206,34 +206,34 @@
     <t xml:space="preserve">5.87141036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07913541793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2063136100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337450027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14272451400757</t>
+    <t xml:space="preserve">6.07913494110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20631408691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08337497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14272403717041</t>
   </si>
   <si>
     <t xml:space="preserve">5.95619583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84173536300659</t>
+    <t xml:space="preserve">5.84173488616943</t>
   </si>
   <si>
     <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118898391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80782127380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82901763916016</t>
+    <t xml:space="preserve">5.76118850708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80782079696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.829017162323</t>
   </si>
   <si>
     <t xml:space="preserve">5.9307599067688</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99858856201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28262138366699</t>
+    <t xml:space="preserve">5.99858808517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28262090682983</t>
   </si>
   <si>
     <t xml:space="preserve">6.13000679016113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18511772155762</t>
+    <t xml:space="preserve">6.18511724472046</t>
   </si>
   <si>
     <t xml:space="preserve">6.04522132873535</t>
@@ -269,34 +269,34 @@
     <t xml:space="preserve">5.99434995651245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761405944824</t>
+    <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
     <t xml:space="preserve">5.99010992050171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81629991531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73999214172363</t>
+    <t xml:space="preserve">5.81629943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73999261856079</t>
   </si>
   <si>
     <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75694942474365</t>
+    <t xml:space="preserve">5.75694990158081</t>
   </si>
   <si>
     <t xml:space="preserve">5.79510307312012</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66792488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63824939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944671630859</t>
+    <t xml:space="preserve">5.66792440414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63824987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944576263428</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71031713485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66368532180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49835348129272</t>
+    <t xml:space="preserve">5.71031761169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66368579864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49835300445557</t>
   </si>
   <si>
     <t xml:space="preserve">5.57889938354492</t>
@@ -323,25 +323,25 @@
     <t xml:space="preserve">5.58313894271851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57465982437134</t>
+    <t xml:space="preserve">5.5746603012085</t>
   </si>
   <si>
     <t xml:space="preserve">5.50683164596558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4093279838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25247478485107</t>
+    <t xml:space="preserve">5.40932846069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
     <t xml:space="preserve">5.24823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32454252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3796534538269</t>
+    <t xml:space="preserve">5.32454299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37965297698975</t>
   </si>
   <si>
     <t xml:space="preserve">5.51107120513916</t>
@@ -350,25 +350,25 @@
     <t xml:space="preserve">5.06594610214233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18888521194458</t>
+    <t xml:space="preserve">5.18888568878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093830108643</t>
+    <t xml:space="preserve">4.87093877792358</t>
   </si>
   <si>
     <t xml:space="preserve">4.9006142616272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80734920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6632137298584</t>
+    <t xml:space="preserve">4.80734968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66321420669556</t>
   </si>
   <si>
     <t xml:space="preserve">4.53603553771973</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">4.52331781387329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46396780014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244644165039</t>
+    <t xml:space="preserve">4.46396732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244548797607</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506103515625</t>
+    <t xml:space="preserve">4.62506008148193</t>
   </si>
   <si>
     <t xml:space="preserve">4.73952150344849</t>
@@ -398,10 +398,10 @@
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714199066162</t>
+    <t xml:space="preserve">5.04474973678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714294433594</t>
   </si>
   <si>
     <t xml:space="preserve">5.19312477111816</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">5.31182479858398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33726024627686</t>
+    <t xml:space="preserve">5.33726072311401</t>
   </si>
   <si>
     <t xml:space="preserve">5.36693525314331</t>
@@ -422,25 +422,25 @@
     <t xml:space="preserve">5.43476343154907</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26095342636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18040657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20584201812744</t>
+    <t xml:space="preserve">5.26095247268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18040704727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
     <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22279930114746</t>
+    <t xml:space="preserve">5.22279977798462</t>
   </si>
   <si>
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95148515701294</t>
+    <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">4.97692155838013</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16345024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21008205413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1719274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2567138671875</t>
+    <t xml:space="preserve">5.16344976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21008157730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17192792892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25671434402466</t>
   </si>
   <si>
     <t xml:space="preserve">5.34149932861328</t>
@@ -479,151 +479,151 @@
     <t xml:space="preserve">5.56618165969849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61281394958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59161758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770254135132</t>
+    <t xml:space="preserve">5.61281442642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59161710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770301818848</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5237889289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44748210906982</t>
+    <t xml:space="preserve">5.52378797531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44748163223267</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48987483978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51954984664917</t>
+    <t xml:space="preserve">5.48987436294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51955032348633</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966714859009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488168716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77814626693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92652082443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60056734085083</t>
+    <t xml:space="preserve">5.68488121032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7781457901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92652130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48610639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60056686401367</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78285646438599</t>
+    <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
     <t xml:space="preserve">7.21526432037354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63919353485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11352109909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04569244384766</t>
+    <t xml:space="preserve">7.63919258117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11352062225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04569292068481</t>
   </si>
   <si>
     <t xml:space="preserve">7.20678520202637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50777387619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353479385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.617995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58832025527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54592752456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722845077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59256029129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049207687378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440616607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669672012329</t>
+    <t xml:space="preserve">7.50777435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61799621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5883207321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54592800140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767217636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722797393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59255981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114349365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049160003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266342163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440664291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669576644897</t>
   </si>
   <si>
     <t xml:space="preserve">7.91898488998413</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00376987457275</t>
+    <t xml:space="preserve">8.00377082824707</t>
   </si>
   <si>
     <t xml:space="preserve">7.96985721588135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931035995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148170471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594121932983</t>
+    <t xml:space="preserve">8.03768444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931179046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594264984131</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30052185058594</t>
+    <t xml:space="preserve">8.30052089691162</t>
   </si>
   <si>
     <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41074180603027</t>
+    <t xml:space="preserve">8.41074371337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.28356456756592</t>
@@ -635,28 +635,28 @@
     <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83467197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4404182434082</t>
+    <t xml:space="preserve">8.83467102050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
     <t xml:space="preserve">8.90250015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15685749053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3264274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79275035858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83514213562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61469841003418</t>
+    <t xml:space="preserve">9.15685653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32642841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79274940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83514308929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6146993637085</t>
   </si>
   <si>
     <t xml:space="preserve">9.49599933624268</t>
@@ -668,31 +668,31 @@
     <t xml:space="preserve">9.36882019042969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316478729248</t>
+    <t xml:space="preserve">9.23316287994385</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207107543945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30099201202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28403472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446285247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19924926757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1229419708252</t>
+    <t xml:space="preserve">9.30099296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28403568267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446380615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19925022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12294292449951</t>
   </si>
   <si>
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360469818115</t>
+    <t xml:space="preserve">9.45360565185547</t>
   </si>
   <si>
     <t xml:space="preserve">9.34338569641113</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16533470153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837837219238</t>
+    <t xml:space="preserve">9.1653356552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837741851807</t>
   </si>
   <si>
     <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9618501663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89401912689209</t>
+    <t xml:space="preserve">8.96184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
@@ -722,94 +722,94 @@
     <t xml:space="preserve">8.77532196044922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86010646820068</t>
+    <t xml:space="preserve">8.860107421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969203948975</t>
+    <t xml:space="preserve">9.40273571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577842712402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512748718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64861488342285</t>
+    <t xml:space="preserve">9.58078479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512844085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59774017333984</t>
+    <t xml:space="preserve">9.59774208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014621734619</t>
+    <t xml:space="preserve">10.3014631271362</t>
   </si>
   <si>
     <t xml:space="preserve">10.4032068252563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3184194564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0725412368774</t>
+    <t xml:space="preserve">10.3184204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286422729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0725421905518</t>
   </si>
   <si>
     <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2336349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625558853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3692922592163</t>
+    <t xml:space="preserve">9.92840671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2336339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369291305542</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795141220093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4371204376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269004821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4710359573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9288787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.005184173584</t>
+    <t xml:space="preserve">10.1742858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4371213912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3268995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4710350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6575632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9288778305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0051851272583</t>
   </si>
   <si>
     <t xml:space="preserve">10.8525714874268</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">10.4540777206421</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999559402466</t>
+    <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
     <t xml:space="preserve">10.2081995010376</t>
@@ -833,37 +833,37 @@
     <t xml:space="preserve">10.5473413467407</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7084360122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9797496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0645341873169</t>
+    <t xml:space="preserve">10.7084341049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169151306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9797487258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9712696075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6745204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4879913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5982141494751</t>
+    <t xml:space="preserve">10.9712705612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.674521446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4879922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5982131958008</t>
   </si>
   <si>
     <t xml:space="preserve">11.0221424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3188934326172</t>
+    <t xml:space="preserve">11.3188915252686</t>
   </si>
   <si>
     <t xml:space="preserve">11.0136632919312</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9543142318726</t>
+    <t xml:space="preserve">10.9543132781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238851547241</t>
@@ -887,13 +887,13 @@
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.691948890686</t>
+    <t xml:space="preserve">11.6919498443604</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393342971802</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732479095459</t>
+    <t xml:space="preserve">11.5732469558716</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308570861816</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">11.1747570037842</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2595415115356</t>
+    <t xml:space="preserve">11.25954246521</t>
   </si>
   <si>
     <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3612852096558</t>
+    <t xml:space="preserve">11.3612842559814</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
@@ -920,28 +920,28 @@
     <t xml:space="preserve">11.8615198135376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7852125167847</t>
+    <t xml:space="preserve">11.785213470459</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4969415664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6156425476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203987121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1154050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.513427734375</t>
+    <t xml:space="preserve">11.4121561050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4969425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6156415939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203996658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.115406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5134286880493</t>
   </si>
   <si>
     <t xml:space="preserve">10.3353786468506</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388631820679</t>
+    <t xml:space="preserve">10.5388641357422</t>
   </si>
   <si>
     <t xml:space="preserve">10.4964714050293</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">10.5642995834351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7423496246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9458351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8440923690796</t>
+    <t xml:space="preserve">10.7423486709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9458341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8440914154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.640606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0979785919189</t>
+    <t xml:space="preserve">10.0979776382446</t>
   </si>
   <si>
     <t xml:space="preserve">10.530385017395</t>
@@ -992,28 +992,28 @@
     <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2764987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834707260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004289627075</t>
+    <t xml:space="preserve">11.27649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834697723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782424926758</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5138988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5647706985474</t>
+    <t xml:space="preserve">11.5138998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5647716522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.8699998855591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6665134429932</t>
+    <t xml:space="preserve">11.6665143966675</t>
   </si>
   <si>
     <t xml:space="preserve">11.0899705886841</t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve">10.8695268630981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.784743309021</t>
+    <t xml:space="preserve">10.8186569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7847423553467</t>
   </si>
   <si>
     <t xml:space="preserve">10.8016996383667</t>
@@ -1040,28 +1040,28 @@
     <t xml:space="preserve">10.2421140670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3777704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1912422180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2251567840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438549041748</t>
+    <t xml:space="preserve">10.3777713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1912431716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2251577377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
     <t xml:space="preserve">10.1064567565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88601207733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948482513428</t>
+    <t xml:space="preserve">9.88601398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948577880859</t>
   </si>
   <si>
     <t xml:space="preserve">9.5129566192627</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63165664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731395721436</t>
+    <t xml:space="preserve">9.6316556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731491088867</t>
   </si>
   <si>
     <t xml:space="preserve">9.7333984375</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">9.7164421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37730026245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27555561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.224684715271</t>
+    <t xml:space="preserve">9.37729930877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27555656433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22468662261963</t>
   </si>
   <si>
     <t xml:space="preserve">9.47904300689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56382751464844</t>
+    <t xml:space="preserve">9.56382846832275</t>
   </si>
   <si>
     <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81818580627441</t>
+    <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234130859375</t>
@@ -1112,37 +1112,37 @@
     <t xml:space="preserve">10.2760286331177</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75035667419434</t>
+    <t xml:space="preserve">9.75035762786865</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425754547119</t>
+    <t xml:space="preserve">9.39425563812256</t>
   </si>
   <si>
     <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19077205657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02119922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66557121276855</t>
+    <t xml:space="preserve">9.19077110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02120018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
     <t xml:space="preserve">9.08902835845947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7498836517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51248455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49552726745605</t>
+    <t xml:space="preserve">8.74988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51248550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49552917480469</t>
   </si>
   <si>
     <t xml:space="preserve">8.42769908905029</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464267730713</t>
+    <t xml:space="preserve">8.05464172363281</t>
   </si>
   <si>
     <t xml:space="preserve">7.92746353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15638542175293</t>
+    <t xml:space="preserve">8.15638446807861</t>
   </si>
   <si>
     <t xml:space="preserve">8.37682819366455</t>
@@ -1166,10 +1166,10 @@
     <t xml:space="preserve">8.56335639953613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59727096557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0381555557251</t>
+    <t xml:space="preserve">8.59727191925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
     <t xml:space="preserve">8.85162734985352</t>
@@ -1181,28 +1181,28 @@
     <t xml:space="preserve">8.78379917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64814186096191</t>
+    <t xml:space="preserve">8.64814281463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118553161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47856998443604</t>
+    <t xml:space="preserve">8.63118457794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47857093811035</t>
   </si>
   <si>
     <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41922092437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33443450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39378452301025</t>
+    <t xml:space="preserve">8.41921997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">8.34291362762451</t>
@@ -1211,13 +1211,13 @@
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289897918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854164123535</t>
+    <t xml:space="preserve">7.95289993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
     <t xml:space="preserve">7.51201343536377</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">7.30852842330933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1813497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199926376343</t>
+    <t xml:space="preserve">7.18134927749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199974060059</t>
   </si>
   <si>
     <t xml:space="preserve">6.96938562393188</t>
@@ -1241,22 +1241,22 @@
     <t xml:space="preserve">7.33396339416504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.300048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06264972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01177883148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99482107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09656381607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13895702362061</t>
+    <t xml:space="preserve">7.30004978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06264925003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01177835464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9948205947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09656429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13895654678345</t>
   </si>
   <si>
     <t xml:space="preserve">7.39331436157227</t>
@@ -1265,25 +1265,25 @@
     <t xml:space="preserve">7.36787796020508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37635612487793</t>
+    <t xml:space="preserve">7.37635660171509</t>
   </si>
   <si>
     <t xml:space="preserve">7.80028533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6900634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19029903411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11399364471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85115623474121</t>
+    <t xml:space="preserve">7.69006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19029998779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11399269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85115766525269</t>
   </si>
   <si>
     <t xml:space="preserve">7.78332901000977</t>
@@ -1292,28 +1292,28 @@
     <t xml:space="preserve">7.35092115402222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.435706615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24917840957642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244298934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92699241638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82525014877319</t>
+    <t xml:space="preserve">7.43570756912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24917793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244203567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92699289321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
     <t xml:space="preserve">6.57089281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4945855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30805635452271</t>
+    <t xml:space="preserve">6.49458456039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30805730819702</t>
   </si>
   <si>
     <t xml:space="preserve">6.27414274215698</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.935471534729</t>
+    <t xml:space="preserve">6.93547201156616</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52002096176147</t>
+    <t xml:space="preserve">6.52002143859863</t>
   </si>
   <si>
     <t xml:space="preserve">6.33349227905273</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">6.51154279708862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41827869415283</t>
+    <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
     <t xml:space="preserve">6.86764240264893</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">7.24069976806641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85916328430176</t>
+    <t xml:space="preserve">6.85916376113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.72350645065308</t>
@@ -1361,28 +1361,28 @@
     <t xml:space="preserve">6.68111419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263507843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62176322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56241416931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588548660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26566362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32501411437988</t>
+    <t xml:space="preserve">6.67263555526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62176370620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56241369247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588500976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26566410064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32501363754272</t>
   </si>
   <si>
     <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52849912643433</t>
+    <t xml:space="preserve">6.52849960327148</t>
   </si>
   <si>
     <t xml:space="preserve">6.38436412811279</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">6.5963282585144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57937097549438</t>
+    <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
     <t xml:space="preserve">6.74894237518311</t>
@@ -1403,25 +1403,25 @@
     <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29157114028931</t>
+    <t xml:space="preserve">7.19830656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29157161712646</t>
   </si>
   <si>
     <t xml:space="preserve">7.15591382980347</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13047790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03721380233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417156219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090698242188</t>
+    <t xml:space="preserve">7.13047742843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03721475601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090650558472</t>
   </si>
   <si>
     <t xml:space="preserve">6.79133558273315</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45219230651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40979957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23174953460693</t>
+    <t xml:space="preserve">6.45219278335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40980005264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23174905776978</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1451,28 +1451,28 @@
     <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96891403198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.155442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40132093429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58120155334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40640115737915</t>
+    <t xml:space="preserve">5.96891355514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15544271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40132188796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58120107650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40640163421631</t>
   </si>
   <si>
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388105392456</t>
+    <t xml:space="preserve">6.42388153076172</t>
   </si>
   <si>
     <t xml:space="preserve">6.2490816116333</t>
@@ -1484,58 +1484,58 @@
     <t xml:space="preserve">6.12672233581543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16168165206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38018178939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35396099090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34522151947021</t>
+    <t xml:space="preserve">6.16168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38018131256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35396146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34522104263306</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28404188156128</t>
+    <t xml:space="preserve">6.28404140472412</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20538139343262</t>
+    <t xml:space="preserve">6.20538187026978</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45010089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25782108306885</t>
+    <t xml:space="preserve">6.45010137557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25782155990601</t>
   </si>
   <si>
     <t xml:space="preserve">6.37144136428833</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29278182983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3190016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514158248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32774114608765</t>
+    <t xml:space="preserve">6.29278135299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31900119781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3277416229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.27530145645142</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11798191070557</t>
+    <t xml:space="preserve">6.11798238754272</t>
   </si>
   <si>
     <t xml:space="preserve">6.10924196243286</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">6.19664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23160171508789</t>
+    <t xml:space="preserve">6.23160219192505</t>
   </si>
   <si>
     <t xml:space="preserve">6.03058242797852</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">5.98688220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99562215805054</t>
+    <t xml:space="preserve">5.9956226348877</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1565,19 +1565,19 @@
     <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96940183639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01310253143311</t>
+    <t xml:space="preserve">6.02184247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96940279006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01310205459595</t>
   </si>
   <si>
     <t xml:space="preserve">6.17916202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03932189941406</t>
+    <t xml:space="preserve">6.03932237625122</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
@@ -1586,19 +1586,19 @@
     <t xml:space="preserve">6.07428169250488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15294170379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06554174423218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31026124954224</t>
+    <t xml:space="preserve">6.15294218063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06554269790649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31026172637939</t>
   </si>
   <si>
     <t xml:space="preserve">6.1704216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85578298568726</t>
+    <t xml:space="preserve">5.8557825088501</t>
   </si>
   <si>
     <t xml:space="preserve">5.91696262359619</t>
@@ -1607,10 +1607,10 @@
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94318246841431</t>
+    <t xml:space="preserve">5.96066284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94318294525146</t>
   </si>
   <si>
     <t xml:space="preserve">5.9344425201416</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624032974243</t>
+    <t xml:space="preserve">6.54624080657959</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53750085830688</t>
+    <t xml:space="preserve">6.53750038146973</t>
   </si>
   <si>
     <t xml:space="preserve">6.46758127212524</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64238023757935</t>
+    <t xml:space="preserve">6.6423807144165</t>
   </si>
   <si>
     <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8870997428894</t>
+    <t xml:space="preserve">6.88710021972656</t>
   </si>
   <si>
     <t xml:space="preserve">6.86087989807129</t>
@@ -1664,37 +1664,37 @@
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2716588973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897844314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58629751205444</t>
+    <t xml:space="preserve">7.27165842056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897891998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58629846572876</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56007766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55133819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6037769317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49015808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385782241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64747714996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62999677658081</t>
+    <t xml:space="preserve">7.56007719039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55133867263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60377836227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49015760421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385829925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64747762680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62999725341797</t>
   </si>
   <si>
     <t xml:space="preserve">7.54259729385376</t>
@@ -1709,19 +1709,19 @@
     <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39401817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70865726470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76983785629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84849739074707</t>
+    <t xml:space="preserve">7.39401865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70865774154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76983833312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
     <t xml:space="preserve">7.85723638534546</t>
@@ -1730,28 +1730,28 @@
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73487710952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52511692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5076379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36779880523682</t>
+    <t xml:space="preserve">7.73487758636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52511787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50763845443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36779832839966</t>
   </si>
   <si>
     <t xml:space="preserve">7.18425941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22795963287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12307834625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98323917388916</t>
+    <t xml:space="preserve">7.22795915603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1230788230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98323965072632</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4938006401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136095046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62490081787109</t>
+    <t xml:space="preserve">6.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136047363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62490034103394</t>
   </si>
   <si>
     <t xml:space="preserve">6.59868097305298</t>
@@ -1781,61 +1781,61 @@
     <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65986061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83830308914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84704303741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78586292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374393463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028448104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63218641281128</t>
+    <t xml:space="preserve">6.65986013412476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83830261230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84704351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78586339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374345779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028495788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63218688964844</t>
   </si>
   <si>
     <t xml:space="preserve">4.64092636108398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36998653411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36561679840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45738697052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16459798812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96357798576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995889663696</t>
+    <t xml:space="preserve">4.36998701095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36561727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45738744735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1645975112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96357822418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995913505554</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877902030945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85432863235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90239906311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89802837371826</t>
+    <t xml:space="preserve">3.85432887077332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90239882469177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.898029088974</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
@@ -1844,25 +1844,25 @@
     <t xml:space="preserve">3.71885919570923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77566909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322940826416</t>
+    <t xml:space="preserve">3.77566933631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322916984558</t>
   </si>
   <si>
     <t xml:space="preserve">3.66204953193665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70574903488159</t>
+    <t xml:space="preserve">3.70574927330017</t>
   </si>
   <si>
     <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02038860321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01164817810059</t>
+    <t xml:space="preserve">4.02038812637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01164865493774</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89438581466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422546386719</t>
+    <t xml:space="preserve">4.89438533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422594070435</t>
   </si>
   <si>
     <t xml:space="preserve">4.96430540084839</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">4.84194612503052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82446575164795</t>
+    <t xml:space="preserve">4.82446622848511</t>
   </si>
   <si>
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71335983276367</t>
+    <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5495753288269</t>
+    <t xml:space="preserve">4.54957580566406</t>
   </si>
   <si>
     <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73155879974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615379333496</t>
+    <t xml:space="preserve">4.73155832290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615427017212</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.80525827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95084428787231</t>
+    <t xml:space="preserve">5.95084476470947</t>
   </si>
   <si>
     <t xml:space="preserve">5.85985326766968</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">5.93264627456665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444826126099</t>
+    <t xml:space="preserve">5.91444873809814</t>
   </si>
   <si>
     <t xml:space="preserve">5.82345676422119</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67787027359009</t>
+    <t xml:space="preserve">5.67786979675293</t>
   </si>
   <si>
     <t xml:space="preserve">5.62327527999878</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">5.55048179626465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53228378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56868076324463</t>
+    <t xml:space="preserve">5.53228425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030031204224</t>
+    <t xml:space="preserve">5.35030126571655</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51408529281616</t>
+    <t xml:space="preserve">5.51408576965332</t>
   </si>
   <si>
     <t xml:space="preserve">5.6414737701416</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4048957824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42309427261353</t>
+    <t xml:space="preserve">5.40489625930786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42309379577637</t>
   </si>
   <si>
     <t xml:space="preserve">5.1683177947998</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651628494263</t>
+    <t xml:space="preserve">5.18651580810547</t>
   </si>
   <si>
     <t xml:space="preserve">5.36849927902222</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2593092918396</t>
+    <t xml:space="preserve">5.25930976867676</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
@@ -2027,19 +2027,19 @@
     <t xml:space="preserve">5.29570627212524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15011930465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00453281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13192081451416</t>
+    <t xml:space="preserve">5.15011978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00453329086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
     <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633527755737</t>
+    <t xml:space="preserve">4.98633480072021</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">5.22291278839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27750778198242</t>
+    <t xml:space="preserve">5.27750825881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26750183105469</t>
+    <t xml:space="preserve">4.26750230789185</t>
   </si>
   <si>
     <t xml:space="preserve">4.31299734115601</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534282684326</t>
+    <t xml:space="preserve">4.89534378051758</t>
   </si>
   <si>
     <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44129276275635</t>
+    <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">6.11462926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24201822280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16922426223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27841424942017</t>
+    <t xml:space="preserve">6.24201774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16922473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27841472625732</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42400074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55138874053955</t>
+    <t xml:space="preserve">6.42400026321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55138826370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.58778524398804</t>
@@ -2141,22 +2141,22 @@
     <t xml:space="preserve">6.82436323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96994924545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95175170898438</t>
+    <t xml:space="preserve">6.96994972229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95175123214722</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355321884155</t>
+    <t xml:space="preserve">6.93355274200439</t>
   </si>
   <si>
     <t xml:space="preserve">6.80616474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976823806763</t>
+    <t xml:space="preserve">6.76976871490479</t>
   </si>
   <si>
     <t xml:space="preserve">6.71517372131348</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877721786499</t>
+    <t xml:space="preserve">6.67877674102783</t>
   </si>
   <si>
     <t xml:space="preserve">6.9881477355957</t>
@@ -2186,16 +2186,16 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013120651245</t>
+    <t xml:space="preserve">7.17013072967529</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02454423904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00634574890137</t>
+    <t xml:space="preserve">7.02454471588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00634622573853</t>
   </si>
   <si>
     <t xml:space="preserve">7.09733819961548</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91535472869873</t>
+    <t xml:space="preserve">7.06094121932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91535520553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29752016067505</t>
+    <t xml:space="preserve">7.29751920700073</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
@@ -2225,40 +2225,40 @@
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851070404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91626119613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02545070648193</t>
+    <t xml:space="preserve">7.38851118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91626167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02545166015625</t>
   </si>
   <si>
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824371337891</t>
+    <t xml:space="preserve">8.09824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9708571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98905420303345</t>
+    <t xml:space="preserve">7.97085666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
     <t xml:space="preserve">7.82527017593384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87986469268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04364967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725269317627</t>
+    <t xml:space="preserve">7.87986516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04365062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725364685059</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">8.26202964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18923568725586</t>
+    <t xml:space="preserve">8.18923664093018</t>
   </si>
   <si>
     <t xml:space="preserve">7.75247764587402</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95265817642212</t>
+    <t xml:space="preserve">7.78887414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265769958496</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59318,7 +59318,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6493402778</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>1056578</v>
@@ -59339,6 +59339,32 @@
         <v>1064</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6494328704</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>109247</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -44,13 +44,13 @@
     <t xml:space="preserve">OJM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19359540939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1893572807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06217813491821</t>
+    <t xml:space="preserve">6.19359588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18935680389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06217861175537</t>
   </si>
   <si>
     <t xml:space="preserve">6.22327089309692</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696407318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783544540405</t>
+    <t xml:space="preserve">6.14696455001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783496856689</t>
   </si>
   <si>
     <t xml:space="preserve">6.07065677642822</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17239999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35892820358276</t>
+    <t xml:space="preserve">6.17239952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35892772674561</t>
   </si>
   <si>
     <t xml:space="preserve">6.3504490852356</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">6.21055269241333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16815996170044</t>
+    <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
     <t xml:space="preserve">6.12152814865112</t>
@@ -107,25 +107,25 @@
     <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65096712112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064212799072</t>
+    <t xml:space="preserve">5.65096759796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064260482788</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59585666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91804218292236</t>
+    <t xml:space="preserve">5.59585618972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91804265975952</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499994277954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04945993423462</t>
+    <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62977123260498</t>
+    <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
     <t xml:space="preserve">5.90108585357666</t>
@@ -164,28 +164,28 @@
     <t xml:space="preserve">5.89684581756592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83325719833374</t>
+    <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03674268722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446725845337</t>
+    <t xml:space="preserve">6.03674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446773529053</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22750997543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11304950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706768035889</t>
+    <t xml:space="preserve">6.22751045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11304998397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706720352173</t>
   </si>
   <si>
     <t xml:space="preserve">5.88836717605591</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">5.88412857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8798885345459</t>
+    <t xml:space="preserve">5.87988901138306</t>
   </si>
   <si>
     <t xml:space="preserve">5.98163175582886</t>
@@ -206,10 +206,10 @@
     <t xml:space="preserve">5.87141036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07913494110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20631408691406</t>
+    <t xml:space="preserve">6.07913589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2063136100769</t>
   </si>
   <si>
     <t xml:space="preserve">6.08337497711182</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">6.14272403717041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619583129883</t>
+    <t xml:space="preserve">5.95619630813599</t>
   </si>
   <si>
     <t xml:space="preserve">5.84173488616943</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118850708008</t>
+    <t xml:space="preserve">5.76118898391724</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782079696655</t>
@@ -236,19 +236,19 @@
     <t xml:space="preserve">5.829017162323</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9307599067688</t>
+    <t xml:space="preserve">5.93076038360596</t>
   </si>
   <si>
     <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99858808517456</t>
+    <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
     <t xml:space="preserve">6.28262090682983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13000679016113</t>
+    <t xml:space="preserve">6.13000726699829</t>
   </si>
   <si>
     <t xml:space="preserve">6.18511724472046</t>
@@ -257,25 +257,25 @@
     <t xml:space="preserve">6.04522132873535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16392135620117</t>
+    <t xml:space="preserve">6.16392087936401</t>
   </si>
   <si>
     <t xml:space="preserve">6.07489585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10033130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99434995651245</t>
+    <t xml:space="preserve">6.10033226013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
     <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99010992050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81629943847656</t>
+    <t xml:space="preserve">5.99011039733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
     <t xml:space="preserve">5.73999261856079</t>
@@ -290,13 +290,13 @@
     <t xml:space="preserve">5.79510307312012</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66792440414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63824987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944576263428</t>
+    <t xml:space="preserve">5.66792488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63824939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944623947144</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">5.71031761169434</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66368579864502</t>
+    <t xml:space="preserve">5.6636848449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.49835300445557</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">5.57889938354492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58737850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313894271851</t>
+    <t xml:space="preserve">5.58737754821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313941955566</t>
   </si>
   <si>
     <t xml:space="preserve">5.5746603012085</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">5.24823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32454299926758</t>
+    <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
     <t xml:space="preserve">5.37965297698975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51107120513916</t>
+    <t xml:space="preserve">5.511070728302</t>
   </si>
   <si>
     <t xml:space="preserve">5.06594610214233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18888568878174</t>
+    <t xml:space="preserve">5.18888473510742</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">4.87093877792358</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9006142616272</t>
+    <t xml:space="preserve">4.90061378479004</t>
   </si>
   <si>
     <t xml:space="preserve">4.80734968185425</t>
@@ -371,16 +371,16 @@
     <t xml:space="preserve">4.66321420669556</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53603553771973</t>
+    <t xml:space="preserve">4.53603506088257</t>
   </si>
   <si>
     <t xml:space="preserve">4.52331781387329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46396732330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244548797607</t>
+    <t xml:space="preserve">4.46396780014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
@@ -392,61 +392,61 @@
     <t xml:space="preserve">4.73952150344849</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74799966812134</t>
+    <t xml:space="preserve">4.7480001449585</t>
   </si>
   <si>
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474973678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714294433594</t>
+    <t xml:space="preserve">5.04474925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714199066162</t>
   </si>
   <si>
     <t xml:space="preserve">5.19312477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31182479858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33726072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36693525314331</t>
+    <t xml:space="preserve">5.31182432174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33726024627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36693572998047</t>
   </si>
   <si>
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476343154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095247268677</t>
+    <t xml:space="preserve">5.43476438522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095294952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2058424949646</t>
+    <t xml:space="preserve">5.20584201812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22279977798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92604970932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9514856338501</t>
+    <t xml:space="preserve">5.22279930114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92604923248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95148515701294</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692155838013</t>
+    <t xml:space="preserve">4.97692108154297</t>
   </si>
   <si>
     <t xml:space="preserve">5.16344976425171</t>
@@ -461,40 +461,40 @@
     <t xml:space="preserve">5.17192792892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25671434402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34149932861328</t>
+    <t xml:space="preserve">5.2567138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34149980545044</t>
   </si>
   <si>
     <t xml:space="preserve">5.30334615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40084981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54922437667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56618165969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61281442642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59161710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67216396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52378797531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44748163223267</t>
+    <t xml:space="preserve">5.40085029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54922485351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56618213653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61281394958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59161758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770349502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67216348648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5237889289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -503,25 +503,25 @@
     <t xml:space="preserve">5.48987436294556</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51955032348633</t>
+    <t xml:space="preserve">5.51954936981201</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966714859009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488121032715</t>
+    <t xml:space="preserve">5.68488216400146</t>
   </si>
   <si>
     <t xml:space="preserve">5.7781457901001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92652130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60056686401367</t>
+    <t xml:space="preserve">5.92652082443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48610687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60056781768799</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -539,61 +539,61 @@
     <t xml:space="preserve">7.11352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04569292068481</t>
+    <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
     <t xml:space="preserve">7.20678520202637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50777435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353622436523</t>
+    <t xml:space="preserve">7.50777387619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353527069092</t>
   </si>
   <si>
     <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5883207321167</t>
+    <t xml:space="preserve">7.617995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58832168579102</t>
   </si>
   <si>
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767217636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722797393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59255981445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049160003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266342163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440664291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669576644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898488998413</t>
+    <t xml:space="preserve">7.64767026901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4272289276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59256029129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114253997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440711975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669481277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898584365845</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96985721588135</t>
+    <t xml:space="preserve">7.96985626220703</t>
   </si>
   <si>
     <t xml:space="preserve">8.03768444061279</t>
@@ -602,16 +602,16 @@
     <t xml:space="preserve">7.96561765670776</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91050720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931179046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594264984131</t>
+    <t xml:space="preserve">7.9105052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594169616699</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41074371337891</t>
+    <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
     <t xml:space="preserve">8.28356456756592</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83467102050781</t>
+    <t xml:space="preserve">8.8346700668335</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90250015258789</t>
+    <t xml:space="preserve">8.90249919891357</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
@@ -653,13 +653,13 @@
     <t xml:space="preserve">9.79274940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83514308929443</t>
+    <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
     <t xml:space="preserve">9.6146993637085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49599933624268</t>
+    <t xml:space="preserve">9.49600028991699</t>
   </si>
   <si>
     <t xml:space="preserve">9.41121387481689</t>
@@ -668,25 +668,25 @@
     <t xml:space="preserve">9.36882019042969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07207107543945</t>
+    <t xml:space="preserve">9.23316383361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07207012176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.30099296569824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403568267822</t>
+    <t xml:space="preserve">9.28403472900391</t>
   </si>
   <si>
     <t xml:space="preserve">9.11446380615234</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19925022125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12294292449951</t>
+    <t xml:space="preserve">9.19924926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1229419708252</t>
   </si>
   <si>
     <t xml:space="preserve">9.53839206695557</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96184921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402008056641</t>
+    <t xml:space="preserve">8.9618501663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402198791504</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77532196044922</t>
+    <t xml:space="preserve">8.7753210067749</t>
   </si>
   <si>
     <t xml:space="preserve">8.860107421875</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273571014404</t>
+    <t xml:space="preserve">9.40273380279541</t>
   </si>
   <si>
     <t xml:space="preserve">9.41969108581543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38577842712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58078479766846</t>
+    <t xml:space="preserve">9.38577747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58078575134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
@@ -755,19 +755,19 @@
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014631271362</t>
+    <t xml:space="preserve">10.3014640808105</t>
   </si>
   <si>
     <t xml:space="preserve">10.4032068252563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3184204101562</t>
+    <t xml:space="preserve">10.3184213638306</t>
   </si>
   <si>
     <t xml:space="preserve">10.4286422729492</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2590703964233</t>
+    <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
     <t xml:space="preserve">10.0725421905518</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">9.92840671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2336339950562</t>
+    <t xml:space="preserve">10.2336349487305</t>
   </si>
   <si>
     <t xml:space="preserve">10.4625568389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795141220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1742858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4371213912964</t>
+    <t xml:space="preserve">10.3692922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1742839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4371204376221</t>
   </si>
   <si>
     <t xml:space="preserve">10.3268995285034</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6829986572266</t>
+    <t xml:space="preserve">10.6829996109009</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166776657104</t>
@@ -845,31 +845,31 @@
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917133331299</t>
+    <t xml:space="preserve">11.1917123794556</t>
   </si>
   <si>
     <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.674521446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4879922866821</t>
+    <t xml:space="preserve">10.6745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4879913330078</t>
   </si>
   <si>
     <t xml:space="preserve">10.5982131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0221424102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3188915252686</t>
+    <t xml:space="preserve">11.022141456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3188924789429</t>
   </si>
   <si>
     <t xml:space="preserve">11.0136632919312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7338705062866</t>
+    <t xml:space="preserve">10.7338714599609</t>
   </si>
   <si>
     <t xml:space="preserve">10.9373559951782</t>
@@ -881,34 +881,34 @@
     <t xml:space="preserve">10.9543132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238851547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1408424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6919498443604</t>
+    <t xml:space="preserve">11.1238842010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1408414840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.691948890686</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393342971802</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732469558716</t>
+    <t xml:space="preserve">11.5732479095459</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747570037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25954246521</t>
+    <t xml:space="preserve">11.1747550964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2595415115356</t>
   </si>
   <si>
     <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3612842559814</t>
+    <t xml:space="preserve">11.3612852096558</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">11.641077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8615198135376</t>
+    <t xml:space="preserve">11.8615207672119</t>
   </si>
   <si>
     <t xml:space="preserve">11.785213470459</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969425201416</t>
+    <t xml:space="preserve">11.4969434738159</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156415939331</t>
@@ -938,22 +938,22 @@
     <t xml:space="preserve">10.9203996658325</t>
   </si>
   <si>
-    <t xml:space="preserve">11.115406036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5134286880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677850723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5388641357422</t>
+    <t xml:space="preserve">11.1154069900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3353796005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.767786026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558195114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5388631820679</t>
   </si>
   <si>
     <t xml:space="preserve">10.4964714050293</t>
@@ -971,19 +971,19 @@
     <t xml:space="preserve">10.8440914154053</t>
   </si>
   <si>
-    <t xml:space="preserve">10.640606880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0979776382446</t>
+    <t xml:space="preserve">10.6406059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0979785919189</t>
   </si>
   <si>
     <t xml:space="preserve">10.530385017395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8356132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069278717041</t>
+    <t xml:space="preserve">10.8356142044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069269180298</t>
   </si>
   <si>
     <t xml:space="preserve">11.4291133880615</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.27649974823</t>
+    <t xml:space="preserve">11.2764987945557</t>
   </si>
   <si>
     <t xml:space="preserve">11.6834697723389</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782424926758</t>
+    <t xml:space="preserve">11.3782415390015</t>
   </si>
   <si>
     <t xml:space="preserve">11.5138998031616</t>
@@ -1013,37 +1013,37 @@
     <t xml:space="preserve">11.8699998855591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899705886841</t>
+    <t xml:space="preserve">11.6665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899696350098</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695268630981</t>
+    <t xml:space="preserve">10.8695287704468</t>
   </si>
   <si>
     <t xml:space="preserve">10.8186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7847423553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016996383667</t>
+    <t xml:space="preserve">10.784743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.801700592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.9034423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2421140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777713775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151714324951</t>
+    <t xml:space="preserve">10.2421131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151704788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.1912431716919</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064567565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601398468018</t>
+    <t xml:space="preserve">10.1064558029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601303100586</t>
   </si>
   <si>
     <t xml:space="preserve">9.69948577880859</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6316556930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731491088867</t>
+    <t xml:space="preserve">9.63165664672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731395721436</t>
   </si>
   <si>
     <t xml:space="preserve">9.7333984375</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">9.27555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22468662261963</t>
+    <t xml:space="preserve">9.22468566894531</t>
   </si>
   <si>
     <t xml:space="preserve">9.47904300689697</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8181848526001</t>
+    <t xml:space="preserve">9.81818389892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234130859375</t>
@@ -1109,67 +1109,67 @@
     <t xml:space="preserve">10.2929859161377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2760286331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75035762786865</t>
+    <t xml:space="preserve">10.2760276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75035572052002</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251384735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02120018005371</t>
+    <t xml:space="preserve">9.39425659179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251480102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02119922637939</t>
   </si>
   <si>
     <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08902835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74988555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51248550415039</t>
+    <t xml:space="preserve">9.08902740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74988460540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51248455047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.49552917480469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42769908905029</t>
+    <t xml:space="preserve">8.42770004272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464172363281</t>
+    <t xml:space="preserve">8.05464267730713</t>
   </si>
   <si>
     <t xml:space="preserve">7.92746353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15638446807861</t>
+    <t xml:space="preserve">8.15638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335639953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59727191925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03815650939941</t>
+    <t xml:space="preserve">8.56335735321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59727096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0381555557251</t>
   </si>
   <si>
     <t xml:space="preserve">8.85162734985352</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118457794189</t>
+    <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
     <t xml:space="preserve">8.47857093811035</t>
@@ -1196,10 +1196,10 @@
     <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41921997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33443546295166</t>
+    <t xml:space="preserve">8.41922092437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33443450927734</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378547668457</t>
@@ -1214,31 +1214,31 @@
     <t xml:space="preserve">7.95289993286133</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73245716094971</t>
+    <t xml:space="preserve">7.73245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51201343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18134927749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199974060059</t>
+    <t xml:space="preserve">7.51201295852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1813497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199926376343</t>
   </si>
   <si>
     <t xml:space="preserve">6.96938562393188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87612056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33396339416504</t>
+    <t xml:space="preserve">6.87612009048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33396291732788</t>
   </si>
   <si>
     <t xml:space="preserve">7.30004978179932</t>
@@ -1253,22 +1253,22 @@
     <t xml:space="preserve">6.9948205947876</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09656429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635660171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028533935547</t>
+    <t xml:space="preserve">7.09656381607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13895606994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331388473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635564804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028486251831</t>
   </si>
   <si>
     <t xml:space="preserve">7.69006395339966</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">8.19029998779297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11399269104004</t>
+    <t xml:space="preserve">8.11399173736572</t>
   </si>
   <si>
     <t xml:space="preserve">7.85115766525269</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">7.35092115402222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43570756912231</t>
+    <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
     <t xml:space="preserve">7.24917793273926</t>
@@ -1301,31 +1301,31 @@
     <t xml:space="preserve">7.34244203567505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92699289321899</t>
+    <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57089281082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49458456039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30805730819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27414274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24022817611694</t>
+    <t xml:space="preserve">6.57089233398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49458503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30805635452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27414226531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24022769927979</t>
   </si>
   <si>
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93547201156616</t>
+    <t xml:space="preserve">6.935471534729</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24069976806641</t>
+    <t xml:space="preserve">6.86764287948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069881439209</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916376113892</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">6.68111419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263555526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62176370620728</t>
+    <t xml:space="preserve">6.67263507843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62176322937012</t>
   </si>
   <si>
     <t xml:space="preserve">6.56241369247437</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">6.37588500976562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26566410064697</t>
+    <t xml:space="preserve">6.26566362380981</t>
   </si>
   <si>
     <t xml:space="preserve">6.32501363754272</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34197092056274</t>
+    <t xml:space="preserve">6.34197044372559</t>
   </si>
   <si>
     <t xml:space="preserve">6.5963282585144</t>
@@ -1400,22 +1400,22 @@
     <t xml:space="preserve">6.74894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88459968566895</t>
+    <t xml:space="preserve">6.88459920883179</t>
   </si>
   <si>
     <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29157161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591382980347</t>
+    <t xml:space="preserve">7.29157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591335296631</t>
   </si>
   <si>
     <t xml:space="preserve">7.13047742843628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03721475601196</t>
+    <t xml:space="preserve">7.0372142791748</t>
   </si>
   <si>
     <t xml:space="preserve">7.05417108535767</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">6.79133558273315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7404637336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46914958953857</t>
+    <t xml:space="preserve">6.74046325683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46915006637573</t>
   </si>
   <si>
     <t xml:space="preserve">6.29109954833984</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">6.45219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40980005264282</t>
+    <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
     <t xml:space="preserve">6.23174905776978</t>
@@ -1451,28 +1451,28 @@
     <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96891355514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15544271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087768554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40132188796997</t>
+    <t xml:space="preserve">5.96891403198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.155442237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40132141113281</t>
   </si>
   <si>
     <t xml:space="preserve">6.58120107650757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40640163421631</t>
+    <t xml:space="preserve">6.40640115737915</t>
   </si>
   <si>
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388153076172</t>
+    <t xml:space="preserve">6.42388105392456</t>
   </si>
   <si>
     <t xml:space="preserve">6.2490816116333</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">6.16168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38018131256104</t>
+    <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396146774292</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">6.25782155990601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37144136428833</t>
+    <t xml:space="preserve">6.37144088745117</t>
   </si>
   <si>
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900119781494</t>
+    <t xml:space="preserve">6.3190016746521</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514110565186</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">6.27530145645142</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11798238754272</t>
+    <t xml:space="preserve">6.11798191070557</t>
   </si>
   <si>
     <t xml:space="preserve">6.10924196243286</t>
@@ -1544,13 +1544,13 @@
     <t xml:space="preserve">6.19664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23160219192505</t>
+    <t xml:space="preserve">6.23160171508789</t>
   </si>
   <si>
     <t xml:space="preserve">6.03058242797852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97814226150513</t>
+    <t xml:space="preserve">5.97814273834229</t>
   </si>
   <si>
     <t xml:space="preserve">5.98688220977783</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050201416016</t>
+    <t xml:space="preserve">6.10050249099731</t>
   </si>
   <si>
     <t xml:space="preserve">6.02184247970581</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">5.96940279006958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01310205459595</t>
+    <t xml:space="preserve">6.01310253143311</t>
   </si>
   <si>
     <t xml:space="preserve">6.17916202545166</t>
@@ -1583,22 +1583,22 @@
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428169250488</t>
+    <t xml:space="preserve">6.07428216934204</t>
   </si>
   <si>
     <t xml:space="preserve">6.15294218063354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06554269790649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31026172637939</t>
+    <t xml:space="preserve">6.06554222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
     <t xml:space="preserve">6.1704216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8557825088501</t>
+    <t xml:space="preserve">5.85578298568726</t>
   </si>
   <si>
     <t xml:space="preserve">5.91696262359619</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">6.54624080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52876091003418</t>
+    <t xml:space="preserve">6.52876043319702</t>
   </si>
   <si>
     <t xml:space="preserve">6.53750038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46758127212524</t>
+    <t xml:space="preserve">6.46758079528809</t>
   </si>
   <si>
     <t xml:space="preserve">6.66860055923462</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">6.6423807144165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70356035232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88710021972656</t>
+    <t xml:space="preserve">6.70355987548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
     <t xml:space="preserve">6.86087989807129</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">6.84339952468872</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77348041534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89583969116211</t>
+    <t xml:space="preserve">6.77347993850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89583921432495</t>
   </si>
   <si>
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27165842056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897891998291</t>
+    <t xml:space="preserve">7.2716588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897844314575</t>
   </si>
   <si>
     <t xml:space="preserve">7.58629846572876</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">7.38527822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56007719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55133867263794</t>
+    <t xml:space="preserve">7.56007766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
     <t xml:space="preserve">7.60377836227417</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">7.49015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385829925537</t>
+    <t xml:space="preserve">7.53385782241821</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
@@ -1697,28 +1697,28 @@
     <t xml:space="preserve">7.62999725341797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54259729385376</t>
+    <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
     <t xml:space="preserve">7.51637840270996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5775580406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56881761550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39401865005493</t>
+    <t xml:space="preserve">7.57755756378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56881809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
     <t xml:space="preserve">7.70865774154663</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76983833312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731632232666</t>
+    <t xml:space="preserve">7.76983737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">7.73487758636475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52511787414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50763845443726</t>
+    <t xml:space="preserve">7.52511739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
     <t xml:space="preserve">7.36779832839966</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">7.22795915603638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1230788230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98323965072632</t>
+    <t xml:space="preserve">7.12307929992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">6.49380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44136047363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62490034103394</t>
+    <t xml:space="preserve">6.44136095046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62490081787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.59868097305298</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">5.84704351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78586339950562</t>
+    <t xml:space="preserve">5.78586292266846</t>
   </si>
   <si>
     <t xml:space="preserve">5.45374345779419</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89365816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995913505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78877902030945</t>
+    <t xml:space="preserve">3.89365863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995865821838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78877878189087</t>
   </si>
   <si>
     <t xml:space="preserve">3.85432887077332</t>
@@ -1835,25 +1835,25 @@
     <t xml:space="preserve">3.90239882469177</t>
   </si>
   <si>
-    <t xml:space="preserve">3.898029088974</t>
+    <t xml:space="preserve">3.89802861213684</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885919570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77566933631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322916984558</t>
+    <t xml:space="preserve">3.71885943412781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77566909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322940826416</t>
   </si>
   <si>
     <t xml:space="preserve">3.66204953193665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70574927330017</t>
+    <t xml:space="preserve">3.70574903488159</t>
   </si>
   <si>
     <t xml:space="preserve">3.75818920135498</t>
@@ -1862,37 +1862,37 @@
     <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164865493774</t>
+    <t xml:space="preserve">4.01164817810059</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3525071144104</t>
+    <t xml:space="preserve">4.30006742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35250759124756</t>
   </si>
   <si>
     <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89438533782959</t>
+    <t xml:space="preserve">4.89438581466675</t>
   </si>
   <si>
     <t xml:space="preserve">5.15658521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03422594070435</t>
+    <t xml:space="preserve">5.03422546386719</t>
   </si>
   <si>
     <t xml:space="preserve">4.96430540084839</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77202606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84194612503052</t>
+    <t xml:space="preserve">4.77202653884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446622848511</t>
@@ -59344,7 +59344,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6494328704</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>109247</v>
@@ -59365,6 +59365,32 @@
         <v>1064</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6496296296</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>143048</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0536994934082</t>
+    <t xml:space="preserve">6.05369997024536</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19359540939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18935680389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06217765808105</t>
+    <t xml:space="preserve">6.19359588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1893572807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06217813491821</t>
   </si>
   <si>
     <t xml:space="preserve">6.22327136993408</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11728858947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10457134246826</t>
+    <t xml:space="preserve">6.1172890663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
     <t xml:space="preserve">6.14696359634399</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">6.19783544540405</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07065629959106</t>
+    <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.97739219665527</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">6.35892820358276</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35044956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21055364608765</t>
+    <t xml:space="preserve">6.3504490852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21055316925049</t>
   </si>
   <si>
     <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152767181396</t>
+    <t xml:space="preserve">6.12152814865112</t>
   </si>
   <si>
     <t xml:space="preserve">5.90956354141235</t>
@@ -101,25 +101,25 @@
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445308685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85021448135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65096759796143</t>
+    <t xml:space="preserve">5.85445356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8502140045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65096712112427</t>
   </si>
   <si>
     <t xml:space="preserve">5.68064260482788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53226709365845</t>
+    <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
     <t xml:space="preserve">5.59585666656494</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91804170608521</t>
+    <t xml:space="preserve">5.91804265975952</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499994277954</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260625839233</t>
+    <t xml:space="preserve">5.89260578155518</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
@@ -161,25 +161,25 @@
     <t xml:space="preserve">5.82477807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89684629440308</t>
+    <t xml:space="preserve">5.89684581756592</t>
   </si>
   <si>
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31653451919556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22750997543335</t>
+    <t xml:space="preserve">5.79086351394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674173355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446725845337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31653499603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22751045227051</t>
   </si>
   <si>
     <t xml:space="preserve">6.11304998397827</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">6.00706768035889</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88836812973022</t>
+    <t xml:space="preserve">5.88836765289307</t>
   </si>
   <si>
     <t xml:space="preserve">5.98587083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88412809371948</t>
+    <t xml:space="preserve">5.88412857055664</t>
   </si>
   <si>
     <t xml:space="preserve">5.87988901138306</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">6.07913541793823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2063136100769</t>
+    <t xml:space="preserve">6.20631408691406</t>
   </si>
   <si>
     <t xml:space="preserve">6.08337450027466</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173536300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390670776367</t>
+    <t xml:space="preserve">5.95619678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390623092651</t>
   </si>
   <si>
     <t xml:space="preserve">5.76118898391724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80782127380371</t>
+    <t xml:space="preserve">5.80782079696655</t>
   </si>
   <si>
     <t xml:space="preserve">5.82901763916016</t>
@@ -239,37 +239,37 @@
     <t xml:space="preserve">5.9307599067688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09609270095825</t>
+    <t xml:space="preserve">6.09609222412109</t>
   </si>
   <si>
     <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28262138366699</t>
+    <t xml:space="preserve">6.28262090682983</t>
   </si>
   <si>
     <t xml:space="preserve">6.13000679016113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18511772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522132873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16392135620117</t>
+    <t xml:space="preserve">6.18511724472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522085189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16392087936401</t>
   </si>
   <si>
     <t xml:space="preserve">6.07489585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10033130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99434995651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08761405944824</t>
+    <t xml:space="preserve">6.10033178329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99434947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08761310577393</t>
   </si>
   <si>
     <t xml:space="preserve">5.99010992050171</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999214172363</t>
+    <t xml:space="preserve">5.73999261856079</t>
   </si>
   <si>
     <t xml:space="preserve">5.76542854309082</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">5.75694942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79510307312012</t>
+    <t xml:space="preserve">5.79510259628296</t>
   </si>
   <si>
     <t xml:space="preserve">5.66792488098145</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63824939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944671630859</t>
+    <t xml:space="preserve">5.63824987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944576263428</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71031713485718</t>
+    <t xml:space="preserve">5.71031761169434</t>
   </si>
   <si>
     <t xml:space="preserve">5.66368532180786</t>
@@ -314,28 +314,28 @@
     <t xml:space="preserve">5.49835348129272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57889938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57465982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683164596558</t>
+    <t xml:space="preserve">5.57889986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737897872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683116912842</t>
   </si>
   <si>
     <t xml:space="preserve">5.4093279838562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25247478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24823570251465</t>
+    <t xml:space="preserve">5.25247430801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24823617935181</t>
   </si>
   <si>
     <t xml:space="preserve">5.32454252243042</t>
@@ -347,10 +347,10 @@
     <t xml:space="preserve">5.51107120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06594610214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18888521194458</t>
+    <t xml:space="preserve">5.06594562530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18888568878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">4.9006142616272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80734920501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6632137298584</t>
+    <t xml:space="preserve">4.80735015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278465270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66321420669556</t>
   </si>
   <si>
     <t xml:space="preserve">4.53603553771973</t>
@@ -377,28 +377,28 @@
     <t xml:space="preserve">4.52331781387329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.46396780014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244644165039</t>
+    <t xml:space="preserve">4.46396732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244596481323</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73952150344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74799966812134</t>
+    <t xml:space="preserve">4.62506055831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73952102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74799919128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474925994873</t>
+    <t xml:space="preserve">5.04475021362305</t>
   </si>
   <si>
     <t xml:space="preserve">5.08714199066162</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">5.19312477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31182479858398</t>
+    <t xml:space="preserve">5.31182432174683</t>
   </si>
   <si>
     <t xml:space="preserve">5.33726024627686</t>
@@ -416,22 +416,22 @@
     <t xml:space="preserve">5.36693525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46867799758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43476343154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095342636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18040657043457</t>
+    <t xml:space="preserve">5.46867847442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43476390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095294952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
     <t xml:space="preserve">5.20584201812744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28214979171753</t>
+    <t xml:space="preserve">5.28215026855469</t>
   </si>
   <si>
     <t xml:space="preserve">5.22279930114746</t>
@@ -440,19 +440,19 @@
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95148515701294</t>
+    <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692155838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16345024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432161331177</t>
+    <t xml:space="preserve">4.97692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16344976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008205413818</t>
@@ -461,28 +461,28 @@
     <t xml:space="preserve">5.1719274520874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2567138671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34149932861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54922437667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56618165969849</t>
+    <t xml:space="preserve">5.25671339035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34149980545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334568023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084934234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54922485351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161758422852</t>
+    <t xml:space="preserve">5.59161710739136</t>
   </si>
   <si>
     <t xml:space="preserve">5.55770254135132</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">5.5237889289856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44748210906982</t>
+    <t xml:space="preserve">5.44748163223267</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51954984664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76966714859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68488168716431</t>
+    <t xml:space="preserve">5.51955032348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76966762542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68488216400146</t>
   </si>
   <si>
     <t xml:space="preserve">5.77814626693726</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">6.48610687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60056734085083</t>
+    <t xml:space="preserve">6.60056686401367</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78285646438599</t>
+    <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
     <t xml:space="preserve">7.21526432037354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63919353485107</t>
+    <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
     <t xml:space="preserve">7.11352109909058</t>
@@ -542,76 +542,76 @@
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777387619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353479385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874885559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.617995262146</t>
+    <t xml:space="preserve">7.20678472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5077748298645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353574752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61799621582031</t>
   </si>
   <si>
     <t xml:space="preserve">7.58832025527954</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54592752456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767074584961</t>
+    <t xml:space="preserve">7.54592800140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767122268677</t>
   </si>
   <si>
     <t xml:space="preserve">7.42722845077515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59256029129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049207687378</t>
+    <t xml:space="preserve">7.59255981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114253997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049255371094</t>
   </si>
   <si>
     <t xml:space="preserve">7.45266437530518</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55440616607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669672012329</t>
+    <t xml:space="preserve">7.55440664291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669576644897</t>
   </si>
   <si>
     <t xml:space="preserve">7.91898488998413</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00376987457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96985721588135</t>
+    <t xml:space="preserve">8.00377082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96985626220703</t>
   </si>
   <si>
     <t xml:space="preserve">8.03768539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561813354492</t>
+    <t xml:space="preserve">7.96561717987061</t>
   </si>
   <si>
     <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88931035995483</t>
+    <t xml:space="preserve">7.88931131362915</t>
   </si>
   <si>
     <t xml:space="preserve">7.82148170471191</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93594121932983</t>
+    <t xml:space="preserve">7.93594217300415</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
@@ -623,31 +623,31 @@
     <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41074180603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28356456756592</t>
+    <t xml:space="preserve">8.41074275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2835636138916</t>
   </si>
   <si>
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83467197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4404182434082</t>
+    <t xml:space="preserve">8.91945648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83467102050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
     <t xml:space="preserve">8.90250015258789</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15685749053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3264274597168</t>
+    <t xml:space="preserve">9.15685653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32642841339111</t>
   </si>
   <si>
     <t xml:space="preserve">9.79275035858154</t>
@@ -656,19 +656,19 @@
     <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61469841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49599933624268</t>
+    <t xml:space="preserve">9.61470031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599838256836</t>
   </si>
   <si>
     <t xml:space="preserve">9.41121387481689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36882019042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23316478729248</t>
+    <t xml:space="preserve">9.368821144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23316383361816</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207107543945</t>
@@ -680,7 +680,7 @@
     <t xml:space="preserve">9.28403472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11446285247803</t>
+    <t xml:space="preserve">9.11446380615234</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360469818115</t>
+    <t xml:space="preserve">9.45360565185547</t>
   </si>
   <si>
     <t xml:space="preserve">9.34338569641113</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9618501663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89401912689209</t>
+    <t xml:space="preserve">8.96184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77532196044922</t>
+    <t xml:space="preserve">8.7753210067749</t>
   </si>
   <si>
     <t xml:space="preserve">8.86010646820068</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41969203948975</t>
+    <t xml:space="preserve">9.41969299316406</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577842712402</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">9.58078575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44512748718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64861488342285</t>
+    <t xml:space="preserve">9.44512844085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59774017333984</t>
+    <t xml:space="preserve">9.59774112701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014621734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4032068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184194564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286432266235</t>
+    <t xml:space="preserve">10.3014640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.403205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286422729492</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590713500977</t>
@@ -776,19 +776,19 @@
     <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2336349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625558853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3692922592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795141220093</t>
+    <t xml:space="preserve">9.92840671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2336339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479513168335</t>
   </si>
   <si>
     <t xml:space="preserve">10.1742839813232</t>
@@ -797,16 +797,16 @@
     <t xml:space="preserve">10.4371204376221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269004821777</t>
+    <t xml:space="preserve">10.3268995285034</t>
   </si>
   <si>
     <t xml:space="preserve">10.4710359573364</t>
   </si>
   <si>
-    <t xml:space="preserve">10.657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9288787841797</t>
+    <t xml:space="preserve">10.6575632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9288778305054</t>
   </si>
   <si>
     <t xml:space="preserve">11.005184173584</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6829986572266</t>
+    <t xml:space="preserve">10.6829996109009</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166776657104</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">10.5473413467407</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7084360122681</t>
+    <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
     <t xml:space="preserve">10.7169132232666</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">10.9797496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0645341873169</t>
+    <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9712696075439</t>
+    <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
     <t xml:space="preserve">10.6745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4879913330078</t>
+    <t xml:space="preserve">10.4879922866821</t>
   </si>
   <si>
     <t xml:space="preserve">10.5982141494751</t>
@@ -863,16 +863,16 @@
     <t xml:space="preserve">11.0221424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3188934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136632919312</t>
+    <t xml:space="preserve">11.3188915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136623382568</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9373559951782</t>
+    <t xml:space="preserve">10.9373569488525</t>
   </si>
   <si>
     <t xml:space="preserve">10.7253913879395</t>
@@ -881,31 +881,31 @@
     <t xml:space="preserve">10.9543142318726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238851547241</t>
+    <t xml:space="preserve">11.1238842010498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.691948890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393342971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5732479095459</t>
+    <t xml:space="preserve">11.6919479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5732488632202</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747570037842</t>
+    <t xml:space="preserve">11.1747579574585</t>
   </si>
   <si>
     <t xml:space="preserve">11.2595415115356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3951988220215</t>
+    <t xml:space="preserve">11.3951978683472</t>
   </si>
   <si>
     <t xml:space="preserve">11.3612852096558</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.641077041626</t>
+    <t xml:space="preserve">11.6410779953003</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615198135376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7852125167847</t>
+    <t xml:space="preserve">11.7852115631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121570587158</t>
+    <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
     <t xml:space="preserve">11.4969415664673</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156425476074</t>
+    <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203987121582</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">11.1154050827026</t>
   </si>
   <si>
-    <t xml:space="preserve">10.513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677850723267</t>
+    <t xml:space="preserve">10.5134267807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.767786026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
@@ -956,25 +956,25 @@
     <t xml:space="preserve">10.5388631820679</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4964714050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5642995834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7423496246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9458351135254</t>
+    <t xml:space="preserve">10.4964723587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5643005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7423486709595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9458341598511</t>
   </si>
   <si>
     <t xml:space="preserve">10.8440923690796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.640606880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0979785919189</t>
+    <t xml:space="preserve">10.6406059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0979776382446</t>
   </si>
   <si>
     <t xml:space="preserve">10.530385017395</t>
@@ -992,22 +992,22 @@
     <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2764987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834707260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004289627075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782424926758</t>
+    <t xml:space="preserve">11.27649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834688186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782415390015</t>
   </si>
   <si>
     <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5647706985474</t>
+    <t xml:space="preserve">11.5647716522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.8699998855591</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">11.6665134429932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0899705886841</t>
+    <t xml:space="preserve">11.0899696350098</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695268630981</t>
+    <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.8186559677124</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">10.784743309021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8016996383667</t>
+    <t xml:space="preserve">10.8016986846924</t>
   </si>
   <si>
     <t xml:space="preserve">10.9034423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2421140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151723861694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1912422180176</t>
+    <t xml:space="preserve">10.2421131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151704788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1912431716919</t>
   </si>
   <si>
     <t xml:space="preserve">10.2251567840576</t>
@@ -1055,52 +1055,52 @@
     <t xml:space="preserve">10.3438549041748</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064567565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601207733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948482513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5129566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63165664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731395721436</t>
+    <t xml:space="preserve">10.1064577102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948577880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51295757293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6316556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731300354004</t>
   </si>
   <si>
     <t xml:space="preserve">9.7333984375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7164421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37730026245117</t>
+    <t xml:space="preserve">9.71644306182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37729930877686</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.224684715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904300689697</t>
+    <t xml:space="preserve">9.22468566894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904205322266</t>
   </si>
   <si>
     <t xml:space="preserve">9.56382751464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68252849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81818580627441</t>
+    <t xml:space="preserve">9.68252754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234130859375</t>
@@ -1118,31 +1118,31 @@
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425754547119</t>
+    <t xml:space="preserve">9.39425563812256</t>
   </si>
   <si>
     <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19077205657959</t>
+    <t xml:space="preserve">9.19077110290527</t>
   </si>
   <si>
     <t xml:space="preserve">9.02119922637939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66557121276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08902835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7498836517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51248455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49552726745605</t>
+    <t xml:space="preserve">9.66556930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08902740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74988460540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51248550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49552917480469</t>
   </si>
   <si>
     <t xml:space="preserve">8.42769908905029</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92746353149414</t>
+    <t xml:space="preserve">8.05464172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746448516846</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37682819366455</t>
+    <t xml:space="preserve">8.37682914733887</t>
   </si>
   <si>
     <t xml:space="preserve">8.56335639953613</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">8.59727096557617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0381555557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85162734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597099304199</t>
+    <t xml:space="preserve">9.03815650939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8516263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597003936768</t>
   </si>
   <si>
     <t xml:space="preserve">8.78379917144775</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">8.64814186096191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76684188842773</t>
+    <t xml:space="preserve">8.76684284210205</t>
   </si>
   <si>
     <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47856998443604</t>
+    <t xml:space="preserve">8.47857093811035</t>
   </si>
   <si>
     <t xml:space="preserve">8.52944278717041</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443450927734</t>
+    <t xml:space="preserve">8.33443546295166</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378452301025</t>
@@ -1208,28 +1208,28 @@
     <t xml:space="preserve">8.34291362762451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24117088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95289897918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854164123535</t>
+    <t xml:space="preserve">8.24117183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95289993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
     <t xml:space="preserve">7.51201343536377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30852842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1813497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199926376343</t>
+    <t xml:space="preserve">7.30852794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18134927749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199974060059</t>
   </si>
   <si>
     <t xml:space="preserve">6.96938562393188</t>
@@ -1238,82 +1238,82 @@
     <t xml:space="preserve">6.87612056732178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33396339416504</t>
+    <t xml:space="preserve">7.3339638710022</t>
   </si>
   <si>
     <t xml:space="preserve">7.300048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06264972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01177883148193</t>
+    <t xml:space="preserve">7.06264925003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01177835464478</t>
   </si>
   <si>
     <t xml:space="preserve">6.99482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09656381607056</t>
+    <t xml:space="preserve">7.0965633392334</t>
   </si>
   <si>
     <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39331436157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028533935547</t>
+    <t xml:space="preserve">7.39331388473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635564804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028581619263</t>
   </si>
   <si>
     <t xml:space="preserve">7.6900634765625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13942813873291</t>
+    <t xml:space="preserve">8.13942909240723</t>
   </si>
   <si>
     <t xml:space="preserve">8.19029903411865</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11399364471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85115623474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78332901000977</t>
+    <t xml:space="preserve">8.11399173736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85115718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78332757949829</t>
   </si>
   <si>
     <t xml:space="preserve">7.35092115402222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.435706615448</t>
+    <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
     <t xml:space="preserve">7.24917840957642</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34244298934937</t>
+    <t xml:space="preserve">7.34244251251221</t>
   </si>
   <si>
     <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82525014877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57089281082153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4945855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30805635452271</t>
+    <t xml:space="preserve">6.82524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57089233398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49458503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
     <t xml:space="preserve">6.27414274215698</t>
@@ -1337,25 +1337,25 @@
     <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51154279708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41827869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86764240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24069976806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85916328430176</t>
+    <t xml:space="preserve">6.51154232025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41827821731567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86764287948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069929122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85916423797607</t>
   </si>
   <si>
     <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64720010757446</t>
+    <t xml:space="preserve">6.6471996307373</t>
   </si>
   <si>
     <t xml:space="preserve">6.68111419677734</t>
@@ -1364,13 +1364,13 @@
     <t xml:space="preserve">6.67263507843018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62176322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56241416931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588548660278</t>
+    <t xml:space="preserve">6.62176370620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56241369247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588500976562</t>
   </si>
   <si>
     <t xml:space="preserve">6.26566362380981</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52849912643433</t>
+    <t xml:space="preserve">6.52849960327148</t>
   </si>
   <si>
     <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34197092056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5963282585144</t>
+    <t xml:space="preserve">6.3419713973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59632873535156</t>
   </si>
   <si>
     <t xml:space="preserve">6.57937097549438</t>
@@ -1403,16 +1403,16 @@
     <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830751419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29157114028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591382980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13047790527344</t>
+    <t xml:space="preserve">7.19830656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1304783821106</t>
   </si>
   <si>
     <t xml:space="preserve">7.03721380233765</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">7.05417156219482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090698242188</t>
+    <t xml:space="preserve">6.96090650558472</t>
   </si>
   <si>
     <t xml:space="preserve">6.79133558273315</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45219230651855</t>
+    <t xml:space="preserve">6.45219278335571</t>
   </si>
   <si>
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174953460693</t>
+    <t xml:space="preserve">6.23174858093262</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">5.96891403198242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.155442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087816238403</t>
+    <t xml:space="preserve">6.15544271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087768554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132093429565</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58120155334473</t>
+    <t xml:space="preserve">6.58120107650757</t>
   </si>
   <si>
     <t xml:space="preserve">6.40640115737915</t>
@@ -1472,34 +1472,34 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388105392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2490816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08302211761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12672233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16168165206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38018178939819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35396099090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34522151947021</t>
+    <t xml:space="preserve">6.4238805770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24908208847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0830225944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12672185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38018131256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35396146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34522199630737</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28404188156128</t>
+    <t xml:space="preserve">6.28404140472412</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37144136428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29278182983398</t>
+    <t xml:space="preserve">6.25782155990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37144088745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
     <t xml:space="preserve">6.3190016746521</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">6.23160171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03058242797852</t>
+    <t xml:space="preserve">6.03058195114136</t>
   </si>
   <si>
     <t xml:space="preserve">5.97814226150513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98688220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99562215805054</t>
+    <t xml:space="preserve">5.98688268661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9956226348877</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050201416016</t>
+    <t xml:space="preserve">6.10050249099731</t>
   </si>
   <si>
     <t xml:space="preserve">6.02184200286865</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">5.96940183639526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01310253143311</t>
+    <t xml:space="preserve">6.01310300827026</t>
   </si>
   <si>
     <t xml:space="preserve">6.17916202545166</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">6.07428169250488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15294170379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06554174423218</t>
+    <t xml:space="preserve">6.15294218063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06554222106934</t>
   </si>
   <si>
     <t xml:space="preserve">6.31026124954224</t>
@@ -1598,22 +1598,22 @@
     <t xml:space="preserve">6.1704216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85578298568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91696262359619</t>
+    <t xml:space="preserve">5.8557825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91696310043335</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066236495972</t>
+    <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
     <t xml:space="preserve">5.94318246841431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9344425201416</t>
+    <t xml:space="preserve">5.93444299697876</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">6.86087989807129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84339952468872</t>
+    <t xml:space="preserve">6.84340000152588</t>
   </si>
   <si>
     <t xml:space="preserve">6.77348041534424</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">7.2716588973999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42897844314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58629751205444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38527822494507</t>
+    <t xml:space="preserve">7.42897796630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5862979888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38527774810791</t>
   </si>
   <si>
     <t xml:space="preserve">7.56007766723633</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6037769317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49015808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385782241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64747714996338</t>
+    <t xml:space="preserve">7.60377740859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49015760421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385829925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
     <t xml:space="preserve">7.62999677658081</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54259729385376</t>
+    <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
     <t xml:space="preserve">7.51637840270996</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70865726470947</t>
+    <t xml:space="preserve">7.70865678787231</t>
   </si>
   <si>
     <t xml:space="preserve">7.76983785629272</t>
@@ -1721,34 +1721,34 @@
     <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84849739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85723638534546</t>
+    <t xml:space="preserve">7.84849691390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85723686218262</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73487710952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52511692047119</t>
+    <t xml:space="preserve">7.7348780632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52511739730835</t>
   </si>
   <si>
     <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779880523682</t>
+    <t xml:space="preserve">7.36779928207397</t>
   </si>
   <si>
     <t xml:space="preserve">7.18425941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22795963287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12307834625244</t>
+    <t xml:space="preserve">7.22795915603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1230788230896</t>
   </si>
   <si>
     <t xml:space="preserve">6.98323917388916</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">6.4938006401062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44136095046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62490081787109</t>
+    <t xml:space="preserve">6.44136142730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62490034103394</t>
   </si>
   <si>
     <t xml:space="preserve">6.59868097305298</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65986061096191</t>
+    <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
     <t xml:space="preserve">5.83830308914185</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">5.45374393463135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20028448104858</t>
+    <t xml:space="preserve">5.20028495788574</t>
   </si>
   <si>
     <t xml:space="preserve">4.63218641281128</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">4.64092636108398</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36998653411865</t>
+    <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
     <t xml:space="preserve">4.36561679840088</t>
@@ -1817,58 +1817,58 @@
     <t xml:space="preserve">4.16459798812866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96357798576355</t>
+    <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
     <t xml:space="preserve">3.89365863800049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84995889663696</t>
+    <t xml:space="preserve">3.84995913505554</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877902030945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85432863235474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90239906311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89802837371826</t>
+    <t xml:space="preserve">3.85432839393616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90239834785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89802861213684</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885919570923</t>
+    <t xml:space="preserve">3.71885943412781</t>
   </si>
   <si>
     <t xml:space="preserve">3.77566909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72322940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204953193665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574903488159</t>
+    <t xml:space="preserve">3.72322964668274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574879646301</t>
   </si>
   <si>
     <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02038860321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01164817810059</t>
+    <t xml:space="preserve">4.02038812637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01164770126343</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30006790161133</t>
+    <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
     <t xml:space="preserve">4.3525071144104</t>
@@ -1877,19 +1877,19 @@
     <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89438581466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96430540084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77202606201172</t>
+    <t xml:space="preserve">4.89438533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422498703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96430492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77202558517456</t>
   </si>
   <si>
     <t xml:space="preserve">4.84194612503052</t>
@@ -1913,13 +1913,13 @@
     <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80435180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73155879974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615379333496</t>
+    <t xml:space="preserve">4.80435228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73155832290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7861533164978</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">5.93264627456665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444826126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82345676422119</t>
+    <t xml:space="preserve">5.91444873809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82345628738403</t>
   </si>
   <si>
     <t xml:space="preserve">6.06003427505493</t>
@@ -1961,28 +1961,28 @@
     <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62327527999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55048179626465</t>
+    <t xml:space="preserve">5.62327480316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55048227310181</t>
   </si>
   <si>
     <t xml:space="preserve">5.53228378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56868076324463</t>
+    <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030031204224</t>
+    <t xml:space="preserve">5.35030078887939</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51408529281616</t>
+    <t xml:space="preserve">5.51408576965332</t>
   </si>
   <si>
     <t xml:space="preserve">5.6414737701416</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1683177947998</t>
+    <t xml:space="preserve">5.16831731796265</t>
   </si>
   <si>
     <t xml:space="preserve">5.09552478790283</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">5.18651628494263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36849927902222</t>
+    <t xml:space="preserve">5.36849880218506</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2018,13 +2018,13 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2593092918396</t>
+    <t xml:space="preserve">5.25930976867676</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29570627212524</t>
+    <t xml:space="preserve">5.29570579528809</t>
   </si>
   <si>
     <t xml:space="preserve">5.15011930465698</t>
@@ -2033,22 +2033,22 @@
     <t xml:space="preserve">5.00453281402588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13192081451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05912780761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633527755737</t>
+    <t xml:space="preserve">5.13192129135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05912828445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633480072021</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4958872795105</t>
+    <t xml:space="preserve">5.04092931747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49588680267334</t>
   </si>
   <si>
     <t xml:space="preserve">5.22291278839111</t>
@@ -2063,22 +2063,22 @@
     <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26750183105469</t>
+    <t xml:space="preserve">4.26750230789185</t>
   </si>
   <si>
     <t xml:space="preserve">4.31299734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33119630813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89534282684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24111127853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44129276275635</t>
+    <t xml:space="preserve">4.33119583129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89534330368042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24111080169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">5.8780517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78706073760986</t>
+    <t xml:space="preserve">5.78706026077271</t>
   </si>
   <si>
     <t xml:space="preserve">6.0236382484436</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">6.11462926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24201822280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16922426223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27841424942017</t>
+    <t xml:space="preserve">6.24201774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16922473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27841377258301</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">6.33300924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36940574645996</t>
+    <t xml:space="preserve">6.36940622329712</t>
   </si>
   <si>
     <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60598373413086</t>
+    <t xml:space="preserve">6.60598421096802</t>
   </si>
   <si>
     <t xml:space="preserve">6.42400074005127</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">6.58778524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82436323165894</t>
+    <t xml:space="preserve">6.82436370849609</t>
   </si>
   <si>
     <t xml:space="preserve">6.96994924545288</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">6.93355321884155</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80616474151611</t>
+    <t xml:space="preserve">6.80616521835327</t>
   </si>
   <si>
     <t xml:space="preserve">6.76976823806763</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89715671539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84256172180176</t>
+    <t xml:space="preserve">6.89715623855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8425612449646</t>
   </si>
   <si>
     <t xml:space="preserve">6.86075973510742</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">7.02454423904419</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00634574890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09733819961548</t>
+    <t xml:space="preserve">7.00634622573853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09733772277832</t>
   </si>
   <si>
     <t xml:space="preserve">7.07913970947266</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29752016067505</t>
+    <t xml:space="preserve">7.29751968383789</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">8.02545070648193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13464069366455</t>
+    <t xml:space="preserve">8.13464164733887</t>
   </si>
   <si>
     <t xml:space="preserve">8.09824371337891</t>
@@ -2246,10 +2246,10 @@
     <t xml:space="preserve">7.9708571434021</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98905420303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82527017593384</t>
+    <t xml:space="preserve">7.98905467987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.825270652771</t>
   </si>
   <si>
     <t xml:space="preserve">7.87986469268799</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202964782715</t>
+    <t xml:space="preserve">8.26202869415283</t>
   </si>
   <si>
     <t xml:space="preserve">8.18923568725586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75247764587402</t>
+    <t xml:space="preserve">7.75247716903687</t>
   </si>
   <si>
     <t xml:space="preserve">7.86166715621948</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">7.93446016311646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95265817642212</t>
+    <t xml:space="preserve">7.9526572227478</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05521297454834</t>
+    <t xml:space="preserve">8.05521202087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.25797557830811</t>
@@ -2300,19 +2300,19 @@
     <t xml:space="preserve">8.44230556488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014152526855</t>
+    <t xml:space="preserve">8.35014057159424</t>
   </si>
   <si>
     <t xml:space="preserve">8.40543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46073913574219</t>
+    <t xml:space="preserve">8.46073818206787</t>
   </si>
   <si>
     <t xml:space="preserve">8.42387294769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38700771331787</t>
+    <t xml:space="preserve">8.38700675964355</t>
   </si>
   <si>
     <t xml:space="preserve">8.68193435668945</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">8.66350078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88469791412354</t>
+    <t xml:space="preserve">8.88469696044922</t>
   </si>
   <si>
     <t xml:space="preserve">8.84783172607422</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">8.99529552459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19805812835693</t>
+    <t xml:space="preserve">9.19805717468262</t>
   </si>
   <si>
     <t xml:space="preserve">9.30865573883057</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">9.4008207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35473823547363</t>
+    <t xml:space="preserve">9.35473728179932</t>
   </si>
   <si>
     <t xml:space="preserve">9.16119194030762</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">9.5390682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58515071868896</t>
+    <t xml:space="preserve">9.58514976501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.21649074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72339820861816</t>
+    <t xml:space="preserve">9.72339725494385</t>
   </si>
   <si>
     <t xml:space="preserve">9.86164474487305</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">10.1381397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2763862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.552882194519</t>
+    <t xml:space="preserve">10.2763872146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5528812408447</t>
   </si>
   <si>
     <t xml:space="preserve">10.7832937240601</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519536972046</t>
+    <t xml:space="preserve">11.1519546508789</t>
   </si>
   <si>
     <t xml:space="preserve">11.0597887039185</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.0137062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2441177368164</t>
+    <t xml:space="preserve">11.2441186904907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5206136703491</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">11.428448677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3362846374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8754596710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1980352401733</t>
+    <t xml:space="preserve">11.3362836837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8754587173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1980361938477</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902011871338</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">10.5989646911621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3823671340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8293762207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607181549072</t>
+    <t xml:space="preserve">11.3823661804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8293771743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607172012329</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842222213745</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">10.9215421676636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4745311737061</t>
+    <t xml:space="preserve">11.4745302200317</t>
   </si>
   <si>
     <t xml:space="preserve">11.7049427032471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9814376831055</t>
+    <t xml:space="preserve">11.9814386367798</t>
   </si>
   <si>
     <t xml:space="preserve">11.8431911468506</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">9.6773157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94461488723755</t>
+    <t xml:space="preserve">7.94461441040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.60820198059082</t>
@@ -2513,22 +2513,22 @@
     <t xml:space="preserve">10.4330673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9307584762573</t>
+    <t xml:space="preserve">10.930757522583</t>
   </si>
   <si>
     <t xml:space="preserve">10.4515008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.396201133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80634689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93537616729736</t>
+    <t xml:space="preserve">10.3962020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118711471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80634593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93537712097168</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644083023071</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">9.84321212768555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73261451721191</t>
+    <t xml:space="preserve">9.73261547088623</t>
   </si>
   <si>
     <t xml:space="preserve">9.4376859664917</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">9.54828357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69574928283691</t>
+    <t xml:space="preserve">9.6957483291626</t>
   </si>
   <si>
     <t xml:space="preserve">9.00835800170898</t>
@@ -59396,27 +59396,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6495949074</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>187272</v>
+        <v>59328</v>
       </c>
       <c r="C2149" t="n">
         <v>16.5</v>
       </c>
       <c r="D2149" t="n">
-        <v>16.3999996185303</v>
+        <v>16.4500007629395</v>
       </c>
       <c r="E2149" t="n">
         <v>16.4500007629395</v>
       </c>
       <c r="F2149" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>187272</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2150" t="n">
         <v>16.3999996185303</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="E2150" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="G2150" t="s">
         <v>1062</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6496064815</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>11581</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="1066">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05369997024536</t>
+    <t xml:space="preserve">6.0536994934082</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696359634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783544540405</t>
+    <t xml:space="preserve">6.14696407318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783496856689</t>
   </si>
   <si>
     <t xml:space="preserve">6.07065677642822</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17239952087402</t>
+    <t xml:space="preserve">6.17239999771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.35892820358276</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">6.3504490852356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055316925049</t>
+    <t xml:space="preserve">6.21055269241333</t>
   </si>
   <si>
     <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152814865112</t>
+    <t xml:space="preserve">6.12152767181396</t>
   </si>
   <si>
     <t xml:space="preserve">5.90956354141235</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445356369019</t>
+    <t xml:space="preserve">5.85445308685303</t>
   </si>
   <si>
     <t xml:space="preserve">5.8502140045166</t>
@@ -110,28 +110,28 @@
     <t xml:space="preserve">5.65096712112427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68064260482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53226757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59585666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91804265975952</t>
+    <t xml:space="preserve">5.68064212799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53226709365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59585618972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499994277954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04946041107178</t>
+    <t xml:space="preserve">6.04945993423462</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260578155518</t>
+    <t xml:space="preserve">5.89260673522949</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9010853767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228221893311</t>
+    <t xml:space="preserve">5.90108585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228126525879</t>
   </si>
   <si>
     <t xml:space="preserve">5.82477807998657</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086351394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446725845337</t>
+    <t xml:space="preserve">5.79086399078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446773529053</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">6.22751045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11304998397827</t>
+    <t xml:space="preserve">6.11304950714111</t>
   </si>
   <si>
     <t xml:space="preserve">6.00706768035889</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">5.88836765289307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98587083816528</t>
+    <t xml:space="preserve">5.98587036132812</t>
   </si>
   <si>
     <t xml:space="preserve">5.88412857055664</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">5.98163175582886</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87141036987305</t>
+    <t xml:space="preserve">5.87141084671021</t>
   </si>
   <si>
     <t xml:space="preserve">6.07913541793823</t>
@@ -212,25 +212,25 @@
     <t xml:space="preserve">6.20631408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08337450027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14272451400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95619678497314</t>
+    <t xml:space="preserve">6.08337497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14272403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95619630813599</t>
   </si>
   <si>
     <t xml:space="preserve">5.84173440933228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77390623092651</t>
+    <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
     <t xml:space="preserve">5.76118898391724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80782079696655</t>
+    <t xml:space="preserve">5.80782127380371</t>
   </si>
   <si>
     <t xml:space="preserve">5.82901763916016</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">5.9307599067688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09609222412109</t>
+    <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
     <t xml:space="preserve">5.99858856201172</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">6.18511724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04522085189819</t>
+    <t xml:space="preserve">6.04522180557251</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761310577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99010992050171</t>
+    <t xml:space="preserve">6.08761358261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99011087417603</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75694942474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510259628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66792488098145</t>
+    <t xml:space="preserve">5.75694990158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66792440414429</t>
   </si>
   <si>
     <t xml:space="preserve">5.63824987411499</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">5.60433530807495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72303533554077</t>
+    <t xml:space="preserve">5.72303485870361</t>
   </si>
   <si>
     <t xml:space="preserve">5.71031761169434</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835348129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737897872925</t>
+    <t xml:space="preserve">5.49835300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737802505493</t>
   </si>
   <si>
     <t xml:space="preserve">5.58313941955566</t>
@@ -326,49 +326,49 @@
     <t xml:space="preserve">5.5746603012085</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50683116912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4093279838562</t>
+    <t xml:space="preserve">5.50683164596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40932846069336</t>
   </si>
   <si>
     <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24823617935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32454252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3796534538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51107120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06594562530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18888568878174</t>
+    <t xml:space="preserve">5.24823570251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32454299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37965250015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.511070728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06594610214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18888473510742</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9006142616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80735015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66321420669556</t>
+    <t xml:space="preserve">4.87093877792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90061378479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80734968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6632137298584</t>
   </si>
   <si>
     <t xml:space="preserve">4.53603553771973</t>
@@ -389,46 +389,46 @@
     <t xml:space="preserve">4.62506055831909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73952102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74799919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.002357006073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04475021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714199066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31182432174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33726024627686</t>
+    <t xml:space="preserve">4.73952150344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74799966812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00235748291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04474925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312524795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31182479858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33726072311401</t>
   </si>
   <si>
     <t xml:space="preserve">5.36693525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46867847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43476390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095294952393</t>
+    <t xml:space="preserve">5.46867799758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43476343154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095247268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20584201812744</t>
+    <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
     <t xml:space="preserve">5.28215026855469</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9514856338501</t>
+    <t xml:space="preserve">4.95148515701294</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
@@ -449,52 +449,52 @@
     <t xml:space="preserve">4.97692108154297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16344976425171</t>
+    <t xml:space="preserve">5.16345024108887</t>
   </si>
   <si>
     <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21008205413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1719274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25671339035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34149980545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334568023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084934234619</t>
+    <t xml:space="preserve">5.21008157730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17192792892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25671434402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34149932861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334663391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084981918335</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618213653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61281394958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59161710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770254135132</t>
+    <t xml:space="preserve">5.56618165969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61281442642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59161758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770349502563</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5237889289856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44748163223267</t>
+    <t xml:space="preserve">5.52378845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -503,25 +503,25 @@
     <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51955032348633</t>
+    <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488216400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77814626693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92652082443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60056686401367</t>
+    <t xml:space="preserve">5.68488168716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77814531326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92652130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48610639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60056734085083</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352109909058</t>
+    <t xml:space="preserve">7.11352062225342</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5077748298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353574752808</t>
+    <t xml:space="preserve">7.20678520202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353622436523</t>
   </si>
   <si>
     <t xml:space="preserve">7.41874980926514</t>
@@ -557,16 +557,16 @@
     <t xml:space="preserve">7.61799621582031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58832025527954</t>
+    <t xml:space="preserve">7.5883207321167</t>
   </si>
   <si>
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722845077515</t>
+    <t xml:space="preserve">7.64767026901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722797393799</t>
   </si>
   <si>
     <t xml:space="preserve">7.59255981445312</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">7.46114253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52049255371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266437530518</t>
+    <t xml:space="preserve">7.52049160003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266389846802</t>
   </si>
   <si>
     <t xml:space="preserve">7.55440664291382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73669576644897</t>
+    <t xml:space="preserve">7.73669481277466</t>
   </si>
   <si>
     <t xml:space="preserve">7.91898488998413</t>
@@ -596,25 +596,25 @@
     <t xml:space="preserve">7.96985626220703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561717987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931131362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148170471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594217300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02496719360352</t>
+    <t xml:space="preserve">8.03768444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594169616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0249662399292</t>
   </si>
   <si>
     <t xml:space="preserve">8.30052185058594</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41074275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2835636138916</t>
+    <t xml:space="preserve">8.41074371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28356552124023</t>
   </si>
   <si>
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945648193359</t>
+    <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.83467102050781</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32642841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79275035858154</t>
+    <t xml:space="preserve">9.3264274597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79274940490723</t>
   </si>
   <si>
     <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61470031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49599838256836</t>
+    <t xml:space="preserve">9.6146993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599933624268</t>
   </si>
   <si>
     <t xml:space="preserve">9.41121387481689</t>
@@ -668,25 +668,25 @@
     <t xml:space="preserve">9.368821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316383361816</t>
+    <t xml:space="preserve">9.23316287994385</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207107543945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30099201202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28403472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446380615234</t>
+    <t xml:space="preserve">9.30099296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28403568267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446475982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1229419708252</t>
+    <t xml:space="preserve">9.12294292449951</t>
   </si>
   <si>
     <t xml:space="preserve">9.53839206695557</t>
@@ -695,16 +695,16 @@
     <t xml:space="preserve">9.45360565185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34338569641113</t>
+    <t xml:space="preserve">9.34338474273682</t>
   </si>
   <si>
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16533470153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837837219238</t>
+    <t xml:space="preserve">9.1653356552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837741851807</t>
   </si>
   <si>
     <t xml:space="preserve">9.05511379241943</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91097831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7753210067749</t>
+    <t xml:space="preserve">8.91097736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77532196044922</t>
   </si>
   <si>
     <t xml:space="preserve">8.86010646820068</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41969299316406</t>
+    <t xml:space="preserve">9.41969108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577842712402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078575134277</t>
+    <t xml:space="preserve">9.58078479766846</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.403205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184204101562</t>
+    <t xml:space="preserve">10.3014631271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184213638306</t>
   </si>
   <si>
     <t xml:space="preserve">10.4286422729492</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0725412368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.004714012146</t>
+    <t xml:space="preserve">10.0725421905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">9.92840671539307</t>
@@ -785,46 +785,46 @@
     <t xml:space="preserve">10.4625568389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.369291305542</t>
+    <t xml:space="preserve">10.3692922592163</t>
   </si>
   <si>
     <t xml:space="preserve">10.479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4371204376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268995285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4710359573364</t>
+    <t xml:space="preserve">10.1742849349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4371213912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269004821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4710350036621</t>
   </si>
   <si>
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288778305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.005184173584</t>
+    <t xml:space="preserve">10.9288787841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0051851272583</t>
   </si>
   <si>
     <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6829996109009</t>
+    <t xml:space="preserve">10.6829986572266</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4540777206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999559402466</t>
+    <t xml:space="preserve">10.4540786743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
     <t xml:space="preserve">10.2081995010376</t>
@@ -836,49 +836,49 @@
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169132232666</t>
+    <t xml:space="preserve">10.7169141769409</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0645351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1917133331299</t>
+    <t xml:space="preserve">11.0645341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1917123794556</t>
   </si>
   <si>
     <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6745204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4879922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5982141494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0221424102783</t>
+    <t xml:space="preserve">10.674521446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4879913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5982131958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.022141456604</t>
   </si>
   <si>
     <t xml:space="preserve">11.3188915252686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0136623382568</t>
+    <t xml:space="preserve">11.0136632919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9373569488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7253913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9543142318726</t>
+    <t xml:space="preserve">10.9373559951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7253923416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9543132781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238842010498</t>
@@ -887,40 +887,40 @@
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6919479370117</t>
+    <t xml:space="preserve">11.6919498443604</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732488632202</t>
+    <t xml:space="preserve">11.5732479095459</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747579574585</t>
+    <t xml:space="preserve">11.1747560501099</t>
   </si>
   <si>
     <t xml:space="preserve">11.2595415115356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3951978683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3612852096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4460706710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6410779953003</t>
+    <t xml:space="preserve">11.3951988220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3612842559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4460697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.641077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615198135376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7852115631104</t>
+    <t xml:space="preserve">11.785213470459</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
@@ -929,34 +929,34 @@
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969415664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6156415939331</t>
+    <t xml:space="preserve">11.4969425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1154050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5134267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767786026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5388631820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964723587036</t>
+    <t xml:space="preserve">11.1154069900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5134286880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677850723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558195114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5388641357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.5643005371094</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">10.7423486709595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9458341598511</t>
+    <t xml:space="preserve">10.9458351135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.8440923690796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6406059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0979776382446</t>
+    <t xml:space="preserve">10.640606880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0979785919189</t>
   </si>
   <si>
     <t xml:space="preserve">10.530385017395</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">11.1069278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4291133880615</t>
+    <t xml:space="preserve">11.4291124343872</t>
   </si>
   <si>
     <t xml:space="preserve">11.2086706161499</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782415390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5138988494873</t>
+    <t xml:space="preserve">11.3782424926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5138998031616</t>
   </si>
   <si>
     <t xml:space="preserve">11.5647716522217</t>
@@ -1016,31 +1016,31 @@
     <t xml:space="preserve">11.6665134429932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0899696350098</t>
+    <t xml:space="preserve">11.0899705886841</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695278167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8186559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.784743309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016986846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9034423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2421131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777713775635</t>
+    <t xml:space="preserve">10.8695268630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8186569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7847423553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016996383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9034414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2421140670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777694702148</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151704788208</t>
@@ -1049,13 +1049,13 @@
     <t xml:space="preserve">10.1912431716919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2251567840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1064577102661</t>
+    <t xml:space="preserve">10.2251577377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438558578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1064558029175</t>
   </si>
   <si>
     <t xml:space="preserve">9.88601303100586</t>
@@ -1064,16 +1064,16 @@
     <t xml:space="preserve">9.69948577880859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034202575684</t>
+    <t xml:space="preserve">9.5129566192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.6316556930542</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76731300354004</t>
+    <t xml:space="preserve">9.76731491088867</t>
   </si>
   <si>
     <t xml:space="preserve">9.7333984375</t>
@@ -1091,16 +1091,16 @@
     <t xml:space="preserve">9.22468566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47904205322266</t>
+    <t xml:space="preserve">9.47904300689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.56382751464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68252754211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8181848526001</t>
+    <t xml:space="preserve">9.68252849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81818389892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234130859375</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">9.02119922637939</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66556930541992</t>
+    <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
     <t xml:space="preserve">9.08902740478516</t>
@@ -1139,13 +1139,13 @@
     <t xml:space="preserve">8.74988460540771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51248550415039</t>
+    <t xml:space="preserve">8.51248455047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.49552917480469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42769908905029</t>
+    <t xml:space="preserve">8.42770004272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">8.05464172363281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92746448516846</t>
+    <t xml:space="preserve">7.92746353149414</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37682914733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56335639953613</t>
+    <t xml:space="preserve">8.37682819366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56335735321045</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
@@ -1172,34 +1172,34 @@
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8516263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597003936768</t>
+    <t xml:space="preserve">8.85162734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
     <t xml:space="preserve">8.78379917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64814186096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76684284210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63118553161621</t>
+    <t xml:space="preserve">8.64814281463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76684188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63118457794189</t>
   </si>
   <si>
     <t xml:space="preserve">8.47857093811035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52944278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41922092437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33443546295166</t>
+    <t xml:space="preserve">8.52944183349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41921997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33443450927734</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378452301025</t>
@@ -1208,13 +1208,13 @@
     <t xml:space="preserve">8.34291362762451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24117183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95289993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245716094971</t>
+    <t xml:space="preserve">8.24117088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95289897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854259490967</t>
@@ -1229,49 +1229,49 @@
     <t xml:space="preserve">7.18134927749634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12199974060059</t>
+    <t xml:space="preserve">7.12199926376343</t>
   </si>
   <si>
     <t xml:space="preserve">6.96938562393188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87612056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3339638710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.300048828125</t>
+    <t xml:space="preserve">6.87612009048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33396339416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30004930496216</t>
   </si>
   <si>
     <t xml:space="preserve">7.06264925003052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01177835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99482107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0965633392334</t>
+    <t xml:space="preserve">7.01177883148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9948205947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09656429290771</t>
   </si>
   <si>
     <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39331388473511</t>
+    <t xml:space="preserve">7.39331340789795</t>
   </si>
   <si>
     <t xml:space="preserve">7.36787748336792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37635564804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028581619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6900634765625</t>
+    <t xml:space="preserve">7.37635660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69006299972534</t>
   </si>
   <si>
     <t xml:space="preserve">8.13942909240723</t>
@@ -1283,22 +1283,22 @@
     <t xml:space="preserve">8.11399173736572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85115718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78332757949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092115402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43570709228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24917840957642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244251251221</t>
+    <t xml:space="preserve">7.85115766525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43570756912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2491774559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244298934937</t>
   </si>
   <si>
     <t xml:space="preserve">6.92699241638184</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57089233398438</t>
+    <t xml:space="preserve">6.57089281082153</t>
   </si>
   <si>
     <t xml:space="preserve">6.49458503723145</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24022817611694</t>
+    <t xml:space="preserve">6.27414226531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24022769927979</t>
   </si>
   <si>
     <t xml:space="preserve">6.69807100296021</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">6.52002096176147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33349227905273</t>
+    <t xml:space="preserve">6.33349275588989</t>
   </si>
   <si>
     <t xml:space="preserve">6.51154232025146</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">6.6471996307373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68111419677734</t>
+    <t xml:space="preserve">6.68111371994019</t>
   </si>
   <si>
     <t xml:space="preserve">6.67263507843018</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56241369247437</t>
+    <t xml:space="preserve">6.56241321563721</t>
   </si>
   <si>
     <t xml:space="preserve">6.37588500976562</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">6.26566362380981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32501411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44371366500854</t>
+    <t xml:space="preserve">6.32501363754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44371318817139</t>
   </si>
   <si>
     <t xml:space="preserve">6.52849960327148</t>
@@ -1388,37 +1388,37 @@
     <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3419713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59632873535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57937097549438</t>
+    <t xml:space="preserve">6.34197092056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5963282585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
     <t xml:space="preserve">6.74894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88459968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19830656051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29157066345215</t>
+    <t xml:space="preserve">6.88459920883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1983060836792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29157161712646</t>
   </si>
   <si>
     <t xml:space="preserve">7.15591335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1304783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03721380233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417156219482</t>
+    <t xml:space="preserve">7.13047790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0372142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
     <t xml:space="preserve">6.96090650558472</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29109954833984</t>
+    <t xml:space="preserve">6.291100025177</t>
   </si>
   <si>
     <t xml:space="preserve">6.45219278335571</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174858093262</t>
+    <t xml:space="preserve">6.23174905776978</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">5.96891403198242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15544271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087768554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40132093429565</t>
+    <t xml:space="preserve">6.155442237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40132141113281</t>
   </si>
   <si>
     <t xml:space="preserve">6.58120107650757</t>
@@ -1472,13 +1472,13 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4238805770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24908208847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0830225944519</t>
+    <t xml:space="preserve">6.42388105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2490816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08302211761475</t>
   </si>
   <si>
     <t xml:space="preserve">6.12672185897827</t>
@@ -1487,31 +1487,31 @@
     <t xml:space="preserve">6.16168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38018131256104</t>
+    <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522199630737</t>
+    <t xml:space="preserve">6.34522151947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28404140472412</t>
+    <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20538139343262</t>
+    <t xml:space="preserve">6.20538187026978</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45010089874268</t>
+    <t xml:space="preserve">6.45010137557983</t>
   </si>
   <si>
     <t xml:space="preserve">6.25782155990601</t>
@@ -1523,16 +1523,16 @@
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3190016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514158248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32774114608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27530145645142</t>
+    <t xml:space="preserve">6.31900119781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3277416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27530097961426</t>
   </si>
   <si>
     <t xml:space="preserve">6.11798191070557</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">6.19664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23160171508789</t>
+    <t xml:space="preserve">6.23160219192505</t>
   </si>
   <si>
     <t xml:space="preserve">6.03058195114136</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">5.97814226150513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98688268661499</t>
+    <t xml:space="preserve">5.98688220977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.9956226348877</t>
@@ -1562,22 +1562,22 @@
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050249099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02184200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96940183639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01310300827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17916202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03932189941406</t>
+    <t xml:space="preserve">6.10050201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02184247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96940231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01310205459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1791615486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03932285308838</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">5.8557825088501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91696310043335</t>
+    <t xml:space="preserve">5.91696262359619</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94318246841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93444299697876</t>
+    <t xml:space="preserve">5.94318294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1625,34 +1625,34 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624032974243</t>
+    <t xml:space="preserve">6.54624080657959</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53750085830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46758127212524</t>
+    <t xml:space="preserve">6.53750038146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46758079528809</t>
   </si>
   <si>
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64238023757935</t>
+    <t xml:space="preserve">6.6423807144165</t>
   </si>
   <si>
     <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8870997428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86087989807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84340000152588</t>
+    <t xml:space="preserve">6.88710021972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86087942123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84339952468872</t>
   </si>
   <si>
     <t xml:space="preserve">6.77348041534424</t>
@@ -1664,22 +1664,22 @@
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2716588973999</t>
+    <t xml:space="preserve">7.27165842056274</t>
   </si>
   <si>
     <t xml:space="preserve">7.42897796630859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5862979888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38527774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56007766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55133819580078</t>
+    <t xml:space="preserve">7.58629846572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38527822494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56007719039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55133867263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.60377740859985</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999677658081</t>
+    <t xml:space="preserve">7.62999725341797</t>
   </si>
   <si>
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51637840270996</t>
+    <t xml:space="preserve">7.51637744903564</t>
   </si>
   <si>
     <t xml:space="preserve">7.5775580406189</t>
@@ -1709,49 +1709,49 @@
     <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39401817321777</t>
+    <t xml:space="preserve">7.39401865005493</t>
   </si>
   <si>
     <t xml:space="preserve">7.70865678787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76983785629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731727600098</t>
+    <t xml:space="preserve">7.76983833312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731632232666</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723686218262</t>
+    <t xml:space="preserve">7.85723733901978</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7348780632019</t>
+    <t xml:space="preserve">7.73487854003906</t>
   </si>
   <si>
     <t xml:space="preserve">7.52511739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5076379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36779928207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18425941467285</t>
+    <t xml:space="preserve">7.50763845443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36779880523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18425893783569</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795915603638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1230788230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98323917388916</t>
+    <t xml:space="preserve">7.12307929992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98323965072632</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4938006401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136142730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62490034103394</t>
+    <t xml:space="preserve">6.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136047363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62490081787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.59868097305298</t>
@@ -1784,43 +1784,43 @@
     <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83830308914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84704303741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78586292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374393463135</t>
+    <t xml:space="preserve">5.83830261230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84704351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78586339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374345779419</t>
   </si>
   <si>
     <t xml:space="preserve">5.20028495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63218641281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64092636108398</t>
+    <t xml:space="preserve">4.63218688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64092588424683</t>
   </si>
   <si>
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561679840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45738697052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16459798812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96357822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365863800049</t>
+    <t xml:space="preserve">4.36561727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45738744735718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1645975112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96357870101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365816116333</t>
   </si>
   <si>
     <t xml:space="preserve">3.84995913505554</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">3.85432839393616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90239834785461</t>
+    <t xml:space="preserve">3.90239882469177</t>
   </si>
   <si>
     <t xml:space="preserve">3.89802861213684</t>
@@ -1841,28 +1841,28 @@
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885943412781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77566909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322964668274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204929351807</t>
+    <t xml:space="preserve">3.71885967254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77566933631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322916984558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204905509949</t>
   </si>
   <si>
     <t xml:space="preserve">3.70574879646301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75818920135498</t>
+    <t xml:space="preserve">3.75818872451782</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164770126343</t>
+    <t xml:space="preserve">4.01164817810059</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3525071144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478645324707</t>
+    <t xml:space="preserve">4.35250663757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478597640991</t>
   </si>
   <si>
     <t xml:space="preserve">4.89438533782959</t>
@@ -1883,13 +1883,13 @@
     <t xml:space="preserve">5.15658521652222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03422498703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96430492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77202558517456</t>
+    <t xml:space="preserve">5.03422546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96430540084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77202606201172</t>
   </si>
   <si>
     <t xml:space="preserve">4.84194612503052</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71335983276367</t>
+    <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5495753288269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80435228347778</t>
+    <t xml:space="preserve">4.54957580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
     <t xml:space="preserve">4.73155832290649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7861533164978</t>
+    <t xml:space="preserve">4.78615427017212</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.80525827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95084428787231</t>
+    <t xml:space="preserve">5.95084476470947</t>
   </si>
   <si>
     <t xml:space="preserve">5.85985326766968</t>
@@ -1952,22 +1952,22 @@
     <t xml:space="preserve">5.91444873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82345628738403</t>
+    <t xml:space="preserve">5.82345676422119</t>
   </si>
   <si>
     <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67787027359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55048227310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53228378295898</t>
+    <t xml:space="preserve">5.67786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62327527999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55048179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53228425979614</t>
   </si>
   <si>
     <t xml:space="preserve">5.56868028640747</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030078887939</t>
+    <t xml:space="preserve">5.35030126571655</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4048957824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42309427261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16831731796265</t>
+    <t xml:space="preserve">5.40489625930786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42309379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1683177947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.09552478790283</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651628494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36849880218506</t>
+    <t xml:space="preserve">5.18651580810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36849927902222</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">5.58687877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29570579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15011930465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00453281402588</t>
+    <t xml:space="preserve">5.29570627212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15011978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00453329086304</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05912828445435</t>
+    <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
     <t xml:space="preserve">4.98633480072021</t>
@@ -2045,16 +2045,16 @@
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092931747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49588680267334</t>
+    <t xml:space="preserve">5.04092979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4958872795105</t>
   </si>
   <si>
     <t xml:space="preserve">5.22291278839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27750778198242</t>
+    <t xml:space="preserve">5.27750825881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">4.31299734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33119583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89534330368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24111080169678</t>
+    <t xml:space="preserve">4.33119630813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89534378051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
     <t xml:space="preserve">5.44129228591919</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">5.8780517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78706026077271</t>
+    <t xml:space="preserve">5.78706073760986</t>
   </si>
   <si>
     <t xml:space="preserve">6.0236382484436</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841377258301</t>
+    <t xml:space="preserve">6.27841472625732</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2120,43 +2120,43 @@
     <t xml:space="preserve">6.33300924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36940622329712</t>
+    <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
     <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60598421096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42400074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55138874053955</t>
+    <t xml:space="preserve">6.60598373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42400026321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55138826370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.58778524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82436370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96994924545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95175170898438</t>
+    <t xml:space="preserve">6.82436323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96994972229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95175123214722</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355321884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80616521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76976823806763</t>
+    <t xml:space="preserve">6.93355274200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80616474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76976871490479</t>
   </si>
   <si>
     <t xml:space="preserve">6.71517372131348</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877721786499</t>
+    <t xml:space="preserve">6.67877674102783</t>
   </si>
   <si>
     <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89715623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8425612449646</t>
+    <t xml:space="preserve">6.89715671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84256172180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.86075973510742</t>
@@ -2186,34 +2186,34 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013120651245</t>
+    <t xml:space="preserve">7.17013072967529</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02454423904419</t>
+    <t xml:space="preserve">7.02454471588135</t>
   </si>
   <si>
     <t xml:space="preserve">7.00634622573853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733772277832</t>
+    <t xml:space="preserve">7.09733819961548</t>
   </si>
   <si>
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91535472869873</t>
+    <t xml:space="preserve">7.06094121932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91535520553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29751968383789</t>
+    <t xml:space="preserve">7.29751920700073</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
@@ -2225,70 +2225,70 @@
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851070404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91626119613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02545070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13464164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09824371337891</t>
+    <t xml:space="preserve">7.38851118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91626167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02545166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13464069366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9708571434021</t>
+    <t xml:space="preserve">7.97085666656494</t>
   </si>
   <si>
     <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.825270652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87986469268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04364967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725269317627</t>
+    <t xml:space="preserve">7.82527017593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87986516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04365062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725364685059</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18923568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75247716903687</t>
+    <t xml:space="preserve">8.26202964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18923664093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75247764587402</t>
   </si>
   <si>
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9526572227478</t>
+    <t xml:space="preserve">7.78887414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265769958496</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05521202087402</t>
+    <t xml:space="preserve">8.05521297454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.25797557830811</t>
@@ -2300,19 +2300,19 @@
     <t xml:space="preserve">8.44230556488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014057159424</t>
+    <t xml:space="preserve">8.35014152526855</t>
   </si>
   <si>
     <t xml:space="preserve">8.40543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46073818206787</t>
+    <t xml:space="preserve">8.46073913574219</t>
   </si>
   <si>
     <t xml:space="preserve">8.42387294769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38700675964355</t>
+    <t xml:space="preserve">8.38700771331787</t>
   </si>
   <si>
     <t xml:space="preserve">8.68193435668945</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">8.66350078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88469696044922</t>
+    <t xml:space="preserve">8.88469791412354</t>
   </si>
   <si>
     <t xml:space="preserve">8.84783172607422</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">8.99529552459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19805717468262</t>
+    <t xml:space="preserve">9.19805812835693</t>
   </si>
   <si>
     <t xml:space="preserve">9.30865573883057</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">9.4008207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35473728179932</t>
+    <t xml:space="preserve">9.35473823547363</t>
   </si>
   <si>
     <t xml:space="preserve">9.16119194030762</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">9.5390682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58514976501465</t>
+    <t xml:space="preserve">9.58515071868896</t>
   </si>
   <si>
     <t xml:space="preserve">9.21649074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72339725494385</t>
+    <t xml:space="preserve">9.72339820861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.86164474487305</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">10.1381397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2763872146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5528812408447</t>
+    <t xml:space="preserve">10.2763862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.552882194519</t>
   </si>
   <si>
     <t xml:space="preserve">10.7832937240601</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519546508789</t>
+    <t xml:space="preserve">11.1519536972046</t>
   </si>
   <si>
     <t xml:space="preserve">11.0597887039185</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.0137062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2441186904907</t>
+    <t xml:space="preserve">11.2441177368164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5206136703491</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">11.428448677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3362836837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8754587173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1980361938477</t>
+    <t xml:space="preserve">11.3362846374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8754596710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1980352401733</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902011871338</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">10.5989646911621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3823661804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8293771743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607172012329</t>
+    <t xml:space="preserve">11.3823671340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8293762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607181549072</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842222213745</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">10.9215421676636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4745302200317</t>
+    <t xml:space="preserve">11.4745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">11.7049427032471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9814386367798</t>
+    <t xml:space="preserve">11.9814376831055</t>
   </si>
   <si>
     <t xml:space="preserve">11.8431911468506</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">9.6773157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94461441040039</t>
+    <t xml:space="preserve">7.94461488723755</t>
   </si>
   <si>
     <t xml:space="preserve">8.60820198059082</t>
@@ -2513,22 +2513,22 @@
     <t xml:space="preserve">10.4330673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.930757522583</t>
+    <t xml:space="preserve">10.9307584762573</t>
   </si>
   <si>
     <t xml:space="preserve">10.4515008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118711471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80634593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93537712097168</t>
+    <t xml:space="preserve">10.396201133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80634689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93537616729736</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644083023071</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">9.84321212768555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73261547088623</t>
+    <t xml:space="preserve">9.73261451721191</t>
   </si>
   <si>
     <t xml:space="preserve">9.4376859664917</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">9.54828357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6957483291626</t>
+    <t xml:space="preserve">9.69574928283691</t>
   </si>
   <si>
     <t xml:space="preserve">9.00835800170898</t>
@@ -3207,6 +3207,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.4500007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5</t>
   </si>
 </sst>
 </file>
@@ -59448,7 +59451,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6496064815</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>11581</v>
@@ -59469,6 +59472,32 @@
         <v>1064</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6515740741</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>71965</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="1067">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696407318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97739219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05793905258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17239999771118</t>
+    <t xml:space="preserve">6.14696359634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97739267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05793857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17239904403687</t>
   </si>
   <si>
     <t xml:space="preserve">6.35892820358276</t>
@@ -86,16 +86,16 @@
     <t xml:space="preserve">6.3504490852356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055269241333</t>
+    <t xml:space="preserve">6.21055316925049</t>
   </si>
   <si>
     <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152767181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90956354141235</t>
+    <t xml:space="preserve">6.12152814865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90956401824951</t>
   </si>
   <si>
     <t xml:space="preserve">5.86293172836304</t>
@@ -107,43 +107,43 @@
     <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65096712112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53226709365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59585618972778</t>
+    <t xml:space="preserve">5.65096759796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064260482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53226757049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59585666656494</t>
   </si>
   <si>
     <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93499994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04945993423462</t>
+    <t xml:space="preserve">5.93499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946088790894</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01978540420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01554584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0028281211853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12576770782471</t>
+    <t xml:space="preserve">5.89260625839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01978492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0155463218689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00282859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12576723098755</t>
   </si>
   <si>
     <t xml:space="preserve">5.85869216918945</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90108585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228126525879</t>
+    <t xml:space="preserve">5.9010853767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228221893311</t>
   </si>
   <si>
     <t xml:space="preserve">5.82477807998657</t>
@@ -164,16 +164,16 @@
     <t xml:space="preserve">5.89684581756592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83325672149658</t>
+    <t xml:space="preserve">5.83325719833374</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446773529053</t>
+    <t xml:space="preserve">6.03674268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446725845337</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">6.22751045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11304950714111</t>
+    <t xml:space="preserve">6.11304903030396</t>
   </si>
   <si>
     <t xml:space="preserve">6.00706768035889</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">5.88836765289307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98587036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88412857055664</t>
+    <t xml:space="preserve">5.98587083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88412809371948</t>
   </si>
   <si>
     <t xml:space="preserve">5.87988901138306</t>
@@ -203,31 +203,31 @@
     <t xml:space="preserve">5.98163175582886</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87141084671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07913541793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20631408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14272403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95619630813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173440933228</t>
+    <t xml:space="preserve">5.87141036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07913494110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2063136100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08337450027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14272451400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95619583129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173488616943</t>
   </si>
   <si>
     <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118898391724</t>
+    <t xml:space="preserve">5.76118850708008</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782127380371</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">5.82901763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9307599067688</t>
+    <t xml:space="preserve">5.93076038360596</t>
   </si>
   <si>
     <t xml:space="preserve">6.09609270095825</t>
@@ -254,55 +254,55 @@
     <t xml:space="preserve">6.18511724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04522180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16392087936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07489585876465</t>
+    <t xml:space="preserve">6.04522132873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16392040252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07489633560181</t>
   </si>
   <si>
     <t xml:space="preserve">6.10033178329468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99434947967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08761358261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99011087417603</t>
+    <t xml:space="preserve">5.99434995651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08761405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999261856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76542854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75694990158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510307312012</t>
+    <t xml:space="preserve">5.73999214172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76542806625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75694942474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510354995728</t>
   </si>
   <si>
     <t xml:space="preserve">5.66792440414429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63824987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944576263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60433530807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72303485870361</t>
+    <t xml:space="preserve">5.63824939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60433578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
     <t xml:space="preserve">5.71031761169434</t>
@@ -311,37 +311,37 @@
     <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683164596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40932846069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25247430801392</t>
+    <t xml:space="preserve">5.49835348129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57465982437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4093279838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25247478485107</t>
   </si>
   <si>
     <t xml:space="preserve">5.24823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32454299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37965250015259</t>
+    <t xml:space="preserve">5.32454204559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3796534538269</t>
   </si>
   <si>
     <t xml:space="preserve">5.511070728302</t>
@@ -350,13 +350,13 @@
     <t xml:space="preserve">5.06594610214233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18888473510742</t>
+    <t xml:space="preserve">5.18888568878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093877792358</t>
+    <t xml:space="preserve">4.87093925476074</t>
   </si>
   <si>
     <t xml:space="preserve">4.90061378479004</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">4.80734968185425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83278512954712</t>
+    <t xml:space="preserve">4.83278560638428</t>
   </si>
   <si>
     <t xml:space="preserve">4.6632137298584</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">4.46396732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47244596481323</t>
+    <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506055831909</t>
+    <t xml:space="preserve">4.62506103515625</t>
   </si>
   <si>
     <t xml:space="preserve">4.73952150344849</t>
@@ -395,22 +395,22 @@
     <t xml:space="preserve">4.74799966812134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00235748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04474925994873</t>
+    <t xml:space="preserve">5.002357006073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04474973678589</t>
   </si>
   <si>
     <t xml:space="preserve">5.08714246749878</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19312524795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31182479858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33726072311401</t>
+    <t xml:space="preserve">5.19312477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31182432174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3372597694397</t>
   </si>
   <si>
     <t xml:space="preserve">5.36693525314331</t>
@@ -419,19 +419,19 @@
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476343154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095247268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18040704727173</t>
+    <t xml:space="preserve">5.43476390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095342636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18040657043457</t>
   </si>
   <si>
     <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28215026855469</t>
+    <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
     <t xml:space="preserve">5.22279930114746</t>
@@ -440,19 +440,19 @@
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95148515701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92181015014648</t>
+    <t xml:space="preserve">4.9514856338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92180967330933</t>
   </si>
   <si>
     <t xml:space="preserve">4.97692108154297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16345024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432113647461</t>
+    <t xml:space="preserve">5.16344976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432161331177</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008157730103</t>
@@ -461,22 +461,22 @@
     <t xml:space="preserve">5.17192792892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25671434402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34149932861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54922485351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56618165969849</t>
+    <t xml:space="preserve">5.2567138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34149980545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334568023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40085029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54922437667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281442642212</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">5.59161758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55770349502563</t>
+    <t xml:space="preserve">5.55770301818848</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216396331787</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52378845214844</t>
+    <t xml:space="preserve">5.52378797531128</t>
   </si>
   <si>
     <t xml:space="preserve">5.44748210906982</t>
@@ -500,28 +500,28 @@
     <t xml:space="preserve">5.44324254989624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48987483978271</t>
+    <t xml:space="preserve">5.48987436294556</t>
   </si>
   <si>
     <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76966762542725</t>
+    <t xml:space="preserve">5.76966714859009</t>
   </si>
   <si>
     <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77814531326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92652130126953</t>
+    <t xml:space="preserve">5.7781457901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92652082443237</t>
   </si>
   <si>
     <t xml:space="preserve">6.48610639572144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60056734085083</t>
+    <t xml:space="preserve">6.60056686401367</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526432037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63919258117676</t>
+    <t xml:space="preserve">7.21526384353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6391921043396</t>
   </si>
   <si>
     <t xml:space="preserve">7.11352062225342</t>
@@ -542,40 +542,40 @@
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353622436523</t>
+    <t xml:space="preserve">7.20678567886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777387619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353479385376</t>
   </si>
   <si>
     <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5883207321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54592800140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767026901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722797393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59255981445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049160003662</t>
+    <t xml:space="preserve">7.61799573898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58832025527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54592752456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4272289276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59256029129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114206314087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049207687378</t>
   </si>
   <si>
     <t xml:space="preserve">7.45266389846802</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">7.55440664291382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73669481277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898488998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00377082824707</t>
+    <t xml:space="preserve">7.73669672012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00376987457275</t>
   </si>
   <si>
     <t xml:space="preserve">7.96985626220703</t>
@@ -602,31 +602,31 @@
     <t xml:space="preserve">7.96561765670776</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91050624847412</t>
+    <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
     <t xml:space="preserve">7.88931083679199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82148122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0249662399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30052185058594</t>
+    <t xml:space="preserve">7.82148218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594217300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02496719360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30052089691162</t>
   </si>
   <si>
     <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41074371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28356552124023</t>
+    <t xml:space="preserve">8.41074180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28356456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.73292827606201</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83467102050781</t>
+    <t xml:space="preserve">8.83467197418213</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90250015258789</t>
+    <t xml:space="preserve">8.90249919891357</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
@@ -653,7 +653,7 @@
     <t xml:space="preserve">9.79274940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83514213562012</t>
+    <t xml:space="preserve">9.83514308929443</t>
   </si>
   <si>
     <t xml:space="preserve">9.6146993637085</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">9.368821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316287994385</t>
+    <t xml:space="preserve">9.23316478729248</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207107543945</t>
@@ -677,31 +677,31 @@
     <t xml:space="preserve">9.30099296569824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446475982666</t>
+    <t xml:space="preserve">9.28403472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446285247803</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12294292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53839206695557</t>
+    <t xml:space="preserve">9.12294101715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53839111328125</t>
   </si>
   <si>
     <t xml:space="preserve">9.45360565185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34338474273682</t>
+    <t xml:space="preserve">9.34338569641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1653356552124</t>
+    <t xml:space="preserve">9.16533470153809</t>
   </si>
   <si>
     <t xml:space="preserve">9.14837741851807</t>
@@ -719,61 +719,61 @@
     <t xml:space="preserve">8.91097736358643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77532196044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86010646820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17381381988525</t>
+    <t xml:space="preserve">8.7753210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.860107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17381286621094</t>
   </si>
   <si>
     <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41969108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38577842712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58078479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512844085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64861392974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62317848205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59774112701416</t>
+    <t xml:space="preserve">9.41969203948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38577747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58078575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512748718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64861488342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62317943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59774208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014631271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184213638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286422729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590713500977</t>
+    <t xml:space="preserve">10.3014621734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4032068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590703964233</t>
   </si>
   <si>
     <t xml:space="preserve">10.0725421905518</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0047149658203</t>
+    <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
     <t xml:space="preserve">9.92840671539307</t>
@@ -797,25 +797,25 @@
     <t xml:space="preserve">10.4371213912964</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269004821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4710350036621</t>
+    <t xml:space="preserve">10.3268995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4710359573364</t>
   </si>
   <si>
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0051851272583</t>
+    <t xml:space="preserve">10.9288778305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.005184173584</t>
   </si>
   <si>
     <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6829986572266</t>
+    <t xml:space="preserve">10.6829996109009</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166776657104</t>
@@ -824,49 +824,49 @@
     <t xml:space="preserve">10.4540786743164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999568939209</t>
+    <t xml:space="preserve">10.6999559402466</t>
   </si>
   <si>
     <t xml:space="preserve">10.2081995010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5473413467407</t>
+    <t xml:space="preserve">10.547342300415</t>
   </si>
   <si>
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169141769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9797496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0645341873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1917123794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9712705612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.674521446228</t>
+    <t xml:space="preserve">10.7169132232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9797487258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0645351409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1917133331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9712715148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6745195388794</t>
   </si>
   <si>
     <t xml:space="preserve">10.4879913330078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5982131958008</t>
+    <t xml:space="preserve">10.5982141494751</t>
   </si>
   <si>
     <t xml:space="preserve">11.022141456604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3188915252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136632919312</t>
+    <t xml:space="preserve">11.3188934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136642456055</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253923416138</t>
+    <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
     <t xml:space="preserve">10.9543132781982</t>
@@ -884,22 +884,22 @@
     <t xml:space="preserve">11.1238842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1408424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6919498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5732479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5308570861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1747560501099</t>
+    <t xml:space="preserve">11.1408414840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.691948890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393342971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5732498168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5308561325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1747570037842</t>
   </si>
   <si>
     <t xml:space="preserve">11.2595415115356</t>
@@ -908,49 +908,49 @@
     <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3612842559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4460697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.641077041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615198135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.785213470459</t>
+    <t xml:space="preserve">11.3612852096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4460706710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6410779953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615207672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7852125167847</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121561050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4969425201416</t>
+    <t xml:space="preserve">11.4121570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4969415664673</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9203987121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1154069900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5134286880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677850723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558195114136</t>
+    <t xml:space="preserve">10.9203996658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.115406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3353776931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677841186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
     <t xml:space="preserve">10.5388641357422</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5643005371094</t>
+    <t xml:space="preserve">10.5642995834351</t>
   </si>
   <si>
     <t xml:space="preserve">10.7423486709595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9458351135254</t>
+    <t xml:space="preserve">10.9458360671997</t>
   </si>
   <si>
     <t xml:space="preserve">10.8440923690796</t>
@@ -980,58 +980,58 @@
     <t xml:space="preserve">10.530385017395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8356132507324</t>
+    <t xml:space="preserve">10.8356122970581</t>
   </si>
   <si>
     <t xml:space="preserve">11.1069278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4291124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086706161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.27649974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834688186646</t>
+    <t xml:space="preserve">11.4291133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834697723389</t>
   </si>
   <si>
     <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782424926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5138998031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5647716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899705886841</t>
+    <t xml:space="preserve">11.3782415390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5138988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5647706985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899696350098</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695268630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8186569213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7847423553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016996383667</t>
+    <t xml:space="preserve">10.8695278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8186559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.784743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.801700592041</t>
   </si>
   <si>
     <t xml:space="preserve">10.9034414291382</t>
@@ -1040,34 +1040,34 @@
     <t xml:space="preserve">10.2421140670776</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3777694702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1912431716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2251577377319</t>
+    <t xml:space="preserve">10.3777713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1912422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2251567840576</t>
   </si>
   <si>
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064558029175</t>
+    <t xml:space="preserve">10.1064567565918</t>
   </si>
   <si>
     <t xml:space="preserve">9.88601303100586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69948577880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5129566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034297943115</t>
+    <t xml:space="preserve">9.69948482513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51295566558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034202575684</t>
   </si>
   <si>
     <t xml:space="preserve">9.6316556930542</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">9.76731491088867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7333984375</t>
+    <t xml:space="preserve">9.73339939117432</t>
   </si>
   <si>
     <t xml:space="preserve">9.71644306182861</t>
@@ -1085,7 +1085,7 @@
     <t xml:space="preserve">9.37729930877686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27555561065674</t>
+    <t xml:space="preserve">9.27555751800537</t>
   </si>
   <si>
     <t xml:space="preserve">9.22468566894531</t>
@@ -1094,58 +1094,58 @@
     <t xml:space="preserve">9.47904300689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56382751464844</t>
+    <t xml:space="preserve">9.56382656097412</t>
   </si>
   <si>
     <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81818389892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1234130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2760286331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75035667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39425563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251384735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02119922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66557025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08902740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74988460540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51248455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49552917480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42770004272461</t>
+    <t xml:space="preserve">9.8181848526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1234140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929849624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2760276794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75035572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.021671295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39425659179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251480102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02120018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66557121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08902835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7498836517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51248550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49552822113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42769908905029</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">8.05464172363281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92746353149414</t>
+    <t xml:space="preserve">7.9274640083313</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335735321045</t>
+    <t xml:space="preserve">8.56335639953613</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85162734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78379917144775</t>
+    <t xml:space="preserve">8.85162830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597003936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78379821777344</t>
   </si>
   <si>
     <t xml:space="preserve">8.64814281463623</t>
@@ -1187,19 +1187,19 @@
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118457794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47857093811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41921997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33443450927734</t>
+    <t xml:space="preserve">8.63118648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47856998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41922187805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33443355560303</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378452301025</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289897918701</t>
+    <t xml:space="preserve">7.95289945602417</t>
   </si>
   <si>
     <t xml:space="preserve">7.73245620727539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69854259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201343536377</t>
+    <t xml:space="preserve">7.69854307174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201391220093</t>
   </si>
   <si>
     <t xml:space="preserve">7.30852794647217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18134927749634</t>
+    <t xml:space="preserve">7.18135023117065</t>
   </si>
   <si>
     <t xml:space="preserve">7.12199926376343</t>
@@ -1235,73 +1235,73 @@
     <t xml:space="preserve">6.96938562393188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87612009048462</t>
+    <t xml:space="preserve">6.87612104415894</t>
   </si>
   <si>
     <t xml:space="preserve">7.33396339416504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30004930496216</t>
+    <t xml:space="preserve">7.300048828125</t>
   </si>
   <si>
     <t xml:space="preserve">7.06264925003052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01177883148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9948205947876</t>
+    <t xml:space="preserve">7.01177930831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99482154846191</t>
   </si>
   <si>
     <t xml:space="preserve">7.09656429290771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13895702362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635660171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028486251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69006299972534</t>
+    <t xml:space="preserve">7.13895654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635612487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6900634765625</t>
   </si>
   <si>
     <t xml:space="preserve">8.13942909240723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19029903411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11399173736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85115766525269</t>
+    <t xml:space="preserve">8.19029998779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11399269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85115623474121</t>
   </si>
   <si>
     <t xml:space="preserve">7.78332901000977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35092067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43570756912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2491774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244298934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92699241638184</t>
+    <t xml:space="preserve">7.35092115402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43570709228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24917793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244203567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92699193954468</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
@@ -1316,16 +1316,16 @@
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414226531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24022769927979</t>
+    <t xml:space="preserve">6.27414274215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2402286529541</t>
   </si>
   <si>
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.935471534729</t>
+    <t xml:space="preserve">6.93547105789185</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">6.52002096176147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33349275588989</t>
+    <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
     <t xml:space="preserve">6.51154232025146</t>
@@ -1343,13 +1343,13 @@
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764287948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24069929122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85916423797607</t>
+    <t xml:space="preserve">6.86764240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069976806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85916376113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.72350645065308</t>
@@ -1367,10 +1367,10 @@
     <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56241321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588500976562</t>
+    <t xml:space="preserve">6.56241416931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588548660278</t>
   </si>
   <si>
     <t xml:space="preserve">6.26566362380981</t>
@@ -1379,10 +1379,10 @@
     <t xml:space="preserve">6.32501363754272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44371318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52849960327148</t>
+    <t xml:space="preserve">6.44371366500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52849912643433</t>
   </si>
   <si>
     <t xml:space="preserve">6.38436412811279</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">6.74894237518311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88459920883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1983060836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29157161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591335296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13047790527344</t>
+    <t xml:space="preserve">6.88459968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19830703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29157114028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591382980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13047742843628</t>
   </si>
   <si>
     <t xml:space="preserve">7.0372142791748</t>
@@ -1424,16 +1424,16 @@
     <t xml:space="preserve">6.96090650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79133558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7404637336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46914958953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.291100025177</t>
+    <t xml:space="preserve">6.79133605957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74046325683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46915006637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
     <t xml:space="preserve">6.45219278335571</t>
@@ -1442,22 +1442,22 @@
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02826404571533</t>
+    <t xml:space="preserve">6.23174953460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02826452255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96891403198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.155442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087816238403</t>
+    <t xml:space="preserve">5.96891355514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15544271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087863922119</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132141113281</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388105392456</t>
+    <t xml:space="preserve">6.42388153076172</t>
   </si>
   <si>
     <t xml:space="preserve">6.2490816116333</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">6.08302211761475</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12672185897827</t>
+    <t xml:space="preserve">6.12672233581543</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35396146774292</t>
+    <t xml:space="preserve">6.35396099090576</t>
   </si>
   <si>
     <t xml:space="preserve">6.34522151947021</t>
@@ -1508,31 +1508,31 @@
     <t xml:space="preserve">6.20538187026978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50254106521606</t>
+    <t xml:space="preserve">6.50254058837891</t>
   </si>
   <si>
     <t xml:space="preserve">6.45010137557983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782155990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37144088745117</t>
+    <t xml:space="preserve">6.25782108306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37144136428833</t>
   </si>
   <si>
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900119781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3277416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27530097961426</t>
+    <t xml:space="preserve">6.3190016746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514158248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32774114608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27530145645142</t>
   </si>
   <si>
     <t xml:space="preserve">6.11798191070557</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">6.23160219192505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03058195114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97814226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9956226348877</t>
+    <t xml:space="preserve">6.03058242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97814273834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688268661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99562311172485</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1565,28 +1565,28 @@
     <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184247970581</t>
+    <t xml:space="preserve">6.02184200286865</t>
   </si>
   <si>
     <t xml:space="preserve">5.96940231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01310205459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1791615486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03932285308838</t>
+    <t xml:space="preserve">6.01310253143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17916202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03932237625122</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428169250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15294218063354</t>
+    <t xml:space="preserve">6.07428216934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15294122695923</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1704216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8557825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91696262359619</t>
+    <t xml:space="preserve">6.17042207717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85578298568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91696214675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94318294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9344425201416</t>
+    <t xml:space="preserve">5.94318246841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93444204330444</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624080657959</t>
+    <t xml:space="preserve">6.54624032974243</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1637,25 +1637,25 @@
     <t xml:space="preserve">6.46758079528809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66860055923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6423807144165</t>
+    <t xml:space="preserve">6.66860103607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64238023757935</t>
   </si>
   <si>
     <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88710021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86087942123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84339952468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77348041534424</t>
+    <t xml:space="preserve">6.8870997428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86087989807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84340000152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7734808921814</t>
   </si>
   <si>
     <t xml:space="preserve">6.89583969116211</t>
@@ -1667,10 +1667,10 @@
     <t xml:space="preserve">7.27165842056274</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42897796630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58629846572876</t>
+    <t xml:space="preserve">7.42897844314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5862979888916</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527822494507</t>
@@ -1688,19 +1688,19 @@
     <t xml:space="preserve">7.49015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385829925537</t>
+    <t xml:space="preserve">7.53385782241821</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54259824752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51637744903564</t>
+    <t xml:space="preserve">7.62999677658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54259777069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51637840270996</t>
   </si>
   <si>
     <t xml:space="preserve">7.5775580406189</t>
@@ -1709,46 +1709,46 @@
     <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39401865005493</t>
+    <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
     <t xml:space="preserve">7.70865678787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76983833312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84849691390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85723733901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76109743118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73487854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52511739730835</t>
+    <t xml:space="preserve">7.76983737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731727600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8484959602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8572359085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76109790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73487710952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52511692047119</t>
   </si>
   <si>
     <t xml:space="preserve">7.50763845443726</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779880523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18425893783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22795915603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12307929992676</t>
+    <t xml:space="preserve">7.36779832839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18425941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22796010971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1230788230896</t>
   </si>
   <si>
     <t xml:space="preserve">6.98323965072632</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">6.75600004196167</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68608045578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49380111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136047363281</t>
+    <t xml:space="preserve">6.68607997894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4938006401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136095046997</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490081787109</t>
@@ -1781,28 +1781,28 @@
     <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65986013412476</t>
+    <t xml:space="preserve">6.65986061096191</t>
   </si>
   <si>
     <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84704351425171</t>
+    <t xml:space="preserve">5.84704303741455</t>
   </si>
   <si>
     <t xml:space="preserve">5.78586339950562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45374345779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63218688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64092588424683</t>
+    <t xml:space="preserve">5.45374393463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028448104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63218641281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64092636108398</t>
   </si>
   <si>
     <t xml:space="preserve">4.36998701095581</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">4.36561727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45738744735718</t>
+    <t xml:space="preserve">4.45738697052002</t>
   </si>
   <si>
     <t xml:space="preserve">4.1645975112915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96357870101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995913505554</t>
+    <t xml:space="preserve">3.96357822418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995889663696</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877902030945</t>
@@ -1841,28 +1841,28 @@
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885967254639</t>
+    <t xml:space="preserve">3.71885919570923</t>
   </si>
   <si>
     <t xml:space="preserve">3.77566933631897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72322916984558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204905509949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574879646301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818872451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02038812637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01164817810059</t>
+    <t xml:space="preserve">3.72322940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02038860321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01164865493774</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35250663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89438533782959</t>
+    <t xml:space="preserve">4.35250759124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478693008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89438581466675</t>
   </si>
   <si>
     <t xml:space="preserve">5.15658521652222</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">4.77202606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84194612503052</t>
+    <t xml:space="preserve">4.84194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446575164795</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336030960083</t>
+    <t xml:space="preserve">4.71335983276367</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54957580566406</t>
+    <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
     <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73155832290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615427017212</t>
+    <t xml:space="preserve">4.73155879974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615379333496</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.80525827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95084476470947</t>
+    <t xml:space="preserve">5.95084428787231</t>
   </si>
   <si>
     <t xml:space="preserve">5.85985326766968</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">5.93264627456665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444873809814</t>
+    <t xml:space="preserve">5.91444826126099</t>
   </si>
   <si>
     <t xml:space="preserve">5.82345676422119</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67786979675293</t>
+    <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
     <t xml:space="preserve">5.62327527999878</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">5.55048179626465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53228425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56868028640747</t>
+    <t xml:space="preserve">5.53228378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56868076324463</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030126571655</t>
+    <t xml:space="preserve">5.35030031204224</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51408576965332</t>
+    <t xml:space="preserve">5.51408529281616</t>
   </si>
   <si>
     <t xml:space="preserve">5.6414737701416</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40489625930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42309379577637</t>
+    <t xml:space="preserve">5.4048957824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
     <t xml:space="preserve">5.1683177947998</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651580810547</t>
+    <t xml:space="preserve">5.18651628494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.36849927902222</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25930976867676</t>
+    <t xml:space="preserve">5.2593092918396</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
@@ -2027,19 +2027,19 @@
     <t xml:space="preserve">5.29570627212524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15011978149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00453329086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13192129135132</t>
+    <t xml:space="preserve">5.15011930465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00453281402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13192081451416</t>
   </si>
   <si>
     <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633480072021</t>
+    <t xml:space="preserve">4.98633527755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">5.22291278839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27750825881958</t>
+    <t xml:space="preserve">5.27750778198242</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26750230789185</t>
+    <t xml:space="preserve">4.26750183105469</t>
   </si>
   <si>
     <t xml:space="preserve">4.31299734115601</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534378051758</t>
+    <t xml:space="preserve">4.89534282684326</t>
   </si>
   <si>
     <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44129228591919</t>
+    <t xml:space="preserve">5.44129276275635</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">6.11462926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24201774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16922473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27841472625732</t>
+    <t xml:space="preserve">6.24201822280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16922426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27841424942017</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42400026321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55138826370239</t>
+    <t xml:space="preserve">6.42400074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55138874053955</t>
   </si>
   <si>
     <t xml:space="preserve">6.58778524398804</t>
@@ -2141,22 +2141,22 @@
     <t xml:space="preserve">6.82436323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96994972229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95175123214722</t>
+    <t xml:space="preserve">6.96994924545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95175170898438</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355274200439</t>
+    <t xml:space="preserve">6.93355321884155</t>
   </si>
   <si>
     <t xml:space="preserve">6.80616474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976871490479</t>
+    <t xml:space="preserve">6.76976823806763</t>
   </si>
   <si>
     <t xml:space="preserve">6.71517372131348</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877674102783</t>
+    <t xml:space="preserve">6.67877721786499</t>
   </si>
   <si>
     <t xml:space="preserve">6.9881477355957</t>
@@ -2186,16 +2186,16 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013072967529</t>
+    <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02454471588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00634622573853</t>
+    <t xml:space="preserve">7.02454423904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00634574890137</t>
   </si>
   <si>
     <t xml:space="preserve">7.09733819961548</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094121932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91535520553589</t>
+    <t xml:space="preserve">7.06094169616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29751920700073</t>
+    <t xml:space="preserve">7.29752016067505</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
@@ -2225,40 +2225,40 @@
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91626167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02545166015625</t>
+    <t xml:space="preserve">7.38851070404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91626119613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02545070648193</t>
   </si>
   <si>
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824466705322</t>
+    <t xml:space="preserve">8.09824371337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97085666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98905467987061</t>
+    <t xml:space="preserve">7.9708571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98905420303345</t>
   </si>
   <si>
     <t xml:space="preserve">7.82527017593384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87986516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725364685059</t>
+    <t xml:space="preserve">7.87986469268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04364967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725269317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">8.26202964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18923664093018</t>
+    <t xml:space="preserve">8.18923568725586</t>
   </si>
   <si>
     <t xml:space="preserve">7.75247764587402</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446063995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95265769958496</t>
+    <t xml:space="preserve">7.78887319564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265817642212</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -3210,6 +3210,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5499992370605</t>
   </si>
 </sst>
 </file>
@@ -59477,7 +59480,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6515740741</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>71965</v>
@@ -59498,6 +59501,32 @@
         <v>1065</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6493171296</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>459416</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -44,16 +44,16 @@
     <t xml:space="preserve">OJM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19359636306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18935680389404</t>
+    <t xml:space="preserve">6.19359540939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
     <t xml:space="preserve">6.06217861175537</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22327136993408</t>
+    <t xml:space="preserve">6.22327089309692</t>
   </si>
   <si>
     <t xml:space="preserve">6.1172890663147</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696407318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065629959106</t>
+    <t xml:space="preserve">6.14696455001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.97739219665527</t>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17239952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35892820358276</t>
+    <t xml:space="preserve">6.17239999771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35892772674561</t>
   </si>
   <si>
     <t xml:space="preserve">6.3504490852356</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">6.21055269241333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16816091537476</t>
+    <t xml:space="preserve">6.16815996170044</t>
   </si>
   <si>
     <t xml:space="preserve">6.12152814865112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90956354141235</t>
+    <t xml:space="preserve">5.90956401824951</t>
   </si>
   <si>
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445261001587</t>
+    <t xml:space="preserve">5.85445308685303</t>
   </si>
   <si>
     <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65096759796143</t>
+    <t xml:space="preserve">5.65096712112427</t>
   </si>
   <si>
     <t xml:space="preserve">5.68064260482788</t>
@@ -119,13 +119,13 @@
     <t xml:space="preserve">5.59585618972778</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91804218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93499994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04946088790894</t>
+    <t xml:space="preserve">5.91804265975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380262374878</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">5.89260673522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01978445053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01554584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00282859802246</t>
+    <t xml:space="preserve">6.01978540420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01554536819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0028281211853</t>
   </si>
   <si>
     <t xml:space="preserve">6.12576675415039</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62977027893066</t>
+    <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
     <t xml:space="preserve">5.9010853767395</t>
@@ -158,16 +158,16 @@
     <t xml:space="preserve">5.92228174209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82477855682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89684629440308</t>
+    <t xml:space="preserve">5.82477807998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89684581756592</t>
   </si>
   <si>
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086446762085</t>
+    <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
     <t xml:space="preserve">6.03674268722534</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">6.11304950714111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00706720352173</t>
+    <t xml:space="preserve">6.00706768035889</t>
   </si>
   <si>
     <t xml:space="preserve">5.88836765289307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98587083816528</t>
+    <t xml:space="preserve">5.98587036132812</t>
   </si>
   <si>
     <t xml:space="preserve">5.88412857055664</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">5.87141036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07913494110107</t>
+    <t xml:space="preserve">6.07913541793823</t>
   </si>
   <si>
     <t xml:space="preserve">6.20631408691406</t>
@@ -215,22 +215,22 @@
     <t xml:space="preserve">6.08337450027466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14272451400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95619630813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173488616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390670776367</t>
+    <t xml:space="preserve">6.14272403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95619583129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173536300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390718460083</t>
   </si>
   <si>
     <t xml:space="preserve">5.76118850708008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80782032012939</t>
+    <t xml:space="preserve">5.80782079696655</t>
   </si>
   <si>
     <t xml:space="preserve">5.82901763916016</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">5.93076038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09609270095825</t>
+    <t xml:space="preserve">6.09609222412109</t>
   </si>
   <si>
     <t xml:space="preserve">5.99858856201172</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">6.28262090682983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13000631332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1851167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522132873535</t>
+    <t xml:space="preserve">6.13000726699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18511724472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522085189819</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
@@ -263,25 +263,25 @@
     <t xml:space="preserve">6.07489585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10033226013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99434995651245</t>
+    <t xml:space="preserve">6.10033178329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
     <t xml:space="preserve">6.08761405944824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99011087417603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81629991531372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73999214172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76542806625366</t>
+    <t xml:space="preserve">5.99011039733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81629943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73999261856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
     <t xml:space="preserve">5.75694990158081</t>
@@ -290,19 +290,19 @@
     <t xml:space="preserve">5.79510259628296</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66792488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63824987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944623947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60433578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72303581237793</t>
+    <t xml:space="preserve">5.66792440414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63824939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944576263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60433530807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
     <t xml:space="preserve">5.71031761169434</t>
@@ -311,25 +311,25 @@
     <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835348129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889986038208</t>
+    <t xml:space="preserve">5.49835300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889938354492</t>
   </si>
   <si>
     <t xml:space="preserve">5.58737802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58313846588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57465982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683212280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4093279838562</t>
+    <t xml:space="preserve">5.58313894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683164596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40932846069336</t>
   </si>
   <si>
     <t xml:space="preserve">5.25247430801392</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3796534538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51107120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06594562530518</t>
+    <t xml:space="preserve">5.37965250015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51107168197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06594610214233</t>
   </si>
   <si>
     <t xml:space="preserve">5.18888521194458</t>
@@ -356,28 +356,28 @@
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90061378479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80734920501709</t>
+    <t xml:space="preserve">4.87093877792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9006142616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80734968185425</t>
   </si>
   <si>
     <t xml:space="preserve">4.83278512954712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6632137298584</t>
+    <t xml:space="preserve">4.66321420669556</t>
   </si>
   <si>
     <t xml:space="preserve">4.53603506088257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52331686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396684646606</t>
+    <t xml:space="preserve">4.52331781387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396732330322</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244644165039</t>
@@ -386,34 +386,34 @@
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506103515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73952102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74799919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00235748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04474925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714199066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31182384490967</t>
+    <t xml:space="preserve">4.62506008148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73952150344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7480001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.002357006073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04474973678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31182432174683</t>
   </si>
   <si>
     <t xml:space="preserve">5.33726024627686</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36693525314331</t>
+    <t xml:space="preserve">5.36693572998047</t>
   </si>
   <si>
     <t xml:space="preserve">5.46867799758911</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">5.43476390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26095342636108</t>
+    <t xml:space="preserve">5.26095294952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20584201812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28214979171753</t>
+    <t xml:space="preserve">5.2058424949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28214931488037</t>
   </si>
   <si>
     <t xml:space="preserve">5.22279930114746</t>
@@ -440,19 +440,19 @@
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9514856338501</t>
+    <t xml:space="preserve">4.95148515701294</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692108154297</t>
+    <t xml:space="preserve">4.97692155838013</t>
   </si>
   <si>
     <t xml:space="preserve">5.16344976425171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21432161331177</t>
+    <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008157730103</t>
@@ -464,40 +464,40 @@
     <t xml:space="preserve">5.2567138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3415002822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40085029602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54922437667847</t>
+    <t xml:space="preserve">5.34149980545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334663391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54922485351562</t>
   </si>
   <si>
     <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61281442642212</t>
+    <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
     <t xml:space="preserve">5.59161758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55770349502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67216444015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52378845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44748210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44324207305908</t>
+    <t xml:space="preserve">5.55770301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67216396331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5237889289856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44748163223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44324254989624</t>
   </si>
   <si>
     <t xml:space="preserve">5.48987436294556</t>
@@ -506,13 +506,13 @@
     <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76966762542725</t>
+    <t xml:space="preserve">5.76966714859009</t>
   </si>
   <si>
     <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77814626693726</t>
+    <t xml:space="preserve">5.77814531326294</t>
   </si>
   <si>
     <t xml:space="preserve">5.92652082443237</t>
@@ -536,16 +536,16 @@
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352109909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04569244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20678615570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777339935303</t>
+    <t xml:space="preserve">7.11352157592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04569292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20678567886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777387619019</t>
   </si>
   <si>
     <t xml:space="preserve">7.50353527069092</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.617995262146</t>
+    <t xml:space="preserve">7.61799621582031</t>
   </si>
   <si>
     <t xml:space="preserve">7.5883207321167</t>
@@ -563,46 +563,46 @@
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767074584961</t>
+    <t xml:space="preserve">7.64767122268677</t>
   </si>
   <si>
     <t xml:space="preserve">7.4272289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59256076812744</t>
+    <t xml:space="preserve">7.59256029129028</t>
   </si>
   <si>
     <t xml:space="preserve">7.46114253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52049255371094</t>
+    <t xml:space="preserve">7.52049207687378</t>
   </si>
   <si>
     <t xml:space="preserve">7.45266437530518</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55440616607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669481277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898536682129</t>
+    <t xml:space="preserve">7.55440711975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669576644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898584365845</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96985626220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561765670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050672531128</t>
+    <t xml:space="preserve">7.96985721588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03768444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561670303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050624847412</t>
   </si>
   <si>
     <t xml:space="preserve">7.88931083679199</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">7.82148122787476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93594121932983</t>
+    <t xml:space="preserve">7.93594264984131</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">8.30052089691162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3683500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41074180603027</t>
+    <t xml:space="preserve">8.36834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
     <t xml:space="preserve">8.28356456756592</t>
@@ -632,43 +632,43 @@
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8346700668335</t>
+    <t xml:space="preserve">8.91945838928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83467102050781</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90249919891357</t>
+    <t xml:space="preserve">8.90250015258789</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3264274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79275035858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83514308929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61469841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49599838256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41121482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.368821144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23316383361816</t>
+    <t xml:space="preserve">9.32642841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79274940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83514213562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6146993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49600028991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41121387481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36882019042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23316287994385</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207012176514</t>
@@ -677,31 +677,31 @@
     <t xml:space="preserve">9.30099296569824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403377532959</t>
+    <t xml:space="preserve">9.28403472900391</t>
   </si>
   <si>
     <t xml:space="preserve">9.11446380615234</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19925022125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12294292449951</t>
+    <t xml:space="preserve">9.19924926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1229419708252</t>
   </si>
   <si>
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360660552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338665008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24164199829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16533470153809</t>
+    <t xml:space="preserve">9.45360469818115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24164295196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1653356552124</t>
   </si>
   <si>
     <t xml:space="preserve">9.14837741851807</t>
@@ -713,43 +713,43 @@
     <t xml:space="preserve">8.96184921264648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89402198791504</t>
+    <t xml:space="preserve">8.89402103424072</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77532196044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86010551452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17381286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40273380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969108581543</t>
+    <t xml:space="preserve">8.7753210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.860107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17381381988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40273475646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969203948975</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577747344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512748718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64861488342285</t>
+    <t xml:space="preserve">9.58078575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512939453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64861297607422</t>
   </si>
   <si>
     <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59774112701416</t>
+    <t xml:space="preserve">9.59774208068848</t>
   </si>
   <si>
     <t xml:space="preserve">9.9199275970459</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">10.3014631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184204101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286432266235</t>
+    <t xml:space="preserve">10.4032068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184213638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286422729492</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590713500977</t>
@@ -773,40 +773,40 @@
     <t xml:space="preserve">10.0725431442261</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0047149658203</t>
+    <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
     <t xml:space="preserve">9.92840576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2336349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625558853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.369291305542</t>
+    <t xml:space="preserve">10.2336339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625568389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3692922592163</t>
   </si>
   <si>
     <t xml:space="preserve">10.479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742839813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4371204376221</t>
+    <t xml:space="preserve">10.1742849349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4371213912964</t>
   </si>
   <si>
     <t xml:space="preserve">10.3268995285034</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4710359573364</t>
+    <t xml:space="preserve">10.4710350036621</t>
   </si>
   <si>
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288768768311</t>
+    <t xml:space="preserve">10.9288778305054</t>
   </si>
   <si>
     <t xml:space="preserve">11.0051851272583</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6830005645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2166786193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4540786743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999559402466</t>
+    <t xml:space="preserve">10.6829996109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2166776657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4540777206421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
     <t xml:space="preserve">10.2081995010376</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169132232666</t>
+    <t xml:space="preserve">10.7169151306152</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797487258911</t>
@@ -854,22 +854,22 @@
     <t xml:space="preserve">10.6745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4879913330078</t>
+    <t xml:space="preserve">10.4879922866821</t>
   </si>
   <si>
     <t xml:space="preserve">10.5982131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0221424102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3188924789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136642456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7338705062866</t>
+    <t xml:space="preserve">11.0221433639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3188915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136632919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7338714599609</t>
   </si>
   <si>
     <t xml:space="preserve">10.9373559951782</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9543123245239</t>
+    <t xml:space="preserve">10.9543132781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238851547241</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">11.1408414840698</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6919498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5732488632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5308561325073</t>
+    <t xml:space="preserve">11.6919479370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393342971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5732479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
     <t xml:space="preserve">11.1747560501099</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2595405578613</t>
+    <t xml:space="preserve">11.2595415115356</t>
   </si>
   <si>
     <t xml:space="preserve">11.3951988220215</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">11.3612852096558</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4460716247559</t>
+    <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
     <t xml:space="preserve">11.641077041626</t>
@@ -929,79 +929,79 @@
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969415664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6156406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203996658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1154069900513</t>
+    <t xml:space="preserve">11.4969425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6156415939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203987121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.115406036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.513427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677841186523</t>
+    <t xml:space="preserve">10.3353776931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.767786026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558195114136</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388641357422</t>
+    <t xml:space="preserve">10.5388631820679</t>
   </si>
   <si>
     <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5642995834351</t>
+    <t xml:space="preserve">10.5642986297607</t>
   </si>
   <si>
     <t xml:space="preserve">10.7423486709595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9458351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8440914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.640606880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0979785919189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5303840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8356122970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069288253784</t>
+    <t xml:space="preserve">10.9458341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8440923690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6406059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0979776382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.530385017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8356132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069278717041</t>
   </si>
   <si>
     <t xml:space="preserve">11.4291133880615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2086715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.27649974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834697723389</t>
+    <t xml:space="preserve">11.2086706161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834707260132</t>
   </si>
   <si>
     <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782405853271</t>
+    <t xml:space="preserve">11.3782424926758</t>
   </si>
   <si>
     <t xml:space="preserve">11.5138998031616</t>
@@ -1010,7 +1010,7 @@
     <t xml:space="preserve">11.5647716522217</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8699998855591</t>
+    <t xml:space="preserve">11.8699989318848</t>
   </si>
   <si>
     <t xml:space="preserve">11.6665134429932</t>
@@ -1019,19 +1019,19 @@
     <t xml:space="preserve">11.0899705886841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8864841461182</t>
+    <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
     <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7847423553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.801700592041</t>
+    <t xml:space="preserve">10.8186569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.784743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016996383667</t>
   </si>
   <si>
     <t xml:space="preserve">10.9034423828125</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">10.3777704238892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151714324951</t>
+    <t xml:space="preserve">10.6151704788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.1912431716919</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064558029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948577880859</t>
+    <t xml:space="preserve">10.1064567565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948482513428</t>
   </si>
   <si>
     <t xml:space="preserve">9.5129566192627</t>
@@ -1070,166 +1070,166 @@
     <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63165664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7164421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37729835510254</t>
+    <t xml:space="preserve">9.6316556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731395721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73339939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71644306182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37730026245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22468566894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904205322266</t>
+    <t xml:space="preserve">9.22468662261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904300689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.56382751464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68252754211426</t>
+    <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
     <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1234140396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929849624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2760276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75035572052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0216703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39425659179688</t>
+    <t xml:space="preserve">10.1234130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929859161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2760286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75035667419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.021671295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39425563812256</t>
   </si>
   <si>
     <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19077014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02119922637939</t>
+    <t xml:space="preserve">9.19077205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02120018005371</t>
   </si>
   <si>
     <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08902835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74988460540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51248455047607</t>
+    <t xml:space="preserve">9.08902740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51248550415039</t>
   </si>
   <si>
     <t xml:space="preserve">8.49552917480469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42769908905029</t>
+    <t xml:space="preserve">8.42770004272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9274640083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15638446807861</t>
+    <t xml:space="preserve">8.05464267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335830688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59727001190186</t>
+    <t xml:space="preserve">8.56335735321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59727096557617</t>
   </si>
   <si>
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85162830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597003936768</t>
+    <t xml:space="preserve">8.85162734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
     <t xml:space="preserve">8.78379917144775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64814186096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76684188842773</t>
+    <t xml:space="preserve">8.64814281463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76684284210205</t>
   </si>
   <si>
     <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47857093811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944183349609</t>
+    <t xml:space="preserve">8.47857189178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944374084473</t>
   </si>
   <si>
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39378452301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34291362762451</t>
+    <t xml:space="preserve">8.33443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39378547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3429126739502</t>
   </si>
   <si>
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245620727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854211807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201295852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852794647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18134927749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199974060059</t>
+    <t xml:space="preserve">7.95289993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852842330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18135023117065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199926376343</t>
   </si>
   <si>
     <t xml:space="preserve">6.96938562393188</t>
@@ -1238,52 +1238,52 @@
     <t xml:space="preserve">6.87612056732178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33396339416504</t>
+    <t xml:space="preserve">7.3339638710022</t>
   </si>
   <si>
     <t xml:space="preserve">7.30004930496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06264972686768</t>
+    <t xml:space="preserve">7.06264925003052</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99482154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09656429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13895654678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331388473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787843704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635564804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6900634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13943004608154</t>
+    <t xml:space="preserve">6.9948205947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09656381607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13895702362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331483840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942909240723</t>
   </si>
   <si>
     <t xml:space="preserve">8.19029998779297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11399173736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85115718841553</t>
+    <t xml:space="preserve">8.11399269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85115766525269</t>
   </si>
   <si>
     <t xml:space="preserve">7.78332901000977</t>
@@ -1295,19 +1295,19 @@
     <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2491774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244251251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92699193954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82524967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57089281082153</t>
+    <t xml:space="preserve">7.24917793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244298934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92699241638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82525014877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57089233398438</t>
   </si>
   <si>
     <t xml:space="preserve">6.49458503723145</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414274215698</t>
+    <t xml:space="preserve">6.27414226531982</t>
   </si>
   <si>
     <t xml:space="preserve">6.24022817611694</t>
@@ -1325,19 +1325,19 @@
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.935471534729</t>
+    <t xml:space="preserve">6.93547201156616</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52002096176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33349275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51154279708862</t>
+    <t xml:space="preserve">6.52002143859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33349180221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51154232025146</t>
   </si>
   <si>
     <t xml:space="preserve">6.41827821731567</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">6.86764240264893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24069929122925</t>
+    <t xml:space="preserve">7.24069976806641</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916376113892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72350740432739</t>
+    <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">6.67263555526733</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62176370620728</t>
+    <t xml:space="preserve">6.62176322937012</t>
   </si>
   <si>
     <t xml:space="preserve">6.56241369247437</t>
@@ -1373,55 +1373,55 @@
     <t xml:space="preserve">6.37588500976562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26566362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32501363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44371318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52849912643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38436365127563</t>
+    <t xml:space="preserve">6.26566410064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32501411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4437141418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52849960327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
     <t xml:space="preserve">6.34197092056274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59632778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57937145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74894237518311</t>
+    <t xml:space="preserve">6.5963282585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57937097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74894189834595</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830560684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591335296631</t>
+    <t xml:space="preserve">7.19830703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29157161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591382980347</t>
   </si>
   <si>
     <t xml:space="preserve">7.13047742843628</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03721380233765</t>
+    <t xml:space="preserve">7.0372142791748</t>
   </si>
   <si>
     <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090650558472</t>
+    <t xml:space="preserve">6.96090698242188</t>
   </si>
   <si>
     <t xml:space="preserve">6.79133558273315</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29109907150269</t>
+    <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
     <t xml:space="preserve">6.45219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40979909896851</t>
+    <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
     <t xml:space="preserve">6.23174905776978</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96891403198242</t>
+    <t xml:space="preserve">5.96891355514526</t>
   </si>
   <si>
     <t xml:space="preserve">6.15544271469116</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">6.40132093429565</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58120059967041</t>
+    <t xml:space="preserve">6.58120107650757</t>
   </si>
   <si>
     <t xml:space="preserve">6.40640115737915</t>
@@ -1487,19 +1487,19 @@
     <t xml:space="preserve">6.16168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38018131256104</t>
+    <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522199630737</t>
+    <t xml:space="preserve">6.34522104263306</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28404188156128</t>
+    <t xml:space="preserve">6.28404140472412</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
@@ -1508,13 +1508,13 @@
     <t xml:space="preserve">6.20538187026978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50254058837891</t>
+    <t xml:space="preserve">6.50254106521606</t>
   </si>
   <si>
     <t xml:space="preserve">6.45010137557983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782108306885</t>
+    <t xml:space="preserve">6.25782155990601</t>
   </si>
   <si>
     <t xml:space="preserve">6.37144088745117</t>
@@ -1523,31 +1523,31 @@
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900215148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514158248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32774114608765</t>
+    <t xml:space="preserve">6.3190016746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3277416229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.27530145645142</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11798238754272</t>
+    <t xml:space="preserve">6.11798191070557</t>
   </si>
   <si>
     <t xml:space="preserve">6.10924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19664239883423</t>
+    <t xml:space="preserve">6.19664192199707</t>
   </si>
   <si>
     <t xml:space="preserve">6.23160171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03058195114136</t>
+    <t xml:space="preserve">6.03058242797852</t>
   </si>
   <si>
     <t xml:space="preserve">5.97814273834229</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">6.10050249099731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96940231323242</t>
+    <t xml:space="preserve">6.02184247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96940279006958</t>
   </si>
   <si>
     <t xml:space="preserve">6.01310253143311</t>
@@ -1580,13 +1580,13 @@
     <t xml:space="preserve">6.03932237625122</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18790149688721</t>
+    <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
     <t xml:space="preserve">6.07428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15294122695923</t>
+    <t xml:space="preserve">6.15294218063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17042207717896</t>
+    <t xml:space="preserve">6.1704216003418</t>
   </si>
   <si>
     <t xml:space="preserve">5.85578298568726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91696214675903</t>
+    <t xml:space="preserve">5.91696262359619</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94318246841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93444204330444</t>
+    <t xml:space="preserve">5.94318294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">6.30152130126953</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55498123168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54624032974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52876091003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53750085830688</t>
+    <t xml:space="preserve">6.55498075485229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54624080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52876043319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53750038146973</t>
   </si>
   <si>
     <t xml:space="preserve">6.46758079528809</t>
@@ -1640,64 +1640,64 @@
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64238023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70356035232544</t>
+    <t xml:space="preserve">6.6423807144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70355987548828</t>
   </si>
   <si>
     <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86087942123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84340000152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77348041534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89583969116211</t>
+    <t xml:space="preserve">6.86087989807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84339952468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77347993850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89583921432495</t>
   </si>
   <si>
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27165842056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897891998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5862979888916</t>
+    <t xml:space="preserve">7.2716588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897844314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58629846572876</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56007719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55133867263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60377740859985</t>
+    <t xml:space="preserve">7.56007766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55133819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60377836227417</t>
   </si>
   <si>
     <t xml:space="preserve">7.49015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385734558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64747858047485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62999677658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54259872436523</t>
+    <t xml:space="preserve">7.53385782241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64747762680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62999725341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
     <t xml:space="preserve">7.51637840270996</t>
@@ -1706,13 +1706,13 @@
     <t xml:space="preserve">7.57755756378174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56881761550903</t>
+    <t xml:space="preserve">7.56881809234619</t>
   </si>
   <si>
     <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70865678787231</t>
+    <t xml:space="preserve">7.70865774154663</t>
   </si>
   <si>
     <t xml:space="preserve">7.76983737945557</t>
@@ -1721,16 +1721,16 @@
     <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8484959602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8572359085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76109790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7348780632019</t>
+    <t xml:space="preserve">7.84849691390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85723638534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76109743118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73487758636475</t>
   </si>
   <si>
     <t xml:space="preserve">7.52511739730835</t>
@@ -1742,37 +1742,37 @@
     <t xml:space="preserve">7.36779832839966</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18425893783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22795963287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230788230896</t>
+    <t xml:space="preserve">7.18425941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22795915603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12307929992676</t>
   </si>
   <si>
     <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75600051879883</t>
+    <t xml:space="preserve">6.75600004196167</t>
   </si>
   <si>
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4938006401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136142730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62490034103394</t>
+    <t xml:space="preserve">6.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136095046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62490081787109</t>
   </si>
   <si>
     <t xml:space="preserve">6.59868097305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81717967987061</t>
+    <t xml:space="preserve">6.81718015670776</t>
   </si>
   <si>
     <t xml:space="preserve">6.79970026016235</t>
@@ -1781,25 +1781,25 @@
     <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65986061096191</t>
+    <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
     <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84704303741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78586339950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374393463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028448104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63218641281128</t>
+    <t xml:space="preserve">5.84704351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78586292266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374345779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028495788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63218688964844</t>
   </si>
   <si>
     <t xml:space="preserve">4.64092636108398</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561679840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45738697052002</t>
+    <t xml:space="preserve">4.36561727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45738744735718</t>
   </si>
   <si>
     <t xml:space="preserve">4.1645975112915</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">3.89365863800049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8499584197998</t>
+    <t xml:space="preserve">3.84995865821838</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877878189087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85432839393616</t>
+    <t xml:space="preserve">3.85432887077332</t>
   </si>
   <si>
     <t xml:space="preserve">3.90239882469177</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">3.71885943412781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77566933631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322916984558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204929351807</t>
+    <t xml:space="preserve">3.77566909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204953193665</t>
   </si>
   <si>
     <t xml:space="preserve">3.70574903488159</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02038860321045</t>
+    <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
     <t xml:space="preserve">4.01164817810059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16896772384644</t>
+    <t xml:space="preserve">4.16896820068359</t>
   </si>
   <si>
     <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3525071144104</t>
+    <t xml:space="preserve">4.35250759124756</t>
   </si>
   <si>
     <t xml:space="preserve">4.54478645324707</t>
@@ -1880,28 +1880,28 @@
     <t xml:space="preserve">4.89438581466675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15658473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422498703003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96430492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77202606201172</t>
+    <t xml:space="preserve">5.15658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422546386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96430540084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77202653884888</t>
   </si>
   <si>
     <t xml:space="preserve">4.84194564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82446575164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64966630935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71335983276367</t>
+    <t xml:space="preserve">4.82446622848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64966678619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5495753288269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80435228347778</t>
+    <t xml:space="preserve">4.54957580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
     <t xml:space="preserve">4.73155832290649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7861533164978</t>
+    <t xml:space="preserve">4.78615427017212</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.80525827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95084428787231</t>
+    <t xml:space="preserve">5.95084476470947</t>
   </si>
   <si>
     <t xml:space="preserve">5.85985326766968</t>
@@ -1952,22 +1952,22 @@
     <t xml:space="preserve">5.91444873809814</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82345628738403</t>
+    <t xml:space="preserve">5.82345676422119</t>
   </si>
   <si>
     <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67787027359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62327480316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55048227310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53228378295898</t>
+    <t xml:space="preserve">5.67786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62327527999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55048179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53228425979614</t>
   </si>
   <si>
     <t xml:space="preserve">5.56868028640747</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030078887939</t>
+    <t xml:space="preserve">5.35030126571655</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4048957824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42309427261353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16831731796265</t>
+    <t xml:space="preserve">5.40489625930786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42309379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1683177947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.09552478790283</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651628494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36849880218506</t>
+    <t xml:space="preserve">5.18651580810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36849927902222</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">5.58687877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29570579528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15011930465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00453281402588</t>
+    <t xml:space="preserve">5.29570627212524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15011978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00453329086304</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05912828445435</t>
+    <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
     <t xml:space="preserve">4.98633480072021</t>
@@ -2045,16 +2045,16 @@
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092931747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49588680267334</t>
+    <t xml:space="preserve">5.04092979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4958872795105</t>
   </si>
   <si>
     <t xml:space="preserve">5.22291278839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27750778198242</t>
+    <t xml:space="preserve">5.27750825881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">4.31299734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33119583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89534330368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24111080169678</t>
+    <t xml:space="preserve">4.33119630813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89534378051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
     <t xml:space="preserve">5.44129228591919</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">5.8780517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78706026077271</t>
+    <t xml:space="preserve">5.78706073760986</t>
   </si>
   <si>
     <t xml:space="preserve">6.0236382484436</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841377258301</t>
+    <t xml:space="preserve">6.27841472625732</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2120,43 +2120,43 @@
     <t xml:space="preserve">6.33300924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36940622329712</t>
+    <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
     <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60598421096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42400074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55138874053955</t>
+    <t xml:space="preserve">6.60598373413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42400026321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55138826370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.58778524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82436370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96994924545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95175170898438</t>
+    <t xml:space="preserve">6.82436323165894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96994972229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95175123214722</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355321884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80616521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76976823806763</t>
+    <t xml:space="preserve">6.93355274200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80616474151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76976871490479</t>
   </si>
   <si>
     <t xml:space="preserve">6.71517372131348</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877721786499</t>
+    <t xml:space="preserve">6.67877674102783</t>
   </si>
   <si>
     <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89715623855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8425612449646</t>
+    <t xml:space="preserve">6.89715671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84256172180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.86075973510742</t>
@@ -2186,34 +2186,34 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013120651245</t>
+    <t xml:space="preserve">7.17013072967529</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02454423904419</t>
+    <t xml:space="preserve">7.02454471588135</t>
   </si>
   <si>
     <t xml:space="preserve">7.00634622573853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733772277832</t>
+    <t xml:space="preserve">7.09733819961548</t>
   </si>
   <si>
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91535472869873</t>
+    <t xml:space="preserve">7.06094121932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91535520553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29751968383789</t>
+    <t xml:space="preserve">7.29751920700073</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
@@ -2225,70 +2225,70 @@
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851070404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91626119613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02545070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13464164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09824371337891</t>
+    <t xml:space="preserve">7.38851118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91626167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02545166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13464069366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9708571434021</t>
+    <t xml:space="preserve">7.97085666656494</t>
   </si>
   <si>
     <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.825270652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87986469268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04364967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725269317627</t>
+    <t xml:space="preserve">7.82527017593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87986516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04365062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725364685059</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18923568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75247716903687</t>
+    <t xml:space="preserve">8.26202964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18923664093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75247764587402</t>
   </si>
   <si>
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9526572227478</t>
+    <t xml:space="preserve">7.78887414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265769958496</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05521202087402</t>
+    <t xml:space="preserve">8.05521297454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.25797557830811</t>
@@ -2300,19 +2300,19 @@
     <t xml:space="preserve">8.44230556488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014057159424</t>
+    <t xml:space="preserve">8.35014152526855</t>
   </si>
   <si>
     <t xml:space="preserve">8.40543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46073818206787</t>
+    <t xml:space="preserve">8.46073913574219</t>
   </si>
   <si>
     <t xml:space="preserve">8.42387294769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38700675964355</t>
+    <t xml:space="preserve">8.38700771331787</t>
   </si>
   <si>
     <t xml:space="preserve">8.68193435668945</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">8.66350078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88469696044922</t>
+    <t xml:space="preserve">8.88469791412354</t>
   </si>
   <si>
     <t xml:space="preserve">8.84783172607422</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">8.99529552459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19805717468262</t>
+    <t xml:space="preserve">9.19805812835693</t>
   </si>
   <si>
     <t xml:space="preserve">9.30865573883057</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">9.4008207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35473728179932</t>
+    <t xml:space="preserve">9.35473823547363</t>
   </si>
   <si>
     <t xml:space="preserve">9.16119194030762</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">9.5390682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58514976501465</t>
+    <t xml:space="preserve">9.58515071868896</t>
   </si>
   <si>
     <t xml:space="preserve">9.21649074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72339725494385</t>
+    <t xml:space="preserve">9.72339820861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.86164474487305</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">10.1381397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2763872146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5528812408447</t>
+    <t xml:space="preserve">10.2763862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.552882194519</t>
   </si>
   <si>
     <t xml:space="preserve">10.7832937240601</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519546508789</t>
+    <t xml:space="preserve">11.1519536972046</t>
   </si>
   <si>
     <t xml:space="preserve">11.0597887039185</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.0137062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2441186904907</t>
+    <t xml:space="preserve">11.2441177368164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5206136703491</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">11.428448677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3362836837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8754587173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1980361938477</t>
+    <t xml:space="preserve">11.3362846374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8754596710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1980352401733</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902011871338</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">10.5989646911621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3823661804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8293771743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607172012329</t>
+    <t xml:space="preserve">11.3823671340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8293762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607181549072</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842222213745</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">10.9215421676636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4745302200317</t>
+    <t xml:space="preserve">11.4745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">11.7049427032471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9814386367798</t>
+    <t xml:space="preserve">11.9814376831055</t>
   </si>
   <si>
     <t xml:space="preserve">11.8431911468506</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">9.6773157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94461441040039</t>
+    <t xml:space="preserve">7.94461488723755</t>
   </si>
   <si>
     <t xml:space="preserve">8.60820198059082</t>
@@ -2513,22 +2513,22 @@
     <t xml:space="preserve">10.4330673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.930757522583</t>
+    <t xml:space="preserve">10.9307584762573</t>
   </si>
   <si>
     <t xml:space="preserve">10.4515008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118711471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80634593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93537712097168</t>
+    <t xml:space="preserve">10.396201133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80634689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93537616729736</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644083023071</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">9.84321212768555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73261547088623</t>
+    <t xml:space="preserve">9.73261451721191</t>
   </si>
   <si>
     <t xml:space="preserve">9.4376859664917</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">9.54828357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6957483291626</t>
+    <t xml:space="preserve">9.69574928283691</t>
   </si>
   <si>
     <t xml:space="preserve">9.00835800170898</t>
@@ -59610,7 +59610,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494212963</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>4129</v>
@@ -59631,6 +59631,32 @@
         <v>1066</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6493634259</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>78209</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -50,10 +50,10 @@
     <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06217861175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22327089309692</t>
+    <t xml:space="preserve">6.06217765808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22327136993408</t>
   </si>
   <si>
     <t xml:space="preserve">6.1172890663147</t>
@@ -62,49 +62,49 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696455001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783544540405</t>
+    <t xml:space="preserve">6.14696407318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783496856689</t>
   </si>
   <si>
     <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97739219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05793905258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17239999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35892772674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3504490852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21055269241333</t>
+    <t xml:space="preserve">5.97739267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05793857574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17239952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35892820358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35044956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21055316925049</t>
   </si>
   <si>
     <t xml:space="preserve">6.16815996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152814865112</t>
+    <t xml:space="preserve">6.12152767181396</t>
   </si>
   <si>
     <t xml:space="preserve">5.90956401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86293172836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85445308685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8502140045166</t>
+    <t xml:space="preserve">5.86293125152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85445356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85021352767944</t>
   </si>
   <si>
     <t xml:space="preserve">5.65096712112427</t>
@@ -116,40 +116,40 @@
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59585618972778</t>
+    <t xml:space="preserve">5.59585666656494</t>
   </si>
   <si>
     <t xml:space="preserve">5.91804265975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93499946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04946041107178</t>
+    <t xml:space="preserve">5.93499994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946088790894</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380262374878</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260673522949</t>
+    <t xml:space="preserve">5.89260625839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01554536819458</t>
+    <t xml:space="preserve">6.0155463218689</t>
   </si>
   <si>
     <t xml:space="preserve">6.0028281211853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12576675415039</t>
+    <t xml:space="preserve">6.12576770782471</t>
   </si>
   <si>
     <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62977075576782</t>
+    <t xml:space="preserve">5.62977123260498</t>
   </si>
   <si>
     <t xml:space="preserve">5.9010853767395</t>
@@ -161,61 +161,61 @@
     <t xml:space="preserve">5.82477807998657</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89684581756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83325672149658</t>
+    <t xml:space="preserve">5.89684629440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83325719833374</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03674268722534</t>
+    <t xml:space="preserve">6.03674221038818</t>
   </si>
   <si>
     <t xml:space="preserve">6.24446725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31653499603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22751045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11304950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706768035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88836765289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98587036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88412857055664</t>
+    <t xml:space="preserve">6.31653451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22750997543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11304998397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706720352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88836717605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98587131500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88412809371948</t>
   </si>
   <si>
     <t xml:space="preserve">5.87988901138306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98163175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87141036987305</t>
+    <t xml:space="preserve">5.9816312789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87141084671021</t>
   </si>
   <si>
     <t xml:space="preserve">6.07913541793823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20631408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337450027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14272403717041</t>
+    <t xml:space="preserve">6.20631313323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08337497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
     <t xml:space="preserve">5.95619583129883</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">5.84173536300659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77390718460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76118850708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80782079696655</t>
+    <t xml:space="preserve">5.77390670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76118946075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80782032012939</t>
   </si>
   <si>
     <t xml:space="preserve">5.82901763916016</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">5.93076038360596</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09609222412109</t>
+    <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
     <t xml:space="preserve">5.99858856201172</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">6.28262090682983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13000726699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18511724472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522085189819</t>
+    <t xml:space="preserve">6.13000679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18511772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522132873535</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">6.07489585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10033178329468</t>
+    <t xml:space="preserve">6.10033130645752</t>
   </si>
   <si>
     <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761405944824</t>
+    <t xml:space="preserve">6.08761310577393</t>
   </si>
   <si>
     <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81629943847656</t>
+    <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
     <t xml:space="preserve">5.73999261856079</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75694990158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510259628296</t>
+    <t xml:space="preserve">5.75694942474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510307312012</t>
   </si>
   <si>
     <t xml:space="preserve">5.66792440414429</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">5.63824939727783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65944576263428</t>
+    <t xml:space="preserve">5.65944671630859</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">5.71031761169434</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66368532180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49835300445557</t>
+    <t xml:space="preserve">5.6636848449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49835348129272</t>
   </si>
   <si>
     <t xml:space="preserve">5.57889938354492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58737802505493</t>
+    <t xml:space="preserve">5.58737897872925</t>
   </si>
   <si>
     <t xml:space="preserve">5.58313894271851</t>
@@ -329,22 +329,22 @@
     <t xml:space="preserve">5.50683164596558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40932846069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25247430801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24823570251465</t>
+    <t xml:space="preserve">5.4093279838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25247478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24823522567749</t>
   </si>
   <si>
     <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37965250015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51107168197632</t>
+    <t xml:space="preserve">5.3796534538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51107120513916</t>
   </si>
   <si>
     <t xml:space="preserve">5.06594610214233</t>
@@ -356,28 +356,28 @@
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093877792358</t>
+    <t xml:space="preserve">4.87093830108643</t>
   </si>
   <si>
     <t xml:space="preserve">4.9006142616272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80734968185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278512954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66321420669556</t>
+    <t xml:space="preserve">4.80735015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278560638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6632137298584</t>
   </si>
   <si>
     <t xml:space="preserve">4.53603506088257</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52331781387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396732330322</t>
+    <t xml:space="preserve">4.52331733703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396780014038</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244644165039</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506008148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73952150344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7480001449585</t>
+    <t xml:space="preserve">4.62506055831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73952102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74799966812134</t>
   </si>
   <si>
     <t xml:space="preserve">5.002357006073</t>
@@ -407,37 +407,37 @@
     <t xml:space="preserve">5.19312477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31182432174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33726024627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36693572998047</t>
+    <t xml:space="preserve">5.31182479858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33726072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36693525314331</t>
   </si>
   <si>
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095294952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18040657043457</t>
+    <t xml:space="preserve">5.43476343154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095342636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
     <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28214931488037</t>
+    <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
     <t xml:space="preserve">5.22279930114746</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92604970932007</t>
+    <t xml:space="preserve">4.92605018615723</t>
   </si>
   <si>
     <t xml:space="preserve">4.95148515701294</t>
@@ -446,13 +446,13 @@
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692155838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16344976425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432113647461</t>
+    <t xml:space="preserve">4.97692060470581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16345024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432065963745</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008157730103</t>
@@ -467,10 +467,10 @@
     <t xml:space="preserve">5.34149980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30334663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084981918335</t>
+    <t xml:space="preserve">5.30334615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084934234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922485351562</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61281394958496</t>
+    <t xml:space="preserve">5.6128134727478</t>
   </si>
   <si>
     <t xml:space="preserve">5.59161758422852</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">5.55770301818848</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67216396331787</t>
+    <t xml:space="preserve">5.67216444015503</t>
   </si>
   <si>
     <t xml:space="preserve">5.5237889289856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44748163223267</t>
+    <t xml:space="preserve">5.44748258590698</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -512,13 +512,13 @@
     <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77814531326294</t>
+    <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
     <t xml:space="preserve">5.92652082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48610687255859</t>
+    <t xml:space="preserve">6.48610639572144</t>
   </si>
   <si>
     <t xml:space="preserve">6.60056734085083</t>
@@ -536,16 +536,16 @@
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352157592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04569292068481</t>
+    <t xml:space="preserve">7.11352109909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
     <t xml:space="preserve">7.20678567886353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50777387619019</t>
+    <t xml:space="preserve">7.50777435302734</t>
   </si>
   <si>
     <t xml:space="preserve">7.50353527069092</t>
@@ -554,28 +554,28 @@
     <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61799621582031</t>
+    <t xml:space="preserve">7.61799573898315</t>
   </si>
   <si>
     <t xml:space="preserve">7.5883207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54592800140381</t>
+    <t xml:space="preserve">7.54592657089233</t>
   </si>
   <si>
     <t xml:space="preserve">7.64767122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4272289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59256029129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114253997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049207687378</t>
+    <t xml:space="preserve">7.42722845077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59255981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114301681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049160003662</t>
   </si>
   <si>
     <t xml:space="preserve">7.45266437530518</t>
@@ -584,70 +584,70 @@
     <t xml:space="preserve">7.55440711975098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73669576644897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898584365845</t>
+    <t xml:space="preserve">7.73669672012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898441314697</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96985721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03768444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561670303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931083679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594264984131</t>
+    <t xml:space="preserve">7.96985530853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03768539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561813354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88930940628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594217300415</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30052089691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36834907531738</t>
+    <t xml:space="preserve">8.30052185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3683500289917</t>
   </si>
   <si>
     <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28356456756592</t>
+    <t xml:space="preserve">8.2835636138916</t>
   </si>
   <si>
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945838928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83467102050781</t>
+    <t xml:space="preserve">8.91945648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8346700668335</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90250015258789</t>
+    <t xml:space="preserve">8.90249919891357</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32642841339111</t>
+    <t xml:space="preserve">9.3264274597168</t>
   </si>
   <si>
     <t xml:space="preserve">9.79274940490723</t>
@@ -656,31 +656,31 @@
     <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6146993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49600028991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41121387481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36882019042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23316287994385</t>
+    <t xml:space="preserve">9.61470031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599933624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41121292114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.368821144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23316383361816</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207012176514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30099296569824</t>
+    <t xml:space="preserve">9.30099201202393</t>
   </si>
   <si>
     <t xml:space="preserve">9.28403472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11446380615234</t>
+    <t xml:space="preserve">9.11446285247803</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
@@ -692,28 +692,28 @@
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360469818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24164295196533</t>
+    <t xml:space="preserve">9.45360660552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338474273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
     <t xml:space="preserve">9.1653356552124</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14837741851807</t>
+    <t xml:space="preserve">9.14837837219238</t>
   </si>
   <si>
     <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96184921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402103424072</t>
+    <t xml:space="preserve">8.96184825897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
@@ -725,28 +725,28 @@
     <t xml:space="preserve">8.860107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17381381988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40273475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969203948975</t>
+    <t xml:space="preserve">9.17381286621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40273571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969299316406</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577747344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512939453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64861297607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62317848205566</t>
+    <t xml:space="preserve">9.58078479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512844085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64861392974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62317752838135</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774208068848</t>
@@ -761,22 +761,22 @@
     <t xml:space="preserve">10.4032068252563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3184213638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286422729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0725431442261</t>
+    <t xml:space="preserve">10.3184194564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286413192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0725421905518</t>
   </si>
   <si>
     <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840576171875</t>
+    <t xml:space="preserve">9.92840671539307</t>
   </si>
   <si>
     <t xml:space="preserve">10.2336339950562</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">10.4625568389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3692922592163</t>
+    <t xml:space="preserve">10.369291305542</t>
   </si>
   <si>
     <t xml:space="preserve">10.479513168335</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">10.1742849349976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4371213912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3268995285034</t>
+    <t xml:space="preserve">10.4371223449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3269004821777</t>
   </si>
   <si>
     <t xml:space="preserve">10.4710350036621</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6575632095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9288778305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0051851272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8525714874268</t>
+    <t xml:space="preserve">10.6575622558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9288768768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.005184173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8525705337524</t>
   </si>
   <si>
     <t xml:space="preserve">10.6829996109009</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4540777206421</t>
+    <t xml:space="preserve">10.4540767669678</t>
   </si>
   <si>
     <t xml:space="preserve">10.6999568939209</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169151306152</t>
+    <t xml:space="preserve">10.7169132232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797487258911</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917123794556</t>
+    <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
     <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6745204925537</t>
+    <t xml:space="preserve">10.674521446228</t>
   </si>
   <si>
     <t xml:space="preserve">10.4879922866821</t>
@@ -860,22 +860,22 @@
     <t xml:space="preserve">10.5982131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0221433639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3188915252686</t>
+    <t xml:space="preserve">11.0221424102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3188934326172</t>
   </si>
   <si>
     <t xml:space="preserve">11.0136632919312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7338714599609</t>
+    <t xml:space="preserve">10.7338705062866</t>
   </si>
   <si>
     <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253913879395</t>
+    <t xml:space="preserve">10.7253923416138</t>
   </si>
   <si>
     <t xml:space="preserve">10.9543132781982</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">11.1408414840698</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6919479370117</t>
+    <t xml:space="preserve">11.6919498443604</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393342971802</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732479095459</t>
+    <t xml:space="preserve">11.5732488632202</t>
   </si>
   <si>
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747560501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2595415115356</t>
+    <t xml:space="preserve">11.1747579574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25954246521</t>
   </si>
   <si>
     <t xml:space="preserve">11.3951988220215</t>
@@ -920,22 +920,22 @@
     <t xml:space="preserve">11.8615207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.785213470459</t>
+    <t xml:space="preserve">11.7852125167847</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276052474976</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121561050415</t>
+    <t xml:space="preserve">11.4121570587158</t>
   </si>
   <si>
     <t xml:space="preserve">11.4969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156415939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203987121582</t>
+    <t xml:space="preserve">11.6156406402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203996658325</t>
   </si>
   <si>
     <t xml:space="preserve">11.115406036377</t>
@@ -944,28 +944,28 @@
     <t xml:space="preserve">10.513427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3353776931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767786026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558195114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5388631820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964714050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5642986297607</t>
+    <t xml:space="preserve">10.3353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677841186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558204650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5388641357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.496470451355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5642995834351</t>
   </si>
   <si>
     <t xml:space="preserve">10.7423486709595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9458341598511</t>
+    <t xml:space="preserve">10.9458351135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.8440923690796</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">10.0979776382446</t>
   </si>
   <si>
-    <t xml:space="preserve">10.530385017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8356132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069278717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4291133880615</t>
+    <t xml:space="preserve">10.5303840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8356142044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069288253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4291124343872</t>
   </si>
   <si>
     <t xml:space="preserve">11.2086706161499</t>
@@ -998,70 +998,70 @@
     <t xml:space="preserve">11.6834707260132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7004280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782424926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5138998031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5647716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899705886841</t>
+    <t xml:space="preserve">11.7004270553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782415390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5138988494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.564769744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899696350098</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695278167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8186569213867</t>
+    <t xml:space="preserve">10.8695268630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8186559677124</t>
   </si>
   <si>
     <t xml:space="preserve">10.784743309021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8016996383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9034423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2421140670776</t>
+    <t xml:space="preserve">10.8016986846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9034414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2421131134033</t>
   </si>
   <si>
     <t xml:space="preserve">10.3777704238892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1912431716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2251567840576</t>
+    <t xml:space="preserve">10.6151714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1912422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2251577377319</t>
   </si>
   <si>
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064567565918</t>
+    <t xml:space="preserve">10.1064558029175</t>
   </si>
   <si>
     <t xml:space="preserve">9.88601303100586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69948482513428</t>
+    <t xml:space="preserve">9.69948577880859</t>
   </si>
   <si>
     <t xml:space="preserve">9.5129566192627</t>
@@ -1076,37 +1076,37 @@
     <t xml:space="preserve">9.76731395721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73339939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71644306182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37730026245117</t>
+    <t xml:space="preserve">9.7333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7164421081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37730121612549</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22468662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56382751464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68252849578857</t>
+    <t xml:space="preserve">9.224684715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56382846832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68252754211426</t>
   </si>
   <si>
     <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1234130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929859161377</t>
+    <t xml:space="preserve">10.1234140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929849624634</t>
   </si>
   <si>
     <t xml:space="preserve">10.2760286331177</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">9.75035667419434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.021671295166</t>
+    <t xml:space="preserve">10.0216693878174</t>
   </si>
   <si>
     <t xml:space="preserve">9.39425563812256</t>
@@ -1124,46 +1124,46 @@
     <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19077205657959</t>
+    <t xml:space="preserve">9.19077110290527</t>
   </si>
   <si>
     <t xml:space="preserve">9.02120018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66557025909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08902740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74988555908203</t>
+    <t xml:space="preserve">9.66557121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08902835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74988460540771</t>
   </si>
   <si>
     <t xml:space="preserve">8.51248550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552917480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42770004272461</t>
+    <t xml:space="preserve">8.49552822113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42769908905029</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464267730713</t>
+    <t xml:space="preserve">8.05464172363281</t>
   </si>
   <si>
     <t xml:space="preserve">7.92746353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15638542175293</t>
+    <t xml:space="preserve">8.15638446807861</t>
   </si>
   <si>
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335735321045</t>
+    <t xml:space="preserve">8.56335639953613</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
@@ -1178,52 +1178,52 @@
     <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78379917144775</t>
+    <t xml:space="preserve">8.78379821777344</t>
   </si>
   <si>
     <t xml:space="preserve">8.64814281463623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76684284210205</t>
+    <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
     <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47857189178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944374084473</t>
+    <t xml:space="preserve">8.47857093811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39378547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3429126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24117088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95289993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245716094971</t>
+    <t xml:space="preserve">8.33443450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39378452301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34291362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24117183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95290040969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51201343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852842330933</t>
+    <t xml:space="preserve">7.51201391220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852746963501</t>
   </si>
   <si>
     <t xml:space="preserve">7.18135023117065</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">7.12199926376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96938562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3339638710022</t>
+    <t xml:space="preserve">6.96938514709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612009048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33396339416504</t>
   </si>
   <si>
     <t xml:space="preserve">7.30004930496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06264925003052</t>
+    <t xml:space="preserve">7.06264972686768</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177835464478</t>
@@ -1253,43 +1253,43 @@
     <t xml:space="preserve">6.9948205947876</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09656381607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13895702362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331483840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635660171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028533935547</t>
+    <t xml:space="preserve">7.09656429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13895654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331388473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635707855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028486251831</t>
   </si>
   <si>
     <t xml:space="preserve">7.69006395339966</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13942909240723</t>
+    <t xml:space="preserve">8.13942813873291</t>
   </si>
   <si>
     <t xml:space="preserve">8.19029998779297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11399269104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85115766525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78332901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3509202003479</t>
+    <t xml:space="preserve">8.11399173736572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85115718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78332805633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092067718506</t>
   </si>
   <si>
     <t xml:space="preserve">7.43570709228516</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82525014877319</t>
+    <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
     <t xml:space="preserve">6.57089233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49458503723145</t>
+    <t xml:space="preserve">6.4945855140686</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414226531982</t>
+    <t xml:space="preserve">6.27414274215698</t>
   </si>
   <si>
     <t xml:space="preserve">6.24022817611694</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93547201156616</t>
+    <t xml:space="preserve">6.935471534729</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52002143859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33349180221558</t>
+    <t xml:space="preserve">6.52002096176147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
     <t xml:space="preserve">6.51154232025146</t>
@@ -1343,16 +1343,16 @@
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764240264893</t>
+    <t xml:space="preserve">6.86764287948608</t>
   </si>
   <si>
     <t xml:space="preserve">7.24069976806641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85916376113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72350645065308</t>
+    <t xml:space="preserve">6.85916423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72350692749023</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">6.68111371994019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263555526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62176322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56241369247437</t>
+    <t xml:space="preserve">6.67263507843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62176370620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56241321563721</t>
   </si>
   <si>
     <t xml:space="preserve">6.37588500976562</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">6.32501411437988</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4437141418457</t>
+    <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
     <t xml:space="preserve">6.52849960327148</t>
@@ -1391,64 +1391,64 @@
     <t xml:space="preserve">6.34197092056274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5963282585144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57937097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74894189834595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88459968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19830703735352</t>
+    <t xml:space="preserve">6.59632778167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57937145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74894285202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88459920883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
     <t xml:space="preserve">7.29157161712646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15591382980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13047742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0372142791748</t>
+    <t xml:space="preserve">7.15591335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13047790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03721380233765</t>
   </si>
   <si>
     <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090698242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79133558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74046325683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46914958953857</t>
+    <t xml:space="preserve">6.96090650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.791335105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7404637336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46915006637573</t>
   </si>
   <si>
     <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45219278335571</t>
+    <t xml:space="preserve">6.45219230651855</t>
   </si>
   <si>
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174905776978</t>
+    <t xml:space="preserve">6.23174953460693</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01130676269531</t>
+    <t xml:space="preserve">6.01130723953247</t>
   </si>
   <si>
     <t xml:space="preserve">5.96891355514526</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">6.40640115737915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39766120910645</t>
+    <t xml:space="preserve">6.39766073226929</t>
   </si>
   <si>
     <t xml:space="preserve">6.42388105392456</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2490816116333</t>
+    <t xml:space="preserve">6.24908113479614</t>
   </si>
   <si>
     <t xml:space="preserve">6.08302211761475</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12672233581543</t>
+    <t xml:space="preserve">6.12672185897827</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522104263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33648157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28404140472412</t>
+    <t xml:space="preserve">6.34522199630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33648109436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">6.50254106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45010137557983</t>
+    <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
     <t xml:space="preserve">6.25782155990601</t>
@@ -1529,31 +1529,31 @@
     <t xml:space="preserve">6.41514110565186</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3277416229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27530145645142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11798191070557</t>
+    <t xml:space="preserve">6.32774114608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27530097961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11798238754272</t>
   </si>
   <si>
     <t xml:space="preserve">6.10924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23160171508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03058242797852</t>
+    <t xml:space="preserve">6.19664239883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23160219192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03058195114136</t>
   </si>
   <si>
     <t xml:space="preserve">5.97814273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98688220977783</t>
+    <t xml:space="preserve">5.98688173294067</t>
   </si>
   <si>
     <t xml:space="preserve">5.9956226348877</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050249099731</t>
+    <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
     <t xml:space="preserve">6.02184247970581</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">6.01310253143311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17916202545166</t>
+    <t xml:space="preserve">6.1791615486145</t>
   </si>
   <si>
     <t xml:space="preserve">6.03932237625122</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">6.07428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15294218063354</t>
+    <t xml:space="preserve">6.15294170379639</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1704216003418</t>
+    <t xml:space="preserve">6.17042207717896</t>
   </si>
   <si>
     <t xml:space="preserve">5.85578298568726</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066284179688</t>
+    <t xml:space="preserve">5.96066236495972</t>
   </si>
   <si>
     <t xml:space="preserve">5.94318294525146</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">6.54624080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52876043319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53750038146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46758079528809</t>
+    <t xml:space="preserve">6.52876091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53750085830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46758127212524</t>
   </si>
   <si>
     <t xml:space="preserve">6.66860055923462</t>
@@ -1643,64 +1643,64 @@
     <t xml:space="preserve">6.6423807144165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70355987548828</t>
+    <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
     <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86087989807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84339952468872</t>
+    <t xml:space="preserve">6.86087942123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84340000152588</t>
   </si>
   <si>
     <t xml:space="preserve">6.77347993850708</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89583921432495</t>
+    <t xml:space="preserve">6.89583969116211</t>
   </si>
   <si>
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2716588973999</t>
+    <t xml:space="preserve">7.27165842056274</t>
   </si>
   <si>
     <t xml:space="preserve">7.42897844314575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58629846572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38527822494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56007766723633</t>
+    <t xml:space="preserve">7.58629751205444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38527774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56007719039917</t>
   </si>
   <si>
     <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60377836227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49015760421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385782241821</t>
+    <t xml:space="preserve">7.60377788543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49015808105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385734558105</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999725341797</t>
+    <t xml:space="preserve">7.62999773025513</t>
   </si>
   <si>
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51637840270996</t>
+    <t xml:space="preserve">7.51637887954712</t>
   </si>
   <si>
     <t xml:space="preserve">7.57755756378174</t>
@@ -1712,19 +1712,19 @@
     <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70865774154663</t>
+    <t xml:space="preserve">7.70865726470947</t>
   </si>
   <si>
     <t xml:space="preserve">7.76983737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78731727600098</t>
+    <t xml:space="preserve">7.78731775283813</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723638534546</t>
+    <t xml:space="preserve">7.85723733901978</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
@@ -1739,19 +1739,19 @@
     <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779832839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18425941467285</t>
+    <t xml:space="preserve">7.36779880523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18425893783569</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795915603638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12307929992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98323917388916</t>
+    <t xml:space="preserve">7.1230788230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98323965072632</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">6.44136095046997</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62490081787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59868097305298</t>
+    <t xml:space="preserve">6.62490034103394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59868049621582</t>
   </si>
   <si>
     <t xml:space="preserve">6.81718015670776</t>
@@ -1778,16 +1778,16 @@
     <t xml:space="preserve">6.79970026016235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72104024887085</t>
+    <t xml:space="preserve">6.72104072570801</t>
   </si>
   <si>
     <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83830261230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84704351425171</t>
+    <t xml:space="preserve">5.83830213546753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84704303741455</t>
   </si>
   <si>
     <t xml:space="preserve">5.78586292266846</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">5.45374345779419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20028495788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63218688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64092636108398</t>
+    <t xml:space="preserve">5.20028448104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63218641281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64092683792114</t>
   </si>
   <si>
     <t xml:space="preserve">4.36998701095581</t>
@@ -1811,52 +1811,52 @@
     <t xml:space="preserve">4.36561727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45738744735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1645975112915</t>
+    <t xml:space="preserve">4.45738697052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16459798812866</t>
   </si>
   <si>
     <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89365863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995865821838</t>
+    <t xml:space="preserve">3.89365887641907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8499584197998</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877878189087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85432887077332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90239882469177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89802861213684</t>
+    <t xml:space="preserve">3.85432863235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90239834785461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89802885055542</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885943412781</t>
+    <t xml:space="preserve">3.71885919570923</t>
   </si>
   <si>
     <t xml:space="preserve">3.77566909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72322940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204953193665</t>
+    <t xml:space="preserve">3.72322916984558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204929351807</t>
   </si>
   <si>
     <t xml:space="preserve">3.70574903488159</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75818920135498</t>
+    <t xml:space="preserve">3.75818943977356</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
@@ -1865,37 +1865,37 @@
     <t xml:space="preserve">4.01164817810059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16896820068359</t>
+    <t xml:space="preserve">4.16896772384644</t>
   </si>
   <si>
     <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35250759124756</t>
+    <t xml:space="preserve">4.3525071144104</t>
   </si>
   <si>
     <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89438581466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658521652222</t>
+    <t xml:space="preserve">4.89438533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658473968506</t>
   </si>
   <si>
     <t xml:space="preserve">5.03422546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96430540084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77202653884888</t>
+    <t xml:space="preserve">4.96430492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77202606201172</t>
   </si>
   <si>
     <t xml:space="preserve">4.84194564819336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.82446622848511</t>
+    <t xml:space="preserve">4.82446575164795</t>
   </si>
   <si>
     <t xml:space="preserve">4.64966678619385</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64056730270386</t>
+    <t xml:space="preserve">4.6405668258667</t>
   </si>
   <si>
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54957580566406</t>
+    <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
     <t xml:space="preserve">4.80435180664062</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">4.73155832290649</t>
   </si>
   <si>
-    <t xml:space="preserve">4.78615427017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76795530319214</t>
+    <t xml:space="preserve">4.78615379333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76795482635498</t>
   </si>
   <si>
     <t xml:space="preserve">4.87714529037476</t>
@@ -1937,46 +1937,46 @@
     <t xml:space="preserve">5.89625024795532</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80525827407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95084476470947</t>
+    <t xml:space="preserve">5.80525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95084428787231</t>
   </si>
   <si>
     <t xml:space="preserve">5.85985326766968</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93264627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91444873809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82345676422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06003427505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67786979675293</t>
+    <t xml:space="preserve">5.93264675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91444826126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82345628738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06003475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
     <t xml:space="preserve">5.62327527999878</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55048179626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53228425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56868028640747</t>
+    <t xml:space="preserve">5.55048227310181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53228378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56867980957031</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030126571655</t>
+    <t xml:space="preserve">5.35030078887939</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40489625930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42309379577637</t>
+    <t xml:space="preserve">5.4048957824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
     <t xml:space="preserve">5.1683177947998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09552478790283</t>
+    <t xml:space="preserve">5.09552431106567</t>
   </si>
   <si>
     <t xml:space="preserve">5.20471429824829</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">5.36849927902222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31390428543091</t>
+    <t xml:space="preserve">5.31390380859375</t>
   </si>
   <si>
     <t xml:space="preserve">5.33210277557373</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">5.29570627212524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15011978149414</t>
+    <t xml:space="preserve">5.15011930465698</t>
   </si>
   <si>
     <t xml:space="preserve">5.00453329086304</t>
@@ -2051,16 +2051,16 @@
     <t xml:space="preserve">5.4958872795105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22291278839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27750825881958</t>
+    <t xml:space="preserve">5.22291231155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27750778198242</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35849332809448</t>
+    <t xml:space="preserve">4.35849285125732</t>
   </si>
   <si>
     <t xml:space="preserve">4.26750230789185</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534378051758</t>
+    <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
     <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44129228591919</t>
+    <t xml:space="preserve">5.44129180908203</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">5.8780517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78706073760986</t>
+    <t xml:space="preserve">5.78706026077271</t>
   </si>
   <si>
     <t xml:space="preserve">6.0236382484436</t>
@@ -2108,67 +2108,67 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841472625732</t>
+    <t xml:space="preserve">6.27841377258301</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18742275238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33300924301147</t>
+    <t xml:space="preserve">6.18742322921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33300876617432</t>
   </si>
   <si>
     <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46039724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60598373413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42400026321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55138826370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58778524398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82436323165894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96994972229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95175123214722</t>
+    <t xml:space="preserve">6.4603967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60598421096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42400074005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55138874053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58778476715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82436370849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96994924545288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95175170898438</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355274200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80616474151611</t>
+    <t xml:space="preserve">6.93355321884155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80616521835327</t>
   </si>
   <si>
     <t xml:space="preserve">6.76976871490479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71517372131348</t>
+    <t xml:space="preserve">6.71517324447632</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73337173461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67877674102783</t>
+    <t xml:space="preserve">6.7333722114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67877721786499</t>
   </si>
   <si>
     <t xml:space="preserve">6.9881477355957</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">6.89715671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84256172180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86075973510742</t>
+    <t xml:space="preserve">6.8425612449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86076021194458</t>
   </si>
   <si>
     <t xml:space="preserve">7.11553621292114</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">7.17013072967529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18832921981812</t>
+    <t xml:space="preserve">7.18832969665527</t>
   </si>
   <si>
     <t xml:space="preserve">7.02454471588135</t>
@@ -2198,19 +2198,19 @@
     <t xml:space="preserve">7.00634622573853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733819961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07913970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06094121932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91535520553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27932119369507</t>
+    <t xml:space="preserve">7.09733772277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07914018630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06094169616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91535425186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27932071685791</t>
   </si>
   <si>
     <t xml:space="preserve">7.29751920700073</t>
@@ -2219,16 +2219,16 @@
     <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15193319320679</t>
+    <t xml:space="preserve">7.15193271636963</t>
   </si>
   <si>
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91626167297363</t>
+    <t xml:space="preserve">7.38851070404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91626119613647</t>
   </si>
   <si>
     <t xml:space="preserve">8.02545166015625</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824466705322</t>
+    <t xml:space="preserve">8.09824371337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97085666656494</t>
+    <t xml:space="preserve">7.9708571434021</t>
   </si>
   <si>
     <t xml:space="preserve">7.98905467987061</t>
@@ -2252,43 +2252,43 @@
     <t xml:space="preserve">7.82527017593384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87986516952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725364685059</t>
+    <t xml:space="preserve">7.87986469268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04364967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725269317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202964782715</t>
+    <t xml:space="preserve">8.26202869415283</t>
   </si>
   <si>
     <t xml:space="preserve">8.18923664093018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75247764587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86166715621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78887414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446063995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95265769958496</t>
+    <t xml:space="preserve">7.75247716903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86166667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78887319564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9526572227478</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05521297454834</t>
+    <t xml:space="preserve">8.05521202087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.25797557830811</t>
@@ -2300,19 +2300,19 @@
     <t xml:space="preserve">8.44230556488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014152526855</t>
+    <t xml:space="preserve">8.35014057159424</t>
   </si>
   <si>
     <t xml:space="preserve">8.40543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46073913574219</t>
+    <t xml:space="preserve">8.46073818206787</t>
   </si>
   <si>
     <t xml:space="preserve">8.42387294769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38700771331787</t>
+    <t xml:space="preserve">8.38700675964355</t>
   </si>
   <si>
     <t xml:space="preserve">8.68193435668945</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">8.66350078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88469791412354</t>
+    <t xml:space="preserve">8.88469696044922</t>
   </si>
   <si>
     <t xml:space="preserve">8.84783172607422</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">8.99529552459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19805812835693</t>
+    <t xml:space="preserve">9.19805717468262</t>
   </si>
   <si>
     <t xml:space="preserve">9.30865573883057</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">9.4008207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35473823547363</t>
+    <t xml:space="preserve">9.35473728179932</t>
   </si>
   <si>
     <t xml:space="preserve">9.16119194030762</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">9.5390682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58515071868896</t>
+    <t xml:space="preserve">9.58514976501465</t>
   </si>
   <si>
     <t xml:space="preserve">9.21649074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72339820861816</t>
+    <t xml:space="preserve">9.72339725494385</t>
   </si>
   <si>
     <t xml:space="preserve">9.86164474487305</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">10.1381397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2763862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.552882194519</t>
+    <t xml:space="preserve">10.2763872146606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5528812408447</t>
   </si>
   <si>
     <t xml:space="preserve">10.7832937240601</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519536972046</t>
+    <t xml:space="preserve">11.1519546508789</t>
   </si>
   <si>
     <t xml:space="preserve">11.0597887039185</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.0137062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2441177368164</t>
+    <t xml:space="preserve">11.2441186904907</t>
   </si>
   <si>
     <t xml:space="preserve">11.5206136703491</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">11.428448677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3362846374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8754596710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1980352401733</t>
+    <t xml:space="preserve">11.3362836837769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8754587173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1980361938477</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902011871338</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">10.5989646911621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3823671340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8293762207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607181549072</t>
+    <t xml:space="preserve">11.3823661804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8293771743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607172012329</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842222213745</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">10.9215421676636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4745311737061</t>
+    <t xml:space="preserve">11.4745302200317</t>
   </si>
   <si>
     <t xml:space="preserve">11.7049427032471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9814376831055</t>
+    <t xml:space="preserve">11.9814386367798</t>
   </si>
   <si>
     <t xml:space="preserve">11.8431911468506</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">9.6773157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94461488723755</t>
+    <t xml:space="preserve">7.94461441040039</t>
   </si>
   <si>
     <t xml:space="preserve">8.60820198059082</t>
@@ -2513,22 +2513,22 @@
     <t xml:space="preserve">10.4330673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9307584762573</t>
+    <t xml:space="preserve">10.930757522583</t>
   </si>
   <si>
     <t xml:space="preserve">10.4515008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.396201133728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118721008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80634689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93537616729736</t>
+    <t xml:space="preserve">10.3962020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118711471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80634593963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93537712097168</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644083023071</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">9.84321212768555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73261451721191</t>
+    <t xml:space="preserve">9.73261547088623</t>
   </si>
   <si>
     <t xml:space="preserve">9.4376859664917</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">9.54828357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69574928283691</t>
+    <t xml:space="preserve">9.6957483291626</t>
   </si>
   <si>
     <t xml:space="preserve">9.00835800170898</t>
@@ -59636,7 +59636,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6493634259</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>78209</v>
@@ -59657,6 +59657,32 @@
         <v>1065</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494444444</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>2727</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -50,10 +50,10 @@
     <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06217765808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22327136993408</t>
+    <t xml:space="preserve">6.06217813491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22327089309692</t>
   </si>
   <si>
     <t xml:space="preserve">6.1172890663147</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696407318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065677642822</t>
+    <t xml:space="preserve">6.14696359634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065629959106</t>
   </si>
   <si>
     <t xml:space="preserve">5.97739267349243</t>
@@ -86,25 +86,25 @@
     <t xml:space="preserve">6.35044956207275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055316925049</t>
+    <t xml:space="preserve">6.21055269241333</t>
   </si>
   <si>
     <t xml:space="preserve">6.16815996170044</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152767181396</t>
+    <t xml:space="preserve">6.12152862548828</t>
   </si>
   <si>
     <t xml:space="preserve">5.90956401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86293125152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85445356369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85021352767944</t>
+    <t xml:space="preserve">5.86293172836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85445308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
     <t xml:space="preserve">5.65096712112427</t>
@@ -116,55 +116,55 @@
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59585666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91804265975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93499994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04946088790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91380262374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89260625839233</t>
+    <t xml:space="preserve">5.59585618972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91804218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04945993423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91380310058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89260673522949</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0155463218689</t>
+    <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">6.0028281211853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12576770782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85869216918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62977123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9010853767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228174209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477807998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89684629440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83325719833374</t>
+    <t xml:space="preserve">6.12576675415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85869264602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62977075576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90108585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477855682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89684581756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086399078369</t>
@@ -173,22 +173,22 @@
     <t xml:space="preserve">6.03674221038818</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24446725845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31653451919556</t>
+    <t xml:space="preserve">6.24446773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
     <t xml:space="preserve">6.22750997543335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11304998397827</t>
+    <t xml:space="preserve">6.11304950714111</t>
   </si>
   <si>
     <t xml:space="preserve">6.00706720352173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88836717605591</t>
+    <t xml:space="preserve">5.88836765289307</t>
   </si>
   <si>
     <t xml:space="preserve">5.98587131500244</t>
@@ -197,22 +197,22 @@
     <t xml:space="preserve">5.88412809371948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87988901138306</t>
+    <t xml:space="preserve">5.8798885345459</t>
   </si>
   <si>
     <t xml:space="preserve">5.9816312789917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87141084671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07913541793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20631313323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337497711182</t>
+    <t xml:space="preserve">5.87141036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07913589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2063136100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08337450027466</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
@@ -221,22 +221,22 @@
     <t xml:space="preserve">5.95619583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84173536300659</t>
+    <t xml:space="preserve">5.84173488616943</t>
   </si>
   <si>
     <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118946075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80782032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82901763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93076038360596</t>
+    <t xml:space="preserve">5.76118850708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80782079696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.829017162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9307599067688</t>
   </si>
   <si>
     <t xml:space="preserve">6.09609270095825</t>
@@ -251,31 +251,31 @@
     <t xml:space="preserve">6.13000679016113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18511772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522132873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16392087936401</t>
+    <t xml:space="preserve">6.18511724472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522085189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">6.07489585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10033130645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99434947967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08761310577393</t>
+    <t xml:space="preserve">6.10033178329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99434995651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
     <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81629991531372</t>
+    <t xml:space="preserve">5.81629943847656</t>
   </si>
   <si>
     <t xml:space="preserve">5.73999261856079</t>
@@ -293,34 +293,34 @@
     <t xml:space="preserve">5.66792440414429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63824939727783</t>
+    <t xml:space="preserve">5.63824987411499</t>
   </si>
   <si>
     <t xml:space="preserve">5.65944671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60433530807495</t>
+    <t xml:space="preserve">5.60433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71031761169434</t>
+    <t xml:space="preserve">5.71031713485718</t>
   </si>
   <si>
     <t xml:space="preserve">5.6636848449707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835348129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737897872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313894271851</t>
+    <t xml:space="preserve">5.49835252761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313846588135</t>
   </si>
   <si>
     <t xml:space="preserve">5.5746603012085</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">5.50683164596558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4093279838562</t>
+    <t xml:space="preserve">5.40932846069336</t>
   </si>
   <si>
     <t xml:space="preserve">5.25247478485107</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">5.24823522567749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32454252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3796534538269</t>
+    <t xml:space="preserve">5.32454299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37965250015259</t>
   </si>
   <si>
     <t xml:space="preserve">5.51107120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06594610214233</t>
+    <t xml:space="preserve">5.06594562530518</t>
   </si>
   <si>
     <t xml:space="preserve">5.18888521194458</t>
@@ -356,40 +356,40 @@
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093830108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9006142616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80735015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6632137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53603506088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52331733703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396780014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244644165039</t>
+    <t xml:space="preserve">4.87093877792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90061378479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80734968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66321420669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53603553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52331781387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396684646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244596481323</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506055831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73952102661133</t>
+    <t xml:space="preserve">4.62506008148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73952150344849</t>
   </si>
   <si>
     <t xml:space="preserve">4.74799966812134</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474973678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714246749878</t>
+    <t xml:space="preserve">5.04474925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714294433594</t>
   </si>
   <si>
     <t xml:space="preserve">5.19312477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31182479858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33726072311401</t>
+    <t xml:space="preserve">5.31182432174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33726024627686</t>
   </si>
   <si>
     <t xml:space="preserve">5.36693525314331</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476343154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095342636108</t>
+    <t xml:space="preserve">5.43476390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095294952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040704727173</t>
@@ -434,25 +434,25 @@
     <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22279930114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92605018615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95148515701294</t>
+    <t xml:space="preserve">5.22279977798462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92604923248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692060470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16345024108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432065963745</t>
+    <t xml:space="preserve">4.97692155838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16344976425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008157730103</t>
@@ -461,7 +461,7 @@
     <t xml:space="preserve">5.17192792892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2567138671875</t>
+    <t xml:space="preserve">5.25671339035034</t>
   </si>
   <si>
     <t xml:space="preserve">5.34149980545044</t>
@@ -470,31 +470,31 @@
     <t xml:space="preserve">5.30334615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40084934234619</t>
+    <t xml:space="preserve">5.40084981918335</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618213653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6128134727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59161758422852</t>
+    <t xml:space="preserve">5.56618165969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61281394958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59161710739136</t>
   </si>
   <si>
     <t xml:space="preserve">5.55770301818848</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67216444015503</t>
+    <t xml:space="preserve">5.67216396331787</t>
   </si>
   <si>
     <t xml:space="preserve">5.5237889289856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44748258590698</t>
+    <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76966714859009</t>
+    <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
     <t xml:space="preserve">5.68488168716431</t>
@@ -515,13 +515,13 @@
     <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92652082443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60056734085083</t>
+    <t xml:space="preserve">5.92652034759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48610687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60056686401367</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -530,13 +530,13 @@
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526432037354</t>
+    <t xml:space="preserve">7.21526384353638</t>
   </si>
   <si>
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352109909058</t>
+    <t xml:space="preserve">7.11352157592773</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
@@ -545,13 +545,13 @@
     <t xml:space="preserve">7.20678567886353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50777435302734</t>
+    <t xml:space="preserve">7.50777339935303</t>
   </si>
   <si>
     <t xml:space="preserve">7.50353527069092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41874980926514</t>
+    <t xml:space="preserve">7.41874933242798</t>
   </si>
   <si>
     <t xml:space="preserve">7.61799573898315</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">7.5883207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54592657089233</t>
+    <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
     <t xml:space="preserve">7.64767122268677</t>
@@ -569,40 +569,40 @@
     <t xml:space="preserve">7.42722845077515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59255981445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114301681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049160003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440711975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669672012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00377082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96985530853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050720214844</t>
+    <t xml:space="preserve">7.59255933761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114253997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266389846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440616607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669576644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898536682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00376987457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96985769271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03768444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
     <t xml:space="preserve">7.88930940628052</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">7.82148218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93594217300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02496719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30052185058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3683500289917</t>
+    <t xml:space="preserve">7.93594264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02496814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30052089691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
     <t xml:space="preserve">8.41074275970459</t>
@@ -635,10 +635,10 @@
     <t xml:space="preserve">8.91945648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8346700668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44041728973389</t>
+    <t xml:space="preserve">8.83467102050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44041633605957</t>
   </si>
   <si>
     <t xml:space="preserve">8.90249919891357</t>
@@ -647,40 +647,40 @@
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3264274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79274940490723</t>
+    <t xml:space="preserve">9.32642841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79275035858154</t>
   </si>
   <si>
     <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61470031738281</t>
+    <t xml:space="preserve">9.6146993637085</t>
   </si>
   <si>
     <t xml:space="preserve">9.49599933624268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41121292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.368821144104</t>
+    <t xml:space="preserve">9.41121387481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36882019042969</t>
   </si>
   <si>
     <t xml:space="preserve">9.23316383361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07207012176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30099201202393</t>
+    <t xml:space="preserve">9.07207107543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30099296569824</t>
   </si>
   <si>
     <t xml:space="preserve">9.28403472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11446285247803</t>
+    <t xml:space="preserve">9.11446475982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
@@ -692,37 +692,37 @@
     <t xml:space="preserve">9.53839206695557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45360660552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338474273682</t>
+    <t xml:space="preserve">9.45360565185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338569641113</t>
   </si>
   <si>
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1653356552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837837219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05511379241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96184825897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097831726074</t>
+    <t xml:space="preserve">9.16533470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837741851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05511474609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097736358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.7753210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.860107421875</t>
+    <t xml:space="preserve">8.86010646820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.17381286621094</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">9.40273571014404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41969299316406</t>
+    <t xml:space="preserve">9.41969108581543</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577747344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078479766846</t>
+    <t xml:space="preserve">9.58078384399414</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62317752838135</t>
+    <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774208068848</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">10.4032068252563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3184194564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286413192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590703964233</t>
+    <t xml:space="preserve">10.3184204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286422729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
     <t xml:space="preserve">10.0725421905518</t>
@@ -779,49 +779,49 @@
     <t xml:space="preserve">9.92840671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2336339950562</t>
+    <t xml:space="preserve">10.2336349487305</t>
   </si>
   <si>
     <t xml:space="preserve">10.4625568389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479513168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1742849349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4371223449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3269004821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4710350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6575622558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9288768768311</t>
+    <t xml:space="preserve">10.3692922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795141220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1742858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4371213912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3268995285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4710359573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6575632095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9288778305054</t>
   </si>
   <si>
     <t xml:space="preserve">11.005184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8525705337524</t>
+    <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.6829996109009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2166776657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4540767669678</t>
+    <t xml:space="preserve">10.2166786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4540777206421</t>
   </si>
   <si>
     <t xml:space="preserve">10.6999568939209</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">10.547342300415</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7084350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169132232666</t>
+    <t xml:space="preserve">10.7084341049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169141769409</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797487258911</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917133331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9712705612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.674521446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4879922866821</t>
+    <t xml:space="preserve">11.1917123794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9712696075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4879913330078</t>
   </si>
   <si>
     <t xml:space="preserve">10.5982131958008</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253923416138</t>
+    <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
     <t xml:space="preserve">10.9543132781982</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">11.1238851547241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1408414840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6919498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393342971802</t>
+    <t xml:space="preserve">11.1408433914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.691948890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393352508545</t>
   </si>
   <si>
     <t xml:space="preserve">11.5732488632202</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747579574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.25954246521</t>
+    <t xml:space="preserve">11.1747560501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2595415115356</t>
   </si>
   <si>
     <t xml:space="preserve">11.3951988220215</t>
@@ -917,22 +917,22 @@
     <t xml:space="preserve">11.641077041626</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8615207672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7852125167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8276052474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4121570587158</t>
+    <t xml:space="preserve">11.8615198135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.785213470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8276062011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4121551513672</t>
   </si>
   <si>
     <t xml:space="preserve">11.4969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156406402588</t>
+    <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203996658325</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">11.115406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">10.513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677841186523</t>
+    <t xml:space="preserve">10.5134267807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677850723267</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388641357422</t>
+    <t xml:space="preserve">10.5388631820679</t>
   </si>
   <si>
     <t xml:space="preserve">10.496470451355</t>
@@ -965,76 +965,76 @@
     <t xml:space="preserve">10.7423486709595</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9458351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8440923690796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6406059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0979776382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5303840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8356142044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4291124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086706161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834707260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004270553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782415390015</t>
+    <t xml:space="preserve">10.9458341598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8440914154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.640606880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0979766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.530385017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8356132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4291133880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.27649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834697723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782424926758</t>
   </si>
   <si>
     <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.564769744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899696350098</t>
+    <t xml:space="preserve">11.5647716522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899705886841</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695268630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8186559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.784743309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016986846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9034414291382</t>
+    <t xml:space="preserve">10.8695278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8186569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7847423553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016996383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9034423828125</t>
   </si>
   <si>
     <t xml:space="preserve">10.2421131134033</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">10.6151714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1912422180176</t>
+    <t xml:space="preserve">10.1912431716919</t>
   </si>
   <si>
     <t xml:space="preserve">10.2251577377319</t>
@@ -1055,52 +1055,52 @@
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064558029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948577880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5129566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6316556930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731395721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7333984375</t>
+    <t xml:space="preserve">10.1064567565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948482513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51295757293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63165664672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73340034484863</t>
   </si>
   <si>
     <t xml:space="preserve">9.7164421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37730121612549</t>
+    <t xml:space="preserve">9.37730026245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555656433105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.224684715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904205322266</t>
+    <t xml:space="preserve">9.22468566894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904300689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.56382846832275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68252754211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8181848526001</t>
+    <t xml:space="preserve">9.68252849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81818580627441</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234140396118</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">10.2929849624634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2760286331177</t>
+    <t xml:space="preserve">10.2760276794434</t>
   </si>
   <si>
     <t xml:space="preserve">9.75035667419434</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0216693878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39425563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251384735107</t>
+    <t xml:space="preserve">10.0216703414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39425659179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251480102539</t>
   </si>
   <si>
     <t xml:space="preserve">9.19077110290527</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">9.02120018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66557121276855</t>
+    <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
     <t xml:space="preserve">9.08902835845947</t>
@@ -1145,25 +1145,25 @@
     <t xml:space="preserve">8.49552822113037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42769908905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32595634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05464172363281</t>
+    <t xml:space="preserve">8.42770004272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32595539093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05464267730713</t>
   </si>
   <si>
     <t xml:space="preserve">7.92746353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15638446807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37682819366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56335639953613</t>
+    <t xml:space="preserve">8.15638542175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37682914733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56335830688477</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85162734985352</t>
+    <t xml:space="preserve">8.85162830352783</t>
   </si>
   <si>
     <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78379821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64814281463623</t>
+    <t xml:space="preserve">8.78380012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64814376831055</t>
   </si>
   <si>
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118553161621</t>
+    <t xml:space="preserve">8.63118648529053</t>
   </si>
   <si>
     <t xml:space="preserve">8.47857093811035</t>
@@ -1202,40 +1202,40 @@
     <t xml:space="preserve">8.33443450927734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39378452301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34291362762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24117183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95290040969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245620727539</t>
+    <t xml:space="preserve">8.39378547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34291458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24117088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95289993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245716094971</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51201391220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18135023117065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199926376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96938514709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612009048462</t>
+    <t xml:space="preserve">7.51201438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852890014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1813497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96938562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612056732178</t>
   </si>
   <si>
     <t xml:space="preserve">7.33396339416504</t>
@@ -1244,37 +1244,37 @@
     <t xml:space="preserve">7.30004930496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06264972686768</t>
+    <t xml:space="preserve">7.06264925003052</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9948205947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09656429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13895654678345</t>
+    <t xml:space="preserve">6.99482154846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0965633392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
     <t xml:space="preserve">7.39331388473511</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36787796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635707855225</t>
+    <t xml:space="preserve">7.36787748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635660171509</t>
   </si>
   <si>
     <t xml:space="preserve">7.80028486251831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69006395339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942813873291</t>
+    <t xml:space="preserve">7.6900634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942909240723</t>
   </si>
   <si>
     <t xml:space="preserve">8.19029998779297</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24917793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244298934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92699241638184</t>
+    <t xml:space="preserve">7.24917840957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244203567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92699289321899</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57089233398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4945855140686</t>
+    <t xml:space="preserve">6.57089281082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49458503723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">6.27414274215698</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24022817611694</t>
+    <t xml:space="preserve">6.2402286529541</t>
   </si>
   <si>
     <t xml:space="preserve">6.69807100296021</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51154232025146</t>
+    <t xml:space="preserve">6.51154184341431</t>
   </si>
   <si>
     <t xml:space="preserve">6.41827821731567</t>
@@ -1346,19 +1346,19 @@
     <t xml:space="preserve">6.86764287948608</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24069976806641</t>
+    <t xml:space="preserve">7.24070024490356</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916423797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72350692749023</t>
+    <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68111371994019</t>
+    <t xml:space="preserve">6.68111419677734</t>
   </si>
   <si>
     <t xml:space="preserve">6.67263507843018</t>
@@ -1367,82 +1367,82 @@
     <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56241321563721</t>
+    <t xml:space="preserve">6.56241369247437</t>
   </si>
   <si>
     <t xml:space="preserve">6.37588500976562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26566410064697</t>
+    <t xml:space="preserve">6.26566362380981</t>
   </si>
   <si>
     <t xml:space="preserve">6.32501411437988</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44371366500854</t>
+    <t xml:space="preserve">6.4437141418457</t>
   </si>
   <si>
     <t xml:space="preserve">6.52849960327148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38436412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34197092056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59632778167725</t>
+    <t xml:space="preserve">6.38436365127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3419713973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5963282585144</t>
   </si>
   <si>
     <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74894285202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88459920883179</t>
+    <t xml:space="preserve">6.74894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
     <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29157161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591335296631</t>
+    <t xml:space="preserve">7.29157209396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591382980347</t>
   </si>
   <si>
     <t xml:space="preserve">7.13047790527344</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03721380233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417108535767</t>
+    <t xml:space="preserve">7.0372142791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417060852051</t>
   </si>
   <si>
     <t xml:space="preserve">6.96090650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">6.791335105896</t>
+    <t xml:space="preserve">6.79133558273315</t>
   </si>
   <si>
     <t xml:space="preserve">6.7404637336731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46915006637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29109954833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45219230651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40979957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23174953460693</t>
+    <t xml:space="preserve">6.46914958953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29109907150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45219278335571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40980005264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23175001144409</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1451,37 +1451,37 @@
     <t xml:space="preserve">6.01130723953247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96891355514526</t>
+    <t xml:space="preserve">5.96891403198242</t>
   </si>
   <si>
     <t xml:space="preserve">6.15544271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18087816238403</t>
+    <t xml:space="preserve">6.18087768554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132093429565</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58120107650757</t>
+    <t xml:space="preserve">6.58120059967041</t>
   </si>
   <si>
     <t xml:space="preserve">6.40640115737915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39766073226929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42388105392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24908113479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08302211761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12672185897827</t>
+    <t xml:space="preserve">6.39766120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42388153076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2490816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0830225944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12672233581543</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522199630737</t>
+    <t xml:space="preserve">6.34522151947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648109436035</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782155990601</t>
+    <t xml:space="preserve">6.25782108306885</t>
   </si>
   <si>
     <t xml:space="preserve">6.37144088745117</t>
@@ -1532,31 +1532,31 @@
     <t xml:space="preserve">6.32774114608765</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27530097961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11798238754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10924196243286</t>
+    <t xml:space="preserve">6.27530145645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11798191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1092414855957</t>
   </si>
   <si>
     <t xml:space="preserve">6.19664239883423</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23160219192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03058195114136</t>
+    <t xml:space="preserve">6.23160171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03058242797852</t>
   </si>
   <si>
     <t xml:space="preserve">5.97814273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98688173294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9956226348877</t>
+    <t xml:space="preserve">5.98688220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99562215805054</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184247970581</t>
+    <t xml:space="preserve">6.02184200286865</t>
   </si>
   <si>
     <t xml:space="preserve">5.96940279006958</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">6.01310253143311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1791615486145</t>
+    <t xml:space="preserve">6.17916202545166</t>
   </si>
   <si>
     <t xml:space="preserve">6.03932237625122</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">6.07428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15294170379639</t>
+    <t xml:space="preserve">6.15294218063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31026124954224</t>
+    <t xml:space="preserve">6.31026172637939</t>
   </si>
   <si>
     <t xml:space="preserve">6.17042207717896</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066236495972</t>
+    <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
     <t xml:space="preserve">5.94318294525146</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">6.52876091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53750085830688</t>
+    <t xml:space="preserve">6.53750133514404</t>
   </si>
   <si>
     <t xml:space="preserve">6.46758127212524</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8870997428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86087942123413</t>
+    <t xml:space="preserve">6.88710021972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86087989807129</t>
   </si>
   <si>
     <t xml:space="preserve">6.84340000152588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77347993850708</t>
+    <t xml:space="preserve">6.77348041534424</t>
   </si>
   <si>
     <t xml:space="preserve">6.89583969116211</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">7.42897844314575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58629751205444</t>
+    <t xml:space="preserve">7.5862979888916</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527774810791</t>
@@ -1688,52 +1688,52 @@
     <t xml:space="preserve">7.49015808105469</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385734558105</t>
+    <t xml:space="preserve">7.53385877609253</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999773025513</t>
+    <t xml:space="preserve">7.62999725341797</t>
   </si>
   <si>
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51637887954712</t>
+    <t xml:space="preserve">7.51637935638428</t>
   </si>
   <si>
     <t xml:space="preserve">7.57755756378174</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56881809234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39401817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70865726470947</t>
+    <t xml:space="preserve">7.56881761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39401865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70865774154663</t>
   </si>
   <si>
     <t xml:space="preserve">7.76983737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78731775283813</t>
+    <t xml:space="preserve">7.78731679916382</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723733901978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76109743118286</t>
+    <t xml:space="preserve">7.85723638534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76109838485718</t>
   </si>
   <si>
     <t xml:space="preserve">7.73487758636475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52511739730835</t>
+    <t xml:space="preserve">7.52511787414551</t>
   </si>
   <si>
     <t xml:space="preserve">7.5076379776001</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">7.36779880523682</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18425893783569</t>
+    <t xml:space="preserve">7.18425941467285</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795915603638</t>
@@ -1778,13 +1778,13 @@
     <t xml:space="preserve">6.79970026016235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72104072570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65986013412476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83830213546753</t>
+    <t xml:space="preserve">6.72104024887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65986061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
     <t xml:space="preserve">5.84704303741455</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">5.78586292266846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45374345779419</t>
+    <t xml:space="preserve">5.45374393463135</t>
   </si>
   <si>
     <t xml:space="preserve">5.20028448104858</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561727523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45738697052002</t>
+    <t xml:space="preserve">4.36561679840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45738744735718</t>
   </si>
   <si>
     <t xml:space="preserve">4.16459798812866</t>
@@ -1820,22 +1820,22 @@
     <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89365887641907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8499584197998</t>
+    <t xml:space="preserve">3.89365839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995889663696</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877878189087</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85432863235474</t>
+    <t xml:space="preserve">3.85432887077332</t>
   </si>
   <si>
     <t xml:space="preserve">3.90239834785461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89802885055542</t>
+    <t xml:space="preserve">3.89802837371826</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
@@ -1847,16 +1847,16 @@
     <t xml:space="preserve">3.77566909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72322916984558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204929351807</t>
+    <t xml:space="preserve">3.72322964668274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204953193665</t>
   </si>
   <si>
     <t xml:space="preserve">3.70574903488159</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75818943977356</t>
+    <t xml:space="preserve">3.75818967819214</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
@@ -1868,25 +1868,25 @@
     <t xml:space="preserve">4.16896772384644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30006742477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3525071144104</t>
+    <t xml:space="preserve">4.30006790161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35250759124756</t>
   </si>
   <si>
     <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89438533782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96430492401123</t>
+    <t xml:space="preserve">4.89438581466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422594070435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96430540084839</t>
   </si>
   <si>
     <t xml:space="preserve">4.77202606201172</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6405668258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60417032241821</t>
+    <t xml:space="preserve">4.64056730270386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60417079925537</t>
   </si>
   <si>
     <t xml:space="preserve">4.5495753288269</t>
@@ -1916,34 +1916,34 @@
     <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73155832290649</t>
+    <t xml:space="preserve">4.73155879974365</t>
   </si>
   <si>
     <t xml:space="preserve">4.78615379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76795482635498</t>
+    <t xml:space="preserve">4.76795530319214</t>
   </si>
   <si>
     <t xml:space="preserve">4.87714529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1137228012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7324652671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89625024795532</t>
+    <t xml:space="preserve">5.11372327804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73246574401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89624977111816</t>
   </si>
   <si>
     <t xml:space="preserve">5.80525875091553</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95084428787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85985326766968</t>
+    <t xml:space="preserve">5.95084476470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85985374450684</t>
   </si>
   <si>
     <t xml:space="preserve">5.93264675140381</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">5.91444826126099</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82345628738403</t>
+    <t xml:space="preserve">5.82345676422119</t>
   </si>
   <si>
     <t xml:space="preserve">6.06003475189209</t>
@@ -1961,7 +1961,7 @@
     <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62327527999878</t>
+    <t xml:space="preserve">5.62327575683594</t>
   </si>
   <si>
     <t xml:space="preserve">5.55048227310181</t>
@@ -1970,22 +1970,22 @@
     <t xml:space="preserve">5.53228378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56867980957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38669776916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35030078887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47768878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51408576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6414737701416</t>
+    <t xml:space="preserve">5.56868028640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38669729232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35030126571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47768926620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51408529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64147329330444</t>
   </si>
   <si>
     <t xml:space="preserve">5.45949077606201</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">5.1683177947998</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09552431106567</t>
+    <t xml:space="preserve">5.09552478790283</t>
   </si>
   <si>
     <t xml:space="preserve">5.20471429824829</t>
@@ -2009,16 +2009,16 @@
     <t xml:space="preserve">5.18651580810547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36849927902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31390380859375</t>
+    <t xml:space="preserve">5.36849975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31390428543091</t>
   </si>
   <si>
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25930976867676</t>
+    <t xml:space="preserve">5.2593092918396</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633480072021</t>
+    <t xml:space="preserve">4.98633527755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">5.04092979431152</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4958872795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22291231155396</t>
+    <t xml:space="preserve">5.49588775634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22291278839111</t>
   </si>
   <si>
     <t xml:space="preserve">5.27750778198242</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">4.322096824646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35849285125732</t>
+    <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
     <t xml:space="preserve">4.26750230789185</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24111127853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44129180908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60507678985596</t>
+    <t xml:space="preserve">5.24111175537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44129228591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60507726669312</t>
   </si>
   <si>
     <t xml:space="preserve">5.8780517578125</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">5.78706026077271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0236382484436</t>
+    <t xml:space="preserve">6.02363777160645</t>
   </si>
   <si>
     <t xml:space="preserve">6.09643125534058</t>
@@ -2108,7 +2108,7 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841377258301</t>
+    <t xml:space="preserve">6.27841424942017</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2117,16 +2117,16 @@
     <t xml:space="preserve">6.18742322921753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33300876617432</t>
+    <t xml:space="preserve">6.33300924301147</t>
   </si>
   <si>
     <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4603967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60598421096802</t>
+    <t xml:space="preserve">6.46039724349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
     <t xml:space="preserve">6.42400074005127</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">6.55138874053955</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58778476715088</t>
+    <t xml:space="preserve">6.58778524398804</t>
   </si>
   <si>
     <t xml:space="preserve">6.82436370849609</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">6.87895822525024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7333722114563</t>
+    <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
     <t xml:space="preserve">6.67877721786499</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">6.8425612449646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86076021194458</t>
+    <t xml:space="preserve">6.86075973510742</t>
   </si>
   <si>
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013072967529</t>
+    <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832969665527</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">7.09733772277832</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07914018630981</t>
+    <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
     <t xml:space="preserve">7.06094169616699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91535425186157</t>
+    <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.27932071685791</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29751920700073</t>
+    <t xml:space="preserve">7.29751968383789</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851070404053</t>
+    <t xml:space="preserve">7.38851118087769</t>
   </si>
   <si>
     <t xml:space="preserve">7.91626119613647</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824371337891</t>
+    <t xml:space="preserve">8.09824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
@@ -2249,40 +2249,40 @@
     <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82527017593384</t>
+    <t xml:space="preserve">7.82527112960815</t>
   </si>
   <si>
     <t xml:space="preserve">7.87986469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04364967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725269317627</t>
+    <t xml:space="preserve">8.04365062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725364685059</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202869415283</t>
+    <t xml:space="preserve">8.26202964782715</t>
   </si>
   <si>
     <t xml:space="preserve">8.18923664093018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75247716903687</t>
+    <t xml:space="preserve">7.75247764587402</t>
   </si>
   <si>
     <t xml:space="preserve">7.86166667938232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887319564819</t>
+    <t xml:space="preserve">7.78887414932251</t>
   </si>
   <si>
     <t xml:space="preserve">7.93446016311646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9526572227478</t>
+    <t xml:space="preserve">7.95265817642212</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59662,7 +59662,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494444444</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>2727</v>
@@ -59683,6 +59683,32 @@
         <v>1066</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6494097222</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>7022</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">OJM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19359540939331</t>
+    <t xml:space="preserve">6.19359588623047</t>
   </si>
   <si>
     <t xml:space="preserve">6.1893572807312</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">6.06217813491821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22327089309692</t>
+    <t xml:space="preserve">6.22327136993408</t>
   </si>
   <si>
     <t xml:space="preserve">6.1172890663147</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696359634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783544540405</t>
+    <t xml:space="preserve">6.14696455001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783496856689</t>
   </si>
   <si>
     <t xml:space="preserve">6.07065629959106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97739267349243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05793857574463</t>
+    <t xml:space="preserve">5.97739219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
     <t xml:space="preserve">6.17239952087402</t>
@@ -83,19 +83,19 @@
     <t xml:space="preserve">6.35892820358276</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35044956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21055269241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16815996170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12152862548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90956401824951</t>
+    <t xml:space="preserve">6.3504490852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21055221557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1681604385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12152814865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90956354141235</t>
   </si>
   <si>
     <t xml:space="preserve">5.86293172836304</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65096712112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064260482788</t>
+    <t xml:space="preserve">5.65096759796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064212799072</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
@@ -122,10 +122,10 @@
     <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93499946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04945993423462</t>
+    <t xml:space="preserve">5.9350004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">5.89260673522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01978540420532</t>
+    <t xml:space="preserve">6.01978492736816</t>
   </si>
   <si>
     <t xml:space="preserve">6.01554584503174</t>
@@ -143,10 +143,10 @@
     <t xml:space="preserve">6.0028281211853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12576675415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85869264602661</t>
+    <t xml:space="preserve">6.12576770782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
     <t xml:space="preserve">5.62977075576782</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">5.92228126525879</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82477855682373</t>
+    <t xml:space="preserve">5.82477807998657</t>
   </si>
   <si>
     <t xml:space="preserve">5.89684581756592</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03674221038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446773529053</t>
+    <t xml:space="preserve">6.03674268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446725845337</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22750997543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11304950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706720352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88836765289307</t>
+    <t xml:space="preserve">6.22751045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11304998397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706768035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88836717605591</t>
   </si>
   <si>
     <t xml:space="preserve">5.98587131500244</t>
@@ -200,7 +200,7 @@
     <t xml:space="preserve">5.8798885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9816312789917</t>
+    <t xml:space="preserve">5.98163175582886</t>
   </si>
   <si>
     <t xml:space="preserve">5.87141036987305</t>
@@ -212,22 +212,22 @@
     <t xml:space="preserve">6.2063136100769</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08337450027466</t>
+    <t xml:space="preserve">6.08337497711182</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173488616943</t>
+    <t xml:space="preserve">5.95619630813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173536300659</t>
   </si>
   <si>
     <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118850708008</t>
+    <t xml:space="preserve">5.76118946075439</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782079696655</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99858856201172</t>
+    <t xml:space="preserve">5.99858808517456</t>
   </si>
   <si>
     <t xml:space="preserve">6.28262090682983</t>
@@ -251,16 +251,16 @@
     <t xml:space="preserve">6.13000679016113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18511724472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522085189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16392135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07489585876465</t>
+    <t xml:space="preserve">6.18511772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16392040252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07489633560181</t>
   </si>
   <si>
     <t xml:space="preserve">6.10033178329468</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">5.99434995651245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761358261108</t>
+    <t xml:space="preserve">6.08761405944824</t>
   </si>
   <si>
     <t xml:space="preserve">5.99011039733887</t>
@@ -278,76 +278,76 @@
     <t xml:space="preserve">5.81629943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999261856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76542854309082</t>
+    <t xml:space="preserve">5.73999214172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76542806625366</t>
   </si>
   <si>
     <t xml:space="preserve">5.75694942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79510307312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66792440414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63824987411499</t>
+    <t xml:space="preserve">5.79510402679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66792488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63824939727783</t>
   </si>
   <si>
     <t xml:space="preserve">5.65944671630859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60433578491211</t>
+    <t xml:space="preserve">5.60433530807495</t>
   </si>
   <si>
     <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71031713485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6636848449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49835252761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889986038208</t>
+    <t xml:space="preserve">5.71031761169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66368532180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49835300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889938354492</t>
   </si>
   <si>
     <t xml:space="preserve">5.58737802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58313846588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5746603012085</t>
+    <t xml:space="preserve">5.58313894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57465982437134</t>
   </si>
   <si>
     <t xml:space="preserve">5.50683164596558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40932846069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25247478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24823522567749</t>
+    <t xml:space="preserve">5.40932893753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25247430801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24823570251465</t>
   </si>
   <si>
     <t xml:space="preserve">5.32454299926758</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37965250015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51107120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06594562530518</t>
+    <t xml:space="preserve">5.3796534538269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.511070728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06594610214233</t>
   </si>
   <si>
     <t xml:space="preserve">5.18888521194458</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">4.53603553771973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52331781387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396684646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244596481323</t>
+    <t xml:space="preserve">4.52331733703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396780014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">4.62506008148193</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73952150344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74799966812134</t>
+    <t xml:space="preserve">4.73952102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7480001449585</t>
   </si>
   <si>
     <t xml:space="preserve">5.002357006073</t>
@@ -401,10 +401,10 @@
     <t xml:space="preserve">5.04474925994873</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08714294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312477111816</t>
+    <t xml:space="preserve">5.08714246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312429428101</t>
   </si>
   <si>
     <t xml:space="preserve">5.31182432174683</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">5.36693525314331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46867799758911</t>
+    <t xml:space="preserve">5.46867847442627</t>
   </si>
   <si>
     <t xml:space="preserve">5.43476390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26095294952393</t>
+    <t xml:space="preserve">5.26095247268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040704727173</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22279977798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92604923248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9514856338501</t>
+    <t xml:space="preserve">5.22279930114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92604970932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95148515701294</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692155838013</t>
+    <t xml:space="preserve">4.97692060470581</t>
   </si>
   <si>
     <t xml:space="preserve">5.16344976425171</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21008157730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17192792892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25671339035034</t>
+    <t xml:space="preserve">5.21008110046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17192840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2567138671875</t>
   </si>
   <si>
     <t xml:space="preserve">5.34149980545044</t>
@@ -482,10 +482,10 @@
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770301818848</t>
+    <t xml:space="preserve">5.59161758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770349502563</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216396331787</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">5.44324254989624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48987436294556</t>
+    <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
     <t xml:space="preserve">5.51954984664917</t>
@@ -509,22 +509,22 @@
     <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488168716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77814626693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92652034759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48610687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60056686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61328554153442</t>
+    <t xml:space="preserve">5.68488121032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7781457901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92652082443237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48610639572144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60056781768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61328601837158</t>
   </si>
   <si>
     <t xml:space="preserve">6.78285694122314</t>
@@ -536,91 +536,91 @@
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352157592773</t>
+    <t xml:space="preserve">7.11352062225342</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678567886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777339935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353527069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874933242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61799573898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5883207321167</t>
+    <t xml:space="preserve">7.20678520202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353574752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.617995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58832168579102</t>
   </si>
   <si>
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722845077515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59255933761597</t>
+    <t xml:space="preserve">7.64767074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722797393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59255981445312</t>
   </si>
   <si>
     <t xml:space="preserve">7.46114253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52049255371094</t>
+    <t xml:space="preserve">7.5204930305481</t>
   </si>
   <si>
     <t xml:space="preserve">7.45266389846802</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55440616607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669576644897</t>
+    <t xml:space="preserve">7.55440664291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669481277466</t>
   </si>
   <si>
     <t xml:space="preserve">7.91898536682129</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00376987457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96985769271851</t>
+    <t xml:space="preserve">8.00377082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96985721588135</t>
   </si>
   <si>
     <t xml:space="preserve">8.03768444061279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561765670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88930940628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594264984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02496814727783</t>
+    <t xml:space="preserve">7.96561861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931035995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594121932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
     <t xml:space="preserve">8.30052089691162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36834907531738</t>
+    <t xml:space="preserve">8.3683500289917</t>
   </si>
   <si>
     <t xml:space="preserve">8.41074275970459</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945648193359</t>
+    <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.83467102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44041633605957</t>
+    <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
     <t xml:space="preserve">8.90249919891357</t>
@@ -650,7 +650,7 @@
     <t xml:space="preserve">9.32642841339111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79275035858154</t>
+    <t xml:space="preserve">9.79274940490723</t>
   </si>
   <si>
     <t xml:space="preserve">9.83514213562012</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">9.6146993637085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49599933624268</t>
+    <t xml:space="preserve">9.49600028991699</t>
   </si>
   <si>
     <t xml:space="preserve">9.41121387481689</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">9.28403472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11446475982666</t>
+    <t xml:space="preserve">9.11446380615234</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1229419708252</t>
+    <t xml:space="preserve">9.12294292449951</t>
   </si>
   <si>
     <t xml:space="preserve">9.53839206695557</t>
@@ -701,52 +701,52 @@
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16533470153809</t>
+    <t xml:space="preserve">9.1653356552124</t>
   </si>
   <si>
     <t xml:space="preserve">9.14837741851807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05511474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96184921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097736358643</t>
+    <t xml:space="preserve">9.05511379241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9618501663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402103424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097831726074</t>
   </si>
   <si>
     <t xml:space="preserve">8.7753210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86010646820068</t>
+    <t xml:space="preserve">8.860107421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.17381286621094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273571014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969108581543</t>
+    <t xml:space="preserve">9.40273475646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969203948975</t>
   </si>
   <si>
     <t xml:space="preserve">9.38577747344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078384399414</t>
+    <t xml:space="preserve">9.58078575134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64861392974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62317848205566</t>
+    <t xml:space="preserve">9.64861488342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62317752838135</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774208068848</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0725421905518</t>
+    <t xml:space="preserve">10.0725431442261</t>
   </si>
   <si>
     <t xml:space="preserve">10.004714012146</t>
@@ -782,16 +782,16 @@
     <t xml:space="preserve">10.2336349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3692922592163</t>
+    <t xml:space="preserve">10.4625558853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369291305542</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795141220093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742858886719</t>
+    <t xml:space="preserve">10.1742849349976</t>
   </si>
   <si>
     <t xml:space="preserve">10.4371213912964</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">10.6829996109009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2166786193848</t>
+    <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
     <t xml:space="preserve">10.4540777206421</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">10.7169141769409</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9797487258911</t>
+    <t xml:space="preserve">10.9797496795654</t>
   </si>
   <si>
     <t xml:space="preserve">11.0645351409912</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">11.1917123794556</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9712696075439</t>
+    <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
     <t xml:space="preserve">10.6745204925537</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">10.5982131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0221424102783</t>
+    <t xml:space="preserve">11.022141456604</t>
   </si>
   <si>
     <t xml:space="preserve">11.3188934326172</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">10.7338705062866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9373559951782</t>
+    <t xml:space="preserve">10.9373569488525</t>
   </si>
   <si>
     <t xml:space="preserve">10.7253913879395</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">11.1238851547241</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1408433914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.691948890686</t>
+    <t xml:space="preserve">11.1408424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6919498443604</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732488632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5308570861816</t>
+    <t xml:space="preserve">11.5732479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5308561325073</t>
   </si>
   <si>
     <t xml:space="preserve">11.1747560501099</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3612852096558</t>
+    <t xml:space="preserve">11.3612842559814</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">11.8276062011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121551513672</t>
+    <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
     <t xml:space="preserve">11.4969425201416</t>
@@ -935,16 +935,16 @@
     <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9203996658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.115406036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5134267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.335376739502</t>
+    <t xml:space="preserve">10.9204006195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1154069900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3353786468506</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677850723267</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388631820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.496470451355</t>
+    <t xml:space="preserve">10.5388650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.5642995834351</t>
@@ -974,13 +974,13 @@
     <t xml:space="preserve">10.640606880188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0979766845703</t>
+    <t xml:space="preserve">10.0979776382446</t>
   </si>
   <si>
     <t xml:space="preserve">10.530385017395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8356132507324</t>
+    <t xml:space="preserve">10.8356142044067</t>
   </si>
   <si>
     <t xml:space="preserve">11.1069278717041</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">11.4291133880615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2086715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.27649974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834697723389</t>
+    <t xml:space="preserve">11.2086706161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834707260132</t>
   </si>
   <si>
     <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782424926758</t>
+    <t xml:space="preserve">11.3782415390015</t>
   </si>
   <si>
     <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5647716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699989318848</t>
+    <t xml:space="preserve">11.5647706985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8700008392334</t>
   </si>
   <si>
     <t xml:space="preserve">11.6665134429932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0899705886841</t>
+    <t xml:space="preserve">11.0899686813354</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186569213867</t>
+    <t xml:space="preserve">10.818657875061</t>
   </si>
   <si>
     <t xml:space="preserve">10.7847423553467</t>
@@ -1049,40 +1049,40 @@
     <t xml:space="preserve">10.1912431716919</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2251577377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3438558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1064567565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601398468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948482513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034202575684</t>
+    <t xml:space="preserve">10.2251567840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3438568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1064558029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948577880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5129566192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.63165664672852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76731491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73340034484863</t>
+    <t xml:space="preserve">9.76731395721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73339748382568</t>
   </si>
   <si>
     <t xml:space="preserve">9.7164421081543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37730026245117</t>
+    <t xml:space="preserve">9.37729930877686</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555656433105</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">9.22468566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47904300689697</t>
+    <t xml:space="preserve">9.47904205322266</t>
   </si>
   <si>
     <t xml:space="preserve">9.56382846832275</t>
@@ -1100,31 +1100,31 @@
     <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81818580627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1234140396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929849624634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2760276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75035667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0216703414917</t>
+    <t xml:space="preserve">9.81818389892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1234130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929859161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2760286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75035572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0216693878174</t>
   </si>
   <si>
     <t xml:space="preserve">9.39425659179688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29251480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077110290527</t>
+    <t xml:space="preserve">9.29251384735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077014923096</t>
   </si>
   <si>
     <t xml:space="preserve">9.02120018005371</t>
@@ -1133,22 +1133,22 @@
     <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08902835845947</t>
+    <t xml:space="preserve">9.08902740478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.74988460540771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51248550415039</t>
+    <t xml:space="preserve">8.51248455047607</t>
   </si>
   <si>
     <t xml:space="preserve">8.49552822113037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42770004272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32595539093018</t>
+    <t xml:space="preserve">8.42769813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
     <t xml:space="preserve">8.05464267730713</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">8.37682914733887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335830688477</t>
+    <t xml:space="preserve">8.56335639953613</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85162830352783</t>
+    <t xml:space="preserve">8.85162734985352</t>
   </si>
   <si>
     <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78380012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64814376831055</t>
+    <t xml:space="preserve">8.78379821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64814281463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118648529053</t>
+    <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
     <t xml:space="preserve">8.47857093811035</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41922092437744</t>
+    <t xml:space="preserve">8.41921997070312</t>
   </si>
   <si>
     <t xml:space="preserve">8.33443450927734</t>
@@ -1211,37 +1211,37 @@
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245716094971</t>
+    <t xml:space="preserve">7.95289945602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245573043823</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51201438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852890014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1813497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199974060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96938562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612056732178</t>
+    <t xml:space="preserve">7.51201295852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18134927749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199926376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96938514709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612009048462</t>
   </si>
   <si>
     <t xml:space="preserve">7.33396339416504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30004930496216</t>
+    <t xml:space="preserve">7.30004978179932</t>
   </si>
   <si>
     <t xml:space="preserve">7.06264925003052</t>
@@ -1250,31 +1250,31 @@
     <t xml:space="preserve">7.01177835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99482154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0965633392334</t>
+    <t xml:space="preserve">6.99482107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09656429290771</t>
   </si>
   <si>
     <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39331388473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635660171509</t>
+    <t xml:space="preserve">7.39331340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635612487793</t>
   </si>
   <si>
     <t xml:space="preserve">7.80028486251831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6900634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942909240723</t>
+    <t xml:space="preserve">7.69006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942813873291</t>
   </si>
   <si>
     <t xml:space="preserve">8.19029998779297</t>
@@ -1286,22 +1286,22 @@
     <t xml:space="preserve">7.85115718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78332805633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092067718506</t>
+    <t xml:space="preserve">7.78332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092115402222</t>
   </si>
   <si>
     <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24917840957642</t>
+    <t xml:space="preserve">7.24917793273926</t>
   </si>
   <si>
     <t xml:space="preserve">7.34244203567505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92699289321899</t>
+    <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">6.49458503723145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30805683135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27414274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2402286529541</t>
+    <t xml:space="preserve">6.30805635452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27414226531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24022817611694</t>
   </si>
   <si>
     <t xml:space="preserve">6.69807100296021</t>
@@ -1337,22 +1337,22 @@
     <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51154184341431</t>
+    <t xml:space="preserve">6.51154279708862</t>
   </si>
   <si>
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764287948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24070024490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85916423797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72350645065308</t>
+    <t xml:space="preserve">6.86764240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069929122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85916376113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72350692749023</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">6.68111419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263507843018</t>
+    <t xml:space="preserve">6.67263555526733</t>
   </si>
   <si>
     <t xml:space="preserve">6.62176370620728</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">6.32501411437988</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4437141418457</t>
+    <t xml:space="preserve">6.44371318817139</t>
   </si>
   <si>
     <t xml:space="preserve">6.52849960327148</t>
@@ -1388,16 +1388,16 @@
     <t xml:space="preserve">6.38436365127563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3419713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5963282585144</t>
+    <t xml:space="preserve">6.34197044372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59632778167725</t>
   </si>
   <si>
     <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74894237518311</t>
+    <t xml:space="preserve">6.74894285202026</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459968566895</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29157209396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591382980347</t>
+    <t xml:space="preserve">7.29157018661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591287612915</t>
   </si>
   <si>
     <t xml:space="preserve">7.13047790527344</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">7.0372142791748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05417060852051</t>
+    <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
     <t xml:space="preserve">6.96090650558472</t>
@@ -1430,52 +1430,52 @@
     <t xml:space="preserve">6.7404637336731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46914958953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29109907150269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45219278335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40980005264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23175001144409</t>
+    <t xml:space="preserve">6.46915006637573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29109954833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45219230651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40979957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23174905776978</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01130723953247</t>
+    <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
     <t xml:space="preserve">5.96891403198242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15544271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087768554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40132093429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58120059967041</t>
+    <t xml:space="preserve">6.155442237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087816238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40132141113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58120107650757</t>
   </si>
   <si>
     <t xml:space="preserve">6.40640115737915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39766120910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42388153076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2490816116333</t>
+    <t xml:space="preserve">6.3976616859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42388105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24908208847046</t>
   </si>
   <si>
     <t xml:space="preserve">6.0830225944519</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">6.16168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38018178939819</t>
+    <t xml:space="preserve">6.38018131256104</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396146774292</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">6.34522151947021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33648109436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28404188156128</t>
+    <t xml:space="preserve">6.33648157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28404140472412</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">6.25782108306885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37144088745117</t>
+    <t xml:space="preserve">6.37144136428833</t>
   </si>
   <si>
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3190016746521</t>
+    <t xml:space="preserve">6.31900119781494</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514110565186</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">6.27530145645142</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11798191070557</t>
+    <t xml:space="preserve">6.11798238754272</t>
   </si>
   <si>
     <t xml:space="preserve">6.1092414855957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19664239883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23160171508789</t>
+    <t xml:space="preserve">6.19664192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23160219192505</t>
   </si>
   <si>
     <t xml:space="preserve">6.03058242797852</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">5.98688220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99562215805054</t>
+    <t xml:space="preserve">5.9956226348877</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1595,25 +1595,25 @@
     <t xml:space="preserve">6.31026172637939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17042207717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85578298568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91696262359619</t>
+    <t xml:space="preserve">6.1704216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8557825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91696214675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94318294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9344425201416</t>
+    <t xml:space="preserve">5.96066236495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94318246841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93444299697876</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">6.52876091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53750133514404</t>
+    <t xml:space="preserve">6.53750085830688</t>
   </si>
   <si>
     <t xml:space="preserve">6.46758127212524</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88710021972656</t>
+    <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
     <t xml:space="preserve">6.86087989807129</t>
@@ -1667,28 +1667,28 @@
     <t xml:space="preserve">7.27165842056274</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42897844314575</t>
+    <t xml:space="preserve">7.42897891998291</t>
   </si>
   <si>
     <t xml:space="preserve">7.5862979888916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38527774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56007719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55133819580078</t>
+    <t xml:space="preserve">7.38527822494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56007766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55133867263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.60377788543701</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49015808105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53385877609253</t>
+    <t xml:space="preserve">7.49015760421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53385829925537</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
@@ -1697,22 +1697,22 @@
     <t xml:space="preserve">7.62999725341797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54259824752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51637935638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57755756378174</t>
+    <t xml:space="preserve">7.54259729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51637887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5775580406189</t>
   </si>
   <si>
     <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39401865005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70865774154663</t>
+    <t xml:space="preserve">7.39401817321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70865726470947</t>
   </si>
   <si>
     <t xml:space="preserve">7.76983737945557</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">7.85723638534546</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76109838485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73487758636475</t>
+    <t xml:space="preserve">7.76109743118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73487710952759</t>
   </si>
   <si>
     <t xml:space="preserve">7.52511787414551</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">7.22795915603638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1230788230896</t>
+    <t xml:space="preserve">7.12307834625244</t>
   </si>
   <si>
     <t xml:space="preserve">6.98323965072632</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">6.81718015670776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79970026016235</t>
+    <t xml:space="preserve">6.79970073699951</t>
   </si>
   <si>
     <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65986061096191</t>
+    <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
     <t xml:space="preserve">5.83830261230469</t>
@@ -1790,10 +1790,10 @@
     <t xml:space="preserve">5.84704303741455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78586292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374393463135</t>
+    <t xml:space="preserve">5.78586339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374345779419</t>
   </si>
   <si>
     <t xml:space="preserve">5.20028448104858</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561679840088</t>
+    <t xml:space="preserve">4.36561727523804</t>
   </si>
   <si>
     <t xml:space="preserve">4.45738744735718</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">3.84995889663696</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78877878189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85432887077332</t>
+    <t xml:space="preserve">3.78877902030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85432863235474</t>
   </si>
   <si>
     <t xml:space="preserve">3.90239834785461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89802837371826</t>
+    <t xml:space="preserve">3.89802885055542</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
@@ -1844,25 +1844,25 @@
     <t xml:space="preserve">3.71885919570923</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77566909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322964668274</t>
+    <t xml:space="preserve">3.77566933631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322940826416</t>
   </si>
   <si>
     <t xml:space="preserve">3.66204953193665</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70574903488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818967819214</t>
+    <t xml:space="preserve">3.70574927330017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818943977356</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164817810059</t>
+    <t xml:space="preserve">4.01164865493774</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896772384644</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">4.35250759124756</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54478645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89438581466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658521652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422594070435</t>
+    <t xml:space="preserve">4.54478693008423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89438533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658473968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422546386719</t>
   </si>
   <si>
     <t xml:space="preserve">4.96430540084839</t>
@@ -59688,7 +59688,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6494097222</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>7022</v>
@@ -59709,6 +59709,32 @@
         <v>1065</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6495949074</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>11620</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0536994934082</t>
+    <t xml:space="preserve">6.05369997024536</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696455001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065629959106</t>
+    <t xml:space="preserve">6.14696359634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.97739219665527</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">6.3504490852356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055221557617</t>
+    <t xml:space="preserve">6.21055316925049</t>
   </si>
   <si>
     <t xml:space="preserve">6.1681604385376</t>
@@ -101,28 +101,28 @@
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445308685303</t>
+    <t xml:space="preserve">5.85445356369019</t>
   </si>
   <si>
     <t xml:space="preserve">5.8502140045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65096759796143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064212799072</t>
+    <t xml:space="preserve">5.65096712112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064260482788</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59585618972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91804218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9350004196167</t>
+    <t xml:space="preserve">5.59585666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91804265975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93499994277954</t>
   </si>
   <si>
     <t xml:space="preserve">6.04946041107178</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260673522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01978492736816</t>
+    <t xml:space="preserve">5.89260578155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01978540420532</t>
   </si>
   <si>
     <t xml:space="preserve">6.01554584503174</t>
@@ -152,10 +152,10 @@
     <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90108585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228126525879</t>
+    <t xml:space="preserve">5.9010853767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228221893311</t>
   </si>
   <si>
     <t xml:space="preserve">5.82477807998657</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79086399078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674268722534</t>
+    <t xml:space="preserve">5.79086351394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674173355103</t>
   </si>
   <si>
     <t xml:space="preserve">6.24446725845337</t>
@@ -188,16 +188,16 @@
     <t xml:space="preserve">6.00706768035889</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88836717605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98587131500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88412809371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8798885345459</t>
+    <t xml:space="preserve">5.88836765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98587083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88412857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87988901138306</t>
   </si>
   <si>
     <t xml:space="preserve">5.98163175582886</t>
@@ -206,43 +206,43 @@
     <t xml:space="preserve">5.87141036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07913589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2063136100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337497711182</t>
+    <t xml:space="preserve">6.07913541793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20631408691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08337450027466</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619630813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173536300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76118946075439</t>
+    <t xml:space="preserve">5.95619678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76118898391724</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782079696655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.829017162323</t>
+    <t xml:space="preserve">5.82901763916016</t>
   </si>
   <si>
     <t xml:space="preserve">5.9307599067688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09609270095825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99858808517456</t>
+    <t xml:space="preserve">6.09609222412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
     <t xml:space="preserve">6.28262090682983</t>
@@ -251,52 +251,52 @@
     <t xml:space="preserve">6.13000679016113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18511772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522180557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16392040252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07489633560181</t>
+    <t xml:space="preserve">6.18511724472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522085189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16392087936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07489585876465</t>
   </si>
   <si>
     <t xml:space="preserve">6.10033178329468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99434995651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08761405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99011039733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81629943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73999214172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76542806625366</t>
+    <t xml:space="preserve">5.99434947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08761310577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99010992050171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81629991531372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73999261856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
     <t xml:space="preserve">5.75694942474365</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79510402679443</t>
+    <t xml:space="preserve">5.79510259628296</t>
   </si>
   <si>
     <t xml:space="preserve">5.66792488098145</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63824939727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944671630859</t>
+    <t xml:space="preserve">5.63824987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944576263428</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
@@ -311,61 +311,61 @@
     <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835300445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57465982437134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683164596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40932893753052</t>
+    <t xml:space="preserve">5.49835348129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737897872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313941955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5746603012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683116912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4093279838562</t>
   </si>
   <si>
     <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24823570251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32454299926758</t>
+    <t xml:space="preserve">5.24823617935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
     <t xml:space="preserve">5.3796534538269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.511070728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06594610214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18888521194458</t>
+    <t xml:space="preserve">5.51107120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06594562530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18888568878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093877792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90061378479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80734968185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83278512954712</t>
+    <t xml:space="preserve">4.87093830108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9006142616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80735015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83278465270996</t>
   </si>
   <si>
     <t xml:space="preserve">4.66321420669556</t>
@@ -374,37 +374,37 @@
     <t xml:space="preserve">4.53603553771973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52331733703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396780014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244644165039</t>
+    <t xml:space="preserve">4.52331781387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244596481323</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506008148193</t>
+    <t xml:space="preserve">4.62506055831909</t>
   </si>
   <si>
     <t xml:space="preserve">4.73952102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7480001449585</t>
+    <t xml:space="preserve">4.74799919128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714246749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312429428101</t>
+    <t xml:space="preserve">5.04475021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714199066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312477111816</t>
   </si>
   <si>
     <t xml:space="preserve">5.31182432174683</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">5.43476390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26095247268677</t>
+    <t xml:space="preserve">5.26095294952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2058424949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28214979171753</t>
+    <t xml:space="preserve">5.20584201812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28215026855469</t>
   </si>
   <si>
     <t xml:space="preserve">5.22279930114746</t>
@@ -440,13 +440,13 @@
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95148515701294</t>
+    <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692060470581</t>
+    <t xml:space="preserve">4.97692108154297</t>
   </si>
   <si>
     <t xml:space="preserve">5.16344976425171</t>
@@ -455,37 +455,37 @@
     <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21008110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17192840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2567138671875</t>
+    <t xml:space="preserve">5.21008205413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1719274520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25671339035034</t>
   </si>
   <si>
     <t xml:space="preserve">5.34149980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30334615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084981918335</t>
+    <t xml:space="preserve">5.30334568023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084934234619</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618165969849</t>
+    <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770349502563</t>
+    <t xml:space="preserve">5.59161710739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770254135132</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216396331787</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">5.5237889289856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44748210906982</t>
+    <t xml:space="preserve">5.44748163223267</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -503,49 +503,49 @@
     <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51954984664917</t>
+    <t xml:space="preserve">5.51955032348633</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488121032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7781457901001</t>
+    <t xml:space="preserve">5.68488216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
     <t xml:space="preserve">5.92652082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48610639572144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60056781768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61328601837158</t>
+    <t xml:space="preserve">6.48610687255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60056686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61328554153442</t>
   </si>
   <si>
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526384353638</t>
+    <t xml:space="preserve">7.21526432037354</t>
   </si>
   <si>
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352062225342</t>
+    <t xml:space="preserve">7.11352109909058</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777435302734</t>
+    <t xml:space="preserve">7.20678472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5077748298645</t>
   </si>
   <si>
     <t xml:space="preserve">7.50353574752808</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.617995262146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58832168579102</t>
+    <t xml:space="preserve">7.61799621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58832025527954</t>
   </si>
   <si>
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722797393799</t>
+    <t xml:space="preserve">7.64767122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722845077515</t>
   </si>
   <si>
     <t xml:space="preserve">7.59255981445312</t>
@@ -575,52 +575,52 @@
     <t xml:space="preserve">7.46114253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5204930305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266389846802</t>
+    <t xml:space="preserve">7.52049255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266437530518</t>
   </si>
   <si>
     <t xml:space="preserve">7.55440664291382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73669481277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91898536682129</t>
+    <t xml:space="preserve">7.73669576644897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91898488998413</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96985721588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03768444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931035995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594121932983</t>
+    <t xml:space="preserve">7.96985626220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03768539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561717987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050672531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931131362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594217300415</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30052089691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3683500289917</t>
+    <t xml:space="preserve">8.30052185058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36834907531738</t>
   </si>
   <si>
     <t xml:space="preserve">8.41074275970459</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945743560791</t>
+    <t xml:space="preserve">8.91945648193359</t>
   </si>
   <si>
     <t xml:space="preserve">8.83467102050781</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90249919891357</t>
+    <t xml:space="preserve">8.90250015258789</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">9.32642841339111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79274940490723</t>
+    <t xml:space="preserve">9.79275035858154</t>
   </si>
   <si>
     <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6146993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49600028991699</t>
+    <t xml:space="preserve">9.61470031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599838256836</t>
   </si>
   <si>
     <t xml:space="preserve">9.41121387481689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36882019042969</t>
+    <t xml:space="preserve">9.368821144104</t>
   </si>
   <si>
     <t xml:space="preserve">9.23316383361816</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">9.07207107543945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30099296569824</t>
+    <t xml:space="preserve">9.30099201202393</t>
   </si>
   <si>
     <t xml:space="preserve">9.28403472900391</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12294292449951</t>
+    <t xml:space="preserve">9.1229419708252</t>
   </si>
   <si>
     <t xml:space="preserve">9.53839206695557</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1653356552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837741851807</t>
+    <t xml:space="preserve">9.16533470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837837219238</t>
   </si>
   <si>
     <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9618501663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402103424072</t>
+    <t xml:space="preserve">8.96184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
   </si>
   <si>
     <t xml:space="preserve">8.91097831726074</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">8.7753210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.860107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17381286621094</t>
+    <t xml:space="preserve">8.86010646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
     <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41969203948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38577747344971</t>
+    <t xml:space="preserve">9.41969299316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38577842712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.58078575134277</t>
@@ -743,22 +743,22 @@
     <t xml:space="preserve">9.44512844085693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64861488342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62317752838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59774208068848</t>
+    <t xml:space="preserve">9.64861392974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62317848205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59774112701416</t>
   </si>
   <si>
     <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3014631271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4032068252563</t>
+    <t xml:space="preserve">10.3014640808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.403205871582</t>
   </si>
   <si>
     <t xml:space="preserve">10.3184204101562</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0725431442261</t>
+    <t xml:space="preserve">10.0725412368774</t>
   </si>
   <si>
     <t xml:space="preserve">10.004714012146</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">9.92840671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2336349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625558853149</t>
+    <t xml:space="preserve">10.2336339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625568389893</t>
   </si>
   <si>
     <t xml:space="preserve">10.369291305542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4795141220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1742849349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4371213912964</t>
+    <t xml:space="preserve">10.479513168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1742839813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4371204376221</t>
   </si>
   <si>
     <t xml:space="preserve">10.3268995285034</t>
@@ -824,19 +824,19 @@
     <t xml:space="preserve">10.4540777206421</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6999568939209</t>
+    <t xml:space="preserve">10.6999559402466</t>
   </si>
   <si>
     <t xml:space="preserve">10.2081995010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.547342300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7084341049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169141769409</t>
+    <t xml:space="preserve">10.5473413467407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7084350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169132232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797496795654</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917123794556</t>
+    <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
     <t xml:space="preserve">10.9712705612183</t>
@@ -854,19 +854,19 @@
     <t xml:space="preserve">10.6745204925537</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4879913330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5982131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.022141456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3188934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136632919312</t>
+    <t xml:space="preserve">10.4879922866821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5982141494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0221424102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3188915252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136623382568</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
@@ -878,49 +878,49 @@
     <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9543132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238851547241</t>
+    <t xml:space="preserve">10.9543142318726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238842010498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6919498443604</t>
+    <t xml:space="preserve">11.6919479370117</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5732479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5308561325073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1747560501099</t>
+    <t xml:space="preserve">11.5732488632202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5308570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1747579574585</t>
   </si>
   <si>
     <t xml:space="preserve">11.2595415115356</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3951988220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3612842559814</t>
+    <t xml:space="preserve">11.3951978683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3612852096558</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.641077041626</t>
+    <t xml:space="preserve">11.6410779953003</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615198135376</t>
   </si>
   <si>
-    <t xml:space="preserve">11.785213470459</t>
+    <t xml:space="preserve">11.7852115631104</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
@@ -929,37 +929,37 @@
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969425201416</t>
+    <t xml:space="preserve">11.4969415664673</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9204006195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1154069900513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.513427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677850723267</t>
+    <t xml:space="preserve">10.9203987121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1154050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5134267807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.767786026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5388650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964714050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5642995834351</t>
+    <t xml:space="preserve">10.5388631820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964723587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5643005371094</t>
   </si>
   <si>
     <t xml:space="preserve">10.7423486709595</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">10.9458341598511</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8440914154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.640606880188</t>
+    <t xml:space="preserve">10.8440923690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6406059265137</t>
   </si>
   <si>
     <t xml:space="preserve">10.0979776382446</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">10.530385017395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8356142044067</t>
+    <t xml:space="preserve">10.8356132507324</t>
   </si>
   <si>
     <t xml:space="preserve">11.1069278717041</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2764987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834707260132</t>
+    <t xml:space="preserve">11.27649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834688186646</t>
   </si>
   <si>
     <t xml:space="preserve">11.7004280090332</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5647706985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8700008392334</t>
+    <t xml:space="preserve">11.5647716522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699998855591</t>
   </si>
   <si>
     <t xml:space="preserve">11.6665134429932</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0899686813354</t>
+    <t xml:space="preserve">11.0899696350098</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.818657875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7847423553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016996383667</t>
+    <t xml:space="preserve">10.8186559677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.784743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016986846924</t>
   </si>
   <si>
     <t xml:space="preserve">10.9034423828125</t>
@@ -1040,10 +1040,10 @@
     <t xml:space="preserve">10.2421131134033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3777704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151714324951</t>
+    <t xml:space="preserve">10.3777713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151704788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.1912431716919</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">10.2251567840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3438568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1064558029175</t>
+    <t xml:space="preserve">10.3438549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1064577102661</t>
   </si>
   <si>
     <t xml:space="preserve">9.88601303100586</t>
@@ -1064,28 +1064,28 @@
     <t xml:space="preserve">9.69948577880859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5129566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63165664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731395721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73339748382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7164421081543</t>
+    <t xml:space="preserve">9.51295757293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034202575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6316556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731300354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71644306182861</t>
   </si>
   <si>
     <t xml:space="preserve">9.37729930877686</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27555656433105</t>
+    <t xml:space="preserve">9.27555561065674</t>
   </si>
   <si>
     <t xml:space="preserve">9.22468566894531</t>
@@ -1094,13 +1094,13 @@
     <t xml:space="preserve">9.47904205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56382846832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68252849578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81818389892578</t>
+    <t xml:space="preserve">9.56382751464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68252754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234130859375</t>
@@ -1112,25 +1112,25 @@
     <t xml:space="preserve">10.2760286331177</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75035572052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0216693878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39425659179688</t>
+    <t xml:space="preserve">9.75035667419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0216703414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39425563812256</t>
   </si>
   <si>
     <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19077014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02120018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66557025909424</t>
+    <t xml:space="preserve">9.19077110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02119922637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66556930541992</t>
   </si>
   <si>
     <t xml:space="preserve">9.08902740478516</t>
@@ -1139,22 +1139,22 @@
     <t xml:space="preserve">8.74988460540771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51248455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49552822113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42769813537598</t>
+    <t xml:space="preserve">8.51248550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49552917480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42769908905029</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92746353149414</t>
+    <t xml:space="preserve">8.05464172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746448516846</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
@@ -1172,19 +1172,19 @@
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85162734985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78379821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64814281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76684188842773</t>
+    <t xml:space="preserve">8.8516263961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597003936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78379917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64814186096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76684284210205</t>
   </si>
   <si>
     <t xml:space="preserve">8.63118553161621</t>
@@ -1196,52 +1196,52 @@
     <t xml:space="preserve">8.52944278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41921997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33443450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39378547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34291458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24117088317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95289945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245573043823</t>
+    <t xml:space="preserve">8.41922092437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33443546295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39378452301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34291362762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24117183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95289993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245716094971</t>
   </si>
   <si>
     <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51201295852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852746963501</t>
+    <t xml:space="preserve">7.51201343536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852794647217</t>
   </si>
   <si>
     <t xml:space="preserve">7.18134927749634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12199926376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96938514709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612009048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33396339416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30004978179932</t>
+    <t xml:space="preserve">7.12199974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96938562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612056732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3339638710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.300048828125</t>
   </si>
   <si>
     <t xml:space="preserve">7.06264925003052</t>
@@ -1253,31 +1253,31 @@
     <t xml:space="preserve">6.99482107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09656429290771</t>
+    <t xml:space="preserve">7.0965633392334</t>
   </si>
   <si>
     <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39331340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028486251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69006395339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19029998779297</t>
+    <t xml:space="preserve">7.39331388473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635564804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028581619263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6900634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19029903411865</t>
   </si>
   <si>
     <t xml:space="preserve">8.11399173736572</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">7.85115718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78332901000977</t>
+    <t xml:space="preserve">7.78332757949829</t>
   </si>
   <si>
     <t xml:space="preserve">7.35092115402222</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24917793273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244203567505</t>
+    <t xml:space="preserve">7.24917840957642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244251251221</t>
   </si>
   <si>
     <t xml:space="preserve">6.92699241638184</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57089281082153</t>
+    <t xml:space="preserve">6.57089233398438</t>
   </si>
   <si>
     <t xml:space="preserve">6.49458503723145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30805635452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27414226531982</t>
+    <t xml:space="preserve">6.30805683135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27414274215698</t>
   </si>
   <si>
     <t xml:space="preserve">6.24022817611694</t>
@@ -1337,22 +1337,22 @@
     <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51154279708862</t>
+    <t xml:space="preserve">6.51154232025146</t>
   </si>
   <si>
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764240264893</t>
+    <t xml:space="preserve">6.86764287948608</t>
   </si>
   <si>
     <t xml:space="preserve">7.24069929122925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85916376113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72350692749023</t>
+    <t xml:space="preserve">6.85916423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">6.68111419677734</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263555526733</t>
+    <t xml:space="preserve">6.67263507843018</t>
   </si>
   <si>
     <t xml:space="preserve">6.62176370620728</t>
@@ -1379,25 +1379,25 @@
     <t xml:space="preserve">6.32501411437988</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44371318817139</t>
+    <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
     <t xml:space="preserve">6.52849960327148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38436365127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34197044372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59632778167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57937145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74894285202026</t>
+    <t xml:space="preserve">6.38436412811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3419713973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59632873535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57937097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74894237518311</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459968566895</t>
@@ -1406,19 +1406,19 @@
     <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29157018661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13047790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0372142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05417108535767</t>
+    <t xml:space="preserve">7.29157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1304783821106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03721380233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05417156219482</t>
   </si>
   <si>
     <t xml:space="preserve">6.96090650558472</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">6.7404637336731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46915006637573</t>
+    <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
     <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45219230651855</t>
+    <t xml:space="preserve">6.45219278335571</t>
   </si>
   <si>
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174905776978</t>
+    <t xml:space="preserve">6.23174858093262</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">5.96891403198242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.155442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40132141113281</t>
+    <t xml:space="preserve">6.15544271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40132093429565</t>
   </si>
   <si>
     <t xml:space="preserve">6.58120107650757</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">6.40640115737915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3976616859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42388105392456</t>
+    <t xml:space="preserve">6.39766120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4238805770874</t>
   </si>
   <si>
     <t xml:space="preserve">6.24908208847046</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">6.0830225944519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12672233581543</t>
+    <t xml:space="preserve">6.12672185897827</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522151947021</t>
+    <t xml:space="preserve">6.34522199630737</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20538187026978</t>
+    <t xml:space="preserve">6.20538139343262</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
@@ -1514,19 +1514,19 @@
     <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37144136428833</t>
+    <t xml:space="preserve">6.25782155990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37144088745117</t>
   </si>
   <si>
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31900119781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514110565186</t>
+    <t xml:space="preserve">6.3190016746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514158248901</t>
   </si>
   <si>
     <t xml:space="preserve">6.32774114608765</t>
@@ -1535,25 +1535,25 @@
     <t xml:space="preserve">6.27530145645142</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11798238754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1092414855957</t>
+    <t xml:space="preserve">6.11798191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10924196243286</t>
   </si>
   <si>
     <t xml:space="preserve">6.19664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23160219192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03058242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97814273834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688220977783</t>
+    <t xml:space="preserve">6.23160171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03058195114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97814226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688268661499</t>
   </si>
   <si>
     <t xml:space="preserve">5.9956226348877</t>
@@ -1562,28 +1562,28 @@
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050201416016</t>
+    <t xml:space="preserve">6.10050249099731</t>
   </si>
   <si>
     <t xml:space="preserve">6.02184200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96940279006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01310253143311</t>
+    <t xml:space="preserve">5.96940183639526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01310300827026</t>
   </si>
   <si>
     <t xml:space="preserve">6.17916202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03932237625122</t>
+    <t xml:space="preserve">6.03932189941406</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428216934204</t>
+    <t xml:space="preserve">6.07428169250488</t>
   </si>
   <si>
     <t xml:space="preserve">6.15294218063354</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">6.06554222106934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31026172637939</t>
+    <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
     <t xml:space="preserve">6.1704216003418</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">5.8557825088501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91696214675903</t>
+    <t xml:space="preserve">5.91696310043335</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066236495972</t>
+    <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
     <t xml:space="preserve">5.94318246841431</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624080657959</t>
+    <t xml:space="preserve">6.54624032974243</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6423807144165</t>
+    <t xml:space="preserve">6.64238023757935</t>
   </si>
   <si>
     <t xml:space="preserve">6.70356035232544</t>
@@ -1664,25 +1664,25 @@
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27165842056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897891998291</t>
+    <t xml:space="preserve">7.2716588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897796630859</t>
   </si>
   <si>
     <t xml:space="preserve">7.5862979888916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38527822494507</t>
+    <t xml:space="preserve">7.38527774810791</t>
   </si>
   <si>
     <t xml:space="preserve">7.56007766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55133867263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60377788543701</t>
+    <t xml:space="preserve">7.55133819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60377740859985</t>
   </si>
   <si>
     <t xml:space="preserve">7.49015760421753</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54259729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51637887954712</t>
+    <t xml:space="preserve">7.62999677658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54259824752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51637840270996</t>
   </si>
   <si>
     <t xml:space="preserve">7.5775580406189</t>
@@ -1712,34 +1712,34 @@
     <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70865726470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76983737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731679916382</t>
+    <t xml:space="preserve">7.70865678787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76983785629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723638534546</t>
+    <t xml:space="preserve">7.85723686218262</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73487710952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52511787414551</t>
+    <t xml:space="preserve">7.7348780632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52511739730835</t>
   </si>
   <si>
     <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779880523682</t>
+    <t xml:space="preserve">7.36779928207397</t>
   </si>
   <si>
     <t xml:space="preserve">7.18425941467285</t>
@@ -1748,10 +1748,10 @@
     <t xml:space="preserve">7.22795915603638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12307834625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98323965072632</t>
+    <t xml:space="preserve">7.1230788230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1760,22 +1760,22 @@
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49380111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136095046997</t>
+    <t xml:space="preserve">6.4938006401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136142730713</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490034103394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59868049621582</t>
+    <t xml:space="preserve">6.59868097305298</t>
   </si>
   <si>
     <t xml:space="preserve">6.81718015670776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79970073699951</t>
+    <t xml:space="preserve">6.79970026016235</t>
   </si>
   <si>
     <t xml:space="preserve">6.72104024887085</t>
@@ -1784,34 +1784,34 @@
     <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83830261230469</t>
+    <t xml:space="preserve">5.83830308914185</t>
   </si>
   <si>
     <t xml:space="preserve">5.84704303741455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78586339950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374345779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028448104858</t>
+    <t xml:space="preserve">5.78586292266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374393463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028495788574</t>
   </si>
   <si>
     <t xml:space="preserve">4.63218641281128</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64092683792114</t>
+    <t xml:space="preserve">4.64092636108398</t>
   </si>
   <si>
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561727523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45738744735718</t>
+    <t xml:space="preserve">4.36561679840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45738697052002</t>
   </si>
   <si>
     <t xml:space="preserve">4.16459798812866</t>
@@ -1820,79 +1820,79 @@
     <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89365839958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995889663696</t>
+    <t xml:space="preserve">3.89365863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995913505554</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877902030945</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85432863235474</t>
+    <t xml:space="preserve">3.85432839393616</t>
   </si>
   <si>
     <t xml:space="preserve">3.90239834785461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89802885055542</t>
+    <t xml:space="preserve">3.89802861213684</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885919570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77566933631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204953193665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574927330017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818943977356</t>
+    <t xml:space="preserve">3.71885943412781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77566909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322964668274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574879646301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164865493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16896772384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30006790161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35250759124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478693008423</t>
+    <t xml:space="preserve">4.01164770126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16896820068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30006742477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3525071144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
     <t xml:space="preserve">4.89438533782959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15658473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422546386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.96430540084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77202606201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84194564819336</t>
+    <t xml:space="preserve">5.15658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422498703003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.96430492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77202558517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84194612503052</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446575164795</t>
@@ -1901,25 +1901,25 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336030960083</t>
+    <t xml:space="preserve">4.71335983276367</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60417079925537</t>
+    <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
     <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80435180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73155879974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615379333496</t>
+    <t xml:space="preserve">4.80435228347778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73155832290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7861533164978</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1928,40 +1928,40 @@
     <t xml:space="preserve">4.87714529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11372327804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73246574401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89624977111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95084476470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85985374450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93264675140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91444826126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82345676422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06003475189209</t>
+    <t xml:space="preserve">5.1137228012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7324652671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89625024795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80525827407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95084428787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85985326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93264627456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91444873809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82345628738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
     <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62327575683594</t>
+    <t xml:space="preserve">5.62327480316162</t>
   </si>
   <si>
     <t xml:space="preserve">5.55048227310181</t>
@@ -1973,19 +1973,19 @@
     <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38669729232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35030126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47768926620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51408529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64147329330444</t>
+    <t xml:space="preserve">5.38669776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35030078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47768878936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51408576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6414737701416</t>
   </si>
   <si>
     <t xml:space="preserve">5.45949077606201</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1683177947998</t>
+    <t xml:space="preserve">5.16831731796265</t>
   </si>
   <si>
     <t xml:space="preserve">5.09552478790283</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651580810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36849975585938</t>
+    <t xml:space="preserve">5.18651628494263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36849880218506</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2018,37 +2018,37 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2593092918396</t>
+    <t xml:space="preserve">5.25930976867676</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29570627212524</t>
+    <t xml:space="preserve">5.29570579528809</t>
   </si>
   <si>
     <t xml:space="preserve">5.15011930465698</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00453329086304</t>
+    <t xml:space="preserve">5.00453281402588</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05912780761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633527755737</t>
+    <t xml:space="preserve">5.05912828445435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633480072021</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49588775634766</t>
+    <t xml:space="preserve">5.04092931747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49588680267334</t>
   </si>
   <si>
     <t xml:space="preserve">5.22291278839111</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">4.31299734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33119630813599</t>
+    <t xml:space="preserve">4.33119583129883</t>
   </si>
   <si>
     <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24111175537109</t>
+    <t xml:space="preserve">5.24111080169678</t>
   </si>
   <si>
     <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60507726669312</t>
+    <t xml:space="preserve">5.60507678985596</t>
   </si>
   <si>
     <t xml:space="preserve">5.8780517578125</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">5.78706026077271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02363777160645</t>
+    <t xml:space="preserve">6.0236382484436</t>
   </si>
   <si>
     <t xml:space="preserve">6.09643125534058</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841424942017</t>
+    <t xml:space="preserve">6.27841377258301</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18742322921753</t>
+    <t xml:space="preserve">6.18742275238037</t>
   </si>
   <si>
     <t xml:space="preserve">6.33300924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36940574645996</t>
+    <t xml:space="preserve">6.36940622329712</t>
   </si>
   <si>
     <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60598373413086</t>
+    <t xml:space="preserve">6.60598421096802</t>
   </si>
   <si>
     <t xml:space="preserve">6.42400074005127</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">6.80616521835327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71517324447632</t>
+    <t xml:space="preserve">6.76976823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71517372131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89715671539307</t>
+    <t xml:space="preserve">6.89715623855591</t>
   </si>
   <si>
     <t xml:space="preserve">6.8425612449646</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18832969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02454471588135</t>
+    <t xml:space="preserve">7.18832921981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02454423904419</t>
   </si>
   <si>
     <t xml:space="preserve">7.00634622573853</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27932071685791</t>
+    <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
     <t xml:space="preserve">7.29751968383789</t>
@@ -2219,25 +2219,25 @@
     <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15193271636963</t>
+    <t xml:space="preserve">7.15193319320679</t>
   </si>
   <si>
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851118087769</t>
+    <t xml:space="preserve">7.38851070404053</t>
   </si>
   <si>
     <t xml:space="preserve">7.91626119613647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02545166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13464069366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09824466705322</t>
+    <t xml:space="preserve">8.02545070648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13464164733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09824371337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
@@ -2249,40 +2249,40 @@
     <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82527112960815</t>
+    <t xml:space="preserve">7.825270652771</t>
   </si>
   <si>
     <t xml:space="preserve">7.87986469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725364685059</t>
+    <t xml:space="preserve">8.04364967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725269317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202964782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18923664093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75247764587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86166667938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78887414932251</t>
+    <t xml:space="preserve">8.26202869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18923568725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75247716903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86166715621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78887319564819</t>
   </si>
   <si>
     <t xml:space="preserve">7.93446016311646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95265817642212</t>
+    <t xml:space="preserve">7.9526572227478</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59714,7 +59714,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6495949074</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>11620</v>
@@ -59735,6 +59735,32 @@
         <v>1064</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493518519</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>13303</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>16.3999996185303</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05369997024536</t>
+    <t xml:space="preserve">6.0536994934082</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06217813491821</t>
+    <t xml:space="preserve">6.06217861175537</t>
   </si>
   <si>
     <t xml:space="preserve">6.22327136993408</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696359634399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783544540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97739219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05793905258179</t>
+    <t xml:space="preserve">6.14696455001831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783496856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97739267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05793857574463</t>
   </si>
   <si>
     <t xml:space="preserve">6.17239952087402</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">6.35892820358276</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3504490852356</t>
+    <t xml:space="preserve">6.35044956207275</t>
   </si>
   <si>
     <t xml:space="preserve">6.21055316925049</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152814865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90956354141235</t>
+    <t xml:space="preserve">6.12152767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90956401824951</t>
   </si>
   <si>
     <t xml:space="preserve">5.86293172836304</t>
@@ -104,88 +104,88 @@
     <t xml:space="preserve">5.85445356369019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8502140045166</t>
+    <t xml:space="preserve">5.85021352767944</t>
   </si>
   <si>
     <t xml:space="preserve">5.65096712112427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68064260482788</t>
+    <t xml:space="preserve">5.68064212799072</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59585666656494</t>
+    <t xml:space="preserve">5.5958571434021</t>
   </si>
   <si>
     <t xml:space="preserve">5.91804265975952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93499994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04946041107178</t>
+    <t xml:space="preserve">5.93499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946088790894</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260578155518</t>
+    <t xml:space="preserve">5.89260625839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978540420532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01554584503174</t>
+    <t xml:space="preserve">6.0155463218689</t>
   </si>
   <si>
     <t xml:space="preserve">6.0028281211853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12576770782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85869216918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62977075576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9010853767395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228221893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477807998657</t>
+    <t xml:space="preserve">6.12576723098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85869264602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62977123260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90108585357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228174209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477760314941</t>
   </si>
   <si>
     <t xml:space="preserve">5.89684581756592</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83325672149658</t>
+    <t xml:space="preserve">5.83325719833374</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086351394653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03674173355103</t>
+    <t xml:space="preserve">6.03674221038818</t>
   </si>
   <si>
     <t xml:space="preserve">6.24446725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31653499603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22751045227051</t>
+    <t xml:space="preserve">6.31653451919556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22750997543335</t>
   </si>
   <si>
     <t xml:space="preserve">6.11304998397827</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00706768035889</t>
+    <t xml:space="preserve">6.00706815719604</t>
   </si>
   <si>
     <t xml:space="preserve">5.88836765289307</t>
@@ -194,13 +194,13 @@
     <t xml:space="preserve">5.98587083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88412857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87988901138306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98163175582886</t>
+    <t xml:space="preserve">5.88412761688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8798885345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9816312789917</t>
   </si>
   <si>
     <t xml:space="preserve">5.87141036987305</t>
@@ -218,16 +218,16 @@
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173440933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390623092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76118898391724</t>
+    <t xml:space="preserve">5.95619583129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173488616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390670776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76118946075439</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782079696655</t>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">5.82901763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9307599067688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09609222412109</t>
+    <t xml:space="preserve">5.93076038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
     <t xml:space="preserve">5.99858856201172</t>
@@ -248,19 +248,19 @@
     <t xml:space="preserve">6.28262090682983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13000679016113</t>
+    <t xml:space="preserve">6.13000631332397</t>
   </si>
   <si>
     <t xml:space="preserve">6.18511724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04522085189819</t>
+    <t xml:space="preserve">6.04522132873535</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07489585876465</t>
+    <t xml:space="preserve">6.07489633560181</t>
   </si>
   <si>
     <t xml:space="preserve">6.10033178329468</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761310577393</t>
+    <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
     <t xml:space="preserve">5.99010992050171</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999261856079</t>
+    <t xml:space="preserve">5.73999214172363</t>
   </si>
   <si>
     <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75694942474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510259628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66792488098145</t>
+    <t xml:space="preserve">5.75694990158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66792440414429</t>
   </si>
   <si>
     <t xml:space="preserve">5.63824987411499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65944576263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60433530807495</t>
+    <t xml:space="preserve">5.65944623947144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60433483123779</t>
   </si>
   <si>
     <t xml:space="preserve">5.72303533554077</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">5.49835348129272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57889986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737897872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313941955566</t>
+    <t xml:space="preserve">5.57889938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313894271851</t>
   </si>
   <si>
     <t xml:space="preserve">5.5746603012085</t>
@@ -329,28 +329,28 @@
     <t xml:space="preserve">5.50683116912842</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4093279838562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25247430801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24823617935181</t>
+    <t xml:space="preserve">5.40932846069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25247478485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24823522567749</t>
   </si>
   <si>
     <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3796534538269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51107120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06594562530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18888568878174</t>
+    <t xml:space="preserve">5.37965393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.511070728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06594657897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18888521194458</t>
   </si>
   <si>
     <t xml:space="preserve">5.1040997505188</t>
@@ -359,46 +359,46 @@
     <t xml:space="preserve">4.87093830108643</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9006142616272</t>
+    <t xml:space="preserve">4.90061378479004</t>
   </si>
   <si>
     <t xml:space="preserve">4.80735015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83278465270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66321420669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53603553771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52331781387329</t>
+    <t xml:space="preserve">4.83278512954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6632137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53603506088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52331733703613</t>
   </si>
   <si>
     <t xml:space="preserve">4.46396732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47244596481323</t>
+    <t xml:space="preserve">4.47244691848755</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506055831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73952102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74799919128418</t>
+    <t xml:space="preserve">4.62506008148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73952054977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74799966812134</t>
   </si>
   <si>
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04475021362305</t>
+    <t xml:space="preserve">5.04474973678589</t>
   </si>
   <si>
     <t xml:space="preserve">5.08714199066162</t>
@@ -410,10 +410,10 @@
     <t xml:space="preserve">5.31182432174683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33726024627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36693525314331</t>
+    <t xml:space="preserve">5.33726072311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36693477630615</t>
   </si>
   <si>
     <t xml:space="preserve">5.46867847442627</t>
@@ -425,10 +425,10 @@
     <t xml:space="preserve">5.26095294952393</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18040704727173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20584201812744</t>
+    <t xml:space="preserve">5.18040657043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
     <t xml:space="preserve">5.28215026855469</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692108154297</t>
+    <t xml:space="preserve">4.97692060470581</t>
   </si>
   <si>
     <t xml:space="preserve">5.16344976425171</t>
@@ -458,25 +458,25 @@
     <t xml:space="preserve">5.21008205413818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1719274520874</t>
+    <t xml:space="preserve">5.17192792892456</t>
   </si>
   <si>
     <t xml:space="preserve">5.25671339035034</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34149980545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334568023682</t>
+    <t xml:space="preserve">5.3415002822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334615707397</t>
   </si>
   <si>
     <t xml:space="preserve">5.40084934234619</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54922485351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56618213653564</t>
+    <t xml:space="preserve">5.54922437667847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56618165969849</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
@@ -485,16 +485,16 @@
     <t xml:space="preserve">5.59161710739136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55770254135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67216396331787</t>
+    <t xml:space="preserve">5.55770301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67216444015503</t>
   </si>
   <si>
     <t xml:space="preserve">5.5237889289856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44748163223267</t>
+    <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
     <t xml:space="preserve">5.44324254989624</t>
@@ -509,19 +509,19 @@
     <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488216400146</t>
+    <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
     <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92652082443237</t>
+    <t xml:space="preserve">5.92652034759521</t>
   </si>
   <si>
     <t xml:space="preserve">6.48610687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60056686401367</t>
+    <t xml:space="preserve">6.60056734085083</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526432037354</t>
+    <t xml:space="preserve">7.21526479721069</t>
   </si>
   <si>
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352109909058</t>
+    <t xml:space="preserve">7.11352062225342</t>
   </si>
   <si>
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678472518921</t>
+    <t xml:space="preserve">7.20678520202637</t>
   </si>
   <si>
     <t xml:space="preserve">7.5077748298645</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58832025527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54592800140381</t>
+    <t xml:space="preserve">7.61799669265747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58831977844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54592847824097</t>
   </si>
   <si>
     <t xml:space="preserve">7.64767122268677</t>
@@ -575,112 +575,112 @@
     <t xml:space="preserve">7.46114253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52049255371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440664291382</t>
+    <t xml:space="preserve">7.52049207687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266389846802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440616607666</t>
   </si>
   <si>
     <t xml:space="preserve">7.73669576644897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91898488998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00377082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96985626220703</t>
+    <t xml:space="preserve">7.91898441314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00376987457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96985530853271</t>
   </si>
   <si>
     <t xml:space="preserve">8.03768539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561717987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931131362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148170471191</t>
+    <t xml:space="preserve">7.96561813354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931035995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148218154907</t>
   </si>
   <si>
     <t xml:space="preserve">7.93594217300415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02496719360352</t>
+    <t xml:space="preserve">8.02496814727783</t>
   </si>
   <si>
     <t xml:space="preserve">8.30052185058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36834907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41074275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2835636138916</t>
+    <t xml:space="preserve">8.3683500289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41074180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28356456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83467102050781</t>
+    <t xml:space="preserve">8.91945552825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8346700668335</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90250015258789</t>
+    <t xml:space="preserve">8.90249919891357</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32642841339111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79275035858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83514213562012</t>
+    <t xml:space="preserve">9.3264274597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79274940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83514308929443</t>
   </si>
   <si>
     <t xml:space="preserve">9.61470031738281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49599838256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41121387481689</t>
+    <t xml:space="preserve">9.49599933624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41121292114258</t>
   </si>
   <si>
     <t xml:space="preserve">9.368821144104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316383361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07207107543945</t>
+    <t xml:space="preserve">9.23316478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07207012176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.30099201202393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446380615234</t>
+    <t xml:space="preserve">9.28403568267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446285247803</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16533470153809</t>
+    <t xml:space="preserve">9.1653356552124</t>
   </si>
   <si>
     <t xml:space="preserve">9.14837837219238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05511379241943</t>
+    <t xml:space="preserve">9.05511474609375</t>
   </si>
   <si>
     <t xml:space="preserve">8.96184921264648</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">8.7753210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86010646820068</t>
+    <t xml:space="preserve">8.860107421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.17381381988525</t>
@@ -734,10 +734,10 @@
     <t xml:space="preserve">9.41969299316406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38577842712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58078575134277</t>
+    <t xml:space="preserve">9.38577747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58078479766846</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
@@ -746,31 +746,31 @@
     <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62317848205566</t>
+    <t xml:space="preserve">9.62317752838135</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9199275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3014640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.403205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184204101562</t>
+    <t xml:space="preserve">9.91992855072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3014631271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4032068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184194564819</t>
   </si>
   <si>
     <t xml:space="preserve">10.4286422729492</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2590713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0725412368774</t>
+    <t xml:space="preserve">10.2590703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0725421905518</t>
   </si>
   <si>
     <t xml:space="preserve">10.004714012146</t>
@@ -785,10 +785,10 @@
     <t xml:space="preserve">10.4625568389893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.479513168335</t>
+    <t xml:space="preserve">10.3692922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4795141220093</t>
   </si>
   <si>
     <t xml:space="preserve">10.1742839813232</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288778305054</t>
+    <t xml:space="preserve">10.9288768768311</t>
   </si>
   <si>
     <t xml:space="preserve">11.005184173584</t>
@@ -815,16 +815,16 @@
     <t xml:space="preserve">10.8525714874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6829996109009</t>
+    <t xml:space="preserve">10.6830005645752</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4540777206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999559402466</t>
+    <t xml:space="preserve">10.4540767669678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
     <t xml:space="preserve">10.2081995010376</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169132232666</t>
+    <t xml:space="preserve">10.7169141769409</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797496795654</t>
@@ -845,49 +845,49 @@
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917133331299</t>
+    <t xml:space="preserve">11.1917142868042</t>
   </si>
   <si>
     <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6745204925537</t>
+    <t xml:space="preserve">10.674521446228</t>
   </si>
   <si>
     <t xml:space="preserve">10.4879922866821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5982141494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0221424102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3188915252686</t>
+    <t xml:space="preserve">10.5982131958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.022141456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3188924789429</t>
   </si>
   <si>
     <t xml:space="preserve">11.0136623382568</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7338705062866</t>
+    <t xml:space="preserve">10.7338695526123</t>
   </si>
   <si>
     <t xml:space="preserve">10.9373569488525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9543142318726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1238842010498</t>
+    <t xml:space="preserve">10.7253904342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9543132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1238851547241</t>
   </si>
   <si>
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6919479370117</t>
+    <t xml:space="preserve">11.691948890686</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747579574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2595415115356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3951978683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3612852096558</t>
+    <t xml:space="preserve">11.1747570037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25954246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3951988220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3612842559814</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6410779953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615198135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7852115631104</t>
+    <t xml:space="preserve">11.641077041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615207672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7852125167847</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969415664673</t>
+    <t xml:space="preserve">11.4969425201416</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156415939331</t>
@@ -938,25 +938,25 @@
     <t xml:space="preserve">10.9203987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1154050827026</t>
+    <t xml:space="preserve">11.115406036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.5134267807007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767786026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5388631820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964723587036</t>
+    <t xml:space="preserve">10.3353776931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677850723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558214187622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5388641357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.496470451355</t>
   </si>
   <si>
     <t xml:space="preserve">10.5643005371094</t>
@@ -980,43 +980,43 @@
     <t xml:space="preserve">10.530385017395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8356132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069278717041</t>
+    <t xml:space="preserve">10.8356122970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069288253784</t>
   </si>
   <si>
     <t xml:space="preserve">11.4291133880615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2086706161499</t>
+    <t xml:space="preserve">11.2086696624756</t>
   </si>
   <si>
     <t xml:space="preserve">11.27649974823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6834688186646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782415390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5138988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5647716522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899696350098</t>
+    <t xml:space="preserve">11.6834697723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004270553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782424926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5138998031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5647706985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899705886841</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186559677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.784743309021</t>
+    <t xml:space="preserve">10.8186569213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7847423553467</t>
   </si>
   <si>
     <t xml:space="preserve">10.8016986846924</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">10.9034423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2421131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777713775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151704788208</t>
+    <t xml:space="preserve">10.2421140670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151714324951</t>
   </si>
   <si>
     <t xml:space="preserve">10.1912431716919</t>
@@ -1052,13 +1052,13 @@
     <t xml:space="preserve">10.2251567840576</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3438549041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1064577102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601303100586</t>
+    <t xml:space="preserve">10.3438558578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1064558029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601207733154</t>
   </si>
   <si>
     <t xml:space="preserve">9.69948577880859</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">9.36034202575684</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6316556930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76731300354004</t>
+    <t xml:space="preserve">9.63165664672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76731395721436</t>
   </si>
   <si>
     <t xml:space="preserve">9.7333984375</t>
@@ -1082,16 +1082,16 @@
     <t xml:space="preserve">9.71644306182861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37729930877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27555561065674</t>
+    <t xml:space="preserve">9.37730026245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27555656433105</t>
   </si>
   <si>
     <t xml:space="preserve">9.22468566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47904205322266</t>
+    <t xml:space="preserve">9.47904109954834</t>
   </si>
   <si>
     <t xml:space="preserve">9.56382751464844</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1234130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929859161377</t>
+    <t xml:space="preserve">10.1234140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929849624634</t>
   </si>
   <si>
     <t xml:space="preserve">10.2760286331177</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19077110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02119922637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66556930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08902740478516</t>
+    <t xml:space="preserve">9.19077014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02120018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66557025909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08902835845947</t>
   </si>
   <si>
     <t xml:space="preserve">8.74988460540771</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">8.51248550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552917480469</t>
+    <t xml:space="preserve">8.49552822113037</t>
   </si>
   <si>
     <t xml:space="preserve">8.42769908905029</t>
@@ -1154,16 +1154,16 @@
     <t xml:space="preserve">8.05464172363281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92746448516846</t>
+    <t xml:space="preserve">7.92746353149414</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37682914733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56335639953613</t>
+    <t xml:space="preserve">8.37682819366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56335735321045</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
@@ -1172,22 +1172,22 @@
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8516263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78379917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64814186096191</t>
+    <t xml:space="preserve">8.85162734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78379821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64814281463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.76684284210205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118553161621</t>
+    <t xml:space="preserve">8.63118457794189</t>
   </si>
   <si>
     <t xml:space="preserve">8.47857093811035</t>
@@ -1199,10 +1199,10 @@
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443546295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39378452301025</t>
+    <t xml:space="preserve">8.33443450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39378547668457</t>
   </si>
   <si>
     <t xml:space="preserve">8.34291362762451</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">8.24117183685303</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289993286133</t>
+    <t xml:space="preserve">7.95290040969849</t>
   </si>
   <si>
     <t xml:space="preserve">7.73245716094971</t>
@@ -1220,22 +1220,22 @@
     <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51201343536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852794647217</t>
+    <t xml:space="preserve">7.51201438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852842330933</t>
   </si>
   <si>
     <t xml:space="preserve">7.18134927749634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12199974060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96938562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612056732178</t>
+    <t xml:space="preserve">7.12199926376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96938514709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612009048462</t>
   </si>
   <si>
     <t xml:space="preserve">7.3339638710022</t>
@@ -1244,16 +1244,16 @@
     <t xml:space="preserve">7.300048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06264925003052</t>
+    <t xml:space="preserve">7.06264972686768</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177835464478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99482107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0965633392334</t>
+    <t xml:space="preserve">6.9948205947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09656381607056</t>
   </si>
   <si>
     <t xml:space="preserve">7.13895702362061</t>
@@ -1265,28 +1265,28 @@
     <t xml:space="preserve">7.36787748336792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37635564804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028581619263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6900634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19029903411865</t>
+    <t xml:space="preserve">7.37635660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69006490707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19029998779297</t>
   </si>
   <si>
     <t xml:space="preserve">8.11399173736572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85115718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78332757949829</t>
+    <t xml:space="preserve">7.85115623474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78332805633545</t>
   </si>
   <si>
     <t xml:space="preserve">7.35092115402222</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24917840957642</t>
+    <t xml:space="preserve">7.24917888641357</t>
   </si>
   <si>
     <t xml:space="preserve">7.34244251251221</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">6.82524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57089233398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49458503723145</t>
+    <t xml:space="preserve">6.57089281082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4945855140686</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414274215698</t>
+    <t xml:space="preserve">6.27414226531982</t>
   </si>
   <si>
     <t xml:space="preserve">6.24022817611694</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.935471534729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63024234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52002096176147</t>
+    <t xml:space="preserve">6.93547105789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63024282455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52002048492432</t>
   </si>
   <si>
     <t xml:space="preserve">6.33349227905273</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">6.51154232025146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41827821731567</t>
+    <t xml:space="preserve">6.41827774047852</t>
   </si>
   <si>
     <t xml:space="preserve">6.86764287948608</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24069929122925</t>
+    <t xml:space="preserve">7.24069976806641</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916423797607</t>
@@ -1358,25 +1358,25 @@
     <t xml:space="preserve">6.6471996307373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68111419677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67263507843018</t>
+    <t xml:space="preserve">6.68111371994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67263555526733</t>
   </si>
   <si>
     <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56241369247437</t>
+    <t xml:space="preserve">6.56241321563721</t>
   </si>
   <si>
     <t xml:space="preserve">6.37588500976562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26566362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32501411437988</t>
+    <t xml:space="preserve">6.26566410064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32501363754272</t>
   </si>
   <si>
     <t xml:space="preserve">6.44371366500854</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3419713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59632873535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57937097549438</t>
+    <t xml:space="preserve">6.34197092056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5963282585144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
     <t xml:space="preserve">6.74894237518311</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830656051636</t>
+    <t xml:space="preserve">7.1983060836792</t>
   </si>
   <si>
     <t xml:space="preserve">7.29157066345215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15591335296631</t>
+    <t xml:space="preserve">7.15591287612915</t>
   </si>
   <si>
     <t xml:space="preserve">7.1304783821106</t>
@@ -1418,34 +1418,34 @@
     <t xml:space="preserve">7.03721380233765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05417156219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090650558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79133558273315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7404637336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46914958953857</t>
+    <t xml:space="preserve">7.05417108535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090698242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.791335105896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74046421051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46915006637573</t>
   </si>
   <si>
     <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45219278335571</t>
+    <t xml:space="preserve">6.45219230651855</t>
   </si>
   <si>
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174858093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02826404571533</t>
+    <t xml:space="preserve">6.23174905776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02826356887817</t>
   </si>
   <si>
     <t xml:space="preserve">6.01130676269531</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">6.15544271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18087768554688</t>
+    <t xml:space="preserve">6.18087816238403</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132093429565</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">6.58120107650757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40640115737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39766120910645</t>
+    <t xml:space="preserve">6.40640068054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3976616859436</t>
   </si>
   <si>
     <t xml:space="preserve">6.4238805770874</t>
@@ -1481,13 +1481,13 @@
     <t xml:space="preserve">6.0830225944519</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12672185897827</t>
+    <t xml:space="preserve">6.12672233581543</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38018131256104</t>
+    <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
     <t xml:space="preserve">6.35396146774292</t>
@@ -1499,13 +1499,13 @@
     <t xml:space="preserve">6.33648157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28404140472412</t>
+    <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
     <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20538139343262</t>
+    <t xml:space="preserve">6.20538187026978</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782155990601</t>
+    <t xml:space="preserve">6.25782108306885</t>
   </si>
   <si>
     <t xml:space="preserve">6.37144088745117</t>
@@ -1523,10 +1523,10 @@
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3190016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514158248901</t>
+    <t xml:space="preserve">6.31900119781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514110565186</t>
   </si>
   <si>
     <t xml:space="preserve">6.32774114608765</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">6.11798191070557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10924196243286</t>
+    <t xml:space="preserve">6.1092414855957</t>
   </si>
   <si>
     <t xml:space="preserve">6.19664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23160171508789</t>
+    <t xml:space="preserve">6.23160219192505</t>
   </si>
   <si>
     <t xml:space="preserve">6.03058195114136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97814226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688268661499</t>
+    <t xml:space="preserve">5.97814273834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688220977783</t>
   </si>
   <si>
     <t xml:space="preserve">5.9956226348877</t>
@@ -1562,34 +1562,34 @@
     <t xml:space="preserve">6.14420223236084</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10050249099731</t>
+    <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
     <t xml:space="preserve">6.02184200286865</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96940183639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01310300827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17916202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03932189941406</t>
+    <t xml:space="preserve">5.96940231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01310253143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1791615486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03932285308838</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428169250488</t>
+    <t xml:space="preserve">6.07428216934204</t>
   </si>
   <si>
     <t xml:space="preserve">6.15294218063354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06554222106934</t>
+    <t xml:space="preserve">6.06554174423218</t>
   </si>
   <si>
     <t xml:space="preserve">6.31026124954224</t>
@@ -1601,16 +1601,16 @@
     <t xml:space="preserve">5.8557825088501</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91696310043335</t>
+    <t xml:space="preserve">5.91696214675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94318246841431</t>
+    <t xml:space="preserve">5.96066236495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94318294525146</t>
   </si>
   <si>
     <t xml:space="preserve">5.93444299697876</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624032974243</t>
+    <t xml:space="preserve">6.54624080657959</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">6.53750085830688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46758127212524</t>
+    <t xml:space="preserve">6.46758079528809</t>
   </si>
   <si>
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64238023757935</t>
+    <t xml:space="preserve">6.6423807144165</t>
   </si>
   <si>
     <t xml:space="preserve">6.70356035232544</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86087989807129</t>
+    <t xml:space="preserve">6.86087942123413</t>
   </si>
   <si>
     <t xml:space="preserve">6.84340000152588</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2716588973999</t>
+    <t xml:space="preserve">7.27165842056274</t>
   </si>
   <si>
     <t xml:space="preserve">7.42897796630859</t>
@@ -1673,13 +1673,13 @@
     <t xml:space="preserve">7.5862979888916</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38527774810791</t>
+    <t xml:space="preserve">7.38527822494507</t>
   </si>
   <si>
     <t xml:space="preserve">7.56007766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55133819580078</t>
+    <t xml:space="preserve">7.55133867263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.60377740859985</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999677658081</t>
+    <t xml:space="preserve">7.62999725341797</t>
   </si>
   <si>
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51637840270996</t>
+    <t xml:space="preserve">7.5163779258728</t>
   </si>
   <si>
     <t xml:space="preserve">7.5775580406189</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">7.70865678787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76983785629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731727600098</t>
+    <t xml:space="preserve">7.76983737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731679916382</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723686218262</t>
+    <t xml:space="preserve">7.85723733901978</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">7.7348780632019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52511739730835</t>
+    <t xml:space="preserve">7.52511692047119</t>
   </si>
   <si>
     <t xml:space="preserve">7.5076379776001</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">7.36779928207397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18425941467285</t>
+    <t xml:space="preserve">7.18425893783569</t>
   </si>
   <si>
     <t xml:space="preserve">7.22795915603638</t>
@@ -1751,31 +1751,31 @@
     <t xml:space="preserve">7.1230788230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98323917388916</t>
+    <t xml:space="preserve">6.98323965072632</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68608045578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4938006401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136142730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62490034103394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59868097305298</t>
+    <t xml:space="preserve">6.68608093261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136095046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62490081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59868049621582</t>
   </si>
   <si>
     <t xml:space="preserve">6.81718015670776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79970026016235</t>
+    <t xml:space="preserve">6.79970073699951</t>
   </si>
   <si>
     <t xml:space="preserve">6.72104024887085</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83830308914185</t>
+    <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
     <t xml:space="preserve">5.84704303741455</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78586292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374393463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028495788574</t>
+    <t xml:space="preserve">5.78586339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374345779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028448104858</t>
   </si>
   <si>
     <t xml:space="preserve">4.63218641281128</t>
@@ -1808,22 +1808,22 @@
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561679840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45738697052002</t>
+    <t xml:space="preserve">4.36561727523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45738744735718</t>
   </si>
   <si>
     <t xml:space="preserve">4.16459798812866</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96357822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995913505554</t>
+    <t xml:space="preserve">3.96357870101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365839958191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995889663696</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877902030945</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">3.90239834785461</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89802861213684</t>
+    <t xml:space="preserve">3.89802837371826</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
@@ -1844,10 +1844,10 @@
     <t xml:space="preserve">3.71885943412781</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77566909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322964668274</t>
+    <t xml:space="preserve">3.77566933631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322940826416</t>
   </si>
   <si>
     <t xml:space="preserve">3.66204929351807</t>
@@ -1856,16 +1856,16 @@
     <t xml:space="preserve">3.70574879646301</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75818920135498</t>
+    <t xml:space="preserve">3.7581889629364</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01164770126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16896820068359</t>
+    <t xml:space="preserve">4.01164817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16896772384644</t>
   </si>
   <si>
     <t xml:space="preserve">4.30006742477417</t>
@@ -1880,46 +1880,46 @@
     <t xml:space="preserve">4.89438533782959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15658521652222</t>
+    <t xml:space="preserve">5.15658473968506</t>
   </si>
   <si>
     <t xml:space="preserve">5.03422498703003</t>
   </si>
   <si>
-    <t xml:space="preserve">4.96430492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77202558517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.84194612503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82446575164795</t>
+    <t xml:space="preserve">4.96430540084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77202606201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.84194564819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82446527481079</t>
   </si>
   <si>
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71335983276367</t>
+    <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60417032241821</t>
+    <t xml:space="preserve">4.60417079925537</t>
   </si>
   <si>
     <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80435228347778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73155832290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7861533164978</t>
+    <t xml:space="preserve">4.80435180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73155879974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615379333496</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1928,40 +1928,40 @@
     <t xml:space="preserve">4.87714529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1137228012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7324652671814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89625024795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80525827407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95084428787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85985326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93264627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91444873809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82345628738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06003427505493</t>
+    <t xml:space="preserve">5.11372327804565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73246574401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89624977111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80525875091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95084476470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85985374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93264675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91444826126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82345676422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06003475189209</t>
   </si>
   <si>
     <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62327480316162</t>
+    <t xml:space="preserve">5.62327575683594</t>
   </si>
   <si>
     <t xml:space="preserve">5.55048227310181</t>
@@ -1973,19 +1973,19 @@
     <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38669776916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35030078887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47768878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51408576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6414737701416</t>
+    <t xml:space="preserve">5.38669729232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35030126571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47768926620483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51408529281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64147329330444</t>
   </si>
   <si>
     <t xml:space="preserve">5.45949077606201</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16831731796265</t>
+    <t xml:space="preserve">5.1683177947998</t>
   </si>
   <si>
     <t xml:space="preserve">5.09552478790283</t>
@@ -2006,10 +2006,10 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651628494263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36849880218506</t>
+    <t xml:space="preserve">5.18651580810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36849975585938</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2018,37 +2018,37 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25930976867676</t>
+    <t xml:space="preserve">5.2593092918396</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29570579528809</t>
+    <t xml:space="preserve">5.29570627212524</t>
   </si>
   <si>
     <t xml:space="preserve">5.15011930465698</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00453281402588</t>
+    <t xml:space="preserve">5.00453329086304</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05912828445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98633480072021</t>
+    <t xml:space="preserve">5.05912780761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98633527755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092931747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49588680267334</t>
+    <t xml:space="preserve">5.04092979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49588775634766</t>
   </si>
   <si>
     <t xml:space="preserve">5.22291278839111</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">4.31299734115601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33119583129883</t>
+    <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
     <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24111080169678</t>
+    <t xml:space="preserve">5.24111175537109</t>
   </si>
   <si>
     <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60507678985596</t>
+    <t xml:space="preserve">5.60507726669312</t>
   </si>
   <si>
     <t xml:space="preserve">5.8780517578125</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">5.78706026077271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0236382484436</t>
+    <t xml:space="preserve">6.02363777160645</t>
   </si>
   <si>
     <t xml:space="preserve">6.09643125534058</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841377258301</t>
+    <t xml:space="preserve">6.27841424942017</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18742275238037</t>
+    <t xml:space="preserve">6.18742322921753</t>
   </si>
   <si>
     <t xml:space="preserve">6.33300924301147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36940622329712</t>
+    <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
     <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60598421096802</t>
+    <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
     <t xml:space="preserve">6.42400074005127</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">6.80616521835327</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71517372131348</t>
+    <t xml:space="preserve">6.76976871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71517324447632</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89715623855591</t>
+    <t xml:space="preserve">6.89715671539307</t>
   </si>
   <si>
     <t xml:space="preserve">6.8425612449646</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18832921981812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02454423904419</t>
+    <t xml:space="preserve">7.18832969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02454471588135</t>
   </si>
   <si>
     <t xml:space="preserve">7.00634622573853</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27932119369507</t>
+    <t xml:space="preserve">7.27932071685791</t>
   </si>
   <si>
     <t xml:space="preserve">7.29751968383789</t>
@@ -2219,25 +2219,25 @@
     <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15193319320679</t>
+    <t xml:space="preserve">7.15193271636963</t>
   </si>
   <si>
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851070404053</t>
+    <t xml:space="preserve">7.38851118087769</t>
   </si>
   <si>
     <t xml:space="preserve">7.91626119613647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02545070648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13464164733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09824371337891</t>
+    <t xml:space="preserve">8.02545166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13464069366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
@@ -2249,40 +2249,40 @@
     <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.825270652771</t>
+    <t xml:space="preserve">7.82527112960815</t>
   </si>
   <si>
     <t xml:space="preserve">7.87986469268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04364967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725269317627</t>
+    <t xml:space="preserve">8.04365062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725364685059</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26202869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18923568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75247716903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86166715621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78887319564819</t>
+    <t xml:space="preserve">8.26202964782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18923664093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75247764587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86166667938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78887414932251</t>
   </si>
   <si>
     <t xml:space="preserve">7.93446016311646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9526572227478</t>
+    <t xml:space="preserve">7.95265817642212</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59740,7 +59740,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6493518519</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>13303</v>
@@ -59761,6 +59761,32 @@
         <v>1065</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6496296296</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>890</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0536994934082</t>
+    <t xml:space="preserve">6.05369997024536</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -50,25 +50,25 @@
     <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06217861175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22327136993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1172890663147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1045708656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14696455001831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065629959106</t>
+    <t xml:space="preserve">6.06217813491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22327089309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11728954315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10457134246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14696407318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.97739267349243</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12152767181396</t>
+    <t xml:space="preserve">6.12152814865112</t>
   </si>
   <si>
     <t xml:space="preserve">5.90956401824951</t>
@@ -101,43 +101,43 @@
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445356369019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85021352767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65096712112427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064212799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53226757049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5958571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91804265975952</t>
+    <t xml:space="preserve">5.85445308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8502140045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65096759796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064260482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53226804733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59585666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499946594238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04946088790894</t>
+    <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
     <t xml:space="preserve">5.91380310058594</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89260625839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01978540420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0155463218689</t>
+    <t xml:space="preserve">5.89260673522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01978492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">6.0028281211853</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">5.62977123260498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90108585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228174209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477760314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89684581756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83325719833374</t>
+    <t xml:space="preserve">5.9010853767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477807998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89684534072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83325672149658</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086351394653</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">6.24446725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31653451919556</t>
+    <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
     <t xml:space="preserve">6.22750997543335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11304998397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706815719604</t>
+    <t xml:space="preserve">6.11304950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706720352173</t>
   </si>
   <si>
     <t xml:space="preserve">5.88836765289307</t>
@@ -194,40 +194,40 @@
     <t xml:space="preserve">5.98587083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88412761688232</t>
+    <t xml:space="preserve">5.88412809371948</t>
   </si>
   <si>
     <t xml:space="preserve">5.8798885345459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9816312789917</t>
+    <t xml:space="preserve">5.98163223266602</t>
   </si>
   <si>
     <t xml:space="preserve">5.87141036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07913541793823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20631408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337450027466</t>
+    <t xml:space="preserve">6.07913589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2063136100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0833740234375</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619583129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173488616943</t>
+    <t xml:space="preserve">5.95619630813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173536300659</t>
   </si>
   <si>
     <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118946075439</t>
+    <t xml:space="preserve">5.76118850708008</t>
   </si>
   <si>
     <t xml:space="preserve">5.80782079696655</t>
@@ -245,19 +245,19 @@
     <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28262090682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13000631332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18511724472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522132873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16392087936401</t>
+    <t xml:space="preserve">6.28262138366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13000679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18511772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522085189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16392135620117</t>
   </si>
   <si>
     <t xml:space="preserve">6.07489633560181</t>
@@ -266,94 +266,94 @@
     <t xml:space="preserve">6.10033178329468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99434947967529</t>
+    <t xml:space="preserve">5.99434995651245</t>
   </si>
   <si>
     <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99010992050171</t>
+    <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73999214172363</t>
+    <t xml:space="preserve">5.73999261856079</t>
   </si>
   <si>
     <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75694990158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510307312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66792440414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63824987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944623947144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60433483123779</t>
+    <t xml:space="preserve">5.75694942474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510354995728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66792392730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63824939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944671630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60433578491211</t>
   </si>
   <si>
     <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71031761169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66368532180786</t>
+    <t xml:space="preserve">5.71031713485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6636848449707</t>
   </si>
   <si>
     <t xml:space="preserve">5.49835348129272</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57889938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737850189209</t>
+    <t xml:space="preserve">5.57889986038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737802505493</t>
   </si>
   <si>
     <t xml:space="preserve">5.58313894271851</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5746603012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50683116912842</t>
+    <t xml:space="preserve">5.57465982437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50683164596558</t>
   </si>
   <si>
     <t xml:space="preserve">5.40932846069336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25247478485107</t>
+    <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
     <t xml:space="preserve">5.24823522567749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32454252243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37965393066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.511070728302</t>
+    <t xml:space="preserve">5.32454299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37965297698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51107120513916</t>
   </si>
   <si>
     <t xml:space="preserve">5.06594657897949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18888521194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1040997505188</t>
+    <t xml:space="preserve">5.18888568878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10409927368164</t>
   </si>
   <si>
     <t xml:space="preserve">4.87093830108643</t>
@@ -362,13 +362,13 @@
     <t xml:space="preserve">4.90061378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80735015869141</t>
+    <t xml:space="preserve">4.80734920501709</t>
   </si>
   <si>
     <t xml:space="preserve">4.83278512954712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6632137298584</t>
+    <t xml:space="preserve">4.66321325302124</t>
   </si>
   <si>
     <t xml:space="preserve">4.53603506088257</t>
@@ -380,16 +380,16 @@
     <t xml:space="preserve">4.46396732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47244691848755</t>
+    <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62506008148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73952054977417</t>
+    <t xml:space="preserve">4.62506055831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73952150344849</t>
   </si>
   <si>
     <t xml:space="preserve">4.74799966812134</t>
@@ -398,31 +398,31 @@
     <t xml:space="preserve">5.002357006073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474973678589</t>
+    <t xml:space="preserve">5.04474925994873</t>
   </si>
   <si>
     <t xml:space="preserve">5.08714199066162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19312477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31182432174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33726072311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36693477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46867847442627</t>
+    <t xml:space="preserve">5.19312429428101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31182479858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33726024627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36693525314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
     <t xml:space="preserve">5.43476390838623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26095294952393</t>
+    <t xml:space="preserve">5.26095342636108</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040657043457</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28215026855469</t>
+    <t xml:space="preserve">5.28214979171753</t>
   </si>
   <si>
     <t xml:space="preserve">5.22279930114746</t>
@@ -443,40 +443,40 @@
     <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92181015014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97692060470581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16344976425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21008205413818</t>
+    <t xml:space="preserve">4.92180967330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97692155838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16345024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432161331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21008157730103</t>
   </si>
   <si>
     <t xml:space="preserve">5.17192792892456</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25671339035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3415002822876</t>
+    <t xml:space="preserve">5.2567138671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34149932861328</t>
   </si>
   <si>
     <t xml:space="preserve">5.30334615707397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40084934234619</t>
+    <t xml:space="preserve">5.40084981918335</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922437667847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618165969849</t>
+    <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">5.59161710739136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55770301818848</t>
+    <t xml:space="preserve">5.55770349502563</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216444015503</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44324254989624</t>
+    <t xml:space="preserve">5.4432430267334</t>
   </si>
   <si>
     <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51955032348633</t>
+    <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966762542725</t>
@@ -515,13 +515,13 @@
     <t xml:space="preserve">5.77814626693726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92652034759521</t>
+    <t xml:space="preserve">5.92652082443237</t>
   </si>
   <si>
     <t xml:space="preserve">6.48610687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60056734085083</t>
+    <t xml:space="preserve">6.60056686401367</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -530,10 +530,10 @@
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526479721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63919258117676</t>
+    <t xml:space="preserve">7.21526336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6391921043396</t>
   </si>
   <si>
     <t xml:space="preserve">7.11352062225342</t>
@@ -542,25 +542,25 @@
     <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20678520202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5077748298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353574752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874980926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61799669265747</t>
+    <t xml:space="preserve">7.20678567886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353527069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874933242798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61799573898315</t>
   </si>
   <si>
     <t xml:space="preserve">7.58831977844238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54592847824097</t>
+    <t xml:space="preserve">7.54592752456665</t>
   </si>
   <si>
     <t xml:space="preserve">7.64767122268677</t>
@@ -572,37 +572,37 @@
     <t xml:space="preserve">7.59255981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46114253997803</t>
+    <t xml:space="preserve">7.46114206314087</t>
   </si>
   <si>
     <t xml:space="preserve">7.52049207687378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45266389846802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440616607666</t>
+    <t xml:space="preserve">7.45266437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440664291382</t>
   </si>
   <si>
     <t xml:space="preserve">7.73669576644897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91898441314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00376987457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96985530853271</t>
+    <t xml:space="preserve">7.91898488998413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00377082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96985578536987</t>
   </si>
   <si>
     <t xml:space="preserve">8.03768539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561813354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050720214844</t>
+    <t xml:space="preserve">7.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
     <t xml:space="preserve">7.88931035995483</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">7.82148218154907</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93594217300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02496814727783</t>
+    <t xml:space="preserve">7.93594074249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
     <t xml:space="preserve">8.30052185058594</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945552825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8346700668335</t>
+    <t xml:space="preserve">8.91945743560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83467102050781</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3264274597168</t>
+    <t xml:space="preserve">9.32642650604248</t>
   </si>
   <si>
     <t xml:space="preserve">9.79274940490723</t>
@@ -656,16 +656,16 @@
     <t xml:space="preserve">9.83514308929443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61470031738281</t>
+    <t xml:space="preserve">9.61469841003418</t>
   </si>
   <si>
     <t xml:space="preserve">9.49599933624268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41121292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.368821144104</t>
+    <t xml:space="preserve">9.41121387481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36882019042969</t>
   </si>
   <si>
     <t xml:space="preserve">9.23316478729248</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">9.07207012176514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30099201202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28403568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11446285247803</t>
+    <t xml:space="preserve">9.30099296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28403472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11446380615234</t>
   </si>
   <si>
     <t xml:space="preserve">9.19924926757812</t>
@@ -689,55 +689,55 @@
     <t xml:space="preserve">9.1229419708252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53839206695557</t>
+    <t xml:space="preserve">9.53839302062988</t>
   </si>
   <si>
     <t xml:space="preserve">9.45360565185547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34338569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24164199829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1653356552124</t>
+    <t xml:space="preserve">9.34338474273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2416410446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16533660888672</t>
   </si>
   <si>
     <t xml:space="preserve">9.14837837219238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05511474609375</t>
+    <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
     <t xml:space="preserve">8.96184921264648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097831726074</t>
+    <t xml:space="preserve">8.89402103424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097736358643</t>
   </si>
   <si>
     <t xml:space="preserve">8.7753210067749</t>
   </si>
   <si>
-    <t xml:space="preserve">8.860107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17381381988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40273475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969299316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38577747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58078479766846</t>
+    <t xml:space="preserve">8.86010646820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17381286621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40273571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38577842712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58078575134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62317752838135</t>
+    <t xml:space="preserve">9.62317943572998</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91992855072021</t>
+    <t xml:space="preserve">9.9199275970459</t>
   </si>
   <si>
     <t xml:space="preserve">10.3014631271362</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">10.4032068252563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3184194564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286422729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590703964233</t>
+    <t xml:space="preserve">10.3184213638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286432266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.259069442749</t>
   </si>
   <si>
     <t xml:space="preserve">10.0725421905518</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840671539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2336339950562</t>
+    <t xml:space="preserve">9.92840576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2336349487305</t>
   </si>
   <si>
     <t xml:space="preserve">10.4625568389893</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">10.4371204376221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3268995285034</t>
+    <t xml:space="preserve">10.3269004821777</t>
   </si>
   <si>
     <t xml:space="preserve">10.4710359573364</t>
@@ -806,28 +806,28 @@
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288768768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.005184173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8525714874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6830005645752</t>
+    <t xml:space="preserve">10.9288778305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0051832199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8525705337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6829986572266</t>
   </si>
   <si>
     <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4540767669678</t>
+    <t xml:space="preserve">10.4540777206421</t>
   </si>
   <si>
     <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2081995010376</t>
+    <t xml:space="preserve">10.2081985473633</t>
   </si>
   <si>
     <t xml:space="preserve">10.5473413467407</t>
@@ -836,58 +836,58 @@
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169141769409</t>
+    <t xml:space="preserve">10.7169132232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0645351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1917142868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9712705612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.674521446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4879922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5982131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.022141456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3188924789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0136623382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7338695526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9373569488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7253904342651</t>
+    <t xml:space="preserve">11.0645360946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1917133331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9712715148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6745204925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4879913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5982141494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0221424102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3188934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0136632919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7338705062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9373559951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7253923416138</t>
   </si>
   <si>
     <t xml:space="preserve">10.9543132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238851547241</t>
+    <t xml:space="preserve">11.1238842010498</t>
   </si>
   <si>
     <t xml:space="preserve">11.1408424377441</t>
   </si>
   <si>
-    <t xml:space="preserve">11.691948890686</t>
+    <t xml:space="preserve">11.6919498443604</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393352508545</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">11.5308570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1747570037842</t>
+    <t xml:space="preserve">11.1747560501099</t>
   </si>
   <si>
     <t xml:space="preserve">11.25954246521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3951988220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3612842559814</t>
+    <t xml:space="preserve">11.3951997756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3612852096558</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.641077041626</t>
+    <t xml:space="preserve">11.6410779953003</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7852125167847</t>
+    <t xml:space="preserve">11.785213470459</t>
   </si>
   <si>
     <t xml:space="preserve">11.8276062011719</t>
@@ -929,7 +929,7 @@
     <t xml:space="preserve">11.4121561050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4969425201416</t>
+    <t xml:space="preserve">11.4969415664673</t>
   </si>
   <si>
     <t xml:space="preserve">11.6156415939331</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">10.9203987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.115406036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5134267807007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3353776931763</t>
+    <t xml:space="preserve">11.1154069900513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.513427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.335376739502</t>
   </si>
   <si>
     <t xml:space="preserve">10.7677850723267</t>
@@ -959,52 +959,52 @@
     <t xml:space="preserve">10.496470451355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5643005371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7423486709595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9458341598511</t>
+    <t xml:space="preserve">10.5642995834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7423496246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9458351135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.8440923690796</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6406059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0979776382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.530385017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8356122970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069288253784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4291133880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086696624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.27649974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834697723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004270553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782424926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5138998031616</t>
+    <t xml:space="preserve">10.640606880188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0979785919189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5303840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8356132507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069269180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4291124343872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834707260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782415390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
     <t xml:space="preserve">11.5647706985474</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">11.8699989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899705886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864850997925</t>
+    <t xml:space="preserve">11.6665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899696350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864860534668</t>
   </si>
   <si>
     <t xml:space="preserve">10.8695278167725</t>
@@ -1028,43 +1028,43 @@
     <t xml:space="preserve">10.8186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7847423553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016986846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9034423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2421140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777704238892</t>
+    <t xml:space="preserve">10.784743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016996383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9034414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2421131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777713775635</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1912431716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2251567840576</t>
+    <t xml:space="preserve">10.1912422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2251577377319</t>
   </si>
   <si>
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064558029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601207733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948577880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51295757293701</t>
+    <t xml:space="preserve">10.1064567565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5129566192627</t>
   </si>
   <si>
     <t xml:space="preserve">9.36034202575684</t>
@@ -1076,55 +1076,55 @@
     <t xml:space="preserve">9.76731395721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71644306182861</t>
+    <t xml:space="preserve">9.73339939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7164421081543</t>
   </si>
   <si>
     <t xml:space="preserve">9.37730026245117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27555656433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22468566894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904109954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56382751464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68252754211426</t>
+    <t xml:space="preserve">9.27555561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.224684715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56382846832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
     <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1234140396118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929849624634</t>
+    <t xml:space="preserve">10.1234130859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929859161377</t>
   </si>
   <si>
     <t xml:space="preserve">10.2760286331177</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75035667419434</t>
+    <t xml:space="preserve">9.75035572052002</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425563812256</t>
+    <t xml:space="preserve">9.39425754547119</t>
   </si>
   <si>
     <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19077014923096</t>
+    <t xml:space="preserve">9.19077110290527</t>
   </si>
   <si>
     <t xml:space="preserve">9.02120018005371</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">9.08902835845947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74988460540771</t>
+    <t xml:space="preserve">8.7498836517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.51248550415039</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">8.49552822113037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42769908905029</t>
+    <t xml:space="preserve">8.42769813537598</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92746353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15638542175293</t>
+    <t xml:space="preserve">8.05464267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15638446807861</t>
   </si>
   <si>
     <t xml:space="preserve">8.37682819366455</t>
@@ -1166,28 +1166,28 @@
     <t xml:space="preserve">8.56335735321045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59727096557617</t>
+    <t xml:space="preserve">8.59727191925049</t>
   </si>
   <si>
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85162734985352</t>
+    <t xml:space="preserve">8.8516263961792</t>
   </si>
   <si>
     <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78379821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64814281463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76684284210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63118457794189</t>
+    <t xml:space="preserve">8.78379917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64814376831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76684188842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
     <t xml:space="preserve">8.47857093811035</t>
@@ -1202,55 +1202,55 @@
     <t xml:space="preserve">8.33443450927734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39378547668457</t>
+    <t xml:space="preserve">8.39378452301025</t>
   </si>
   <si>
     <t xml:space="preserve">8.34291362762451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24117183685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95290040969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245716094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852842330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18134927749634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199926376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96938514709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612009048462</t>
+    <t xml:space="preserve">8.24117088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95289993286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245668411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854307174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201295852661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1813497543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199974060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96938562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612056732178</t>
   </si>
   <si>
     <t xml:space="preserve">7.3339638710022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.300048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06264972686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01177835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9948205947876</t>
+    <t xml:space="preserve">7.30004835128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06264925003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01177883148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99482154846191</t>
   </si>
   <si>
     <t xml:space="preserve">7.09656381607056</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39331388473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787748336792</t>
+    <t xml:space="preserve">7.39331340789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787796020508</t>
   </si>
   <si>
     <t xml:space="preserve">7.37635660171509</t>
@@ -1271,37 +1271,37 @@
     <t xml:space="preserve">7.80028486251831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69006490707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19029998779297</t>
+    <t xml:space="preserve">7.69006252288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19029903411865</t>
   </si>
   <si>
     <t xml:space="preserve">8.11399173736572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85115623474121</t>
+    <t xml:space="preserve">7.85115718841553</t>
   </si>
   <si>
     <t xml:space="preserve">7.78332805633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35092115402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43570709228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24917888641357</t>
+    <t xml:space="preserve">7.35092163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.435706615448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24917793273926</t>
   </si>
   <si>
     <t xml:space="preserve">7.34244251251221</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92699241638184</t>
+    <t xml:space="preserve">6.92699193954468</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">6.57089281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4945855140686</t>
+    <t xml:space="preserve">6.49458503723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
@@ -1319,34 +1319,34 @@
     <t xml:space="preserve">6.27414226531982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24022817611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69807100296021</t>
+    <t xml:space="preserve">6.2402286529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69807147979736</t>
   </si>
   <si>
     <t xml:space="preserve">6.93547105789185</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63024282455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52002048492432</t>
+    <t xml:space="preserve">6.63024234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52002143859863</t>
   </si>
   <si>
     <t xml:space="preserve">6.33349227905273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51154232025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41827774047852</t>
+    <t xml:space="preserve">6.51154279708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
     <t xml:space="preserve">6.86764287948608</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24069976806641</t>
+    <t xml:space="preserve">7.24070024490356</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916423797607</t>
@@ -1361,34 +1361,34 @@
     <t xml:space="preserve">6.68111371994019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263555526733</t>
+    <t xml:space="preserve">6.67263507843018</t>
   </si>
   <si>
     <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56241321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588500976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26566410064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32501363754272</t>
+    <t xml:space="preserve">6.56241416931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588548660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26566362380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32501459121704</t>
   </si>
   <si>
     <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52849960327148</t>
+    <t xml:space="preserve">6.52849912643433</t>
   </si>
   <si>
     <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34197092056274</t>
+    <t xml:space="preserve">6.34197044372559</t>
   </si>
   <si>
     <t xml:space="preserve">6.5963282585144</t>
@@ -1397,88 +1397,88 @@
     <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74894237518311</t>
+    <t xml:space="preserve">6.74894285202026</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1983060836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1304783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03721380233765</t>
+    <t xml:space="preserve">7.19830656051636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29157114028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13047742843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0372142791748</t>
   </si>
   <si>
     <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090698242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.791335105896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74046421051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46915006637573</t>
+    <t xml:space="preserve">6.96090602874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79133558273315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7404637336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
     <t xml:space="preserve">6.29109954833984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45219230651855</t>
+    <t xml:space="preserve">6.45219278335571</t>
   </si>
   <si>
     <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23174905776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02826356887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01130676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96891403198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15544271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087816238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40132093429565</t>
+    <t xml:space="preserve">6.23174953460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02826404571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01130628585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96891355514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.155442237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087768554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40132141113281</t>
   </si>
   <si>
     <t xml:space="preserve">6.58120107650757</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40640068054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3976616859436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4238805770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24908208847046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0830225944519</t>
+    <t xml:space="preserve">6.40640115737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39766120910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42388105392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2490816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08302211761475</t>
   </si>
   <si>
     <t xml:space="preserve">6.12672233581543</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522199630737</t>
+    <t xml:space="preserve">6.34522104263306</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2403416633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20538187026978</t>
+    <t xml:space="preserve">6.24034214019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20538139343262</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782108306885</t>
+    <t xml:space="preserve">6.25782155990601</t>
   </si>
   <si>
     <t xml:space="preserve">6.37144088745117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29278135299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900119781494</t>
+    <t xml:space="preserve">6.29278182983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3190016746521</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514110565186</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32774114608765</t>
+    <t xml:space="preserve">6.3277416229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.27530145645142</t>
@@ -1538,19 +1538,19 @@
     <t xml:space="preserve">6.11798191070557</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1092414855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23160219192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03058195114136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97814273834229</t>
+    <t xml:space="preserve">6.10924196243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19664144515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23160171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03058242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97814226150513</t>
   </si>
   <si>
     <t xml:space="preserve">5.98688220977783</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184200286865</t>
+    <t xml:space="preserve">6.02184247970581</t>
   </si>
   <si>
     <t xml:space="preserve">5.96940231323242</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">6.01310253143311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1791615486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03932285308838</t>
+    <t xml:space="preserve">6.17916202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03932237625122</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
@@ -1586,10 +1586,10 @@
     <t xml:space="preserve">6.07428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15294218063354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06554174423218</t>
+    <t xml:space="preserve">6.15294170379639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06554222106934</t>
   </si>
   <si>
     <t xml:space="preserve">6.31026124954224</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">6.1704216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8557825088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91696214675903</t>
+    <t xml:space="preserve">5.85578298568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91696262359619</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">5.94318294525146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93444299697876</t>
+    <t xml:space="preserve">5.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">6.52876091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53750085830688</t>
+    <t xml:space="preserve">6.53750038146973</t>
   </si>
   <si>
     <t xml:space="preserve">6.46758079528809</t>
@@ -1640,37 +1640,37 @@
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6423807144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70356035232544</t>
+    <t xml:space="preserve">6.64238023757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70355987548828</t>
   </si>
   <si>
     <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86087942123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84340000152588</t>
+    <t xml:space="preserve">6.86087989807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84339952468872</t>
   </si>
   <si>
     <t xml:space="preserve">6.77348041534424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89583969116211</t>
+    <t xml:space="preserve">6.89583921432495</t>
   </si>
   <si>
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27165842056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897796630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5862979888916</t>
+    <t xml:space="preserve">7.2716588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897844314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58629751205444</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527822494507</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">7.56007766723633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55133867263794</t>
+    <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
     <t xml:space="preserve">7.60377740859985</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">7.49015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385829925537</t>
+    <t xml:space="preserve">7.53385782241821</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5163779258728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5775580406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56881761550903</t>
+    <t xml:space="preserve">7.51637840270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57755851745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56881809234619</t>
   </si>
   <si>
     <t xml:space="preserve">7.39401817321777</t>
@@ -1718,19 +1718,19 @@
     <t xml:space="preserve">7.76983737945557</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78731679916382</t>
+    <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723733901978</t>
+    <t xml:space="preserve">7.85723638534546</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7348780632019</t>
+    <t xml:space="preserve">7.73487758636475</t>
   </si>
   <si>
     <t xml:space="preserve">7.52511692047119</t>
@@ -1739,46 +1739,46 @@
     <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779928207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18425893783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22795915603638</t>
+    <t xml:space="preserve">7.36779832839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18425941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22795963287354</t>
   </si>
   <si>
     <t xml:space="preserve">7.1230788230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98323965072632</t>
+    <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68608093261719</t>
+    <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
     <t xml:space="preserve">6.49380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44136095046997</t>
+    <t xml:space="preserve">6.44136047363281</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59868049621582</t>
+    <t xml:space="preserve">6.59868097305298</t>
   </si>
   <si>
     <t xml:space="preserve">6.81718015670776</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79970073699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72104024887085</t>
+    <t xml:space="preserve">6.79970026016235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72104072570801</t>
   </si>
   <si>
     <t xml:space="preserve">6.65986013412476</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84704303741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78586339950562</t>
+    <t xml:space="preserve">5.84704351425171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78586292266846</t>
   </si>
   <si>
     <t xml:space="preserve">5.45374345779419</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">5.20028448104858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63218641281128</t>
+    <t xml:space="preserve">4.63218688964844</t>
   </si>
   <si>
     <t xml:space="preserve">4.64092636108398</t>
@@ -1814,49 +1814,49 @@
     <t xml:space="preserve">4.45738744735718</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16459798812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96357870101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365839958191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995889663696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78877902030945</t>
+    <t xml:space="preserve">4.1645975112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96357774734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995913505554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78877925872803</t>
   </si>
   <si>
     <t xml:space="preserve">3.85432839393616</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90239834785461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89802837371826</t>
+    <t xml:space="preserve">3.90239882469177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89802861213684</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885943412781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77566933631897</t>
+    <t xml:space="preserve">3.71885895729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77566909790039</t>
   </si>
   <si>
     <t xml:space="preserve">3.72322940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66204929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574879646301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7581889629364</t>
+    <t xml:space="preserve">3.66204953193665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">4.01164817810059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16896772384644</t>
+    <t xml:space="preserve">4.16896820068359</t>
   </si>
   <si>
     <t xml:space="preserve">4.30006742477417</t>
@@ -1877,13 +1877,13 @@
     <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89438533782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03422498703003</t>
+    <t xml:space="preserve">4.89438581466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658521652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03422546386719</t>
   </si>
   <si>
     <t xml:space="preserve">4.96430540084839</t>
@@ -1892,61 +1892,61 @@
     <t xml:space="preserve">4.77202606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84194564819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82446527481079</t>
+    <t xml:space="preserve">4.84194612503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82446575164795</t>
   </si>
   <si>
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336030960083</t>
+    <t xml:space="preserve">4.71335983276367</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60417079925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5495753288269</t>
+    <t xml:space="preserve">4.60417032241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54957580566406</t>
   </si>
   <si>
     <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73155879974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615379333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76795530319214</t>
+    <t xml:space="preserve">4.73155832290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615427017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76795482635498</t>
   </si>
   <si>
     <t xml:space="preserve">4.87714529037476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11372327804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73246574401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89624977111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80525875091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95084476470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85985374450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93264675140381</t>
+    <t xml:space="preserve">5.1137228012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7324652671814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89625024795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80525827407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95084428787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85985326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93264627456665</t>
   </si>
   <si>
     <t xml:space="preserve">5.91444826126099</t>
@@ -1955,46 +1955,46 @@
     <t xml:space="preserve">5.82345676422119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06003475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67787027359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62327575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55048227310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53228378295898</t>
+    <t xml:space="preserve">6.06003427505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62327527999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55048179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53228425979614</t>
   </si>
   <si>
     <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38669729232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35030126571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47768926620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51408529281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64147329330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45949077606201</t>
+    <t xml:space="preserve">5.38669776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35030078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47768878936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51408576965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6414737701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45949029922485</t>
   </si>
   <si>
     <t xml:space="preserve">5.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42309427261353</t>
+    <t xml:space="preserve">5.42309379577637</t>
   </si>
   <si>
     <t xml:space="preserve">5.1683177947998</t>
@@ -2003,13 +2003,13 @@
     <t xml:space="preserve">5.09552478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20471429824829</t>
+    <t xml:space="preserve">5.20471382141113</t>
   </si>
   <si>
     <t xml:space="preserve">5.18651580810547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36849975585938</t>
+    <t xml:space="preserve">5.36849927902222</t>
   </si>
   <si>
     <t xml:space="preserve">5.31390428543091</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">5.15011930465698</t>
   </si>
   <si>
-    <t xml:space="preserve">5.00453329086304</t>
+    <t xml:space="preserve">5.00453281402588</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
@@ -2039,22 +2039,22 @@
     <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633527755737</t>
+    <t xml:space="preserve">4.98633480072021</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49588775634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22291278839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27750778198242</t>
+    <t xml:space="preserve">5.04093027114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4958872795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22291231155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27750825881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26750230789185</t>
+    <t xml:space="preserve">4.26750183105469</t>
   </si>
   <si>
     <t xml:space="preserve">4.31299734115601</t>
@@ -2075,22 +2075,22 @@
     <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24111175537109</t>
+    <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
     <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60507726669312</t>
+    <t xml:space="preserve">5.60507678985596</t>
   </si>
   <si>
     <t xml:space="preserve">5.8780517578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78706026077271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02363777160645</t>
+    <t xml:space="preserve">5.78706073760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0236382484436</t>
   </si>
   <si>
     <t xml:space="preserve">6.09643125534058</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">6.16922473907471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27841424942017</t>
+    <t xml:space="preserve">6.27841472625732</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18742322921753</t>
+    <t xml:space="preserve">6.18742275238037</t>
   </si>
   <si>
     <t xml:space="preserve">6.33300924301147</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46039724349976</t>
+    <t xml:space="preserve">6.4603967666626</t>
   </si>
   <si>
     <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42400074005127</t>
+    <t xml:space="preserve">6.42400026321411</t>
   </si>
   <si>
     <t xml:space="preserve">6.55138874053955</t>
@@ -2138,22 +2138,22 @@
     <t xml:space="preserve">6.58778524398804</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82436370849609</t>
+    <t xml:space="preserve">6.82436323165894</t>
   </si>
   <si>
     <t xml:space="preserve">6.96994924545288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95175170898438</t>
+    <t xml:space="preserve">6.95175123214722</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355321884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80616521835327</t>
+    <t xml:space="preserve">6.93355274200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80616474151611</t>
   </si>
   <si>
     <t xml:space="preserve">6.76976871490479</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877721786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9881477355957</t>
+    <t xml:space="preserve">6.67877674102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98814821243286</t>
   </si>
   <si>
     <t xml:space="preserve">6.89715671539307</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8425612449646</t>
+    <t xml:space="preserve">6.84256172180176</t>
   </si>
   <si>
     <t xml:space="preserve">6.86075973510742</t>
@@ -2186,10 +2186,10 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013120651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18832969665527</t>
+    <t xml:space="preserve">7.17013072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
     <t xml:space="preserve">7.02454471588135</t>
@@ -2198,40 +2198,40 @@
     <t xml:space="preserve">7.00634622573853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09733772277832</t>
+    <t xml:space="preserve">7.09733819961548</t>
   </si>
   <si>
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094169616699</t>
+    <t xml:space="preserve">7.06094121932983</t>
   </si>
   <si>
     <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27932071685791</t>
+    <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
     <t xml:space="preserve">7.29751968383789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24292421340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15193271636963</t>
+    <t xml:space="preserve">7.24292469024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15193319320679</t>
   </si>
   <si>
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851118087769</t>
+    <t xml:space="preserve">7.38851070404053</t>
   </si>
   <si>
     <t xml:space="preserve">7.91626119613647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02545166015625</t>
+    <t xml:space="preserve">8.02545070648193</t>
   </si>
   <si>
     <t xml:space="preserve">8.13464069366455</t>
@@ -2243,22 +2243,22 @@
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9708571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98905467987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82527112960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87986469268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725364685059</t>
+    <t xml:space="preserve">7.97085666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98905372619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82527017593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87986516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04364967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725269317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
@@ -2267,28 +2267,28 @@
     <t xml:space="preserve">8.26202964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18923664093018</t>
+    <t xml:space="preserve">8.18923568725586</t>
   </si>
   <si>
     <t xml:space="preserve">7.75247764587402</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86166667938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78887414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95265817642212</t>
+    <t xml:space="preserve">7.86166715621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78887367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9344596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265769958496</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05521202087402</t>
+    <t xml:space="preserve">8.05521297454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.25797557830811</t>
@@ -2300,19 +2300,19 @@
     <t xml:space="preserve">8.44230556488037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35014057159424</t>
+    <t xml:space="preserve">8.35014152526855</t>
   </si>
   <si>
     <t xml:space="preserve">8.40543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46073818206787</t>
+    <t xml:space="preserve">8.46073913574219</t>
   </si>
   <si>
     <t xml:space="preserve">8.42387294769287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38700675964355</t>
+    <t xml:space="preserve">8.38700771331787</t>
   </si>
   <si>
     <t xml:space="preserve">8.68193435668945</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">8.66350078582764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88469696044922</t>
+    <t xml:space="preserve">8.88469791412354</t>
   </si>
   <si>
     <t xml:space="preserve">8.84783172607422</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">8.99529552459717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19805717468262</t>
+    <t xml:space="preserve">9.19805812835693</t>
   </si>
   <si>
     <t xml:space="preserve">9.30865573883057</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">9.4008207321167</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35473728179932</t>
+    <t xml:space="preserve">9.35473823547363</t>
   </si>
   <si>
     <t xml:space="preserve">9.16119194030762</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">9.5390682220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58514976501465</t>
+    <t xml:space="preserve">9.58515071868896</t>
   </si>
   <si>
     <t xml:space="preserve">9.21649074554443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72339725494385</t>
+    <t xml:space="preserve">9.72339820861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.86164474487305</t>
@@ -2396,16 +2396,16 @@
     <t xml:space="preserve">10.1381397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2763872146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5528812408447</t>
+    <t xml:space="preserve">10.2763862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.552882194519</t>
   </si>
   <si>
     <t xml:space="preserve">10.7832937240601</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1519546508789</t>
+    <t xml:space="preserve">11.1519536972046</t>
   </si>
   <si>
     <t xml:space="preserve">11.0597887039185</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">11.0137062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2441186904907</t>
+    <t xml:space="preserve">11.2441177368164</t>
   </si>
   <si>
     <t xml:space="preserve">11.5206136703491</t>
@@ -2423,13 +2423,13 @@
     <t xml:space="preserve">11.428448677063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3362836837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8754587173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1980361938477</t>
+    <t xml:space="preserve">11.3362846374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8754596710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1980352401733</t>
   </si>
   <si>
     <t xml:space="preserve">11.2902011871338</t>
@@ -2447,13 +2447,13 @@
     <t xml:space="preserve">10.5989646911621</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3823661804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8293771743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607172012329</t>
+    <t xml:space="preserve">11.3823671340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8293762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607181549072</t>
   </si>
   <si>
     <t xml:space="preserve">10.1842222213745</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">10.9215421676636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4745302200317</t>
+    <t xml:space="preserve">11.4745311737061</t>
   </si>
   <si>
     <t xml:space="preserve">11.7049427032471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9814386367798</t>
+    <t xml:space="preserve">11.9814376831055</t>
   </si>
   <si>
     <t xml:space="preserve">11.8431911468506</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">9.6773157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94461441040039</t>
+    <t xml:space="preserve">7.94461488723755</t>
   </si>
   <si>
     <t xml:space="preserve">8.60820198059082</t>
@@ -2513,22 +2513,22 @@
     <t xml:space="preserve">10.4330673217773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.930757522583</t>
+    <t xml:space="preserve">10.9307584762573</t>
   </si>
   <si>
     <t xml:space="preserve">10.4515008926392</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3962020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118711471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80634593963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93537712097168</t>
+    <t xml:space="preserve">10.396201133728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118721008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80634689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93537616729736</t>
   </si>
   <si>
     <t xml:space="preserve">10.0644083023071</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">9.84321212768555</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73261547088623</t>
+    <t xml:space="preserve">9.73261451721191</t>
   </si>
   <si>
     <t xml:space="preserve">9.4376859664917</t>
@@ -2552,7 +2552,7 @@
     <t xml:space="preserve">9.54828357696533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6957483291626</t>
+    <t xml:space="preserve">9.69574928283691</t>
   </si>
   <si>
     <t xml:space="preserve">9.00835800170898</t>
@@ -59766,7 +59766,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6496296296</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>890</v>
@@ -59787,6 +59787,32 @@
         <v>1064</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.649525463</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05369997024536</t>
+    <t xml:space="preserve">6.05369901657104</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -50,28 +50,28 @@
     <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06217813491821</t>
+    <t xml:space="preserve">6.06217861175537</t>
   </si>
   <si>
     <t xml:space="preserve">6.22327089309692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11728954315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10457134246826</t>
+    <t xml:space="preserve">6.1172890663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1045708656311</t>
   </si>
   <si>
     <t xml:space="preserve">6.14696407318115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19783544540405</t>
+    <t xml:space="preserve">6.19783496856689</t>
   </si>
   <si>
     <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97739267349243</t>
+    <t xml:space="preserve">5.97739219665527</t>
   </si>
   <si>
     <t xml:space="preserve">6.05793857574463</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">6.35892820358276</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35044956207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21055316925049</t>
+    <t xml:space="preserve">6.3504490852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21055269241333</t>
   </si>
   <si>
     <t xml:space="preserve">6.1681604385376</t>
@@ -104,16 +104,16 @@
     <t xml:space="preserve">5.85445308685303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8502140045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65096759796143</t>
+    <t xml:space="preserve">5.85021448135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65096807479858</t>
   </si>
   <si>
     <t xml:space="preserve">5.68064260482788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53226804733276</t>
+    <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
     <t xml:space="preserve">5.59585666656494</t>
@@ -122,22 +122,22 @@
     <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93499946594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04946041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91380310058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89260673522949</t>
+    <t xml:space="preserve">5.93499994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946088790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91380262374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89260625839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978492736816</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01554584503174</t>
+    <t xml:space="preserve">6.0155463218689</t>
   </si>
   <si>
     <t xml:space="preserve">6.0028281211853</t>
@@ -146,31 +146,31 @@
     <t xml:space="preserve">6.12576723098755</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85869264602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62977123260498</t>
+    <t xml:space="preserve">5.85869216918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
     <t xml:space="preserve">5.9010853767395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92228126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477807998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89684534072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83325672149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79086351394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674221038818</t>
+    <t xml:space="preserve">5.92228174209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477855682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89684629440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83325624465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79086446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674268722534</t>
   </si>
   <si>
     <t xml:space="preserve">6.24446725845337</t>
@@ -179,61 +179,61 @@
     <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22750997543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11304950714111</t>
+    <t xml:space="preserve">6.22751045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11304903030396</t>
   </si>
   <si>
     <t xml:space="preserve">6.00706720352173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88836765289307</t>
+    <t xml:space="preserve">5.88836717605591</t>
   </si>
   <si>
     <t xml:space="preserve">5.98587083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88412809371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8798885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98163223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87141036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07913589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2063136100769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0833740234375</t>
+    <t xml:space="preserve">5.88412857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87988901138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98163175582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87141084671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07913541793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20631408691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08337450027466</t>
   </si>
   <si>
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619630813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173536300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76118850708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80782079696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82901763916016</t>
+    <t xml:space="preserve">5.95619678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173488616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76118898391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80782032012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.829017162323</t>
   </si>
   <si>
     <t xml:space="preserve">5.93076038360596</t>
@@ -242,37 +242,37 @@
     <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99858856201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28262138366699</t>
+    <t xml:space="preserve">5.99858808517456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28262090682983</t>
   </si>
   <si>
     <t xml:space="preserve">6.13000679016113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18511772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522085189819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16392135620117</t>
+    <t xml:space="preserve">6.18511724472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522132873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16392087936401</t>
   </si>
   <si>
     <t xml:space="preserve">6.07489633560181</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10033178329468</t>
+    <t xml:space="preserve">6.10033226013184</t>
   </si>
   <si>
     <t xml:space="preserve">5.99434995651245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761358261108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99011039733887</t>
+    <t xml:space="preserve">6.08761405944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99011087417603</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
@@ -284,16 +284,16 @@
     <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75694942474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510354995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66792392730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63824939727783</t>
+    <t xml:space="preserve">5.75694990158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66792440414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63824987411499</t>
   </si>
   <si>
     <t xml:space="preserve">5.65944671630859</t>
@@ -305,10 +305,10 @@
     <t xml:space="preserve">5.72303533554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71031713485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6636848449707</t>
+    <t xml:space="preserve">5.71031761169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
     <t xml:space="preserve">5.49835348129272</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">5.58737802505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58313894271851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57465982437134</t>
+    <t xml:space="preserve">5.58313846588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5746603012085</t>
   </si>
   <si>
     <t xml:space="preserve">5.50683164596558</t>
@@ -335,34 +335,34 @@
     <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.24823522567749</t>
+    <t xml:space="preserve">5.24823570251465</t>
   </si>
   <si>
     <t xml:space="preserve">5.32454299926758</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37965297698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51107120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06594657897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18888568878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10409927368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87093830108643</t>
+    <t xml:space="preserve">5.37965393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.511070728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06594562530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18888521194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1040997505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87093925476074</t>
   </si>
   <si>
     <t xml:space="preserve">4.90061378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">4.80734920501709</t>
+    <t xml:space="preserve">4.80734968185425</t>
   </si>
   <si>
     <t xml:space="preserve">4.83278512954712</t>
@@ -371,31 +371,31 @@
     <t xml:space="preserve">4.66321325302124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53603506088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52331733703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396732330322</t>
+    <t xml:space="preserve">4.53603553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52331686019897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396684646606</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36646413803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62506055831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73952150344849</t>
+    <t xml:space="preserve">4.36646461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62506103515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73952102661133</t>
   </si>
   <si>
     <t xml:space="preserve">4.74799966812134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.002357006073</t>
+    <t xml:space="preserve">5.00235748291016</t>
   </si>
   <si>
     <t xml:space="preserve">5.04474925994873</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">5.19312429428101</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31182479858398</t>
+    <t xml:space="preserve">5.31182384490967</t>
   </si>
   <si>
     <t xml:space="preserve">5.33726024627686</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476390838623</t>
+    <t xml:space="preserve">5.43476438522339</t>
   </si>
   <si>
     <t xml:space="preserve">5.26095342636108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18040657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2058424949646</t>
+    <t xml:space="preserve">5.18040704727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20584201812744</t>
   </si>
   <si>
     <t xml:space="preserve">5.28214979171753</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92180967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97692155838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16345024108887</t>
+    <t xml:space="preserve">4.92181015014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97692108154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16344976425171</t>
   </si>
   <si>
     <t xml:space="preserve">5.21432161331177</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">5.2567138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34149932861328</t>
+    <t xml:space="preserve">5.34149980545044</t>
   </si>
   <si>
     <t xml:space="preserve">5.30334615707397</t>
@@ -476,43 +476,43 @@
     <t xml:space="preserve">5.54922437667847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618213653564</t>
+    <t xml:space="preserve">5.56618165969849</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770349502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67216444015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5237889289856</t>
+    <t xml:space="preserve">5.59161758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770301818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67216396331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52378845214844</t>
   </si>
   <si>
     <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4432430267334</t>
+    <t xml:space="preserve">5.44324207305908</t>
   </si>
   <si>
     <t xml:space="preserve">5.48987483978271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51954984664917</t>
+    <t xml:space="preserve">5.51955032348633</t>
   </si>
   <si>
     <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68488168716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77814626693726</t>
+    <t xml:space="preserve">5.68488216400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7781457901001</t>
   </si>
   <si>
     <t xml:space="preserve">5.92652082443237</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">6.48610687255859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60056686401367</t>
+    <t xml:space="preserve">6.60056734085083</t>
   </si>
   <si>
     <t xml:space="preserve">6.61328554153442</t>
@@ -530,40 +530,40 @@
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6391921043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04569244384766</t>
+    <t xml:space="preserve">7.21526432037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63919258117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11352109909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0456919670105</t>
   </si>
   <si>
     <t xml:space="preserve">7.20678567886353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50777435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353527069092</t>
+    <t xml:space="preserve">7.50777387619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353574752808</t>
   </si>
   <si>
     <t xml:space="preserve">7.41874933242798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61799573898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58831977844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54592752456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64767122268677</t>
+    <t xml:space="preserve">7.61799621582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5883207321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54592800140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64767074584961</t>
   </si>
   <si>
     <t xml:space="preserve">7.42722845077515</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">7.59255981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46114206314087</t>
+    <t xml:space="preserve">7.46114301681519</t>
   </si>
   <si>
     <t xml:space="preserve">7.52049207687378</t>
@@ -581,61 +581,61 @@
     <t xml:space="preserve">7.45266437530518</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55440664291382</t>
+    <t xml:space="preserve">7.55440616607666</t>
   </si>
   <si>
     <t xml:space="preserve">7.73669576644897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91898488998413</t>
+    <t xml:space="preserve">7.91898536682129</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96985578536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561765670776</t>
+    <t xml:space="preserve">7.96985626220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03768444061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561861038208</t>
   </si>
   <si>
     <t xml:space="preserve">7.91050672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88931035995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594074249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02496719360352</t>
+    <t xml:space="preserve">7.88931083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594121932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0249662399292</t>
   </si>
   <si>
     <t xml:space="preserve">8.30052185058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3683500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41074180603027</t>
+    <t xml:space="preserve">8.36834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
     <t xml:space="preserve">8.28356456756592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73292827606201</t>
+    <t xml:space="preserve">8.73292922973633</t>
   </si>
   <si>
     <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83467102050781</t>
+    <t xml:space="preserve">8.8346700668335</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
@@ -650,28 +650,28 @@
     <t xml:space="preserve">9.32642650604248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79274940490723</t>
+    <t xml:space="preserve">9.79275035858154</t>
   </si>
   <si>
     <t xml:space="preserve">9.83514308929443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61469841003418</t>
+    <t xml:space="preserve">9.6146993637085</t>
   </si>
   <si>
     <t xml:space="preserve">9.49599933624268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41121387481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36882019042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23316478729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07207012176514</t>
+    <t xml:space="preserve">9.41121482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.368821144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23316383361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07207107543945</t>
   </si>
   <si>
     <t xml:space="preserve">9.30099296569824</t>
@@ -686,37 +686,37 @@
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1229419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53839302062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45360565185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2416410446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16533660888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837837219238</t>
+    <t xml:space="preserve">9.12294292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53839111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45360660552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24164199829102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16533470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837741851807</t>
   </si>
   <si>
     <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96184921264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402103424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097736358643</t>
+    <t xml:space="preserve">8.9618501663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402198791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097831726074</t>
   </si>
   <si>
     <t xml:space="preserve">8.7753210067749</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">8.86010646820068</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17381286621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40273571014404</t>
+    <t xml:space="preserve">9.17381381988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.41969108581543</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">9.38577842712402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512844085693</t>
+    <t xml:space="preserve">9.58078670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512748718262</t>
   </si>
   <si>
     <t xml:space="preserve">9.64861392974854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62317943572998</t>
+    <t xml:space="preserve">9.62317848205566</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774112701416</t>
@@ -758,22 +758,22 @@
     <t xml:space="preserve">10.3014631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4032068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184213638306</t>
+    <t xml:space="preserve">10.4032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184204101562</t>
   </si>
   <si>
     <t xml:space="preserve">10.4286432266235</t>
   </si>
   <si>
-    <t xml:space="preserve">10.259069442749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0725421905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.004714012146</t>
+    <t xml:space="preserve">10.2590713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0725431442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0047149658203</t>
   </si>
   <si>
     <t xml:space="preserve">9.92840576171875</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">10.2336349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3692922592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4795141220093</t>
+    <t xml:space="preserve">10.4625558853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.479513168335</t>
   </si>
   <si>
     <t xml:space="preserve">10.1742839813232</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">10.4371204376221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3269004821777</t>
+    <t xml:space="preserve">10.3268995285034</t>
   </si>
   <si>
     <t xml:space="preserve">10.4710359573364</t>
@@ -809,28 +809,28 @@
     <t xml:space="preserve">10.9288778305054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0051832199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8525705337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6829986572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2166776657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4540777206421</t>
+    <t xml:space="preserve">11.005184173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8525714874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6829996109009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2166786193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4540786743164</t>
   </si>
   <si>
     <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2081985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5473413467407</t>
+    <t xml:space="preserve">10.2081995010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.547342300415</t>
   </si>
   <si>
     <t xml:space="preserve">10.7084350585938</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">10.9797496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0645360946655</t>
+    <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9712715148926</t>
+    <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
     <t xml:space="preserve">10.6745204925537</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">10.4879913330078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5982141494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0221424102783</t>
+    <t xml:space="preserve">10.5982131958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.022141456604</t>
   </si>
   <si>
     <t xml:space="preserve">11.3188934326172</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253923416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9543132781982</t>
+    <t xml:space="preserve">10.7253913879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9543123245239</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238842010498</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">11.1747560501099</t>
   </si>
   <si>
-    <t xml:space="preserve">11.25954246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3951997756958</t>
+    <t xml:space="preserve">11.2595415115356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
     <t xml:space="preserve">11.3612852096558</t>
@@ -914,61 +914,61 @@
     <t xml:space="preserve">11.4460706710815</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6410779953003</t>
+    <t xml:space="preserve">11.641077041626</t>
   </si>
   <si>
     <t xml:space="preserve">11.8615207672119</t>
   </si>
   <si>
-    <t xml:space="preserve">11.785213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8276062011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4121561050415</t>
+    <t xml:space="preserve">11.7852125167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8276052474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4121570587158</t>
   </si>
   <si>
     <t xml:space="preserve">11.4969415664673</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156415939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9203987121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1154069900513</t>
+    <t xml:space="preserve">11.6156406402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9204006195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.115406036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.513427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677850723267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558214187622</t>
+    <t xml:space="preserve">10.3353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677841186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558195114136</t>
   </si>
   <si>
     <t xml:space="preserve">10.5388641357422</t>
   </si>
   <si>
-    <t xml:space="preserve">10.496470451355</t>
+    <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
     <t xml:space="preserve">10.5642995834351</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7423496246338</t>
+    <t xml:space="preserve">10.7423486709595</t>
   </si>
   <si>
     <t xml:space="preserve">10.9458351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8440923690796</t>
+    <t xml:space="preserve">10.8440914154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.640606880188</t>
@@ -980,55 +980,55 @@
     <t xml:space="preserve">10.5303840637207</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8356132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069269180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4291124343872</t>
+    <t xml:space="preserve">10.8356122970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4291133880615</t>
   </si>
   <si>
     <t xml:space="preserve">11.2086715698242</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2764987945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834707260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004280090332</t>
+    <t xml:space="preserve">11.27649974823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834697723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004289627075</t>
   </si>
   <si>
     <t xml:space="preserve">11.3782415390015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5138988494873</t>
+    <t xml:space="preserve">11.5138998031616</t>
   </si>
   <si>
     <t xml:space="preserve">11.5647706985474</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8699989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899696350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864860534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695278167725</t>
+    <t xml:space="preserve">11.8699998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6665124893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695287704468</t>
   </si>
   <si>
     <t xml:space="preserve">10.8186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.784743309021</t>
+    <t xml:space="preserve">10.7847423553467</t>
   </si>
   <si>
     <t xml:space="preserve">10.8016996383667</t>
@@ -1037,37 +1037,37 @@
     <t xml:space="preserve">10.9034414291382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2421131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777713775635</t>
+    <t xml:space="preserve">10.2421140670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777704238892</t>
   </si>
   <si>
     <t xml:space="preserve">10.6151714324951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1912422180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2251577377319</t>
+    <t xml:space="preserve">10.1912431716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2251567840576</t>
   </si>
   <si>
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064567565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948387145996</t>
+    <t xml:space="preserve">10.1064558029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601398468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948577880859</t>
   </si>
   <si>
     <t xml:space="preserve">9.5129566192627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36034202575684</t>
+    <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
     <t xml:space="preserve">9.63165664672852</t>
@@ -1076,40 +1076,40 @@
     <t xml:space="preserve">9.76731395721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73339939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7164421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37730026245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27555561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.224684715271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56382846832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68252849578857</t>
+    <t xml:space="preserve">9.7333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71644306182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37729835510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27555751800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22468566894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56382751464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68252754211426</t>
   </si>
   <si>
     <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1234130859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2929859161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2760286331177</t>
+    <t xml:space="preserve">10.1234140396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2929849624634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2760276794434</t>
   </si>
   <si>
     <t xml:space="preserve">9.75035572052002</t>
@@ -1118,43 +1118,43 @@
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251384735107</t>
+    <t xml:space="preserve">9.39425659179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251480102539</t>
   </si>
   <si>
     <t xml:space="preserve">9.19077110290527</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02120018005371</t>
+    <t xml:space="preserve">9.02119922637939</t>
   </si>
   <si>
     <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08902835845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7498836517334</t>
+    <t xml:space="preserve">9.08902740478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74988555908203</t>
   </si>
   <si>
     <t xml:space="preserve">8.51248550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49552822113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42769813537598</t>
+    <t xml:space="preserve">8.49552917480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42769908905029</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92746448516846</t>
+    <t xml:space="preserve">8.05464172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9274640083313</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638446807861</t>
@@ -1166,34 +1166,34 @@
     <t xml:space="preserve">8.56335735321045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59727191925049</t>
+    <t xml:space="preserve">8.59727001190186</t>
   </si>
   <si>
     <t xml:space="preserve">9.03815650939941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8516263961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78379917144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64814376831055</t>
+    <t xml:space="preserve">8.85162830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597003936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78379821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64814186096191</t>
   </si>
   <si>
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118553161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47857093811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944278717041</t>
+    <t xml:space="preserve">8.63118648529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47856998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944183349609</t>
   </si>
   <si>
     <t xml:space="preserve">8.41922092437744</t>
@@ -1211,43 +1211,43 @@
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245668411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854307174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201295852661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852794647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1813497543335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12199974060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96938562393188</t>
+    <t xml:space="preserve">7.95289945602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245620727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854211807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201391220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18134927749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12199926376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96938610076904</t>
   </si>
   <si>
     <t xml:space="preserve">6.87612056732178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3339638710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30004835128784</t>
+    <t xml:space="preserve">7.33396339416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30004930496216</t>
   </si>
   <si>
     <t xml:space="preserve">7.06264925003052</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01177883148193</t>
+    <t xml:space="preserve">7.01177835464478</t>
   </si>
   <si>
     <t xml:space="preserve">6.99482154846191</t>
@@ -1259,25 +1259,25 @@
     <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39331340789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36787796020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635660171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80028486251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69006252288818</t>
+    <t xml:space="preserve">7.39331436157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36787748336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635612487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80028533935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6900634765625</t>
   </si>
   <si>
     <t xml:space="preserve">8.13942909240723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19029903411865</t>
+    <t xml:space="preserve">8.19030094146729</t>
   </si>
   <si>
     <t xml:space="preserve">8.11399173736572</t>
@@ -1286,16 +1286,16 @@
     <t xml:space="preserve">7.85115718841553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78332805633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092163085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.435706615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24917793273926</t>
+    <t xml:space="preserve">7.78332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092115402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43570709228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2491774559021</t>
   </si>
   <si>
     <t xml:space="preserve">7.34244251251221</t>
@@ -1316,22 +1316,22 @@
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414226531982</t>
+    <t xml:space="preserve">6.27414274215698</t>
   </si>
   <si>
     <t xml:space="preserve">6.2402286529541</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69807147979736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93547105789185</t>
+    <t xml:space="preserve">6.69807100296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.935471534729</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52002143859863</t>
+    <t xml:space="preserve">6.52002096176147</t>
   </si>
   <si>
     <t xml:space="preserve">6.33349227905273</t>
@@ -1343,7 +1343,7 @@
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764287948608</t>
+    <t xml:space="preserve">6.86764240264893</t>
   </si>
   <si>
     <t xml:space="preserve">7.24070024490356</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">6.85916423797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72350645065308</t>
+    <t xml:space="preserve">6.72350740432739</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
@@ -1364,34 +1364,34 @@
     <t xml:space="preserve">6.67263507843018</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62176370620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56241416931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588548660278</t>
+    <t xml:space="preserve">6.62176322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56241321563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588500976562</t>
   </si>
   <si>
     <t xml:space="preserve">6.26566362380981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32501459121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44371366500854</t>
+    <t xml:space="preserve">6.32501363754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44371318817139</t>
   </si>
   <si>
     <t xml:space="preserve">6.52849912643433</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38436412811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34197044372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5963282585144</t>
+    <t xml:space="preserve">6.38436365127563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34197092056274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59632778167725</t>
   </si>
   <si>
     <t xml:space="preserve">6.57937145233154</t>
@@ -1403,31 +1403,31 @@
     <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19830656051636</t>
+    <t xml:space="preserve">7.1983060836792</t>
   </si>
   <si>
     <t xml:space="preserve">7.29157114028931</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15591430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13047742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0372142791748</t>
+    <t xml:space="preserve">7.15591335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13047790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03721380233765</t>
   </si>
   <si>
     <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090602874756</t>
+    <t xml:space="preserve">6.96090650558472</t>
   </si>
   <si>
     <t xml:space="preserve">6.79133558273315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7404637336731</t>
+    <t xml:space="preserve">6.74046325683594</t>
   </si>
   <si>
     <t xml:space="preserve">6.46914958953857</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">6.45219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40979957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23174953460693</t>
+    <t xml:space="preserve">6.40979909896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23174905776978</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01130628585815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96891355514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.155442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087768554688</t>
+    <t xml:space="preserve">6.01130676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96891403198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15544271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087863922119</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132141113281</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388105392456</t>
+    <t xml:space="preserve">6.42388153076172</t>
   </si>
   <si>
     <t xml:space="preserve">6.2490816116333</t>
@@ -1490,10 +1490,10 @@
     <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35396146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34522104263306</t>
+    <t xml:space="preserve">6.35396099090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34522151947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
@@ -1502,34 +1502,34 @@
     <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24034214019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20538139343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50254106521606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45010089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25782155990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37144088745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29278182983398</t>
+    <t xml:space="preserve">6.2403416633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20538187026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50254058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45010137557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25782108306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37144136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
     <t xml:space="preserve">6.3190016746521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41514110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3277416229248</t>
+    <t xml:space="preserve">6.41514158248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32774114608765</t>
   </si>
   <si>
     <t xml:space="preserve">6.27530145645142</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">6.10924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19664144515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23160171508789</t>
+    <t xml:space="preserve">6.19664192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23160219192505</t>
   </si>
   <si>
     <t xml:space="preserve">6.03058242797852</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97814226150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9956226348877</t>
+    <t xml:space="preserve">5.97814273834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688268661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99562311172485</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184247970581</t>
+    <t xml:space="preserve">6.02184200286865</t>
   </si>
   <si>
     <t xml:space="preserve">5.96940231323242</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">6.07428216934204</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15294170379639</t>
+    <t xml:space="preserve">6.15294122695923</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
@@ -1595,25 +1595,25 @@
     <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1704216003418</t>
+    <t xml:space="preserve">6.17042207717896</t>
   </si>
   <si>
     <t xml:space="preserve">5.85578298568726</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91696262359619</t>
+    <t xml:space="preserve">5.91696214675903</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066236495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94318294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9344425201416</t>
+    <t xml:space="preserve">5.96066284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94318246841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93444204330444</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624080657959</t>
+    <t xml:space="preserve">6.54624032974243</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">6.46758079528809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66860055923462</t>
+    <t xml:space="preserve">6.66860103607178</t>
   </si>
   <si>
     <t xml:space="preserve">6.64238023757935</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70355987548828</t>
+    <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
     <t xml:space="preserve">6.8870997428894</t>
@@ -1652,34 +1652,34 @@
     <t xml:space="preserve">6.86087989807129</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84339952468872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77348041534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89583921432495</t>
+    <t xml:space="preserve">6.84340000152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7734808921814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89583969116211</t>
   </si>
   <si>
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2716588973999</t>
+    <t xml:space="preserve">7.27165842056274</t>
   </si>
   <si>
     <t xml:space="preserve">7.42897844314575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58629751205444</t>
+    <t xml:space="preserve">7.5862979888916</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56007766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55133819580078</t>
+    <t xml:space="preserve">7.56007719039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55133867263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.60377740859985</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54259824752808</t>
+    <t xml:space="preserve">7.62999677658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54259777069092</t>
   </si>
   <si>
     <t xml:space="preserve">7.51637840270996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57755851745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56881809234619</t>
+    <t xml:space="preserve">7.5775580406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
     <t xml:space="preserve">7.39401817321777</t>
@@ -1721,22 +1721,22 @@
     <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84849691390991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85723638534546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76109743118286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73487758636475</t>
+    <t xml:space="preserve">7.8484959602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8572359085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76109790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73487710952759</t>
   </si>
   <si>
     <t xml:space="preserve">7.52511692047119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5076379776001</t>
+    <t xml:space="preserve">7.50763845443726</t>
   </si>
   <si>
     <t xml:space="preserve">7.36779832839966</t>
@@ -1745,25 +1745,25 @@
     <t xml:space="preserve">7.18425941467285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22795963287354</t>
+    <t xml:space="preserve">7.22796010971069</t>
   </si>
   <si>
     <t xml:space="preserve">7.1230788230896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98323917388916</t>
+    <t xml:space="preserve">6.98323965072632</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68608045578003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49380111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136047363281</t>
+    <t xml:space="preserve">6.68607997894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4938006401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136095046997</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490081787109</t>
@@ -1778,28 +1778,28 @@
     <t xml:space="preserve">6.79970026016235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72104072570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65986013412476</t>
+    <t xml:space="preserve">6.72104024887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65986061096191</t>
   </si>
   <si>
     <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84704351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78586292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374345779419</t>
+    <t xml:space="preserve">5.84704303741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78586339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374393463135</t>
   </si>
   <si>
     <t xml:space="preserve">5.20028448104858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63218688964844</t>
+    <t xml:space="preserve">4.63218641281128</t>
   </si>
   <si>
     <t xml:space="preserve">4.64092636108398</t>
@@ -1811,22 +1811,22 @@
     <t xml:space="preserve">4.36561727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45738744735718</t>
+    <t xml:space="preserve">4.45738697052002</t>
   </si>
   <si>
     <t xml:space="preserve">4.1645975112915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96357774734497</t>
+    <t xml:space="preserve">3.96357822418213</t>
   </si>
   <si>
     <t xml:space="preserve">3.89365863800049</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84995913505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78877925872803</t>
+    <t xml:space="preserve">3.84995889663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78877902030945</t>
   </si>
   <si>
     <t xml:space="preserve">3.85432839393616</t>
@@ -1841,16 +1841,16 @@
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885895729065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77566909790039</t>
+    <t xml:space="preserve">3.71885919570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77566933631897</t>
   </si>
   <si>
     <t xml:space="preserve">3.72322940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66204953193665</t>
+    <t xml:space="preserve">3.66204929351807</t>
   </si>
   <si>
     <t xml:space="preserve">3.70574903488159</t>
@@ -1859,10 +1859,10 @@
     <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02038812637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01164817810059</t>
+    <t xml:space="preserve">4.02038860321045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01164865493774</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3525071144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478645324707</t>
+    <t xml:space="preserve">4.35250759124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478693008423</t>
   </si>
   <si>
     <t xml:space="preserve">4.89438581466675</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">4.77202606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84194612503052</t>
+    <t xml:space="preserve">4.84194564819336</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446575164795</t>
@@ -1910,19 +1910,19 @@
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54957580566406</t>
+    <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
     <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73155832290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615427017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76795482635498</t>
+    <t xml:space="preserve">4.73155879974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615379333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76795530319214</t>
   </si>
   <si>
     <t xml:space="preserve">4.87714529037476</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67786979675293</t>
+    <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
     <t xml:space="preserve">5.62327527999878</t>
@@ -1967,34 +1967,34 @@
     <t xml:space="preserve">5.55048179626465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53228425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56868028640747</t>
+    <t xml:space="preserve">5.53228378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56868076324463</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030078887939</t>
+    <t xml:space="preserve">5.35030031204224</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51408576965332</t>
+    <t xml:space="preserve">5.51408529281616</t>
   </si>
   <si>
     <t xml:space="preserve">5.6414737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45949029922485</t>
+    <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
     <t xml:space="preserve">5.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42309379577637</t>
+    <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
     <t xml:space="preserve">5.1683177947998</t>
@@ -2003,10 +2003,10 @@
     <t xml:space="preserve">5.09552478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20471382141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18651580810547</t>
+    <t xml:space="preserve">5.20471429824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18651628494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.36849927902222</t>
@@ -2033,28 +2033,28 @@
     <t xml:space="preserve">5.00453281402588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13192129135132</t>
+    <t xml:space="preserve">5.13192081451416</t>
   </si>
   <si>
     <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633480072021</t>
+    <t xml:space="preserve">4.98633527755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04093027114868</t>
+    <t xml:space="preserve">5.04092979431152</t>
   </si>
   <si>
     <t xml:space="preserve">5.4958872795105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22291231155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27750825881958</t>
+    <t xml:space="preserve">5.22291278839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27750778198242</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534330368042</t>
+    <t xml:space="preserve">4.89534282684326</t>
   </si>
   <si>
     <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44129228591919</t>
+    <t xml:space="preserve">5.44129276275635</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">6.11462926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24201774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16922473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27841472625732</t>
+    <t xml:space="preserve">6.24201822280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16922426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27841424942017</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4603967666626</t>
+    <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
     <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42400026321411</t>
+    <t xml:space="preserve">6.42400074005127</t>
   </si>
   <si>
     <t xml:space="preserve">6.55138874053955</t>
@@ -2144,22 +2144,22 @@
     <t xml:space="preserve">6.96994924545288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95175123214722</t>
+    <t xml:space="preserve">6.95175170898438</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355274200439</t>
+    <t xml:space="preserve">6.93355321884155</t>
   </si>
   <si>
     <t xml:space="preserve">6.80616474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71517324447632</t>
+    <t xml:space="preserve">6.76976823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71517372131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877674102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98814821243286</t>
+    <t xml:space="preserve">6.67877721786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
     <t xml:space="preserve">6.89715671539307</t>
@@ -2186,16 +2186,16 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013072967529</t>
+    <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02454471588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00634622573853</t>
+    <t xml:space="preserve">7.02454423904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00634574890137</t>
   </si>
   <si>
     <t xml:space="preserve">7.09733819961548</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094121932983</t>
+    <t xml:space="preserve">7.06094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">6.91535472869873</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29751968383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24292469024658</t>
+    <t xml:space="preserve">7.29752016067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
     <t xml:space="preserve">7.15193319320679</t>
@@ -2237,22 +2237,22 @@
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824466705322</t>
+    <t xml:space="preserve">8.09824371337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97085666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98905372619629</t>
+    <t xml:space="preserve">7.9708571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98905420303345</t>
   </si>
   <si>
     <t xml:space="preserve">7.82527017593384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87986516952515</t>
+    <t xml:space="preserve">7.87986469268799</t>
   </si>
   <si>
     <t xml:space="preserve">8.04364967346191</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9344596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95265769958496</t>
+    <t xml:space="preserve">7.78887319564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265817642212</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59792,7 +59792,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.649525463</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>2818</v>
@@ -59813,6 +59813,32 @@
         <v>1064</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6493981481</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>1706</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>16.5499992370605</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05369901657104</t>
+    <t xml:space="preserve">6.0536994934082</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19359588623047</t>
+    <t xml:space="preserve">6.19359636306763</t>
   </si>
   <si>
     <t xml:space="preserve">6.1893572807312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06217861175537</t>
+    <t xml:space="preserve">6.06217813491821</t>
   </si>
   <si>
     <t xml:space="preserve">6.22327089309692</t>
@@ -71,25 +71,25 @@
     <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97739219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05793857574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17239952087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35892820358276</t>
+    <t xml:space="preserve">5.97739267349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05793905258179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17239999771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35892772674561</t>
   </si>
   <si>
     <t xml:space="preserve">6.3504490852356</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21055269241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1681604385376</t>
+    <t xml:space="preserve">6.21055316925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16815996170044</t>
   </si>
   <si>
     <t xml:space="preserve">6.12152814865112</t>
@@ -101,43 +101,43 @@
     <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85445308685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85021448135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65096807479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68064260482788</t>
+    <t xml:space="preserve">5.85445356369019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8502140045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65096712112427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68064165115356</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59585666656494</t>
+    <t xml:space="preserve">5.59585618972778</t>
   </si>
   <si>
     <t xml:space="preserve">5.91804218292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93499994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04946088790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91380262374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89260625839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01978492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0155463218689</t>
+    <t xml:space="preserve">5.93499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04946041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91380310058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89260673522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01978540420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">6.0028281211853</t>
@@ -152,28 +152,28 @@
     <t xml:space="preserve">5.62977075576782</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9010853767395</t>
+    <t xml:space="preserve">5.90108585357666</t>
   </si>
   <si>
     <t xml:space="preserve">5.92228174209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82477855682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89684629440308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83325624465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79086446762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03674268722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446725845337</t>
+    <t xml:space="preserve">5.82477760314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89684534072876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83325672149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79086351394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03674173355103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446773529053</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">6.22751045227051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11304903030396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706720352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88836717605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98587083816528</t>
+    <t xml:space="preserve">6.11304950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706768035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88836765289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98587036132812</t>
   </si>
   <si>
     <t xml:space="preserve">5.88412857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87988901138306</t>
+    <t xml:space="preserve">5.8798885345459</t>
   </si>
   <si>
     <t xml:space="preserve">5.98163175582886</t>
@@ -206,46 +206,46 @@
     <t xml:space="preserve">5.87141084671021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07913541793823</t>
+    <t xml:space="preserve">6.07913494110107</t>
   </si>
   <si>
     <t xml:space="preserve">6.20631408691406</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08337450027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14272451400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95619678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173488616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390623092651</t>
+    <t xml:space="preserve">6.08337497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14272403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95619630813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173440933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
     <t xml:space="preserve">5.76118898391724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80782032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.829017162323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93076038360596</t>
+    <t xml:space="preserve">5.80782127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82901763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9307599067688</t>
   </si>
   <si>
     <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99858808517456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28262090682983</t>
+    <t xml:space="preserve">5.99858903884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28262138366699</t>
   </si>
   <si>
     <t xml:space="preserve">6.13000679016113</t>
@@ -254,25 +254,25 @@
     <t xml:space="preserve">6.18511724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04522132873535</t>
+    <t xml:space="preserve">6.04522180557251</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07489633560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10033226013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99434995651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08761405944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99011087417603</t>
+    <t xml:space="preserve">6.07489585876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10033178329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99434947967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08761358261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
     <t xml:space="preserve">5.81629991531372</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">5.73999261856079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76542854309082</t>
+    <t xml:space="preserve">5.76542901992798</t>
   </si>
   <si>
     <t xml:space="preserve">5.75694990158081</t>
@@ -296,31 +296,31 @@
     <t xml:space="preserve">5.63824987411499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65944671630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60433578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72303533554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71031761169434</t>
+    <t xml:space="preserve">5.65944576263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60433530807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72303485870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71031808853149</t>
   </si>
   <si>
     <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835348129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57889986038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58737802505493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313846588135</t>
+    <t xml:space="preserve">5.49835300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57889938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58737850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313941955566</t>
   </si>
   <si>
     <t xml:space="preserve">5.5746603012085</t>
@@ -332,22 +332,22 @@
     <t xml:space="preserve">5.40932846069336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25247430801392</t>
+    <t xml:space="preserve">5.25247478485107</t>
   </si>
   <si>
     <t xml:space="preserve">5.24823570251465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32454299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37965393066406</t>
+    <t xml:space="preserve">5.32454252243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37965250015259</t>
   </si>
   <si>
     <t xml:space="preserve">5.511070728302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06594562530518</t>
+    <t xml:space="preserve">5.06594610214233</t>
   </si>
   <si>
     <t xml:space="preserve">5.18888521194458</t>
@@ -356,61 +356,61 @@
     <t xml:space="preserve">5.1040997505188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.87093925476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90061378479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80734968185425</t>
+    <t xml:space="preserve">4.87093877792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9006142616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80735015869141</t>
   </si>
   <si>
     <t xml:space="preserve">4.83278512954712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66321325302124</t>
+    <t xml:space="preserve">4.66321420669556</t>
   </si>
   <si>
     <t xml:space="preserve">4.53603553771973</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52331686019897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396684646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47244644165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36646461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.62506103515625</t>
+    <t xml:space="preserve">4.52331829071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47244596481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36646413803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.62506055831909</t>
   </si>
   <si>
     <t xml:space="preserve">4.73952102661133</t>
   </si>
   <si>
-    <t xml:space="preserve">4.74799966812134</t>
+    <t xml:space="preserve">4.74799919128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.00235748291016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04474925994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714199066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31182384490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33726024627686</t>
+    <t xml:space="preserve">5.04474973678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312524795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31182479858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33726072311401</t>
   </si>
   <si>
     <t xml:space="preserve">5.36693525314331</t>
@@ -419,19 +419,19 @@
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476438522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095342636108</t>
+    <t xml:space="preserve">5.43476343154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095247268677</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040704727173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20584201812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28214979171753</t>
+    <t xml:space="preserve">5.2058424949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28215026855469</t>
   </si>
   <si>
     <t xml:space="preserve">5.22279930114746</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9514856338501</t>
+    <t xml:space="preserve">4.95148515701294</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
@@ -449,10 +449,10 @@
     <t xml:space="preserve">4.97692108154297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16344976425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21432161331177</t>
+    <t xml:space="preserve">5.16345024108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21432113647461</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008157730103</t>
@@ -467,22 +467,22 @@
     <t xml:space="preserve">5.34149980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30334615707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084981918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54922437667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56618165969849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61281394958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59161758422852</t>
+    <t xml:space="preserve">5.30334663391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084934234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54922485351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56618213653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61281442642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59161710739136</t>
   </si>
   <si>
     <t xml:space="preserve">5.55770301818848</t>
@@ -497,61 +497,61 @@
     <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44324207305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48987483978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51955032348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76966762542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68488216400146</t>
+    <t xml:space="preserve">5.44324254989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48987436294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51954984664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76966714859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
     <t xml:space="preserve">5.7781457901001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92652082443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48610687255859</t>
+    <t xml:space="preserve">5.92652130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48610639572144</t>
   </si>
   <si>
     <t xml:space="preserve">6.60056734085083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61328554153442</t>
+    <t xml:space="preserve">6.61328506469727</t>
   </si>
   <si>
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526432037354</t>
+    <t xml:space="preserve">7.21526479721069</t>
   </si>
   <si>
     <t xml:space="preserve">7.63919258117676</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11352109909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0456919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20678567886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777387619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353574752808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874933242798</t>
+    <t xml:space="preserve">7.11352062225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04569244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20678472518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50777435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874980926514</t>
   </si>
   <si>
     <t xml:space="preserve">7.61799621582031</t>
@@ -563,31 +563,31 @@
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42722845077515</t>
+    <t xml:space="preserve">7.64767122268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722797393799</t>
   </si>
   <si>
     <t xml:space="preserve">7.59255981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46114301681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52049207687378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266437530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440616607666</t>
+    <t xml:space="preserve">7.46114253997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52049160003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266342163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440759658813</t>
   </si>
   <si>
     <t xml:space="preserve">7.73669576644897</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91898536682129</t>
+    <t xml:space="preserve">7.91898488998413</t>
   </si>
   <si>
     <t xml:space="preserve">8.00377082824707</t>
@@ -599,85 +599,85 @@
     <t xml:space="preserve">8.03768444061279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931083679199</t>
+    <t xml:space="preserve">7.96561670303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931179046631</t>
   </si>
   <si>
     <t xml:space="preserve">7.82148122787476</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93594121932983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0249662399292</t>
+    <t xml:space="preserve">7.93594264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02496719360352</t>
   </si>
   <si>
     <t xml:space="preserve">8.30052185058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36834907531738</t>
+    <t xml:space="preserve">8.3683500289917</t>
   </si>
   <si>
     <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28356456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73292922973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91945743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8346700668335</t>
+    <t xml:space="preserve">8.28356552124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73292827606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91945648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83467102050781</t>
   </si>
   <si>
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90249919891357</t>
+    <t xml:space="preserve">8.90250015258789</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32642650604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79275035858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83514308929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6146993637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49599933624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41121482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.368821144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23316383361816</t>
+    <t xml:space="preserve">9.32642841339111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79274940490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83514213562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61470031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599838256836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41121387481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36882019042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23316287994385</t>
   </si>
   <si>
     <t xml:space="preserve">9.07207107543945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30099296569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28403472900391</t>
+    <t xml:space="preserve">9.30099201202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28403568267822</t>
   </si>
   <si>
     <t xml:space="preserve">9.11446380615234</t>
@@ -686,61 +686,61 @@
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12294292449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53839111328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45360660552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34338665008545</t>
+    <t xml:space="preserve">9.1229419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53839206695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45360565185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34338474273682</t>
   </si>
   <si>
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16533470153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837741851807</t>
+    <t xml:space="preserve">9.1653356552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837837219238</t>
   </si>
   <si>
     <t xml:space="preserve">9.05511379241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9618501663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89402198791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7753210067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86010646820068</t>
+    <t xml:space="preserve">8.96184921264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89402008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77532196044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.860107421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38577842712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58078670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44512748718262</t>
+    <t xml:space="preserve">9.40273571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969203948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38577747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58078479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44512844085693</t>
   </si>
   <si>
     <t xml:space="preserve">9.64861392974854</t>
@@ -758,55 +758,55 @@
     <t xml:space="preserve">10.3014631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4032077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184204101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0725431442261</t>
+    <t xml:space="preserve">10.4032068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184213638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286422729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590703964233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0725421905518</t>
   </si>
   <si>
     <t xml:space="preserve">10.0047149658203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2336349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4625558853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.369291305542</t>
+    <t xml:space="preserve">9.92840671539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2336339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4625577926636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3692922592163</t>
   </si>
   <si>
     <t xml:space="preserve">10.479513168335</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1742839813232</t>
+    <t xml:space="preserve">10.1742849349976</t>
   </si>
   <si>
     <t xml:space="preserve">10.4371204376221</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3268995285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4710359573364</t>
+    <t xml:space="preserve">10.3269004821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4710350036621</t>
   </si>
   <si>
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288778305054</t>
+    <t xml:space="preserve">10.9288787841797</t>
   </si>
   <si>
     <t xml:space="preserve">11.005184173584</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">10.2166786193848</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4540786743164</t>
+    <t xml:space="preserve">10.4540777206421</t>
   </si>
   <si>
     <t xml:space="preserve">10.6999568939209</t>
@@ -830,31 +830,31 @@
     <t xml:space="preserve">10.2081995010376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.547342300415</t>
+    <t xml:space="preserve">10.5473403930664</t>
   </si>
   <si>
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9797496795654</t>
+    <t xml:space="preserve">10.7169141769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9797487258911</t>
   </si>
   <si>
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917133331299</t>
+    <t xml:space="preserve">11.1917123794556</t>
   </si>
   <si>
     <t xml:space="preserve">10.9712705612183</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6745204925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4879913330078</t>
+    <t xml:space="preserve">10.674521446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4879922866821</t>
   </si>
   <si>
     <t xml:space="preserve">10.5982131958008</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">11.022141456604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3188934326172</t>
+    <t xml:space="preserve">11.3188915252686</t>
   </si>
   <si>
     <t xml:space="preserve">11.0136632919312</t>
@@ -878,28 +878,28 @@
     <t xml:space="preserve">10.7253913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9543123245239</t>
+    <t xml:space="preserve">10.9543132781982</t>
   </si>
   <si>
     <t xml:space="preserve">11.1238842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1408424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6919498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393352508545</t>
+    <t xml:space="preserve">11.1408433914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.691948890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393342971802</t>
   </si>
   <si>
     <t xml:space="preserve">11.5732488632202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5308570861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1747560501099</t>
+    <t xml:space="preserve">11.530858039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1747570037842</t>
   </si>
   <si>
     <t xml:space="preserve">11.2595415115356</t>
@@ -908,34 +908,34 @@
     <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3612852096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4460706710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.641077041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615207672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7852125167847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8276052474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4121570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4969415664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6156406402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9204006195068</t>
+    <t xml:space="preserve">11.3612833023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4460697174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6410779953003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615198135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.785213470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8276062011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4121561050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4969425201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6156425476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9203987121582</t>
   </si>
   <si>
     <t xml:space="preserve">11.115406036377</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">10.513427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3353786468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7677841186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558195114136</t>
+    <t xml:space="preserve">10.3353776931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677850723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558204650879</t>
   </si>
   <si>
     <t xml:space="preserve">10.5388641357422</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5642995834351</t>
+    <t xml:space="preserve">10.5643005371094</t>
   </si>
   <si>
     <t xml:space="preserve">10.7423486709595</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">10.9458351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8440914154053</t>
+    <t xml:space="preserve">10.8440923690796</t>
   </si>
   <si>
     <t xml:space="preserve">10.640606880188</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">10.0979785919189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5303840637207</t>
+    <t xml:space="preserve">10.530385017395</t>
   </si>
   <si>
     <t xml:space="preserve">10.8356122970581</t>
@@ -989,40 +989,40 @@
     <t xml:space="preserve">11.4291133880615</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2086715698242</t>
+    <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
     <t xml:space="preserve">11.27649974823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6834697723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7004289627075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3782415390015</t>
+    <t xml:space="preserve">11.6834688186646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7004280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3782424926758</t>
   </si>
   <si>
     <t xml:space="preserve">11.5138998031616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5647706985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8699998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6665124893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864841461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695287704468</t>
+    <t xml:space="preserve">11.5647716522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8699989318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899705886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864850997925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.8186569213867</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">10.7847423553467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8016996383667</t>
+    <t xml:space="preserve">10.8016986846924</t>
   </si>
   <si>
     <t xml:space="preserve">10.9034414291382</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">10.3777704238892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151714324951</t>
+    <t xml:space="preserve">10.6151704788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.1912431716919</t>
@@ -1055,10 +1055,10 @@
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064558029175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601398468018</t>
+    <t xml:space="preserve">10.1064567565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601303100586</t>
   </si>
   <si>
     <t xml:space="preserve">9.69948577880859</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">9.36034297943115</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63165664672852</t>
+    <t xml:space="preserve">9.6316556930542</t>
   </si>
   <si>
     <t xml:space="preserve">9.76731395721436</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">9.71644306182861</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37729835510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27555751800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22468566894531</t>
+    <t xml:space="preserve">9.37729930877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27555561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22468662261963</t>
   </si>
   <si>
     <t xml:space="preserve">9.47904205322266</t>
@@ -1097,34 +1097,34 @@
     <t xml:space="preserve">9.56382751464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68252754211426</t>
+    <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
     <t xml:space="preserve">9.8181848526001</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1234140396118</t>
+    <t xml:space="preserve">10.1234130859375</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929849624634</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2760276794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75035572052002</t>
+    <t xml:space="preserve">10.2760286331177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75035667419434</t>
   </si>
   <si>
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425659179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077110290527</t>
+    <t xml:space="preserve">9.39425563812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251384735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077014923096</t>
   </si>
   <si>
     <t xml:space="preserve">9.02119922637939</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9274640083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15638446807861</t>
+    <t xml:space="preserve">8.0546407699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15638542175293</t>
   </si>
   <si>
     <t xml:space="preserve">8.37682819366455</t>
@@ -1166,142 +1166,142 @@
     <t xml:space="preserve">8.56335735321045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59727001190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03815650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85162830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71597003936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78379821777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64814186096191</t>
+    <t xml:space="preserve">8.59727096557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03815746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85162734985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71597099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78379917144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64814281463623</t>
   </si>
   <si>
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118648529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47856998443604</t>
+    <t xml:space="preserve">8.63118457794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47857189178467</t>
   </si>
   <si>
     <t xml:space="preserve">8.52944183349609</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41922092437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33443450927734</t>
+    <t xml:space="preserve">8.41921997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33443546295166</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378452301025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34291362762451</t>
+    <t xml:space="preserve">8.3429126739502</t>
   </si>
   <si>
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245620727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854211807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201391220093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30852746963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18134927749634</t>
+    <t xml:space="preserve">7.95289897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30852794647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1813497543335</t>
   </si>
   <si>
     <t xml:space="preserve">7.12199926376343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96938610076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87612056732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33396339416504</t>
+    <t xml:space="preserve">6.96938562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87612009048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33396434783936</t>
   </si>
   <si>
     <t xml:space="preserve">7.30004930496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06264925003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01177835464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99482154846191</t>
+    <t xml:space="preserve">7.06264972686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01177883148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9948205947876</t>
   </si>
   <si>
     <t xml:space="preserve">7.09656381607056</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13895702362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331436157227</t>
+    <t xml:space="preserve">7.13895654678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331340789795</t>
   </si>
   <si>
     <t xml:space="preserve">7.36787748336792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37635612487793</t>
+    <t xml:space="preserve">7.37635660171509</t>
   </si>
   <si>
     <t xml:space="preserve">7.80028533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6900634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19030094146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11399173736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85115718841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78332901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092115402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43570709228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2491774559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34244251251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92699193954468</t>
+    <t xml:space="preserve">7.69006395339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19029998779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11399269104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85115671157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78332805633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43570756912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24917793273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34244203567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
     <t xml:space="preserve">6.82524967193604</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2402286529541</t>
+    <t xml:space="preserve">6.27414226531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24022817611694</t>
   </si>
   <si>
     <t xml:space="preserve">6.69807100296021</t>
@@ -1334,25 +1334,25 @@
     <t xml:space="preserve">6.52002096176147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33349227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51154279708862</t>
+    <t xml:space="preserve">6.33349275588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51154232025146</t>
   </si>
   <si>
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24070024490356</t>
+    <t xml:space="preserve">6.86764287948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069976806641</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916423797607</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72350740432739</t>
+    <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
     <t xml:space="preserve">6.6471996307373</t>
@@ -1361,10 +1361,10 @@
     <t xml:space="preserve">6.68111371994019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263507843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62176322937012</t>
+    <t xml:space="preserve">6.67263555526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
     <t xml:space="preserve">6.56241321563721</t>
@@ -1373,46 +1373,46 @@
     <t xml:space="preserve">6.37588500976562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26566362380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32501363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44371318817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52849912643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38436365127563</t>
+    <t xml:space="preserve">6.26566410064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32501316070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44371366500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52850008010864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
     <t xml:space="preserve">6.34197092056274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59632778167725</t>
+    <t xml:space="preserve">6.5963282585144</t>
   </si>
   <si>
     <t xml:space="preserve">6.57937145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74894285202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88459968566895</t>
+    <t xml:space="preserve">6.74894189834595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88459920883179</t>
   </si>
   <si>
     <t xml:space="preserve">7.1983060836792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29157114028931</t>
+    <t xml:space="preserve">7.29157161712646</t>
   </si>
   <si>
     <t xml:space="preserve">7.15591335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13047790527344</t>
+    <t xml:space="preserve">7.1304783821106</t>
   </si>
   <si>
     <t xml:space="preserve">7.03721380233765</t>
@@ -1427,19 +1427,19 @@
     <t xml:space="preserve">6.79133558273315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74046325683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46914958953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29109954833984</t>
+    <t xml:space="preserve">6.7404637336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46914911270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.291100025177</t>
   </si>
   <si>
     <t xml:space="preserve">6.45219278335571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40979909896851</t>
+    <t xml:space="preserve">6.40979957580566</t>
   </si>
   <si>
     <t xml:space="preserve">6.23174905776978</t>
@@ -1448,16 +1448,16 @@
     <t xml:space="preserve">6.02826404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01130676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96891403198242</t>
+    <t xml:space="preserve">6.01130723953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96891355514526</t>
   </si>
   <si>
     <t xml:space="preserve">6.15544271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18087863922119</t>
+    <t xml:space="preserve">6.18087768554688</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132141113281</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388153076172</t>
+    <t xml:space="preserve">6.42388105392456</t>
   </si>
   <si>
     <t xml:space="preserve">6.2490816116333</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">6.08302211761475</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12672233581543</t>
+    <t xml:space="preserve">6.12672185897827</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35396099090576</t>
+    <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
     <t xml:space="preserve">6.34522151947021</t>
@@ -1508,31 +1508,31 @@
     <t xml:space="preserve">6.20538187026978</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50254058837891</t>
+    <t xml:space="preserve">6.50254106521606</t>
   </si>
   <si>
     <t xml:space="preserve">6.45010137557983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25782108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37144136428833</t>
+    <t xml:space="preserve">6.25782155990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37144088745117</t>
   </si>
   <si>
     <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3190016746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41514158248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32774114608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27530145645142</t>
+    <t xml:space="preserve">6.31900119781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41514110565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3277416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27530097961426</t>
   </si>
   <si>
     <t xml:space="preserve">6.11798191070557</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">6.23160219192505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03058242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97814273834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98688268661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99562311172485</t>
+    <t xml:space="preserve">6.03058195114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97814226150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98688220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9956226348877</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1565,28 +1565,28 @@
     <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184200286865</t>
+    <t xml:space="preserve">6.02184247970581</t>
   </si>
   <si>
     <t xml:space="preserve">5.96940231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01310253143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17916202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03932237625122</t>
+    <t xml:space="preserve">6.01310205459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1791615486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03932285308838</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428216934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15294122695923</t>
+    <t xml:space="preserve">6.07428169250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15294218063354</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">6.31026124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17042207717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85578298568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91696214675903</t>
+    <t xml:space="preserve">6.1704216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8557825088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91696262359619</t>
   </si>
   <si>
     <t xml:space="preserve">5.95192241668701</t>
@@ -1610,10 +1610,10 @@
     <t xml:space="preserve">5.96066284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94318246841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93444204330444</t>
+    <t xml:space="preserve">5.94318294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9344425201416</t>
   </si>
   <si>
     <t xml:space="preserve">5.89948272705078</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">6.55498075485229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54624032974243</t>
+    <t xml:space="preserve">6.54624080657959</t>
   </si>
   <si>
     <t xml:space="preserve">6.52876091003418</t>
@@ -1637,25 +1637,25 @@
     <t xml:space="preserve">6.46758079528809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66860103607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64238023757935</t>
+    <t xml:space="preserve">6.66860055923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6423807144165</t>
   </si>
   <si>
     <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8870997428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86087989807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84340000152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7734808921814</t>
+    <t xml:space="preserve">6.88710021972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86087942123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84339952468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77348041534424</t>
   </si>
   <si>
     <t xml:space="preserve">6.89583969116211</t>
@@ -1667,10 +1667,10 @@
     <t xml:space="preserve">7.27165842056274</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42897844314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5862979888916</t>
+    <t xml:space="preserve">7.42897796630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58629846572876</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527822494507</t>
@@ -1688,19 +1688,19 @@
     <t xml:space="preserve">7.49015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385782241821</t>
+    <t xml:space="preserve">7.53385829925537</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62999677658081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54259777069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51637840270996</t>
+    <t xml:space="preserve">7.62999725341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54259824752808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51637744903564</t>
   </si>
   <si>
     <t xml:space="preserve">7.5775580406189</t>
@@ -1709,46 +1709,46 @@
     <t xml:space="preserve">7.56881761550903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39401817321777</t>
+    <t xml:space="preserve">7.39401865005493</t>
   </si>
   <si>
     <t xml:space="preserve">7.70865678787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76983737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8484959602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8572359085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76109790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73487710952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52511692047119</t>
+    <t xml:space="preserve">7.76983833312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84849691390991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85723733901978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76109743118286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73487854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52511739730835</t>
   </si>
   <si>
     <t xml:space="preserve">7.50763845443726</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779832839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18425941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22796010971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1230788230896</t>
+    <t xml:space="preserve">7.36779880523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18425893783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22795915603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12307929992676</t>
   </si>
   <si>
     <t xml:space="preserve">6.98323965072632</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">6.75600004196167</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68607997894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4938006401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136095046997</t>
+    <t xml:space="preserve">6.68608045578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136047363281</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490081787109</t>
@@ -1781,28 +1781,28 @@
     <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65986061096191</t>
+    <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
     <t xml:space="preserve">5.83830261230469</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84704303741455</t>
+    <t xml:space="preserve">5.84704351425171</t>
   </si>
   <si>
     <t xml:space="preserve">5.78586339950562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45374393463135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028448104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63218641281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.64092636108398</t>
+    <t xml:space="preserve">5.45374345779419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028495788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63218688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.64092588424683</t>
   </si>
   <si>
     <t xml:space="preserve">4.36998701095581</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">4.36561727523804</t>
   </si>
   <si>
-    <t xml:space="preserve">4.45738697052002</t>
+    <t xml:space="preserve">4.45738744735718</t>
   </si>
   <si>
     <t xml:space="preserve">4.1645975112915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96357822418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995889663696</t>
+    <t xml:space="preserve">3.96357870101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995913505554</t>
   </si>
   <si>
     <t xml:space="preserve">3.78877902030945</t>
@@ -1841,28 +1841,28 @@
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885919570923</t>
+    <t xml:space="preserve">3.71885967254639</t>
   </si>
   <si>
     <t xml:space="preserve">3.77566933631897</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72322940826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204929351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574903488159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818920135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02038860321045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01164865493774</t>
+    <t xml:space="preserve">3.72322916984558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204905509949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574879646301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818872451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02038812637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01164817810059</t>
   </si>
   <si>
     <t xml:space="preserve">4.16896820068359</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35250759124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478693008423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89438581466675</t>
+    <t xml:space="preserve">4.35250663757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478597640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89438533782959</t>
   </si>
   <si>
     <t xml:space="preserve">5.15658521652222</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">4.77202606201172</t>
   </si>
   <si>
-    <t xml:space="preserve">4.84194564819336</t>
+    <t xml:space="preserve">4.84194612503052</t>
   </si>
   <si>
     <t xml:space="preserve">4.82446575164795</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71335983276367</t>
+    <t xml:space="preserve">4.71336030960083</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
@@ -1910,16 +1910,16 @@
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5495753288269</t>
+    <t xml:space="preserve">4.54957580566406</t>
   </si>
   <si>
     <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73155879974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615379333496</t>
+    <t xml:space="preserve">4.73155832290649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615427017212</t>
   </si>
   <si>
     <t xml:space="preserve">4.76795530319214</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.80525827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95084428787231</t>
+    <t xml:space="preserve">5.95084476470947</t>
   </si>
   <si>
     <t xml:space="preserve">5.85985326766968</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">5.93264627456665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444826126099</t>
+    <t xml:space="preserve">5.91444873809814</t>
   </si>
   <si>
     <t xml:space="preserve">5.82345676422119</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67787027359009</t>
+    <t xml:space="preserve">5.67786979675293</t>
   </si>
   <si>
     <t xml:space="preserve">5.62327527999878</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">5.55048179626465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53228378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56868076324463</t>
+    <t xml:space="preserve">5.53228425979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56868028640747</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030031204224</t>
+    <t xml:space="preserve">5.35030126571655</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51408529281616</t>
+    <t xml:space="preserve">5.51408576965332</t>
   </si>
   <si>
     <t xml:space="preserve">5.6414737701416</t>
@@ -1991,10 +1991,10 @@
     <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4048957824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42309427261353</t>
+    <t xml:space="preserve">5.40489625930786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42309379577637</t>
   </si>
   <si>
     <t xml:space="preserve">5.1683177947998</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">5.20471429824829</t>
   </si>
   <si>
-    <t xml:space="preserve">5.18651628494263</t>
+    <t xml:space="preserve">5.18651580810547</t>
   </si>
   <si>
     <t xml:space="preserve">5.36849927902222</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2593092918396</t>
+    <t xml:space="preserve">5.25930976867676</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
@@ -2027,19 +2027,19 @@
     <t xml:space="preserve">5.29570627212524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15011930465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00453281402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13192081451416</t>
+    <t xml:space="preserve">5.15011978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00453329086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13192129135132</t>
   </si>
   <si>
     <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633527755737</t>
+    <t xml:space="preserve">4.98633480072021</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">5.22291278839111</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27750778198242</t>
+    <t xml:space="preserve">5.27750825881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26750183105469</t>
+    <t xml:space="preserve">4.26750230789185</t>
   </si>
   <si>
     <t xml:space="preserve">4.31299734115601</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534282684326</t>
+    <t xml:space="preserve">4.89534378051758</t>
   </si>
   <si>
     <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44129276275635</t>
+    <t xml:space="preserve">5.44129228591919</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">6.11462926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24201822280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16922426223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27841424942017</t>
+    <t xml:space="preserve">6.24201774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16922473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27841472625732</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42400074005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55138874053955</t>
+    <t xml:space="preserve">6.42400026321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55138826370239</t>
   </si>
   <si>
     <t xml:space="preserve">6.58778524398804</t>
@@ -2141,22 +2141,22 @@
     <t xml:space="preserve">6.82436323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96994924545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95175170898438</t>
+    <t xml:space="preserve">6.96994972229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95175123214722</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355321884155</t>
+    <t xml:space="preserve">6.93355274200439</t>
   </si>
   <si>
     <t xml:space="preserve">6.80616474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976823806763</t>
+    <t xml:space="preserve">6.76976871490479</t>
   </si>
   <si>
     <t xml:space="preserve">6.71517372131348</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877721786499</t>
+    <t xml:space="preserve">6.67877674102783</t>
   </si>
   <si>
     <t xml:space="preserve">6.9881477355957</t>
@@ -2186,16 +2186,16 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013120651245</t>
+    <t xml:space="preserve">7.17013072967529</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02454423904419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00634574890137</t>
+    <t xml:space="preserve">7.02454471588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00634622573853</t>
   </si>
   <si>
     <t xml:space="preserve">7.09733819961548</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094169616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91535472869873</t>
+    <t xml:space="preserve">7.06094121932983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91535520553589</t>
   </si>
   <si>
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29752016067505</t>
+    <t xml:space="preserve">7.29751920700073</t>
   </si>
   <si>
     <t xml:space="preserve">7.24292421340942</t>
@@ -2225,40 +2225,40 @@
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851070404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91626119613647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02545070648193</t>
+    <t xml:space="preserve">7.38851118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91626167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02545166015625</t>
   </si>
   <si>
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824371337891</t>
+    <t xml:space="preserve">8.09824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9708571434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98905420303345</t>
+    <t xml:space="preserve">7.97085666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98905467987061</t>
   </si>
   <si>
     <t xml:space="preserve">7.82527017593384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87986469268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04364967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725269317627</t>
+    <t xml:space="preserve">7.87986516952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04365062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725364685059</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">8.26202964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18923568725586</t>
+    <t xml:space="preserve">8.18923664093018</t>
   </si>
   <si>
     <t xml:space="preserve">7.75247764587402</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887319564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446016311646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95265817642212</t>
+    <t xml:space="preserve">7.78887414932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446063995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265769958496</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59818,7 +59818,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6493981481</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>1706</v>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0536994934082</t>
+    <t xml:space="preserve">6.05369997024536</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19359636306763</t>
+    <t xml:space="preserve">6.19359588623047</t>
   </si>
   <si>
     <t xml:space="preserve">6.1893572807312</t>
@@ -59,28 +59,28 @@
     <t xml:space="preserve">6.1172890663147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1045708656311</t>
+    <t xml:space="preserve">6.10457134246826</t>
   </si>
   <si>
     <t xml:space="preserve">6.14696407318115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065677642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97739267349243</t>
+    <t xml:space="preserve">6.19783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065629959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97739219665527</t>
   </si>
   <si>
     <t xml:space="preserve">6.05793905258179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17239999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35892772674561</t>
+    <t xml:space="preserve">6.17239952087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35892820358276</t>
   </si>
   <si>
     <t xml:space="preserve">6.3504490852356</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">6.21055316925049</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16815996170044</t>
+    <t xml:space="preserve">6.1681604385376</t>
   </si>
   <si>
     <t xml:space="preserve">6.12152814865112</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">5.90956401824951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86293172836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85445356369019</t>
+    <t xml:space="preserve">5.86293125152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85445308685303</t>
   </si>
   <si>
     <t xml:space="preserve">5.8502140045166</t>
@@ -110,16 +110,16 @@
     <t xml:space="preserve">5.65096712112427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68064165115356</t>
+    <t xml:space="preserve">5.68064260482788</t>
   </si>
   <si>
     <t xml:space="preserve">5.53226757049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59585618972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91804218292236</t>
+    <t xml:space="preserve">5.59585666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91804265975952</t>
   </si>
   <si>
     <t xml:space="preserve">5.93499946594238</t>
@@ -128,19 +128,19 @@
     <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91380310058594</t>
+    <t xml:space="preserve">5.91380262374878</t>
   </si>
   <si>
     <t xml:space="preserve">5.89260673522949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01978540420532</t>
+    <t xml:space="preserve">6.01978492736816</t>
   </si>
   <si>
     <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0028281211853</t>
+    <t xml:space="preserve">6.00282859802246</t>
   </si>
   <si>
     <t xml:space="preserve">6.12576723098755</t>
@@ -149,31 +149,31 @@
     <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62977075576782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90108585357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92228174209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477760314941</t>
+    <t xml:space="preserve">5.62977123260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9010853767395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92228126525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477807998657</t>
   </si>
   <si>
     <t xml:space="preserve">5.89684534072876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83325672149658</t>
+    <t xml:space="preserve">5.83325719833374</t>
   </si>
   <si>
     <t xml:space="preserve">5.79086351394653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03674173355103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24446773529053</t>
+    <t xml:space="preserve">6.03674221038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24446725845337</t>
   </si>
   <si>
     <t xml:space="preserve">6.31653499603271</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">6.11304950714111</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00706768035889</t>
+    <t xml:space="preserve">6.00706720352173</t>
   </si>
   <si>
     <t xml:space="preserve">5.88836765289307</t>
@@ -194,73 +194,73 @@
     <t xml:space="preserve">5.98587036132812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88412857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8798885345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98163175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87141084671021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07913494110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20631408691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08337497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14272403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95619630813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173440933228</t>
+    <t xml:space="preserve">5.88412809371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87988901138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98163223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87141036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07913541793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2063136100769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08337450027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14272451400757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95619678497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173536300659</t>
   </si>
   <si>
     <t xml:space="preserve">5.77390670776367</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76118898391724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80782127380371</t>
+    <t xml:space="preserve">5.76118850708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80782079696655</t>
   </si>
   <si>
     <t xml:space="preserve">5.82901763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9307599067688</t>
+    <t xml:space="preserve">5.93076038360596</t>
   </si>
   <si>
     <t xml:space="preserve">6.09609270095825</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99858903884888</t>
+    <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
     <t xml:space="preserve">6.28262138366699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13000679016113</t>
+    <t xml:space="preserve">6.13000726699829</t>
   </si>
   <si>
     <t xml:space="preserve">6.18511724472046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04522180557251</t>
+    <t xml:space="preserve">6.04522085189819</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07489585876465</t>
+    <t xml:space="preserve">6.07489633560181</t>
   </si>
   <si>
     <t xml:space="preserve">6.10033178329468</t>
@@ -269,34 +269,34 @@
     <t xml:space="preserve">5.99434947967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08761358261108</t>
+    <t xml:space="preserve">6.08761405944824</t>
   </si>
   <si>
     <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81629991531372</t>
+    <t xml:space="preserve">5.81629943847656</t>
   </si>
   <si>
     <t xml:space="preserve">5.73999261856079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76542901992798</t>
+    <t xml:space="preserve">5.76542854309082</t>
   </si>
   <si>
     <t xml:space="preserve">5.75694990158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79510307312012</t>
+    <t xml:space="preserve">5.79510354995728</t>
   </si>
   <si>
     <t xml:space="preserve">5.66792440414429</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63824987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65944576263428</t>
+    <t xml:space="preserve">5.63824939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65944623947144</t>
   </si>
   <si>
     <t xml:space="preserve">5.60433530807495</t>
@@ -305,25 +305,25 @@
     <t xml:space="preserve">5.72303485870361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71031808853149</t>
+    <t xml:space="preserve">5.71031761169434</t>
   </si>
   <si>
     <t xml:space="preserve">5.66368532180786</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49835300445557</t>
+    <t xml:space="preserve">5.49835348129272</t>
   </si>
   <si>
     <t xml:space="preserve">5.57889938354492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58737850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58313941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5746603012085</t>
+    <t xml:space="preserve">5.58737802505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58313894271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57465982437134</t>
   </si>
   <si>
     <t xml:space="preserve">5.50683164596558</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">5.40932846069336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25247478485107</t>
+    <t xml:space="preserve">5.25247430801392</t>
   </si>
   <si>
     <t xml:space="preserve">5.24823570251465</t>
@@ -341,46 +341,46 @@
     <t xml:space="preserve">5.32454252243042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37965250015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.511070728302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06594610214233</t>
+    <t xml:space="preserve">5.37965297698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51107120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06594657897949</t>
   </si>
   <si>
     <t xml:space="preserve">5.18888521194458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1040997505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.87093877792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9006142616272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.80735015869141</t>
+    <t xml:space="preserve">5.10409927368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.87093830108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90061378479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.80734920501709</t>
   </si>
   <si>
     <t xml:space="preserve">4.83278512954712</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66321420669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53603553771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52331829071045</t>
+    <t xml:space="preserve">4.6632137298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53603506088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52331733703613</t>
   </si>
   <si>
     <t xml:space="preserve">4.46396732330322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47244596481323</t>
+    <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
     <t xml:space="preserve">4.36646413803101</t>
@@ -389,22 +389,22 @@
     <t xml:space="preserve">4.62506055831909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73952102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74799919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00235748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04474973678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08714246749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19312524795532</t>
+    <t xml:space="preserve">4.73952150344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74799966812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.002357006073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04474925994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08714199066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19312429428101</t>
   </si>
   <si>
     <t xml:space="preserve">5.31182479858398</t>
@@ -419,40 +419,40 @@
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476343154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095247268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18040704727173</t>
+    <t xml:space="preserve">5.43476390838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095342636108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18040657043457</t>
   </si>
   <si>
     <t xml:space="preserve">5.2058424949646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28215026855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22279930114746</t>
+    <t xml:space="preserve">5.28214931488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22279977798462</t>
   </si>
   <si>
     <t xml:space="preserve">4.92604970932007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95148515701294</t>
+    <t xml:space="preserve">4.9514856338501</t>
   </si>
   <si>
     <t xml:space="preserve">4.92181015014648</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97692108154297</t>
+    <t xml:space="preserve">4.97692155838013</t>
   </si>
   <si>
     <t xml:space="preserve">5.16345024108887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21432113647461</t>
+    <t xml:space="preserve">5.21432161331177</t>
   </si>
   <si>
     <t xml:space="preserve">5.21008157730103</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">5.2567138671875</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34149980545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30334663391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40084934234619</t>
+    <t xml:space="preserve">5.34149932861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30334615707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40084981918335</t>
   </si>
   <si>
     <t xml:space="preserve">5.54922485351562</t>
@@ -479,19 +479,19 @@
     <t xml:space="preserve">5.56618213653564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61281442642212</t>
+    <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
     <t xml:space="preserve">5.59161710739136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55770301818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67216396331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52378845214844</t>
+    <t xml:space="preserve">5.55770349502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67216444015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5237889289856</t>
   </si>
   <si>
     <t xml:space="preserve">5.44748210906982</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7781457901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92652130126953</t>
+    <t xml:space="preserve">5.77814626693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92652082443237</t>
   </si>
   <si>
     <t xml:space="preserve">6.48610639572144</t>
@@ -530,34 +530,34 @@
     <t xml:space="preserve">6.78285694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21526479721069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63919258117676</t>
+    <t xml:space="preserve">7.21526336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63919162750244</t>
   </si>
   <si>
     <t xml:space="preserve">7.11352062225342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04569244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20678472518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50777435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41874980926514</t>
+    <t xml:space="preserve">7.04569292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20678567886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5077748298645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353527069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41874933242798</t>
   </si>
   <si>
     <t xml:space="preserve">7.61799621582031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5883207321167</t>
+    <t xml:space="preserve">7.58831977844238</t>
   </si>
   <si>
     <t xml:space="preserve">7.54592800140381</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">7.64767122268677</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42722797393799</t>
+    <t xml:space="preserve">7.4272289276123</t>
   </si>
   <si>
     <t xml:space="preserve">7.59255981445312</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">7.46114253997803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52049160003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45266342163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55440759658813</t>
+    <t xml:space="preserve">7.52049207687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45266437530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55440711975098</t>
   </si>
   <si>
     <t xml:space="preserve">7.73669576644897</t>
@@ -599,19 +599,19 @@
     <t xml:space="preserve">8.03768444061279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96561670303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931179046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148122787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594264984131</t>
+    <t xml:space="preserve">7.96561765670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594169616699</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">8.3683500289917</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41074275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28356552124023</t>
+    <t xml:space="preserve">8.41074180603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28356456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.73292827606201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91945648193359</t>
+    <t xml:space="preserve">8.91945838928223</t>
   </si>
   <si>
     <t xml:space="preserve">8.83467102050781</t>
@@ -641,25 +641,25 @@
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90250015258789</t>
+    <t xml:space="preserve">8.90249919891357</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32642841339111</t>
+    <t xml:space="preserve">9.3264274597168</t>
   </si>
   <si>
     <t xml:space="preserve">9.79274940490723</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83514213562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61470031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49599838256836</t>
+    <t xml:space="preserve">9.83514308929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61469841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49599933624268</t>
   </si>
   <si>
     <t xml:space="preserve">9.41121387481689</t>
@@ -668,13 +668,13 @@
     <t xml:space="preserve">9.36882019042969</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23316287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07207107543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30099201202393</t>
+    <t xml:space="preserve">9.23316383361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07207012176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30099296569824</t>
   </si>
   <si>
     <t xml:space="preserve">9.28403568267822</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1229419708252</t>
+    <t xml:space="preserve">9.12294101715088</t>
   </si>
   <si>
     <t xml:space="preserve">9.53839206695557</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1653356552124</t>
+    <t xml:space="preserve">9.16533660888672</t>
   </si>
   <si>
     <t xml:space="preserve">9.14837837219238</t>
@@ -713,22 +713,22 @@
     <t xml:space="preserve">8.96184921264648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89402008056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097736358643</t>
+    <t xml:space="preserve">8.89402103424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097831726074</t>
   </si>
   <si>
     <t xml:space="preserve">8.77532196044922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.860107421875</t>
+    <t xml:space="preserve">8.86010646820068</t>
   </si>
   <si>
     <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273571014404</t>
+    <t xml:space="preserve">9.40273475646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.41969203948975</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">9.38577747344971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58078479766846</t>
+    <t xml:space="preserve">9.58078575134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.44512844085693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64861392974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62317848205566</t>
+    <t xml:space="preserve">9.64861297607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62317943572998</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774112701416</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">10.3184213638306</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4286422729492</t>
+    <t xml:space="preserve">10.4286432266235</t>
   </si>
   <si>
     <t xml:space="preserve">10.2590703964233</t>
@@ -773,25 +773,25 @@
     <t xml:space="preserve">10.0725421905518</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0047149658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92840671539307</t>
+    <t xml:space="preserve">10.004714012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92840576171875</t>
   </si>
   <si>
     <t xml:space="preserve">10.2336339950562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4625577926636</t>
+    <t xml:space="preserve">10.4625568389893</t>
   </si>
   <si>
     <t xml:space="preserve">10.3692922592163</t>
   </si>
   <si>
-    <t xml:space="preserve">10.479513168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1742849349976</t>
+    <t xml:space="preserve">10.4795141220093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1742839813232</t>
   </si>
   <si>
     <t xml:space="preserve">10.4371204376221</t>
@@ -806,19 +806,19 @@
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288787841797</t>
+    <t xml:space="preserve">10.9288778305054</t>
   </si>
   <si>
     <t xml:space="preserve">11.005184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8525714874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6829996109009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2166786193848</t>
+    <t xml:space="preserve">10.8525705337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6829986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
     <t xml:space="preserve">10.4540777206421</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">10.6999568939209</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2081995010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5473403930664</t>
+    <t xml:space="preserve">10.2081985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5473413467407</t>
   </si>
   <si>
     <t xml:space="preserve">10.7084350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7169141769409</t>
+    <t xml:space="preserve">10.7169132232666</t>
   </si>
   <si>
     <t xml:space="preserve">10.9797487258911</t>
@@ -845,25 +845,25 @@
     <t xml:space="preserve">11.0645351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1917123794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9712705612183</t>
+    <t xml:space="preserve">11.1917133331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9712715148926</t>
   </si>
   <si>
     <t xml:space="preserve">10.674521446228</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4879922866821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5982131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.022141456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3188915252686</t>
+    <t xml:space="preserve">10.4879913330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5982141494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0221424102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3188924789429</t>
   </si>
   <si>
     <t xml:space="preserve">11.0136632919312</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">10.9373559951782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7253913879395</t>
+    <t xml:space="preserve">10.7253923416138</t>
   </si>
   <si>
     <t xml:space="preserve">10.9543132781982</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">11.1238842010498</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1408433914185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.691948890686</t>
+    <t xml:space="preserve">11.1408424377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6919498443604</t>
   </si>
   <si>
     <t xml:space="preserve">11.5393342971802</t>
@@ -896,19 +896,19 @@
     <t xml:space="preserve">11.5732488632202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.530858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1747570037842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2595415115356</t>
+    <t xml:space="preserve">11.5308570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1747560501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.25954246521</t>
   </si>
   <si>
     <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3612833023071</t>
+    <t xml:space="preserve">11.3612852096558</t>
   </si>
   <si>
     <t xml:space="preserve">11.4460697174072</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">11.6410779953003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8615198135376</t>
+    <t xml:space="preserve">11.8615207672119</t>
   </si>
   <si>
     <t xml:space="preserve">11.785213470459</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8276062011719</t>
+    <t xml:space="preserve">11.8276052474976</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121561050415</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">11.4969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156425476074</t>
+    <t xml:space="preserve">11.6156415939331</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.115406036377</t>
+    <t xml:space="preserve">11.1154069900513</t>
   </si>
   <si>
     <t xml:space="preserve">10.513427734375</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">10.3353776931763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7677850723267</t>
+    <t xml:space="preserve">10.767786026001</t>
   </si>
   <si>
     <t xml:space="preserve">10.5558204650879</t>
@@ -959,16 +959,16 @@
     <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5643005371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7423486709595</t>
+    <t xml:space="preserve">10.5642986297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7423496246338</t>
   </si>
   <si>
     <t xml:space="preserve">10.9458351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8440923690796</t>
+    <t xml:space="preserve">10.8440933227539</t>
   </si>
   <si>
     <t xml:space="preserve">10.640606880188</t>
@@ -977,64 +977,64 @@
     <t xml:space="preserve">10.0979785919189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.530385017395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8356122970581</t>
+    <t xml:space="preserve">10.5303840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8356132507324</t>
   </si>
   <si>
     <t xml:space="preserve">11.1069278717041</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4291133880615</t>
+    <t xml:space="preserve">11.4291124343872</t>
   </si>
   <si>
     <t xml:space="preserve">11.2086706161499</t>
   </si>
   <si>
-    <t xml:space="preserve">11.27649974823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6834688186646</t>
+    <t xml:space="preserve">11.2764987945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6834707260132</t>
   </si>
   <si>
     <t xml:space="preserve">11.7004280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3782424926758</t>
+    <t xml:space="preserve">11.3782415390015</t>
   </si>
   <si>
     <t xml:space="preserve">11.5138998031616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5647716522217</t>
+    <t xml:space="preserve">11.5647706985474</t>
   </si>
   <si>
     <t xml:space="preserve">11.8699989318848</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6665134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899705886841</t>
+    <t xml:space="preserve">11.6665143966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899696350098</t>
   </si>
   <si>
     <t xml:space="preserve">10.8864850997925</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8695268630981</t>
+    <t xml:space="preserve">10.8695278167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.8186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7847423553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016986846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9034414291382</t>
+    <t xml:space="preserve">10.784743309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016996383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9034404754639</t>
   </si>
   <si>
     <t xml:space="preserve">10.2421140670776</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">10.3777704238892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6151704788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1912431716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2251567840576</t>
+    <t xml:space="preserve">10.6151714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1912422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2251577377319</t>
   </si>
   <si>
     <t xml:space="preserve">10.3438558578491</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">9.88601303100586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69948577880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5129566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034297943115</t>
+    <t xml:space="preserve">9.69948482513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51295757293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034202575684</t>
   </si>
   <si>
     <t xml:space="preserve">9.6316556930542</t>
@@ -1076,37 +1076,37 @@
     <t xml:space="preserve">9.76731395721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71644306182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37729930877686</t>
+    <t xml:space="preserve">9.73339939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7164421081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37730026245117</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22468662261963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47904205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56382751464844</t>
+    <t xml:space="preserve">9.224684715271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47904300689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56382846832275</t>
   </si>
   <si>
     <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8181848526001</t>
+    <t xml:space="preserve">9.81818389892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.1234130859375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2929849624634</t>
+    <t xml:space="preserve">10.2929859161377</t>
   </si>
   <si>
     <t xml:space="preserve">10.2760286331177</t>
@@ -1118,25 +1118,25 @@
     <t xml:space="preserve">10.0216703414917</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39425563812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29251384735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19077014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02119922637939</t>
+    <t xml:space="preserve">9.39425659179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29251289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19077205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02120018005371</t>
   </si>
   <si>
     <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08902740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74988555908203</t>
+    <t xml:space="preserve">9.08902835845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7498836517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.51248550415039</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">8.49552917480469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42769908905029</t>
+    <t xml:space="preserve">8.42769813537598</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0546407699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92746353149414</t>
+    <t xml:space="preserve">8.05464172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92746448516846</t>
   </si>
   <si>
     <t xml:space="preserve">8.15638542175293</t>
@@ -1163,22 +1163,22 @@
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335735321045</t>
+    <t xml:space="preserve">8.56335639953613</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03815746307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85162734985352</t>
+    <t xml:space="preserve">9.03815650939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8516263961792</t>
   </si>
   <si>
     <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78379917144775</t>
+    <t xml:space="preserve">8.78379821777344</t>
   </si>
   <si>
     <t xml:space="preserve">8.64814281463623</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">8.76684188842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63118457794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47857189178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52944183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41921997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33443546295166</t>
+    <t xml:space="preserve">8.63118553161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47857093811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52944278717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41922092437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33443450927734</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378452301025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3429126739502</t>
+    <t xml:space="preserve">8.34291362762451</t>
   </si>
   <si>
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289897918701</t>
+    <t xml:space="preserve">7.95289993286133</t>
   </si>
   <si>
     <t xml:space="preserve">7.73245716094971</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">7.69854259490967</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51201438903809</t>
+    <t xml:space="preserve">7.51201295852661</t>
   </si>
   <si>
     <t xml:space="preserve">7.30852794647217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1813497543335</t>
+    <t xml:space="preserve">7.18135023117065</t>
   </si>
   <si>
     <t xml:space="preserve">7.12199926376343</t>
@@ -1238,49 +1238,49 @@
     <t xml:space="preserve">6.87612009048462</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33396434783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30004930496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06264972686768</t>
+    <t xml:space="preserve">7.3339638710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30004835128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06264925003052</t>
   </si>
   <si>
     <t xml:space="preserve">7.01177883148193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9948205947876</t>
+    <t xml:space="preserve">6.99482154846191</t>
   </si>
   <si>
     <t xml:space="preserve">7.09656381607056</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13895654678345</t>
+    <t xml:space="preserve">7.13895702362061</t>
   </si>
   <si>
     <t xml:space="preserve">7.39331340789795</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36787748336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37635660171509</t>
+    <t xml:space="preserve">7.36787796020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37635612487793</t>
   </si>
   <si>
     <t xml:space="preserve">7.80028533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69006395339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13942813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19029998779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11399269104004</t>
+    <t xml:space="preserve">7.69006299972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13942909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19029903411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11399173736572</t>
   </si>
   <si>
     <t xml:space="preserve">7.85115671157837</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">7.78332805633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35092067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43570756912231</t>
+    <t xml:space="preserve">7.35092163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43570709228516</t>
   </si>
   <si>
     <t xml:space="preserve">7.24917793273926</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34244203567505</t>
+    <t xml:space="preserve">7.34244298934937</t>
   </si>
   <si>
     <t xml:space="preserve">6.92699241638184</t>
@@ -1310,13 +1310,13 @@
     <t xml:space="preserve">6.57089281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49458503723145</t>
+    <t xml:space="preserve">6.49458456039429</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414226531982</t>
+    <t xml:space="preserve">6.27414274215698</t>
   </si>
   <si>
     <t xml:space="preserve">6.24022817611694</t>
@@ -1325,103 +1325,103 @@
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.935471534729</t>
+    <t xml:space="preserve">6.93547105789185</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52002096176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33349275588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51154232025146</t>
+    <t xml:space="preserve">6.52002143859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33349227905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51154279708862</t>
   </si>
   <si>
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764287948608</t>
+    <t xml:space="preserve">6.86764240264893</t>
   </si>
   <si>
     <t xml:space="preserve">7.24069976806641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85916423797607</t>
+    <t xml:space="preserve">6.85916376113892</t>
   </si>
   <si>
     <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6471996307373</t>
+    <t xml:space="preserve">6.64720010757446</t>
   </si>
   <si>
     <t xml:space="preserve">6.68111371994019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67263555526733</t>
+    <t xml:space="preserve">6.67263507843018</t>
   </si>
   <si>
     <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56241321563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588500976562</t>
+    <t xml:space="preserve">6.56241416931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588548660278</t>
   </si>
   <si>
     <t xml:space="preserve">6.26566410064697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32501316070557</t>
+    <t xml:space="preserve">6.32501411437988</t>
   </si>
   <si>
     <t xml:space="preserve">6.44371366500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52850008010864</t>
+    <t xml:space="preserve">6.52849912643433</t>
   </si>
   <si>
     <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34197092056274</t>
+    <t xml:space="preserve">6.34197044372559</t>
   </si>
   <si>
     <t xml:space="preserve">6.5963282585144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57937145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74894189834595</t>
+    <t xml:space="preserve">6.57937097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74894285202026</t>
   </si>
   <si>
     <t xml:space="preserve">6.88459920883179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1983060836792</t>
+    <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
     <t xml:space="preserve">7.29157161712646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15591335296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1304783821106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03721380233765</t>
+    <t xml:space="preserve">7.15591382980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13047742843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0372142791748</t>
   </si>
   <si>
     <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090650558472</t>
+    <t xml:space="preserve">6.96090602874756</t>
   </si>
   <si>
     <t xml:space="preserve">6.79133558273315</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">6.7404637336731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46914911270142</t>
+    <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
     <t xml:space="preserve">6.291100025177</t>
@@ -1448,16 +1448,16 @@
     <t xml:space="preserve">6.02826404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01130723953247</t>
+    <t xml:space="preserve">6.01130676269531</t>
   </si>
   <si>
     <t xml:space="preserve">5.96891355514526</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15544271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18087768554688</t>
+    <t xml:space="preserve">6.155442237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18087816238403</t>
   </si>
   <si>
     <t xml:space="preserve">6.40132141113281</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">6.08302211761475</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12672185897827</t>
+    <t xml:space="preserve">6.12672233581543</t>
   </si>
   <si>
     <t xml:space="preserve">6.16168212890625</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">6.35396146774292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34522151947021</t>
+    <t xml:space="preserve">6.34522104263306</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2403416633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20538187026978</t>
+    <t xml:space="preserve">6.24034214019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20538139343262</t>
   </si>
   <si>
     <t xml:space="preserve">6.50254106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45010137557983</t>
+    <t xml:space="preserve">6.45010089874268</t>
   </si>
   <si>
     <t xml:space="preserve">6.25782155990601</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">6.37144088745117</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29278135299683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31900119781494</t>
+    <t xml:space="preserve">6.29278182983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3190016746521</t>
   </si>
   <si>
     <t xml:space="preserve">6.41514110565186</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">6.3277416229248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27530097961426</t>
+    <t xml:space="preserve">6.27530145645142</t>
   </si>
   <si>
     <t xml:space="preserve">6.11798191070557</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">6.10924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23160219192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03058195114136</t>
+    <t xml:space="preserve">6.19664144515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23160171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03058242797852</t>
   </si>
   <si>
     <t xml:space="preserve">5.97814226150513</t>
@@ -1571,22 +1571,22 @@
     <t xml:space="preserve">5.96940231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01310205459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1791615486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03932285308838</t>
+    <t xml:space="preserve">6.01310253143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17916202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03932237625122</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428169250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15294218063354</t>
+    <t xml:space="preserve">6.07428216934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15294170379639</t>
   </si>
   <si>
     <t xml:space="preserve">6.06554222106934</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">6.1704216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8557825088501</t>
+    <t xml:space="preserve">5.85578298568726</t>
   </si>
   <si>
     <t xml:space="preserve">5.91696262359619</t>
@@ -1607,7 +1607,7 @@
     <t xml:space="preserve">5.95192241668701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96066284179688</t>
+    <t xml:space="preserve">5.96066236495972</t>
   </si>
   <si>
     <t xml:space="preserve">5.94318294525146</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6423807144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70356035232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88710021972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86087942123413</t>
+    <t xml:space="preserve">6.64238023757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70355987548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8870997428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86087989807129</t>
   </si>
   <si>
     <t xml:space="preserve">6.84339952468872</t>
@@ -1658,28 +1658,28 @@
     <t xml:space="preserve">6.77348041534424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89583969116211</t>
+    <t xml:space="preserve">6.89583921432495</t>
   </si>
   <si>
     <t xml:space="preserve">6.99197959899902</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27165842056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42897796630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58629846572876</t>
+    <t xml:space="preserve">7.2716588973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42897844314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58629751205444</t>
   </si>
   <si>
     <t xml:space="preserve">7.38527822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56007719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55133867263794</t>
+    <t xml:space="preserve">7.56007766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
     <t xml:space="preserve">7.60377740859985</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">7.49015760421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53385829925537</t>
+    <t xml:space="preserve">7.53385782241821</t>
   </si>
   <si>
     <t xml:space="preserve">7.64747762680054</t>
@@ -1700,58 +1700,58 @@
     <t xml:space="preserve">7.54259824752808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51637744903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5775580406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56881761550903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39401865005493</t>
+    <t xml:space="preserve">7.51637840270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57755851745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56881809234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39401817321777</t>
   </si>
   <si>
     <t xml:space="preserve">7.70865678787231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76983833312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731632232666</t>
+    <t xml:space="preserve">7.76983737945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731727600098</t>
   </si>
   <si>
     <t xml:space="preserve">7.84849691390991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85723733901978</t>
+    <t xml:space="preserve">7.85723638534546</t>
   </si>
   <si>
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73487854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52511739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50763845443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36779880523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18425893783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22795915603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12307929992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98323965072632</t>
+    <t xml:space="preserve">7.73487758636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52511692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5076379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36779832839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18425941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22795963287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1230788230896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
     <t xml:space="preserve">6.75600004196167</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">6.79970026016235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72104024887085</t>
+    <t xml:space="preserve">6.72104072570801</t>
   </si>
   <si>
     <t xml:space="preserve">6.65986013412476</t>
@@ -1790,19 +1790,19 @@
     <t xml:space="preserve">5.84704351425171</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78586339950562</t>
+    <t xml:space="preserve">5.78586292266846</t>
   </si>
   <si>
     <t xml:space="preserve">5.45374345779419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20028495788574</t>
+    <t xml:space="preserve">5.20028448104858</t>
   </si>
   <si>
     <t xml:space="preserve">4.63218688964844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64092588424683</t>
+    <t xml:space="preserve">4.64092636108398</t>
   </si>
   <si>
     <t xml:space="preserve">4.36998701095581</t>
@@ -1817,16 +1817,16 @@
     <t xml:space="preserve">4.1645975112915</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96357870101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365816116333</t>
+    <t xml:space="preserve">3.96357774734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365863800049</t>
   </si>
   <si>
     <t xml:space="preserve">3.84995913505554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78877902030945</t>
+    <t xml:space="preserve">3.78877925872803</t>
   </si>
   <si>
     <t xml:space="preserve">3.85432839393616</t>
@@ -1841,22 +1841,22 @@
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885967254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77566933631897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72322916984558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.66204905509949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574879646301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75818872451782</t>
+    <t xml:space="preserve">3.71885895729065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77566909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72322940826416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.66204953193665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574903488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
     <t xml:space="preserve">4.02038812637329</t>
@@ -1871,13 +1871,13 @@
     <t xml:space="preserve">4.30006742477417</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35250663757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54478597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.89438533782959</t>
+    <t xml:space="preserve">4.3525071144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54478645324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.89438581466675</t>
   </si>
   <si>
     <t xml:space="preserve">5.15658521652222</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">4.64966678619385</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71336030960083</t>
+    <t xml:space="preserve">4.71335983276367</t>
   </si>
   <si>
     <t xml:space="preserve">4.64056730270386</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">4.78615427017212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76795530319214</t>
+    <t xml:space="preserve">4.76795482635498</t>
   </si>
   <si>
     <t xml:space="preserve">4.87714529037476</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.80525827407837</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95084476470947</t>
+    <t xml:space="preserve">5.95084428787231</t>
   </si>
   <si>
     <t xml:space="preserve">5.85985326766968</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">5.93264627456665</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91444873809814</t>
+    <t xml:space="preserve">5.91444826126099</t>
   </si>
   <si>
     <t xml:space="preserve">5.82345676422119</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030126571655</t>
+    <t xml:space="preserve">5.35030078887939</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">5.6414737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45949077606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40489625930786</t>
+    <t xml:space="preserve">5.45949029922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4048957824707</t>
   </si>
   <si>
     <t xml:space="preserve">5.42309379577637</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">5.09552478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20471429824829</t>
+    <t xml:space="preserve">5.20471382141113</t>
   </si>
   <si>
     <t xml:space="preserve">5.18651580810547</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">5.33210277557373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25930976867676</t>
+    <t xml:space="preserve">5.2593092918396</t>
   </si>
   <si>
     <t xml:space="preserve">5.58687877655029</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">5.29570627212524</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15011978149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00453329086304</t>
+    <t xml:space="preserve">5.15011930465698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.00453281402588</t>
   </si>
   <si>
     <t xml:space="preserve">5.13192129135132</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04092979431152</t>
+    <t xml:space="preserve">5.04093027114868</t>
   </si>
   <si>
     <t xml:space="preserve">5.4958872795105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22291278839111</t>
+    <t xml:space="preserve">5.22291231155396</t>
   </si>
   <si>
     <t xml:space="preserve">5.27750825881958</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">4.35849332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26750230789185</t>
+    <t xml:space="preserve">4.26750183105469</t>
   </si>
   <si>
     <t xml:space="preserve">4.31299734115601</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534378051758</t>
+    <t xml:space="preserve">4.89534330368042</t>
   </si>
   <si>
     <t xml:space="preserve">5.24111127853394</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46039724349976</t>
+    <t xml:space="preserve">6.4603967666626</t>
   </si>
   <si>
     <t xml:space="preserve">6.60598373413086</t>
@@ -2132,7 +2132,7 @@
     <t xml:space="preserve">6.42400026321411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55138826370239</t>
+    <t xml:space="preserve">6.55138874053955</t>
   </si>
   <si>
     <t xml:space="preserve">6.58778524398804</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">6.82436323165894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96994972229004</t>
+    <t xml:space="preserve">6.96994924545288</t>
   </si>
   <si>
     <t xml:space="preserve">6.95175123214722</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">6.76976871490479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71517372131348</t>
+    <t xml:space="preserve">6.71517324447632</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">6.67877674102783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9881477355957</t>
+    <t xml:space="preserve">6.98814821243286</t>
   </si>
   <si>
     <t xml:space="preserve">6.89715671539307</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">7.06094121932983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91535520553589</t>
+    <t xml:space="preserve">6.91535472869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29751920700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24292421340942</t>
+    <t xml:space="preserve">7.29751968383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24292469024658</t>
   </si>
   <si>
     <t xml:space="preserve">7.15193319320679</t>
@@ -2225,13 +2225,13 @@
     <t xml:space="preserve">7.13373470306396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38851118087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91626167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02545166015625</t>
+    <t xml:space="preserve">7.38851070404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91626119613647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02545070648193</t>
   </si>
   <si>
     <t xml:space="preserve">8.13464069366455</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">7.97085666656494</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98905467987061</t>
+    <t xml:space="preserve">7.98905372619629</t>
   </si>
   <si>
     <t xml:space="preserve">7.82527017593384</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">7.87986516952515</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04365062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00725364685059</t>
+    <t xml:space="preserve">8.04364967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00725269317627</t>
   </si>
   <si>
     <t xml:space="preserve">8.2256326675415</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">8.26202964782715</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18923664093018</t>
+    <t xml:space="preserve">8.18923568725586</t>
   </si>
   <si>
     <t xml:space="preserve">7.75247764587402</t>
@@ -2276,10 +2276,10 @@
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887414932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93446063995361</t>
+    <t xml:space="preserve">7.78887367248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9344596862793</t>
   </si>
   <si>
     <t xml:space="preserve">7.95265769958496</t>
@@ -59842,6 +59842,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/OJM.MI.xlsx
+++ b/data/OJM.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05369997024536</t>
+    <t xml:space="preserve">6.0536994934082</t>
   </si>
   <si>
     <t xml:space="preserve">OJM.MI</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">6.06217813491821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22327089309692</t>
+    <t xml:space="preserve">6.22327184677124</t>
   </si>
   <si>
     <t xml:space="preserve">6.1172890663147</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">6.10457134246826</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14696407318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19783544540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07065629959106</t>
+    <t xml:space="preserve">6.14696359634399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19783496856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07065677642822</t>
   </si>
   <si>
     <t xml:space="preserve">5.97739219665527</t>
@@ -80,25 +80,25 @@
     <t xml:space="preserve">6.17239952087402</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35892820358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3504490852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21055316925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1681604385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12152814865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90956401824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86293125152588</t>
+    <t xml:space="preserve">6.35892868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35044956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21055269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16816091537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12152767181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90956354141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86293172836304</t>
   </si>
   <si>
     <t xml:space="preserve">5.85445308685303</t>
@@ -110,28 +110,28 @@
     <t xml:space="preserve">5.65096712112427</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68064260482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53226757049561</t>
+    <t xml:space="preserve">5.68064308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53226709365845</t>
   </si>
   <si>
     <t xml:space="preserve">5.59585666656494</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91804265975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93499946594238</t>
+    <t xml:space="preserve">5.91804218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93499994277954</t>
   </si>
   <si>
     <t xml:space="preserve">6.04946041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91380262374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89260673522949</t>
+    <t xml:space="preserve">5.91380310058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89260625839233</t>
   </si>
   <si>
     <t xml:space="preserve">6.01978492736816</t>
@@ -140,34 +140,34 @@
     <t xml:space="preserve">6.01554584503174</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00282859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12576723098755</t>
+    <t xml:space="preserve">6.0028281211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12576770782471</t>
   </si>
   <si>
     <t xml:space="preserve">5.85869216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62977123260498</t>
+    <t xml:space="preserve">5.62977027893066</t>
   </si>
   <si>
     <t xml:space="preserve">5.9010853767395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92228126525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82477807998657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89684534072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83325719833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79086351394653</t>
+    <t xml:space="preserve">5.92228174209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82477855682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89684629440308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83325672149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79086399078369</t>
   </si>
   <si>
     <t xml:space="preserve">6.03674221038818</t>
@@ -179,19 +179,19 @@
     <t xml:space="preserve">6.31653499603271</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22751045227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11304950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00706720352173</t>
+    <t xml:space="preserve">6.22750997543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11304998397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00706768035889</t>
   </si>
   <si>
     <t xml:space="preserve">5.88836765289307</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98587036132812</t>
+    <t xml:space="preserve">5.98587083816528</t>
   </si>
   <si>
     <t xml:space="preserve">5.88412809371948</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">5.87988901138306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98163223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87141036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07913541793823</t>
+    <t xml:space="preserve">5.98163175582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87141084671021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07913589477539</t>
   </si>
   <si>
     <t xml:space="preserve">6.2063136100769</t>
@@ -218,25 +218,25 @@
     <t xml:space="preserve">6.14272451400757</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95619678497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84173536300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77390670776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76118850708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80782079696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82901763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93076038360596</t>
+    <t xml:space="preserve">5.95619630813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84173488616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77390623092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76118898391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80782127380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.829017162323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9307599067688</t>
   </si>
   <si>
     <t xml:space="preserve">6.09609270095825</t>
@@ -245,52 +245,52 @@
     <t xml:space="preserve">5.99858856201172</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28262138366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13000726699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18511724472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04522085189819</t>
+    <t xml:space="preserve">6.28262090682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13000679016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18511772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04522132873535</t>
   </si>
   <si>
     <t xml:space="preserve">6.16392087936401</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07489633560181</t>
+    <t xml:space="preserve">6.07489538192749</t>
   </si>
   <si>
     <t xml:space="preserve">6.10033178329468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99434947967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08761405944824</t>
+    <t xml:space="preserve">5.99434995651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08761358261108</t>
   </si>
   <si>
     <t xml:space="preserve">5.99011039733887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81629943847656</t>
+    <t xml:space="preserve">5.81629991531372</t>
   </si>
   <si>
     <t xml:space="preserve">5.73999261856079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76542854309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75694990158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79510354995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66792440414429</t>
+    <t xml:space="preserve">5.76542806625366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75694942474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79510307312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66792488098145</t>
   </si>
   <si>
     <t xml:space="preserve">5.63824939727783</t>
@@ -302,10 +302,10 @@
     <t xml:space="preserve">5.60433530807495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72303485870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71031761169434</t>
+    <t xml:space="preserve">5.72303533554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71031713485718</t>
   </si>
   <si>
     <t xml:space="preserve">5.66368532180786</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">5.57465982437134</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50683164596558</t>
+    <t xml:space="preserve">5.50683116912842</t>
   </si>
   <si>
     <t xml:space="preserve">5.40932846069336</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">5.51107120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06594657897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18888521194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10409927368164</t>
+    <t xml:space="preserve">5.06594610214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18888473510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.10410022735596</t>
   </si>
   <si>
     <t xml:space="preserve">4.87093830108643</t>
@@ -371,25 +371,25 @@
     <t xml:space="preserve">4.6632137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53603506088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52331733703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.46396732330322</t>
+    <t xml:space="preserve">4.53603553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52331781387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.46396780014038</t>
   </si>
   <si>
     <t xml:space="preserve">4.47244644165039</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36646413803101</t>
+    <t xml:space="preserve">4.36646366119385</t>
   </si>
   <si>
     <t xml:space="preserve">4.62506055831909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73952150344849</t>
+    <t xml:space="preserve">4.73952102661133</t>
   </si>
   <si>
     <t xml:space="preserve">4.74799966812134</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">5.08714199066162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19312429428101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31182479858398</t>
+    <t xml:space="preserve">5.19312477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31182432174683</t>
   </si>
   <si>
     <t xml:space="preserve">5.33726072311401</t>
@@ -419,43 +419,43 @@
     <t xml:space="preserve">5.46867799758911</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43476390838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26095342636108</t>
+    <t xml:space="preserve">5.43476343154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26095294952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.18040657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2058424949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28214931488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22279977798462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92604970932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9514856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92181015014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97692155838013</t>
+    <t xml:space="preserve">5.20584201812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28215026855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22279930114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92604923248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95148515701294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92181062698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97692108154297</t>
   </si>
   <si>
     <t xml:space="preserve">5.16345024108887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21432161331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21008157730103</t>
+    <t xml:space="preserve">5.21432113647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21008205413818</t>
   </si>
   <si>
     <t xml:space="preserve">5.17192792892456</t>
@@ -476,16 +476,16 @@
     <t xml:space="preserve">5.54922485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56618213653564</t>
+    <t xml:space="preserve">5.56618118286133</t>
   </si>
   <si>
     <t xml:space="preserve">5.61281394958496</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59161710739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55770349502563</t>
+    <t xml:space="preserve">5.59161758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55770301818848</t>
   </si>
   <si>
     <t xml:space="preserve">5.67216444015503</t>
@@ -497,82 +497,82 @@
     <t xml:space="preserve">5.44748210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44324254989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48987436294556</t>
+    <t xml:space="preserve">5.44324207305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48987531661987</t>
   </si>
   <si>
     <t xml:space="preserve">5.51954984664917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76966714859009</t>
+    <t xml:space="preserve">5.76966762542725</t>
   </si>
   <si>
     <t xml:space="preserve">5.68488168716431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77814626693726</t>
+    <t xml:space="preserve">5.7781457901001</t>
   </si>
   <si>
     <t xml:space="preserve">5.92652082443237</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48610639572144</t>
+    <t xml:space="preserve">6.48610687255859</t>
   </si>
   <si>
     <t xml:space="preserve">6.60056734085083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61328506469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78285694122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21526336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63919162750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11352062225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04569292068481</t>
+    <t xml:space="preserve">6.61328554153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78285646438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21526384353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63919258117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11352109909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04569244384766</t>
   </si>
   <si>
     <t xml:space="preserve">7.20678567886353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5077748298645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50353527069092</t>
+    <t xml:space="preserve">7.50777387619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50353622436523</t>
   </si>
   <si>
     <t xml:space="preserve">7.41874933242798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61799621582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58831977844238</t>
+    <t xml:space="preserve">7.617995262146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58832025527954</t>
   </si>
   <si>
     <t xml:space="preserve">7.54592800140381</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64767122268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4272289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59255981445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46114253997803</t>
+    <t xml:space="preserve">7.64767074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42722845077515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59255933761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46114206314087</t>
   </si>
   <si>
     <t xml:space="preserve">7.52049207687378</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">7.45266437530518</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55440711975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73669576644897</t>
+    <t xml:space="preserve">7.55440616607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73669481277466</t>
   </si>
   <si>
     <t xml:space="preserve">7.91898488998413</t>
@@ -596,22 +596,22 @@
     <t xml:space="preserve">7.96985626220703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03768444061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96561765670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88931083679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82148218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93594169616699</t>
+    <t xml:space="preserve">8.03768539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96561717987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91050672531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88931035995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82148122787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93594121932983</t>
   </si>
   <si>
     <t xml:space="preserve">8.02496719360352</t>
@@ -620,19 +620,19 @@
     <t xml:space="preserve">8.30052185058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3683500289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41074180603027</t>
+    <t xml:space="preserve">8.36834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41074275970459</t>
   </si>
   <si>
     <t xml:space="preserve">8.28356456756592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73292827606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91945838928223</t>
+    <t xml:space="preserve">8.7329273223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91945743560791</t>
   </si>
   <si>
     <t xml:space="preserve">8.83467102050781</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">8.44041728973389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90249919891357</t>
+    <t xml:space="preserve">8.90250015258789</t>
   </si>
   <si>
     <t xml:space="preserve">9.15685653686523</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">9.3264274597168</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79274940490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83514308929443</t>
+    <t xml:space="preserve">9.79275035858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83514213562012</t>
   </si>
   <si>
     <t xml:space="preserve">9.61469841003418</t>
@@ -662,22 +662,22 @@
     <t xml:space="preserve">9.49599933624268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41121387481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36882019042969</t>
+    <t xml:space="preserve">9.41121482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.368821144104</t>
   </si>
   <si>
     <t xml:space="preserve">9.23316383361816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07207012176514</t>
+    <t xml:space="preserve">9.07207107543945</t>
   </si>
   <si>
     <t xml:space="preserve">9.30099296569824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28403568267822</t>
+    <t xml:space="preserve">9.28403472900391</t>
   </si>
   <si>
     <t xml:space="preserve">9.11446380615234</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">9.19924926757812</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12294101715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53839206695557</t>
+    <t xml:space="preserve">9.12294292449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53839302062988</t>
   </si>
   <si>
     <t xml:space="preserve">9.45360565185547</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">9.24164199829102</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16533660888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14837837219238</t>
+    <t xml:space="preserve">9.16533470153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14837741851807</t>
   </si>
   <si>
     <t xml:space="preserve">9.05511379241943</t>
@@ -713,28 +713,28 @@
     <t xml:space="preserve">8.96184921264648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89402103424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91097831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77532196044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86010646820068</t>
+    <t xml:space="preserve">8.89402008056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91097736358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7753210067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86010551452637</t>
   </si>
   <si>
     <t xml:space="preserve">9.17381381988525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40273475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41969203948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38577747344971</t>
+    <t xml:space="preserve">9.40273380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41969108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38577842712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.58078575134277</t>
@@ -743,31 +743,31 @@
     <t xml:space="preserve">9.44512844085693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64861297607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62317943572998</t>
+    <t xml:space="preserve">9.64861488342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62317752838135</t>
   </si>
   <si>
     <t xml:space="preserve">9.59774112701416</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9199275970459</t>
+    <t xml:space="preserve">9.91992855072021</t>
   </si>
   <si>
     <t xml:space="preserve">10.3014631271362</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4032068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3184213638306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4286432266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2590703964233</t>
+    <t xml:space="preserve">10.4032077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3184204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4286422729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2590713500977</t>
   </si>
   <si>
     <t xml:space="preserve">10.0725421905518</t>
@@ -776,16 +776,16 @@
     <t xml:space="preserve">10.004714012146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92840576171875</t>
+    <t xml:space="preserve">9.92840671539307</t>
   </si>
   <si>
     <t xml:space="preserve">10.2336339950562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4625568389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3692922592163</t>
+    <t xml:space="preserve">10.4625558853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.369291305542</t>
   </si>
   <si>
     <t xml:space="preserve">10.4795141220093</t>
@@ -794,25 +794,25 @@
     <t xml:space="preserve">10.1742839813232</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4371204376221</t>
+    <t xml:space="preserve">10.4371213912964</t>
   </si>
   <si>
     <t xml:space="preserve">10.3269004821777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4710350036621</t>
+    <t xml:space="preserve">10.4710359573364</t>
   </si>
   <si>
     <t xml:space="preserve">10.6575632095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9288778305054</t>
+    <t xml:space="preserve">10.9288787841797</t>
   </si>
   <si>
     <t xml:space="preserve">11.005184173584</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8525705337524</t>
+    <t xml:space="preserve">10.8525724411011</t>
   </si>
   <si>
     <t xml:space="preserve">10.6829986572266</t>
@@ -821,34 +821,34 @@
     <t xml:space="preserve">10.2166776657104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4540777206421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6999568939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2081985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5473413467407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7084350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7169132232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9797487258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0645351409912</t>
+    <t xml:space="preserve">10.4540786743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6999559402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2082004547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.547342300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7084360122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7169141769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9797506332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0645341873169</t>
   </si>
   <si>
     <t xml:space="preserve">11.1917133331299</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9712715148926</t>
+    <t xml:space="preserve">10.9712696075439</t>
   </si>
   <si>
     <t xml:space="preserve">10.674521446228</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">11.3188924789429</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0136632919312</t>
+    <t xml:space="preserve">11.0136623382568</t>
   </si>
   <si>
     <t xml:space="preserve">10.7338705062866</t>
@@ -881,49 +881,49 @@
     <t xml:space="preserve">10.9543132781982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1238842010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1408424377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6919498443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5393342971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5732488632202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5308570861816</t>
+    <t xml:space="preserve">11.1238851547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1408414840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.691948890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5393352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5732479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5308561325073</t>
   </si>
   <si>
     <t xml:space="preserve">11.1747560501099</t>
   </si>
   <si>
-    <t xml:space="preserve">11.25954246521</t>
+    <t xml:space="preserve">11.2595405578613</t>
   </si>
   <si>
     <t xml:space="preserve">11.3951988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3612852096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4460697174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6410779953003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8615207672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.785213470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8276052474976</t>
+    <t xml:space="preserve">11.3612861633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4460706710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6410760879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8615198135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7852125167847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8276062011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121561050415</t>
@@ -932,43 +932,43 @@
     <t xml:space="preserve">11.4969425201416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6156415939331</t>
+    <t xml:space="preserve">11.6156425476074</t>
   </si>
   <si>
     <t xml:space="preserve">10.9203987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1154069900513</t>
+    <t xml:space="preserve">11.115406036377</t>
   </si>
   <si>
     <t xml:space="preserve">10.513427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3353776931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.767786026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5558204650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5388641357422</t>
+    <t xml:space="preserve">10.3353786468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7677850723267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5558195114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5388631820679</t>
   </si>
   <si>
     <t xml:space="preserve">10.4964714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5642986297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7423496246338</t>
+    <t xml:space="preserve">10.5643005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7423486709595</t>
   </si>
   <si>
     <t xml:space="preserve">10.9458351135254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8440933227539</t>
+    <t xml:space="preserve">10.8440914154053</t>
   </si>
   <si>
     <t xml:space="preserve">10.640606880188</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">10.0979785919189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5303840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8356132507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1069278717041</t>
+    <t xml:space="preserve">10.530385017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8356142044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1069288253784</t>
   </si>
   <si>
     <t xml:space="preserve">11.4291124343872</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">11.2764987945557</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6834707260132</t>
+    <t xml:space="preserve">11.6834697723389</t>
   </si>
   <si>
     <t xml:space="preserve">11.7004280090332</t>
@@ -1004,25 +1004,25 @@
     <t xml:space="preserve">11.3782415390015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5138998031616</t>
+    <t xml:space="preserve">11.5138988494873</t>
   </si>
   <si>
     <t xml:space="preserve">11.5647706985474</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8699989318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6665143966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0899696350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8864850997925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8695278167725</t>
+    <t xml:space="preserve">11.8699998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6665134429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0899705886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8864841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8695268630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.8186569213867</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">10.8016996383667</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9034404754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2421140670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3777704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6151714324951</t>
+    <t xml:space="preserve">10.9034414291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2421131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3777694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6151704788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.1912422180176</t>
@@ -1055,34 +1055,34 @@
     <t xml:space="preserve">10.3438558578491</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1064567565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88601303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69948482513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36034202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6316556930542</t>
+    <t xml:space="preserve">10.1064558029175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88601207733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69948577880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5129566192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36034297943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63165664672852</t>
   </si>
   <si>
     <t xml:space="preserve">9.76731395721436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73339939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7164421081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37730026245117</t>
+    <t xml:space="preserve">9.7333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71644306182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37729930877686</t>
   </si>
   <si>
     <t xml:space="preserve">9.27555561065674</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">9.224684715271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47904300689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56382846832275</t>
+    <t xml:space="preserve">9.47904205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56382751464844</t>
   </si>
   <si>
     <t xml:space="preserve">9.68252849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81818389892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1234130859375</t>
+    <t xml:space="preserve">9.8181848526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1234121322632</t>
   </si>
   <si>
     <t xml:space="preserve">10.2929859161377</t>
@@ -1121,37 +1121,37 @@
     <t xml:space="preserve">9.39425659179688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29251289367676</t>
+    <t xml:space="preserve">9.29251384735107</t>
   </si>
   <si>
     <t xml:space="preserve">9.19077205657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02120018005371</t>
+    <t xml:space="preserve">9.02119922637939</t>
   </si>
   <si>
     <t xml:space="preserve">9.66557025909424</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08902835845947</t>
+    <t xml:space="preserve">9.08902740478516</t>
   </si>
   <si>
     <t xml:space="preserve">8.7498836517334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51248550415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49552917480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42769813537598</t>
+    <t xml:space="preserve">8.51248455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49552822113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42770004272461</t>
   </si>
   <si>
     <t xml:space="preserve">8.32595634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05464172363281</t>
+    <t xml:space="preserve">8.05464267730713</t>
   </si>
   <si>
     <t xml:space="preserve">7.92746448516846</t>
@@ -1163,22 +1163,22 @@
     <t xml:space="preserve">8.37682819366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56335639953613</t>
+    <t xml:space="preserve">8.56335735321045</t>
   </si>
   <si>
     <t xml:space="preserve">8.59727096557617</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03815650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8516263961792</t>
+    <t xml:space="preserve">9.0381555557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85162734985352</t>
   </si>
   <si>
     <t xml:space="preserve">8.71597099304199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78379821777344</t>
+    <t xml:space="preserve">8.78379917144775</t>
   </si>
   <si>
     <t xml:space="preserve">8.64814281463623</t>
@@ -1190,7 +1190,7 @@
     <t xml:space="preserve">8.63118553161621</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47857093811035</t>
+    <t xml:space="preserve">8.47856998443604</t>
   </si>
   <si>
     <t xml:space="preserve">8.52944278717041</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">8.41922092437744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33443450927734</t>
+    <t xml:space="preserve">8.33443355560303</t>
   </si>
   <si>
     <t xml:space="preserve">8.39378452301025</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">8.24117088317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95289993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73245716094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69854259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51201295852661</t>
+    <t xml:space="preserve">7.95289897918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73245573043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69854164123535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51201343536377</t>
   </si>
   <si>
     <t xml:space="preserve">7.30852794647217</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18135023117065</t>
+    <t xml:space="preserve">7.18134880065918</t>
   </si>
   <si>
     <t xml:space="preserve">7.12199926376343</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">6.96938562393188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87612009048462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3339638710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30004835128784</t>
+    <t xml:space="preserve">6.87612056732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33396339416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.300048828125</t>
   </si>
   <si>
     <t xml:space="preserve">7.06264925003052</t>
@@ -1250,28 +1250,28 @@
     <t xml:space="preserve">7.01177883148193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99482154846191</t>
+    <t xml:space="preserve">6.99482107162476</t>
   </si>
   <si>
     <t xml:space="preserve">7.09656381607056</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13895702362061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39331340789795</t>
+    <t xml:space="preserve">7.13895750045776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39331388473511</t>
   </si>
   <si>
     <t xml:space="preserve">7.36787796020508</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37635612487793</t>
+    <t xml:space="preserve">7.37635660171509</t>
   </si>
   <si>
     <t xml:space="preserve">7.80028533935547</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69006299972534</t>
+    <t xml:space="preserve">7.6900634765625</t>
   </si>
   <si>
     <t xml:space="preserve">8.13942909240723</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">8.11399173736572</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85115671157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78332805633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35092163085938</t>
+    <t xml:space="preserve">7.85115718841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35092067718506</t>
   </si>
   <si>
     <t xml:space="preserve">7.43570709228516</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">6.92699241638184</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82524967193604</t>
+    <t xml:space="preserve">6.82525014877319</t>
   </si>
   <si>
     <t xml:space="preserve">6.57089281082153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49458456039429</t>
+    <t xml:space="preserve">6.4945855140686</t>
   </si>
   <si>
     <t xml:space="preserve">6.30805683135986</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27414274215698</t>
+    <t xml:space="preserve">6.27414226531982</t>
   </si>
   <si>
     <t xml:space="preserve">6.24022817611694</t>
@@ -1325,13 +1325,13 @@
     <t xml:space="preserve">6.69807100296021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93547105789185</t>
+    <t xml:space="preserve">6.935471534729</t>
   </si>
   <si>
     <t xml:space="preserve">6.63024234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52002143859863</t>
+    <t xml:space="preserve">6.52002048492432</t>
   </si>
   <si>
     <t xml:space="preserve">6.33349227905273</t>
@@ -1343,10 +1343,10 @@
     <t xml:space="preserve">6.41827821731567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86764240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24069976806641</t>
+    <t xml:space="preserve">6.86764287948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24069929122925</t>
   </si>
   <si>
     <t xml:space="preserve">6.85916376113892</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">6.72350645065308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64720010757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68111371994019</t>
+    <t xml:space="preserve">6.6471996307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68111419677734</t>
   </si>
   <si>
     <t xml:space="preserve">6.67263507843018</t>
@@ -1367,16 +1367,16 @@
     <t xml:space="preserve">6.62176370620728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56241416931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37588548660278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26566410064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32501411437988</t>
+    <t xml:space="preserve">6.56241369247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37588500976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26566314697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32501363754272</t>
   </si>
   <si>
     <t xml:space="preserve">6.44371366500854</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">6.38436412811279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34197044372559</t>
+    <t xml:space="preserve">6.34197092056274</t>
   </si>
   <si>
     <t xml:space="preserve">6.5963282585144</t>
@@ -1397,31 +1397,31 @@
     <t xml:space="preserve">6.57937097549438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74894285202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88459920883179</t>
+    <t xml:space="preserve">6.74894237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88459968566895</t>
   </si>
   <si>
     <t xml:space="preserve">7.19830656051636</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29157161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15591382980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13047742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0372142791748</t>
+    <t xml:space="preserve">7.29157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15591287612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13047790527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03721380233765</t>
   </si>
   <si>
     <t xml:space="preserve">7.05417108535767</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090602874756</t>
+    <t xml:space="preserve">6.96090650558472</t>
   </si>
   <si>
     <t xml:space="preserve">6.79133558273315</t>
@@ -1433,25 +1433,25 @@
     <t xml:space="preserve">6.46914958953857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.291100025177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45219278335571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40979957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23174905776978</t>
+    <t xml:space="preserve">6.29109954833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45219230651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40979909896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23174953460693</t>
   </si>
   <si>
     <t xml:space="preserve">6.02826404571533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01130676269531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96891355514526</t>
+    <t xml:space="preserve">6.01130628585815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96891450881958</t>
   </si>
   <si>
     <t xml:space="preserve">6.155442237854</t>
@@ -1460,10 +1460,10 @@
     <t xml:space="preserve">6.18087816238403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40132141113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58120107650757</t>
+    <t xml:space="preserve">6.40132093429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58120155334473</t>
   </si>
   <si>
     <t xml:space="preserve">6.40640115737915</t>
@@ -1472,28 +1472,28 @@
     <t xml:space="preserve">6.39766120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42388105392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2490816116333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08302211761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12672233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16168212890625</t>
+    <t xml:space="preserve">6.4238805770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24908208847046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0830225944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12672185897827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16168165206909</t>
   </si>
   <si>
     <t xml:space="preserve">6.38018178939819</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35396146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34522104263306</t>
+    <t xml:space="preserve">6.35396099090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34522199630737</t>
   </si>
   <si>
     <t xml:space="preserve">6.33648157119751</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">6.28404188156128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24034214019775</t>
+    <t xml:space="preserve">6.2403416633606</t>
   </si>
   <si>
     <t xml:space="preserve">6.20538139343262</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">6.50254106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45010089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25782155990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37144088745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29278182983398</t>
+    <t xml:space="preserve">6.45010137557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25782108306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37144136428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29278135299683</t>
   </si>
   <si>
     <t xml:space="preserve">6.3190016746521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41514110565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3277416229248</t>
+    <t xml:space="preserve">6.41514158248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32774114608765</t>
   </si>
   <si>
     <t xml:space="preserve">6.27530145645142</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">6.10924196243286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19664144515991</t>
+    <t xml:space="preserve">6.19664192199707</t>
   </si>
   <si>
     <t xml:space="preserve">6.23160171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03058242797852</t>
+    <t xml:space="preserve">6.03058195114136</t>
   </si>
   <si>
     <t xml:space="preserve">5.97814226150513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98688220977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9956226348877</t>
+    <t xml:space="preserve">5.98688268661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99562215805054</t>
   </si>
   <si>
     <t xml:space="preserve">6.14420223236084</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">6.10050201416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02184247970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96940231323242</t>
+    <t xml:space="preserve">6.02184200286865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96940183639526</t>
   </si>
   <si>
     <t xml:space="preserve">6.01310253143311</t>
@@ -1577,19 +1577,19 @@
     <t xml:space="preserve">6.17916202545166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03932237625122</t>
+    <t xml:space="preserve">6.03932189941406</t>
   </si>
   <si>
     <t xml:space="preserve">6.18790197372437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07428216934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15294170379639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06554222106934</t>
+    <t xml:space="preserve">6.07428169250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15294218063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06554174423218</t>
   </si>
   <si>
     <t xml:space="preserve">6.31026124954224</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">5.96066236495972</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94318294525146</t>
+    <t xml:space="preserve">5.94318246841431</t>
   </si>
   <si>
     <t xml:space="preserve">5.9344425201416</t>
@@ -1631,34 +1631,34 @@
     <t xml:space="preserve">6.52876091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53750038146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46758079528809</t>
+    <t xml:space="preserve">6.53750133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46758127212524</t>
   </si>
   <si>
     <t xml:space="preserve">6.66860055923462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64238023757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70355987548828</t>
+    <t xml:space="preserve">6.6423807144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70356035232544</t>
   </si>
   <si>
     <t xml:space="preserve">6.8870997428894</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86087989807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84339952468872</t>
+    <t xml:space="preserve">6.86087942123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84340000152588</t>
   </si>
   <si>
     <t xml:space="preserve">6.77348041534424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89583921432495</t>
+    <t xml:space="preserve">6.89583969116211</t>
   </si>
   <si>
     <t xml:space="preserve">6.99197959899902</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">7.2716588973999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42897844314575</t>
+    <t xml:space="preserve">7.42897796630859</t>
   </si>
   <si>
     <t xml:space="preserve">7.58629751205444</t>
@@ -1682,19 +1682,19 @@
     <t xml:space="preserve">7.55133819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60377740859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49015760421753</t>
+    <t xml:space="preserve">7.6037769317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49015808105469</t>
   </si>
   <si>
     <t xml:space="preserve">7.53385782241821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64747762680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62999725341797</t>
+    <t xml:space="preserve">7.6474781036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62999677658081</t>
   </si>
   <si>
     <t xml:space="preserve">7.54259824752808</t>
@@ -1703,25 +1703,25 @@
     <t xml:space="preserve">7.51637840270996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57755851745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56881809234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39401817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70865678787231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76983737945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78731727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84849691390991</t>
+    <t xml:space="preserve">7.5775580406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56881761550903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39401865005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70865726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76983785629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78731632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84849643707275</t>
   </si>
   <si>
     <t xml:space="preserve">7.85723638534546</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">7.76109743118286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73487758636475</t>
+    <t xml:space="preserve">7.7348780632019</t>
   </si>
   <si>
     <t xml:space="preserve">7.52511692047119</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">7.5076379776001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36779832839966</t>
+    <t xml:space="preserve">7.36779928207397</t>
   </si>
   <si>
     <t xml:space="preserve">7.18425941467285</t>
@@ -1754,16 +1754,16 @@
     <t xml:space="preserve">6.98323917388916</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75600004196167</t>
+    <t xml:space="preserve">6.75599956512451</t>
   </si>
   <si>
     <t xml:space="preserve">6.68608045578003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49380111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44136047363281</t>
+    <t xml:space="preserve">6.4938006401062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44136142730713</t>
   </si>
   <si>
     <t xml:space="preserve">6.62490081787109</t>
@@ -1772,34 +1772,34 @@
     <t xml:space="preserve">6.59868097305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81718015670776</t>
+    <t xml:space="preserve">6.81717967987061</t>
   </si>
   <si>
     <t xml:space="preserve">6.79970026016235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72104072570801</t>
+    <t xml:space="preserve">6.72104024887085</t>
   </si>
   <si>
     <t xml:space="preserve">6.65986013412476</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83830261230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84704351425171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78586292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45374345779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20028448104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63218688964844</t>
+    <t xml:space="preserve">5.83830308914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84704303741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78586339950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45374393463135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20028495788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63218641281128</t>
   </si>
   <si>
     <t xml:space="preserve">4.64092636108398</t>
@@ -1808,40 +1808,40 @@
     <t xml:space="preserve">4.36998701095581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36561727523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.45738744735718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1645975112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96357774734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89365863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84995913505554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78877925872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85432839393616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90239882469177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89802861213684</t>
+    <t xml:space="preserve">4.36561679840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.45738697052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16459798812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96357822418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89365816116333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84995889663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78877902030945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85432863235474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90239858627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89802837371826</t>
   </si>
   <si>
     <t xml:space="preserve">3.67078924179077</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71885895729065</t>
+    <t xml:space="preserve">3.71885943412781</t>
   </si>
   <si>
     <t xml:space="preserve">3.77566909790039</t>
@@ -1850,16 +1850,16 @@
     <t xml:space="preserve">3.72322940826416</t>
   </si>
   <si>
-    <t xml:space="preserve">3.66204953193665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70574903488159</t>
+    <t xml:space="preserve">3.66204929351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70574879646301</t>
   </si>
   <si>
     <t xml:space="preserve">3.75818920135498</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02038812637329</t>
+    <t xml:space="preserve">4.02038860321045</t>
   </si>
   <si>
     <t xml:space="preserve">4.01164817810059</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">4.54478645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89438581466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15658521652222</t>
+    <t xml:space="preserve">4.89438533782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15658473968506</t>
   </si>
   <si>
     <t xml:space="preserve">5.03422546386719</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">4.82446575164795</t>
   </si>
   <si>
-    <t xml:space="preserve">4.64966678619385</t>
+    <t xml:space="preserve">4.64966630935669</t>
   </si>
   <si>
     <t xml:space="preserve">4.71335983276367</t>
@@ -1910,19 +1910,19 @@
     <t xml:space="preserve">4.60417032241821</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54957580566406</t>
+    <t xml:space="preserve">4.5495753288269</t>
   </si>
   <si>
     <t xml:space="preserve">4.80435180664062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73155832290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78615427017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76795482635498</t>
+    <t xml:space="preserve">4.73155879974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78615379333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76795530319214</t>
   </si>
   <si>
     <t xml:space="preserve">4.87714529037476</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">6.06003427505493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67786979675293</t>
+    <t xml:space="preserve">5.67787027359009</t>
   </si>
   <si>
     <t xml:space="preserve">5.62327527999878</t>
@@ -1967,34 +1967,34 @@
     <t xml:space="preserve">5.55048179626465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53228425979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56868028640747</t>
+    <t xml:space="preserve">5.53228378295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56868076324463</t>
   </si>
   <si>
     <t xml:space="preserve">5.38669776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35030078887939</t>
+    <t xml:space="preserve">5.35030031204224</t>
   </si>
   <si>
     <t xml:space="preserve">5.47768878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51408576965332</t>
+    <t xml:space="preserve">5.51408529281616</t>
   </si>
   <si>
     <t xml:space="preserve">5.6414737701416</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45949029922485</t>
+    <t xml:space="preserve">5.45949077606201</t>
   </si>
   <si>
     <t xml:space="preserve">5.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42309379577637</t>
+    <t xml:space="preserve">5.42309427261353</t>
   </si>
   <si>
     <t xml:space="preserve">5.1683177947998</t>
@@ -2003,10 +2003,10 @@
     <t xml:space="preserve">5.09552478790283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20471382141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18651580810547</t>
+    <t xml:space="preserve">5.20471429824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.18651628494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.36849927902222</t>
@@ -2033,28 +2033,28 @@
     <t xml:space="preserve">5.00453281402588</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13192129135132</t>
+    <t xml:space="preserve">5.13192081451416</t>
   </si>
   <si>
     <t xml:space="preserve">5.05912780761719</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98633480072021</t>
+    <t xml:space="preserve">4.98633527755737</t>
   </si>
   <si>
     <t xml:space="preserve">5.07732629776001</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04093027114868</t>
+    <t xml:space="preserve">5.04092979431152</t>
   </si>
   <si>
     <t xml:space="preserve">5.4958872795105</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22291231155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27750825881958</t>
+    <t xml:space="preserve">5.22291278839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27750778198242</t>
   </si>
   <si>
     <t xml:space="preserve">4.322096824646</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">4.33119630813599</t>
   </si>
   <si>
-    <t xml:space="preserve">4.89534330368042</t>
+    <t xml:space="preserve">4.89534282684326</t>
   </si>
   <si>
     <t xml:space="preserve">5.24111127853394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44129228591919</t>
+    <t xml:space="preserve">5.44129276275635</t>
   </si>
   <si>
     <t xml:space="preserve">5.60507678985596</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">6.11462926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24201774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16922473907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27841472625732</t>
+    <t xml:space="preserve">6.24201822280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16922426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27841424942017</t>
   </si>
   <si>
     <t xml:space="preserve">6.00543975830078</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">6.36940574645996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4603967666626</t>
+    <t xml:space="preserve">6.46039724349976</t>
   </si>
   <si>
     <t xml:space="preserve">6.60598373413086</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42400026321411</t>
+    <t xml:space="preserve">6.42400074005127</t>
   </si>
   <si>
     <t xml:space="preserve">6.55138874053955</t>
@@ -2144,22 +2144,22 @@
     <t xml:space="preserve">6.96994924545288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95175123214722</t>
+    <t xml:space="preserve">6.95175170898438</t>
   </si>
   <si>
     <t xml:space="preserve">7.26112270355225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93355274200439</t>
+    <t xml:space="preserve">6.93355321884155</t>
   </si>
   <si>
     <t xml:space="preserve">6.80616474151611</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76976871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71517324447632</t>
+    <t xml:space="preserve">6.76976823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71517372131348</t>
   </si>
   <si>
     <t xml:space="preserve">6.87895822525024</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">6.73337173461914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67877674102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98814821243286</t>
+    <t xml:space="preserve">6.67877721786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9881477355957</t>
   </si>
   <si>
     <t xml:space="preserve">6.89715671539307</t>
@@ -2186,16 +2186,16 @@
     <t xml:space="preserve">7.11553621292114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17013072967529</t>
+    <t xml:space="preserve">7.17013120651245</t>
   </si>
   <si>
     <t xml:space="preserve">7.18832921981812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02454471588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00634622573853</t>
+    <t xml:space="preserve">7.02454423904419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00634574890137</t>
   </si>
   <si>
     <t xml:space="preserve">7.09733819961548</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">7.07913970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06094121932983</t>
+    <t xml:space="preserve">7.06094169616699</t>
   </si>
   <si>
     <t xml:space="preserve">6.91535472869873</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">7.27932119369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29751968383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24292469024658</t>
+    <t xml:space="preserve">7.29752016067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24292421340942</t>
   </si>
   <si>
     <t xml:space="preserve">7.15193319320679</t>
@@ -2237,22 +2237,22 @@
     <t xml:space="preserve">8.13464069366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09824466705322</t>
+    <t xml:space="preserve">8.09824371337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.11644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97085666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98905372619629</t>
+    <t xml:space="preserve">7.9708571434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98905420303345</t>
   </si>
   <si>
     <t xml:space="preserve">7.82527017593384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87986516952515</t>
+    <t xml:space="preserve">7.87986469268799</t>
   </si>
   <si>
     <t xml:space="preserve">8.04364967346191</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">7.86166715621948</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78887367248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9344596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95265769958496</t>
+    <t xml:space="preserve">7.78887319564819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93446016311646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95265817642212</t>
   </si>
   <si>
     <t xml:space="preserve">8.14737796783447</t>
@@ -59868,6 +59868,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.2916666667</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>16.4500007629395</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
